--- a/src/test/resources/testCases/helpsToolDropdownTC.xlsx
+++ b/src/test/resources/testCases/helpsToolDropdownTC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\eclipse-workspace1\helpsToolDropdown\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904362B3-9590-43DC-A0E2-3F8A90A23BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EA4AC8-975E-480E-890A-0B237A0B6270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testCase" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="630">
   <si>
     <t>ObjectType</t>
   </si>
@@ -468,9 +468,6 @@
     <t>AT009</t>
   </si>
   <si>
-    <t>AT010</t>
-  </si>
-  <si>
     <t>Click Cognitive Skills for Daily Decision Making Dropdown</t>
   </si>
   <si>
@@ -1921,6 +1918,12 @@
   </si>
   <si>
     <t>//select[@id='toiletingOptions']</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'Final Recommendation ')]</t>
+  </si>
+  <si>
+    <t>Click Final Recommendation Menu</t>
   </si>
 </sst>
 </file>
@@ -2084,7 +2087,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2186,9 +2189,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2200,6 +2200,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2213,26 +2237,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2925,7 +2937,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>51</v>
@@ -2936,7 +2948,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>50</v>
@@ -2947,7 +2959,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>52</v>
@@ -2958,7 +2970,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>53</v>
@@ -2969,7 +2981,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>54</v>
@@ -2980,7 +2992,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>55</v>
@@ -2991,7 +3003,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>56</v>
@@ -3002,7 +3014,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
@@ -3026,10 +3038,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2306BF6-5C33-4ED3-B4E3-3A93DAE93B44}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3041,7 +3053,7 @@
     <col min="5" max="6" width="8.7265625" style="21"/>
     <col min="7" max="7" width="31.81640625" style="21" customWidth="1"/>
     <col min="8" max="8" width="8.7265625" style="21"/>
-    <col min="9" max="9" width="47.90625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="72" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -3073,69 +3085,66 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="37" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="22" t="s">
+      <c r="C2" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>628</v>
+      </c>
+      <c r="H2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>16</v>
@@ -3147,76 +3156,76 @@
         <v>18</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="18" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>16</v>
@@ -3228,25 +3237,25 @@
         <v>18</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H7" s="22" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="18" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>17</v>
@@ -3255,23 +3264,25 @@
         <v>18</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I8" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="18" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>17</v>
@@ -3280,7 +3291,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>6</v>
@@ -3291,9 +3302,9 @@
       <c r="A10" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="18" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>16</v>
@@ -3305,41 +3316,20 @@
         <v>18</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>6</v>
       </c>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="18"/>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3347,7 +3337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407B753E-D1E8-46BC-BF70-35AA7CA269EC}">
   <dimension ref="A1:J203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H174" sqref="H174"/>
     </sheetView>
   </sheetViews>
@@ -3373,7 +3363,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>75</v>
@@ -3399,16 +3389,16 @@
     </row>
     <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="B2" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>92</v>
@@ -3427,12 +3417,12 @@
     </row>
     <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="51"/>
+        <v>175</v>
+      </c>
+      <c r="B3" s="45"/>
       <c r="C3" s="47"/>
       <c r="D3" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>133</v>
@@ -3444,19 +3434,19 @@
         <v>18</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="51"/>
+        <v>176</v>
+      </c>
+      <c r="B4" s="45"/>
       <c r="C4" s="47"/>
       <c r="D4" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>133</v>
@@ -3468,19 +3458,19 @@
         <v>18</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="51"/>
+        <v>177</v>
+      </c>
+      <c r="B5" s="45"/>
       <c r="C5" s="47"/>
       <c r="D5" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>133</v>
@@ -3492,19 +3482,19 @@
         <v>18</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="51"/>
+        <v>178</v>
+      </c>
+      <c r="B6" s="45"/>
       <c r="C6" s="47"/>
       <c r="D6" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>133</v>
@@ -3516,19 +3506,19 @@
         <v>18</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="51"/>
+        <v>179</v>
+      </c>
+      <c r="B7" s="45"/>
       <c r="C7" s="47"/>
-      <c r="D7" s="53" t="s">
-        <v>387</v>
+      <c r="D7" s="43" t="s">
+        <v>386</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>133</v>
@@ -3540,19 +3530,19 @@
         <v>18</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="51"/>
+        <v>180</v>
+      </c>
+      <c r="B8" s="45"/>
       <c r="C8" s="47"/>
       <c r="D8" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>133</v>
@@ -3564,19 +3554,19 @@
         <v>18</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="51"/>
+        <v>181</v>
+      </c>
+      <c r="B9" s="45"/>
       <c r="C9" s="47"/>
       <c r="D9" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>133</v>
@@ -3588,21 +3578,21 @@
         <v>18</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="B10" s="51"/>
+        <v>419</v>
+      </c>
+      <c r="B10" s="45"/>
       <c r="C10" s="47" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>92</v>
@@ -3621,12 +3611,12 @@
     </row>
     <row r="11" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="51"/>
+        <v>182</v>
+      </c>
+      <c r="B11" s="45"/>
       <c r="C11" s="47"/>
       <c r="D11" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>133</v>
@@ -3638,19 +3628,19 @@
         <v>18</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" s="51"/>
+        <v>183</v>
+      </c>
+      <c r="B12" s="45"/>
       <c r="C12" s="47"/>
       <c r="D12" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>133</v>
@@ -3662,19 +3652,19 @@
         <v>18</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" s="51"/>
+        <v>184</v>
+      </c>
+      <c r="B13" s="45"/>
       <c r="C13" s="47"/>
       <c r="D13" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>133</v>
@@ -3686,19 +3676,19 @@
         <v>18</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" s="51"/>
+        <v>185</v>
+      </c>
+      <c r="B14" s="45"/>
       <c r="C14" s="47"/>
       <c r="D14" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>133</v>
@@ -3710,19 +3700,19 @@
         <v>18</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="B15" s="51"/>
+        <v>186</v>
+      </c>
+      <c r="B15" s="45"/>
       <c r="C15" s="47"/>
       <c r="D15" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>133</v>
@@ -3734,21 +3724,21 @@
         <v>18</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="B16" s="51"/>
+        <v>420</v>
+      </c>
+      <c r="B16" s="45"/>
       <c r="C16" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>92</v>
@@ -3767,12 +3757,12 @@
     </row>
     <row r="17" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="B17" s="51"/>
+        <v>187</v>
+      </c>
+      <c r="B17" s="45"/>
       <c r="C17" s="47"/>
       <c r="D17" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>133</v>
@@ -3784,19 +3774,19 @@
         <v>18</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="B18" s="51"/>
+        <v>188</v>
+      </c>
+      <c r="B18" s="45"/>
       <c r="C18" s="47"/>
       <c r="D18" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E18" s="26" t="s">
         <v>133</v>
@@ -3808,19 +3798,19 @@
         <v>18</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
     </row>
     <row r="19" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="51"/>
+        <v>189</v>
+      </c>
+      <c r="B19" s="45"/>
       <c r="C19" s="47"/>
       <c r="D19" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>133</v>
@@ -3832,19 +3822,19 @@
         <v>18</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
     </row>
     <row r="20" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="B20" s="51"/>
+        <v>190</v>
+      </c>
+      <c r="B20" s="45"/>
       <c r="C20" s="47"/>
       <c r="D20" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>133</v>
@@ -3856,19 +3846,19 @@
         <v>18</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="B21" s="51"/>
+        <v>191</v>
+      </c>
+      <c r="B21" s="45"/>
       <c r="C21" s="47"/>
       <c r="D21" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>133</v>
@@ -3880,21 +3870,21 @@
         <v>18</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="B22" s="51"/>
+        <v>421</v>
+      </c>
+      <c r="B22" s="45"/>
       <c r="C22" s="47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E22" s="26" t="s">
         <v>92</v>
@@ -3913,12 +3903,12 @@
     </row>
     <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" s="51"/>
+        <v>192</v>
+      </c>
+      <c r="B23" s="45"/>
       <c r="C23" s="47"/>
       <c r="D23" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E23" s="26" t="s">
         <v>133</v>
@@ -3930,19 +3920,19 @@
         <v>18</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
     </row>
     <row r="24" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" s="51"/>
+        <v>193</v>
+      </c>
+      <c r="B24" s="45"/>
       <c r="C24" s="47"/>
       <c r="D24" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E24" s="26" t="s">
         <v>133</v>
@@ -3954,19 +3944,19 @@
         <v>18</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
     </row>
     <row r="25" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25" s="51"/>
+        <v>194</v>
+      </c>
+      <c r="B25" s="45"/>
       <c r="C25" s="47"/>
       <c r="D25" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E25" s="26" t="s">
         <v>133</v>
@@ -3978,19 +3968,19 @@
         <v>18</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
     </row>
     <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="B26" s="51"/>
+        <v>195</v>
+      </c>
+      <c r="B26" s="45"/>
       <c r="C26" s="47"/>
       <c r="D26" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>133</v>
@@ -4002,19 +3992,19 @@
         <v>18</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
     </row>
     <row r="27" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="B27" s="51"/>
+        <v>196</v>
+      </c>
+      <c r="B27" s="45"/>
       <c r="C27" s="47"/>
       <c r="D27" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>133</v>
@@ -4026,21 +4016,21 @@
         <v>18</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="B28" s="51"/>
+        <v>422</v>
+      </c>
+      <c r="B28" s="45"/>
       <c r="C28" s="47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>92</v>
@@ -4059,12 +4049,12 @@
     </row>
     <row r="29" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="B29" s="51"/>
+        <v>197</v>
+      </c>
+      <c r="B29" s="45"/>
       <c r="C29" s="47"/>
       <c r="D29" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E29" s="26" t="s">
         <v>133</v>
@@ -4076,19 +4066,19 @@
         <v>18</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
     </row>
     <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="B30" s="51"/>
+        <v>198</v>
+      </c>
+      <c r="B30" s="45"/>
       <c r="C30" s="47"/>
       <c r="D30" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>133</v>
@@ -4100,19 +4090,19 @@
         <v>18</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="B31" s="51"/>
+        <v>199</v>
+      </c>
+      <c r="B31" s="45"/>
       <c r="C31" s="47"/>
       <c r="D31" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>133</v>
@@ -4124,19 +4114,19 @@
         <v>18</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="B32" s="51"/>
+        <v>200</v>
+      </c>
+      <c r="B32" s="45"/>
       <c r="C32" s="47"/>
       <c r="D32" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>133</v>
@@ -4148,19 +4138,19 @@
         <v>18</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" s="51"/>
+        <v>201</v>
+      </c>
+      <c r="B33" s="45"/>
       <c r="C33" s="47"/>
       <c r="D33" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>133</v>
@@ -4172,21 +4162,21 @@
         <v>18</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="B34" s="51"/>
+        <v>423</v>
+      </c>
+      <c r="B34" s="45"/>
       <c r="C34" s="47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>92</v>
@@ -4205,12 +4195,12 @@
     </row>
     <row r="35" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="B35" s="51"/>
+        <v>216</v>
+      </c>
+      <c r="B35" s="45"/>
       <c r="C35" s="47"/>
       <c r="D35" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>133</v>
@@ -4222,19 +4212,19 @@
         <v>18</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="B36" s="51"/>
+        <v>217</v>
+      </c>
+      <c r="B36" s="45"/>
       <c r="C36" s="47"/>
       <c r="D36" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E36" s="26" t="s">
         <v>133</v>
@@ -4246,19 +4236,19 @@
         <v>18</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I36" s="26"/>
       <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="B37" s="51"/>
+        <v>218</v>
+      </c>
+      <c r="B37" s="45"/>
       <c r="C37" s="47"/>
       <c r="D37" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E37" s="26" t="s">
         <v>133</v>
@@ -4270,19 +4260,19 @@
         <v>18</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I37" s="26"/>
       <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="B38" s="51"/>
+        <v>219</v>
+      </c>
+      <c r="B38" s="45"/>
       <c r="C38" s="47"/>
       <c r="D38" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E38" s="26" t="s">
         <v>133</v>
@@ -4294,19 +4284,19 @@
         <v>18</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B39" s="51"/>
+        <v>220</v>
+      </c>
+      <c r="B39" s="45"/>
       <c r="C39" s="47"/>
       <c r="D39" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E39" s="26" t="s">
         <v>133</v>
@@ -4318,21 +4308,21 @@
         <v>18</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I39" s="30"/>
       <c r="J39" s="30"/>
     </row>
     <row r="40" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
-        <v>425</v>
-      </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="46" t="s">
-        <v>209</v>
+        <v>424</v>
+      </c>
+      <c r="B40" s="45"/>
+      <c r="C40" s="53" t="s">
+        <v>208</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>92</v>
@@ -4351,12 +4341,12 @@
     </row>
     <row r="41" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="B41" s="51"/>
-      <c r="C41" s="46"/>
+        <v>221</v>
+      </c>
+      <c r="B41" s="45"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E41" s="26" t="s">
         <v>133</v>
@@ -4368,19 +4358,19 @@
         <v>18</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I41" s="30"/>
       <c r="J41" s="30"/>
     </row>
     <row r="42" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="46"/>
+        <v>222</v>
+      </c>
+      <c r="B42" s="45"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E42" s="26" t="s">
         <v>133</v>
@@ -4392,19 +4382,19 @@
         <v>18</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
     </row>
     <row r="43" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="46"/>
+        <v>223</v>
+      </c>
+      <c r="B43" s="45"/>
+      <c r="C43" s="53"/>
       <c r="D43" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E43" s="26" t="s">
         <v>133</v>
@@ -4416,19 +4406,19 @@
         <v>18</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I43" s="30"/>
       <c r="J43" s="30"/>
     </row>
     <row r="44" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="46"/>
+        <v>224</v>
+      </c>
+      <c r="B44" s="45"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>133</v>
@@ -4440,19 +4430,19 @@
         <v>18</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I44" s="30"/>
       <c r="J44" s="30"/>
     </row>
     <row r="45" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="46"/>
+        <v>225</v>
+      </c>
+      <c r="B45" s="45"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>133</v>
@@ -4464,21 +4454,21 @@
         <v>18</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
     <row r="46" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="43" t="s">
-        <v>210</v>
+        <v>425</v>
+      </c>
+      <c r="B46" s="45"/>
+      <c r="C46" s="50" t="s">
+        <v>209</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E46" s="26" t="s">
         <v>92</v>
@@ -4497,12 +4487,12 @@
     </row>
     <row r="47" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="B47" s="51"/>
-      <c r="C47" s="44"/>
+        <v>227</v>
+      </c>
+      <c r="B47" s="45"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E47" s="26" t="s">
         <v>133</v>
@@ -4514,19 +4504,19 @@
         <v>18</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
     <row r="48" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="44"/>
+        <v>228</v>
+      </c>
+      <c r="B48" s="45"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E48" s="26" t="s">
         <v>133</v>
@@ -4538,19 +4528,19 @@
         <v>18</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I48" s="30"/>
       <c r="J48" s="30"/>
     </row>
     <row r="49" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="B49" s="51"/>
-      <c r="C49" s="44"/>
+        <v>229</v>
+      </c>
+      <c r="B49" s="45"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E49" s="26" t="s">
         <v>133</v>
@@ -4562,19 +4552,19 @@
         <v>18</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I49" s="30"/>
       <c r="J49" s="30"/>
     </row>
     <row r="50" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="B50" s="51"/>
-      <c r="C50" s="44"/>
+        <v>230</v>
+      </c>
+      <c r="B50" s="45"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E50" s="26" t="s">
         <v>133</v>
@@ -4586,19 +4576,19 @@
         <v>18</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I50" s="30"/>
       <c r="J50" s="30"/>
     </row>
     <row r="51" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="45"/>
+        <v>231</v>
+      </c>
+      <c r="B51" s="45"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E51" s="26" t="s">
         <v>133</v>
@@ -4610,21 +4600,21 @@
         <v>18</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I51" s="26"/>
       <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="46" t="s">
-        <v>211</v>
+        <v>426</v>
+      </c>
+      <c r="B52" s="45"/>
+      <c r="C52" s="53" t="s">
+        <v>210</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E52" s="26" t="s">
         <v>92</v>
@@ -4643,12 +4633,12 @@
     </row>
     <row r="53" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="B53" s="51"/>
-      <c r="C53" s="46"/>
+        <v>226</v>
+      </c>
+      <c r="B53" s="45"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E53" s="26" t="s">
         <v>133</v>
@@ -4660,19 +4650,19 @@
         <v>18</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I53" s="29"/>
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="B54" s="51"/>
-      <c r="C54" s="46"/>
+        <v>232</v>
+      </c>
+      <c r="B54" s="45"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E54" s="26" t="s">
         <v>133</v>
@@ -4684,19 +4674,19 @@
         <v>18</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I54" s="29"/>
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="B55" s="51"/>
-      <c r="C55" s="46"/>
+        <v>233</v>
+      </c>
+      <c r="B55" s="45"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E55" s="26" t="s">
         <v>133</v>
@@ -4708,19 +4698,19 @@
         <v>18</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I55" s="29"/>
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="46"/>
+        <v>234</v>
+      </c>
+      <c r="B56" s="45"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E56" s="26" t="s">
         <v>133</v>
@@ -4732,19 +4722,19 @@
         <v>18</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I56" s="29"/>
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="46"/>
+        <v>235</v>
+      </c>
+      <c r="B57" s="45"/>
+      <c r="C57" s="53"/>
       <c r="D57" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E57" s="26" t="s">
         <v>133</v>
@@ -4756,21 +4746,21 @@
         <v>18</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I57" s="29"/>
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="B58" s="51"/>
-      <c r="C58" s="46" t="s">
-        <v>212</v>
+        <v>427</v>
+      </c>
+      <c r="B58" s="45"/>
+      <c r="C58" s="53" t="s">
+        <v>211</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>92</v>
@@ -4789,12 +4779,12 @@
     </row>
     <row r="59" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="B59" s="51"/>
-      <c r="C59" s="46"/>
+        <v>236</v>
+      </c>
+      <c r="B59" s="45"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E59" s="26" t="s">
         <v>133</v>
@@ -4806,43 +4796,43 @@
         <v>18</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I59" s="29"/>
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="B60" s="51"/>
-      <c r="C60" s="46"/>
+        <v>237</v>
+      </c>
+      <c r="B60" s="45"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="33" t="s">
         <v>551</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" s="33" t="s">
-        <v>552</v>
       </c>
       <c r="I60" s="29"/>
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="B61" s="51"/>
-      <c r="C61" s="46"/>
+        <v>238</v>
+      </c>
+      <c r="B61" s="45"/>
+      <c r="C61" s="53"/>
       <c r="D61" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E61" s="26" t="s">
         <v>133</v>
@@ -4854,19 +4844,19 @@
         <v>18</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I61" s="29"/>
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="B62" s="51"/>
-      <c r="C62" s="46"/>
+        <v>239</v>
+      </c>
+      <c r="B62" s="45"/>
+      <c r="C62" s="53"/>
       <c r="D62" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E62" s="26" t="s">
         <v>133</v>
@@ -4878,43 +4868,43 @@
         <v>18</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I62" s="29"/>
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="23" t="s">
-        <v>555</v>
-      </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="46"/>
+        <v>554</v>
+      </c>
+      <c r="B63" s="45"/>
+      <c r="C63" s="53"/>
       <c r="D63" s="33" t="s">
+        <v>552</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="33" t="s">
         <v>553</v>
-      </c>
-      <c r="E63" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="F63" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="33" t="s">
-        <v>554</v>
       </c>
       <c r="I63" s="29"/>
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="23" t="s">
-        <v>556</v>
-      </c>
-      <c r="B64" s="51"/>
-      <c r="C64" s="46"/>
+        <v>555</v>
+      </c>
+      <c r="B64" s="45"/>
+      <c r="C64" s="53"/>
       <c r="D64" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E64" s="26" t="s">
         <v>133</v>
@@ -4926,21 +4916,21 @@
         <v>18</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I64" s="29"/>
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="23" t="s">
-        <v>429</v>
-      </c>
-      <c r="B65" s="51"/>
-      <c r="C65" s="43" t="s">
-        <v>214</v>
+        <v>428</v>
+      </c>
+      <c r="B65" s="45"/>
+      <c r="C65" s="50" t="s">
+        <v>213</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E65" s="26" t="s">
         <v>92</v>
@@ -4959,12 +4949,12 @@
     </row>
     <row r="66" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="B66" s="51"/>
-      <c r="C66" s="44"/>
+        <v>240</v>
+      </c>
+      <c r="B66" s="45"/>
+      <c r="C66" s="51"/>
       <c r="D66" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E66" s="26" t="s">
         <v>133</v>
@@ -4976,19 +4966,19 @@
         <v>18</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I66" s="29"/>
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="B67" s="51"/>
-      <c r="C67" s="44"/>
+        <v>241</v>
+      </c>
+      <c r="B67" s="45"/>
+      <c r="C67" s="51"/>
       <c r="D67" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E67" s="26" t="s">
         <v>133</v>
@@ -5000,19 +4990,19 @@
         <v>18</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I67" s="29"/>
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="B68" s="51"/>
-      <c r="C68" s="44"/>
+        <v>242</v>
+      </c>
+      <c r="B68" s="45"/>
+      <c r="C68" s="51"/>
       <c r="D68" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E68" s="26" t="s">
         <v>133</v>
@@ -5024,19 +5014,19 @@
         <v>18</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I68" s="29"/>
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="44"/>
+        <v>243</v>
+      </c>
+      <c r="B69" s="45"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E69" s="26" t="s">
         <v>133</v>
@@ -5048,19 +5038,19 @@
         <v>18</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I69" s="29"/>
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="B70" s="51"/>
-      <c r="C70" s="45"/>
+        <v>244</v>
+      </c>
+      <c r="B70" s="45"/>
+      <c r="C70" s="52"/>
       <c r="D70" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E70" s="26" t="s">
         <v>133</v>
@@ -5072,21 +5062,21 @@
         <v>18</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I70" s="29"/>
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="B71" s="51"/>
-      <c r="C71" s="46" t="s">
-        <v>215</v>
+        <v>429</v>
+      </c>
+      <c r="B71" s="45"/>
+      <c r="C71" s="53" t="s">
+        <v>214</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E71" s="26" t="s">
         <v>92</v>
@@ -5105,12 +5095,12 @@
     </row>
     <row r="72" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="B72" s="51"/>
-      <c r="C72" s="46"/>
+        <v>245</v>
+      </c>
+      <c r="B72" s="45"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E72" s="26" t="s">
         <v>133</v>
@@ -5122,19 +5112,19 @@
         <v>18</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I72" s="29"/>
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="B73" s="51"/>
-      <c r="C73" s="46"/>
+        <v>246</v>
+      </c>
+      <c r="B73" s="45"/>
+      <c r="C73" s="53"/>
       <c r="D73" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E73" s="26" t="s">
         <v>133</v>
@@ -5146,19 +5136,19 @@
         <v>18</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I73" s="29"/>
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="B74" s="51"/>
-      <c r="C74" s="46"/>
+        <v>247</v>
+      </c>
+      <c r="B74" s="45"/>
+      <c r="C74" s="53"/>
       <c r="D74" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E74" s="26" t="s">
         <v>133</v>
@@ -5170,19 +5160,19 @@
         <v>18</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I74" s="29"/>
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="B75" s="51"/>
-      <c r="C75" s="46"/>
+        <v>248</v>
+      </c>
+      <c r="B75" s="45"/>
+      <c r="C75" s="53"/>
       <c r="D75" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E75" s="26" t="s">
         <v>133</v>
@@ -5194,19 +5184,19 @@
         <v>18</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I75" s="29"/>
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="B76" s="51"/>
-      <c r="C76" s="46"/>
+        <v>249</v>
+      </c>
+      <c r="B76" s="45"/>
+      <c r="C76" s="53"/>
       <c r="D76" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E76" s="26" t="s">
         <v>133</v>
@@ -5218,19 +5208,19 @@
         <v>18</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I76" s="29"/>
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="B77" s="51"/>
-      <c r="C77" s="46"/>
+        <v>250</v>
+      </c>
+      <c r="B77" s="45"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E77" s="26" t="s">
         <v>133</v>
@@ -5242,21 +5232,21 @@
         <v>18</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I77" s="29"/>
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="23" t="s">
-        <v>431</v>
-      </c>
-      <c r="B78" s="51"/>
-      <c r="C78" s="46" t="s">
-        <v>216</v>
+        <v>430</v>
+      </c>
+      <c r="B78" s="45"/>
+      <c r="C78" s="53" t="s">
+        <v>215</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E78" s="26" t="s">
         <v>92</v>
@@ -5275,12 +5265,12 @@
     </row>
     <row r="79" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="B79" s="51"/>
-      <c r="C79" s="46"/>
+        <v>251</v>
+      </c>
+      <c r="B79" s="45"/>
+      <c r="C79" s="53"/>
       <c r="D79" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E79" s="26" t="s">
         <v>133</v>
@@ -5292,19 +5282,19 @@
         <v>18</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I79" s="26"/>
       <c r="J79" s="26"/>
     </row>
     <row r="80" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="B80" s="51"/>
-      <c r="C80" s="46"/>
+        <v>252</v>
+      </c>
+      <c r="B80" s="45"/>
+      <c r="C80" s="53"/>
       <c r="D80" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E80" s="26" t="s">
         <v>133</v>
@@ -5316,19 +5306,19 @@
         <v>18</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I80" s="26"/>
       <c r="J80" s="26"/>
     </row>
     <row r="81" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="B81" s="51"/>
-      <c r="C81" s="46"/>
+        <v>253</v>
+      </c>
+      <c r="B81" s="45"/>
+      <c r="C81" s="53"/>
       <c r="D81" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E81" s="26" t="s">
         <v>133</v>
@@ -5340,19 +5330,19 @@
         <v>18</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I81" s="26"/>
       <c r="J81" s="26"/>
     </row>
     <row r="82" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="B82" s="51"/>
-      <c r="C82" s="46"/>
+        <v>254</v>
+      </c>
+      <c r="B82" s="45"/>
+      <c r="C82" s="53"/>
       <c r="D82" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E82" s="26" t="s">
         <v>133</v>
@@ -5364,19 +5354,19 @@
         <v>18</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I82" s="26"/>
       <c r="J82" s="26"/>
     </row>
     <row r="83" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="B83" s="52"/>
-      <c r="C83" s="46"/>
+        <v>255</v>
+      </c>
+      <c r="B83" s="46"/>
+      <c r="C83" s="53"/>
       <c r="D83" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E83" s="26" t="s">
         <v>133</v>
@@ -5388,23 +5378,23 @@
         <v>18</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I83" s="26"/>
       <c r="J83" s="26"/>
     </row>
     <row r="84" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="B84" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="B84" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C84" s="46" t="s">
-        <v>258</v>
+      <c r="C84" s="53" t="s">
+        <v>257</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E84" s="26" t="s">
         <v>92</v>
@@ -5423,12 +5413,12 @@
     </row>
     <row r="85" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="B85" s="51"/>
-      <c r="C85" s="46"/>
+        <v>256</v>
+      </c>
+      <c r="B85" s="45"/>
+      <c r="C85" s="53"/>
       <c r="D85" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E85" s="26" t="s">
         <v>133</v>
@@ -5440,19 +5430,19 @@
         <v>18</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I85" s="26"/>
       <c r="J85" s="26"/>
     </row>
     <row r="86" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="B86" s="51"/>
-      <c r="C86" s="46"/>
+        <v>269</v>
+      </c>
+      <c r="B86" s="45"/>
+      <c r="C86" s="53"/>
       <c r="D86" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E86" s="26" t="s">
         <v>133</v>
@@ -5464,19 +5454,19 @@
         <v>18</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I86" s="26"/>
       <c r="J86" s="26"/>
     </row>
     <row r="87" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="B87" s="51"/>
-      <c r="C87" s="46"/>
+        <v>270</v>
+      </c>
+      <c r="B87" s="45"/>
+      <c r="C87" s="53"/>
       <c r="D87" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E87" s="26" t="s">
         <v>133</v>
@@ -5488,19 +5478,19 @@
         <v>18</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I87" s="26"/>
       <c r="J87" s="26"/>
     </row>
     <row r="88" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="B88" s="51"/>
-      <c r="C88" s="46"/>
+        <v>271</v>
+      </c>
+      <c r="B88" s="45"/>
+      <c r="C88" s="53"/>
       <c r="D88" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E88" s="26" t="s">
         <v>133</v>
@@ -5512,19 +5502,19 @@
         <v>18</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I88" s="26"/>
       <c r="J88" s="26"/>
     </row>
     <row r="89" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="B89" s="51"/>
-      <c r="C89" s="46"/>
+        <v>272</v>
+      </c>
+      <c r="B89" s="45"/>
+      <c r="C89" s="53"/>
       <c r="D89" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E89" s="26" t="s">
         <v>133</v>
@@ -5536,19 +5526,19 @@
         <v>18</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I89" s="26"/>
       <c r="J89" s="26"/>
     </row>
     <row r="90" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="B90" s="51"/>
-      <c r="C90" s="46"/>
+        <v>273</v>
+      </c>
+      <c r="B90" s="45"/>
+      <c r="C90" s="53"/>
       <c r="D90" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E90" s="26" t="s">
         <v>133</v>
@@ -5560,19 +5550,19 @@
         <v>18</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I90" s="26"/>
       <c r="J90" s="26"/>
     </row>
     <row r="91" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A91" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="B91" s="51"/>
-      <c r="C91" s="46"/>
+        <v>274</v>
+      </c>
+      <c r="B91" s="45"/>
+      <c r="C91" s="53"/>
       <c r="D91" s="26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E91" s="26" t="s">
         <v>133</v>
@@ -5584,19 +5574,19 @@
         <v>18</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I91" s="26"/>
       <c r="J91" s="26"/>
     </row>
     <row r="92" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A92" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="B92" s="51"/>
-      <c r="C92" s="46"/>
+        <v>275</v>
+      </c>
+      <c r="B92" s="45"/>
+      <c r="C92" s="53"/>
       <c r="D92" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E92" s="26" t="s">
         <v>133</v>
@@ -5608,19 +5598,19 @@
         <v>18</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I92" s="26"/>
       <c r="J92" s="26"/>
     </row>
     <row r="93" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="B93" s="51"/>
-      <c r="C93" s="46"/>
+        <v>276</v>
+      </c>
+      <c r="B93" s="45"/>
+      <c r="C93" s="53"/>
       <c r="D93" s="26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E93" s="26" t="s">
         <v>133</v>
@@ -5632,21 +5622,21 @@
         <v>18</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I93" s="26"/>
       <c r="J93" s="26"/>
     </row>
     <row r="94" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="B94" s="51"/>
-      <c r="C94" s="43" t="s">
-        <v>259</v>
+        <v>432</v>
+      </c>
+      <c r="B94" s="45"/>
+      <c r="C94" s="50" t="s">
+        <v>258</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E94" s="26" t="s">
         <v>92</v>
@@ -5665,12 +5655,12 @@
     </row>
     <row r="95" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="B95" s="51"/>
-      <c r="C95" s="44"/>
+        <v>277</v>
+      </c>
+      <c r="B95" s="45"/>
+      <c r="C95" s="51"/>
       <c r="D95" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E95" s="26" t="s">
         <v>133</v>
@@ -5682,19 +5672,19 @@
         <v>18</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I95" s="26"/>
       <c r="J95" s="26"/>
     </row>
     <row r="96" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="B96" s="51"/>
-      <c r="C96" s="44"/>
+        <v>278</v>
+      </c>
+      <c r="B96" s="45"/>
+      <c r="C96" s="51"/>
       <c r="D96" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E96" s="26" t="s">
         <v>133</v>
@@ -5706,19 +5696,19 @@
         <v>18</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I96" s="26"/>
       <c r="J96" s="26"/>
     </row>
     <row r="97" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="B97" s="51"/>
-      <c r="C97" s="44"/>
+        <v>279</v>
+      </c>
+      <c r="B97" s="45"/>
+      <c r="C97" s="51"/>
       <c r="D97" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E97" s="26" t="s">
         <v>133</v>
@@ -5730,19 +5720,19 @@
         <v>18</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I97" s="26"/>
       <c r="J97" s="26"/>
     </row>
     <row r="98" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="B98" s="51"/>
-      <c r="C98" s="44"/>
+        <v>280</v>
+      </c>
+      <c r="B98" s="45"/>
+      <c r="C98" s="51"/>
       <c r="D98" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E98" s="26" t="s">
         <v>133</v>
@@ -5754,19 +5744,19 @@
         <v>18</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I98" s="26"/>
       <c r="J98" s="26"/>
     </row>
     <row r="99" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="B99" s="51"/>
-      <c r="C99" s="44"/>
+        <v>281</v>
+      </c>
+      <c r="B99" s="45"/>
+      <c r="C99" s="51"/>
       <c r="D99" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E99" s="26" t="s">
         <v>133</v>
@@ -5778,19 +5768,19 @@
         <v>18</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I99" s="26"/>
       <c r="J99" s="26"/>
     </row>
     <row r="100" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A100" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="B100" s="51"/>
-      <c r="C100" s="44"/>
+        <v>282</v>
+      </c>
+      <c r="B100" s="45"/>
+      <c r="C100" s="51"/>
       <c r="D100" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E100" s="26" t="s">
         <v>133</v>
@@ -5802,19 +5792,19 @@
         <v>18</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I100" s="26"/>
       <c r="J100" s="26"/>
     </row>
     <row r="101" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="B101" s="51"/>
-      <c r="C101" s="44"/>
+        <v>283</v>
+      </c>
+      <c r="B101" s="45"/>
+      <c r="C101" s="51"/>
       <c r="D101" s="26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E101" s="26" t="s">
         <v>133</v>
@@ -5826,19 +5816,19 @@
         <v>18</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I101" s="26"/>
       <c r="J101" s="26"/>
     </row>
     <row r="102" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="B102" s="51"/>
-      <c r="C102" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="B102" s="45"/>
+      <c r="C102" s="51"/>
       <c r="D102" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E102" s="26" t="s">
         <v>133</v>
@@ -5850,19 +5840,19 @@
         <v>18</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I102" s="26"/>
       <c r="J102" s="26"/>
     </row>
     <row r="103" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A103" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="B103" s="51"/>
-      <c r="C103" s="45"/>
+        <v>285</v>
+      </c>
+      <c r="B103" s="45"/>
+      <c r="C103" s="52"/>
       <c r="D103" s="26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E103" s="26" t="s">
         <v>133</v>
@@ -5874,21 +5864,21 @@
         <v>18</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I103" s="26"/>
       <c r="J103" s="26"/>
     </row>
     <row r="104" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="B104" s="51"/>
-      <c r="C104" s="43" t="s">
-        <v>260</v>
+        <v>433</v>
+      </c>
+      <c r="B104" s="45"/>
+      <c r="C104" s="50" t="s">
+        <v>259</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E104" s="26" t="s">
         <v>92</v>
@@ -5907,12 +5897,12 @@
     </row>
     <row r="105" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="B105" s="51"/>
-      <c r="C105" s="44"/>
+        <v>286</v>
+      </c>
+      <c r="B105" s="45"/>
+      <c r="C105" s="51"/>
       <c r="D105" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E105" s="26" t="s">
         <v>133</v>
@@ -5924,19 +5914,19 @@
         <v>18</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I105" s="26"/>
       <c r="J105" s="26"/>
     </row>
     <row r="106" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="B106" s="51"/>
-      <c r="C106" s="44"/>
+        <v>287</v>
+      </c>
+      <c r="B106" s="45"/>
+      <c r="C106" s="51"/>
       <c r="D106" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E106" s="26" t="s">
         <v>133</v>
@@ -5948,19 +5938,19 @@
         <v>18</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I106" s="26"/>
       <c r="J106" s="26"/>
     </row>
     <row r="107" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="B107" s="51"/>
-      <c r="C107" s="44"/>
+        <v>288</v>
+      </c>
+      <c r="B107" s="45"/>
+      <c r="C107" s="51"/>
       <c r="D107" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E107" s="26" t="s">
         <v>133</v>
@@ -5972,19 +5962,19 @@
         <v>18</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I107" s="26"/>
       <c r="J107" s="26"/>
     </row>
     <row r="108" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="B108" s="51"/>
-      <c r="C108" s="44"/>
+        <v>289</v>
+      </c>
+      <c r="B108" s="45"/>
+      <c r="C108" s="51"/>
       <c r="D108" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E108" s="26" t="s">
         <v>133</v>
@@ -5996,19 +5986,19 @@
         <v>18</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I108" s="26"/>
       <c r="J108" s="26"/>
     </row>
     <row r="109" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A109" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="B109" s="51"/>
-      <c r="C109" s="44"/>
+        <v>290</v>
+      </c>
+      <c r="B109" s="45"/>
+      <c r="C109" s="51"/>
       <c r="D109" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E109" s="26" t="s">
         <v>133</v>
@@ -6020,19 +6010,19 @@
         <v>18</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I109" s="26"/>
       <c r="J109" s="26"/>
     </row>
     <row r="110" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A110" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="B110" s="51"/>
-      <c r="C110" s="44"/>
+        <v>291</v>
+      </c>
+      <c r="B110" s="45"/>
+      <c r="C110" s="51"/>
       <c r="D110" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E110" s="26" t="s">
         <v>133</v>
@@ -6044,19 +6034,19 @@
         <v>18</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I110" s="26"/>
       <c r="J110" s="26"/>
     </row>
     <row r="111" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A111" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="B111" s="51"/>
-      <c r="C111" s="44"/>
+        <v>292</v>
+      </c>
+      <c r="B111" s="45"/>
+      <c r="C111" s="51"/>
       <c r="D111" s="26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E111" s="26" t="s">
         <v>133</v>
@@ -6068,19 +6058,19 @@
         <v>18</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I111" s="26"/>
       <c r="J111" s="26"/>
     </row>
     <row r="112" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="B112" s="51"/>
-      <c r="C112" s="44"/>
+        <v>293</v>
+      </c>
+      <c r="B112" s="45"/>
+      <c r="C112" s="51"/>
       <c r="D112" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E112" s="26" t="s">
         <v>133</v>
@@ -6092,19 +6082,19 @@
         <v>18</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I112" s="26"/>
       <c r="J112" s="26"/>
     </row>
     <row r="113" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A113" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="B113" s="52"/>
-      <c r="C113" s="45"/>
+        <v>294</v>
+      </c>
+      <c r="B113" s="46"/>
+      <c r="C113" s="52"/>
       <c r="D113" s="26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E113" s="26" t="s">
         <v>133</v>
@@ -6116,23 +6106,23 @@
         <v>18</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I113" s="26"/>
       <c r="J113" s="26"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B114" s="49" t="s">
         <v>78</v>
       </c>
       <c r="C114" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E114" s="26" t="s">
         <v>92</v>
@@ -6151,12 +6141,12 @@
     </row>
     <row r="115" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B115" s="49"/>
       <c r="C115" s="47"/>
       <c r="D115" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E115" s="26" t="s">
         <v>133</v>
@@ -6168,19 +6158,19 @@
         <v>18</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I115" s="26"/>
       <c r="J115" s="26"/>
     </row>
     <row r="116" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A116" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B116" s="49"/>
       <c r="C116" s="47"/>
-      <c r="D116" s="39" t="s">
-        <v>621</v>
+      <c r="D116" s="38" t="s">
+        <v>620</v>
       </c>
       <c r="E116" s="26" t="s">
         <v>133</v>
@@ -6192,19 +6182,19 @@
         <v>18</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I116" s="26"/>
       <c r="J116" s="26"/>
     </row>
     <row r="117" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A117" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B117" s="49"/>
       <c r="C117" s="47"/>
-      <c r="D117" s="39" t="s">
-        <v>622</v>
+      <c r="D117" s="38" t="s">
+        <v>621</v>
       </c>
       <c r="E117" s="26" t="s">
         <v>133</v>
@@ -6216,19 +6206,19 @@
         <v>18</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I117" s="26"/>
       <c r="J117" s="26"/>
     </row>
     <row r="118" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B118" s="49"/>
       <c r="C118" s="47"/>
-      <c r="D118" s="39" t="s">
-        <v>412</v>
+      <c r="D118" s="38" t="s">
+        <v>411</v>
       </c>
       <c r="E118" s="26" t="s">
         <v>133</v>
@@ -6240,19 +6230,19 @@
         <v>18</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I118" s="26"/>
       <c r="J118" s="26"/>
     </row>
     <row r="119" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B119" s="49"/>
       <c r="C119" s="47"/>
-      <c r="D119" s="39" t="s">
-        <v>623</v>
+      <c r="D119" s="38" t="s">
+        <v>622</v>
       </c>
       <c r="E119" s="26" t="s">
         <v>133</v>
@@ -6264,19 +6254,19 @@
         <v>18</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I119" s="26"/>
       <c r="J119" s="26"/>
     </row>
     <row r="120" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A120" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B120" s="49"/>
       <c r="C120" s="47"/>
-      <c r="D120" s="39" t="s">
-        <v>624</v>
+      <c r="D120" s="38" t="s">
+        <v>623</v>
       </c>
       <c r="E120" s="26" t="s">
         <v>133</v>
@@ -6288,19 +6278,19 @@
         <v>18</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I120" s="26"/>
       <c r="J120" s="26"/>
     </row>
     <row r="121" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A121" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B121" s="49"/>
       <c r="C121" s="47"/>
-      <c r="D121" s="39" t="s">
-        <v>625</v>
+      <c r="D121" s="38" t="s">
+        <v>624</v>
       </c>
       <c r="E121" s="26" t="s">
         <v>133</v>
@@ -6312,19 +6302,19 @@
         <v>18</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I121" s="26"/>
       <c r="J121" s="26"/>
     </row>
     <row r="122" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A122" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B122" s="49"/>
       <c r="C122" s="47"/>
-      <c r="D122" s="39" t="s">
-        <v>626</v>
+      <c r="D122" s="38" t="s">
+        <v>625</v>
       </c>
       <c r="E122" s="26" t="s">
         <v>133</v>
@@ -6336,19 +6326,19 @@
         <v>18</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I122" s="26"/>
       <c r="J122" s="26"/>
     </row>
     <row r="123" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B123" s="49"/>
       <c r="C123" s="47"/>
-      <c r="D123" s="42" t="s">
-        <v>627</v>
+      <c r="D123" s="41" t="s">
+        <v>626</v>
       </c>
       <c r="E123" s="26" t="s">
         <v>133</v>
@@ -6360,21 +6350,21 @@
         <v>18</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I123" s="26"/>
       <c r="J123" s="26"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B124" s="49"/>
       <c r="C124" s="47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E124" s="26" t="s">
         <v>92</v>
@@ -6386,19 +6376,19 @@
         <v>18</v>
       </c>
       <c r="H124" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I124" s="26"/>
       <c r="J124" s="26"/>
     </row>
     <row r="125" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B125" s="49"/>
       <c r="C125" s="47"/>
-      <c r="D125" s="41" t="s">
-        <v>418</v>
+      <c r="D125" s="40" t="s">
+        <v>417</v>
       </c>
       <c r="E125" s="26" t="s">
         <v>133</v>
@@ -6409,20 +6399,20 @@
       <c r="G125" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H125" s="40" t="s">
-        <v>534</v>
+      <c r="H125" s="39" t="s">
+        <v>533</v>
       </c>
       <c r="I125" s="26"/>
       <c r="J125" s="26"/>
     </row>
     <row r="126" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A126" s="23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B126" s="49"/>
       <c r="C126" s="47"/>
-      <c r="D126" s="42" t="s">
-        <v>621</v>
+      <c r="D126" s="41" t="s">
+        <v>620</v>
       </c>
       <c r="E126" s="26" t="s">
         <v>133</v>
@@ -6433,20 +6423,20 @@
       <c r="G126" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H126" s="40" t="s">
-        <v>596</v>
+      <c r="H126" s="39" t="s">
+        <v>595</v>
       </c>
       <c r="I126" s="26"/>
       <c r="J126" s="26"/>
     </row>
     <row r="127" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A127" s="23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B127" s="49"/>
       <c r="C127" s="47"/>
-      <c r="D127" s="42" t="s">
-        <v>622</v>
+      <c r="D127" s="41" t="s">
+        <v>621</v>
       </c>
       <c r="E127" s="26" t="s">
         <v>133</v>
@@ -6457,20 +6447,20 @@
       <c r="G127" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H127" s="40" t="s">
-        <v>597</v>
+      <c r="H127" s="39" t="s">
+        <v>596</v>
       </c>
       <c r="I127" s="26"/>
       <c r="J127" s="26"/>
     </row>
     <row r="128" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B128" s="49"/>
       <c r="C128" s="47"/>
-      <c r="D128" s="42" t="s">
-        <v>412</v>
+      <c r="D128" s="41" t="s">
+        <v>411</v>
       </c>
       <c r="E128" s="26" t="s">
         <v>133</v>
@@ -6481,20 +6471,20 @@
       <c r="G128" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H128" s="40" t="s">
-        <v>535</v>
+      <c r="H128" s="39" t="s">
+        <v>534</v>
       </c>
       <c r="I128" s="26"/>
       <c r="J128" s="26"/>
     </row>
     <row r="129" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A129" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B129" s="49"/>
       <c r="C129" s="47"/>
-      <c r="D129" s="42" t="s">
-        <v>623</v>
+      <c r="D129" s="41" t="s">
+        <v>622</v>
       </c>
       <c r="E129" s="26" t="s">
         <v>133</v>
@@ -6505,20 +6495,20 @@
       <c r="G129" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H129" s="40" t="s">
-        <v>598</v>
+      <c r="H129" s="39" t="s">
+        <v>597</v>
       </c>
       <c r="I129" s="26"/>
       <c r="J129" s="26"/>
     </row>
     <row r="130" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A130" s="23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B130" s="49"/>
       <c r="C130" s="47"/>
-      <c r="D130" s="42" t="s">
-        <v>624</v>
+      <c r="D130" s="41" t="s">
+        <v>623</v>
       </c>
       <c r="E130" s="26" t="s">
         <v>133</v>
@@ -6529,20 +6519,20 @@
       <c r="G130" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H130" s="40" t="s">
-        <v>599</v>
+      <c r="H130" s="39" t="s">
+        <v>598</v>
       </c>
       <c r="I130" s="26"/>
       <c r="J130" s="26"/>
     </row>
     <row r="131" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A131" s="23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B131" s="49"/>
       <c r="C131" s="47"/>
-      <c r="D131" s="42" t="s">
-        <v>625</v>
+      <c r="D131" s="41" t="s">
+        <v>624</v>
       </c>
       <c r="E131" s="26" t="s">
         <v>133</v>
@@ -6553,20 +6543,20 @@
       <c r="G131" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H131" s="40" t="s">
-        <v>600</v>
+      <c r="H131" s="39" t="s">
+        <v>599</v>
       </c>
       <c r="I131" s="26"/>
       <c r="J131" s="26"/>
     </row>
     <row r="132" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A132" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B132" s="49"/>
       <c r="C132" s="47"/>
-      <c r="D132" s="42" t="s">
-        <v>626</v>
+      <c r="D132" s="41" t="s">
+        <v>625</v>
       </c>
       <c r="E132" s="26" t="s">
         <v>133</v>
@@ -6577,20 +6567,20 @@
       <c r="G132" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H132" s="40" t="s">
-        <v>601</v>
+      <c r="H132" s="39" t="s">
+        <v>600</v>
       </c>
       <c r="I132" s="26"/>
       <c r="J132" s="26"/>
     </row>
     <row r="133" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B133" s="49"/>
       <c r="C133" s="47"/>
-      <c r="D133" s="42" t="s">
-        <v>627</v>
+      <c r="D133" s="41" t="s">
+        <v>626</v>
       </c>
       <c r="E133" s="26" t="s">
         <v>133</v>
@@ -6601,22 +6591,22 @@
       <c r="G133" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H133" s="40" t="s">
-        <v>609</v>
+      <c r="H133" s="39" t="s">
+        <v>608</v>
       </c>
       <c r="I133" s="26"/>
       <c r="J133" s="26"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B134" s="49"/>
       <c r="C134" s="47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D134" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E134" s="26" t="s">
         <v>92</v>
@@ -6628,19 +6618,19 @@
         <v>18</v>
       </c>
       <c r="H134" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I134" s="26"/>
       <c r="J134" s="26"/>
     </row>
     <row r="135" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B135" s="49"/>
       <c r="C135" s="47"/>
-      <c r="D135" s="41" t="s">
-        <v>418</v>
+      <c r="D135" s="40" t="s">
+        <v>417</v>
       </c>
       <c r="E135" s="26" t="s">
         <v>133</v>
@@ -6651,20 +6641,20 @@
       <c r="G135" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H135" s="40" t="s">
-        <v>536</v>
+      <c r="H135" s="39" t="s">
+        <v>535</v>
       </c>
       <c r="I135" s="26"/>
       <c r="J135" s="26"/>
     </row>
     <row r="136" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A136" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B136" s="49"/>
       <c r="C136" s="47"/>
-      <c r="D136" s="42" t="s">
-        <v>621</v>
+      <c r="D136" s="41" t="s">
+        <v>620</v>
       </c>
       <c r="E136" s="26" t="s">
         <v>133</v>
@@ -6675,20 +6665,20 @@
       <c r="G136" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H136" s="40" t="s">
-        <v>602</v>
+      <c r="H136" s="39" t="s">
+        <v>601</v>
       </c>
       <c r="I136" s="26"/>
       <c r="J136" s="26"/>
     </row>
     <row r="137" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A137" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B137" s="49"/>
       <c r="C137" s="47"/>
-      <c r="D137" s="42" t="s">
-        <v>622</v>
+      <c r="D137" s="41" t="s">
+        <v>621</v>
       </c>
       <c r="E137" s="26" t="s">
         <v>133</v>
@@ -6699,20 +6689,20 @@
       <c r="G137" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H137" s="40" t="s">
-        <v>603</v>
+      <c r="H137" s="39" t="s">
+        <v>602</v>
       </c>
       <c r="I137" s="26"/>
       <c r="J137" s="26"/>
     </row>
     <row r="138" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B138" s="49"/>
       <c r="C138" s="47"/>
-      <c r="D138" s="42" t="s">
-        <v>412</v>
+      <c r="D138" s="41" t="s">
+        <v>411</v>
       </c>
       <c r="E138" s="26" t="s">
         <v>133</v>
@@ -6723,20 +6713,20 @@
       <c r="G138" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H138" s="40" t="s">
-        <v>537</v>
+      <c r="H138" s="39" t="s">
+        <v>536</v>
       </c>
       <c r="I138" s="26"/>
       <c r="J138" s="26"/>
     </row>
     <row r="139" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A139" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B139" s="49"/>
       <c r="C139" s="47"/>
-      <c r="D139" s="42" t="s">
-        <v>623</v>
+      <c r="D139" s="41" t="s">
+        <v>622</v>
       </c>
       <c r="E139" s="26" t="s">
         <v>133</v>
@@ -6747,20 +6737,20 @@
       <c r="G139" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H139" s="40" t="s">
-        <v>604</v>
+      <c r="H139" s="39" t="s">
+        <v>603</v>
       </c>
       <c r="I139" s="26"/>
       <c r="J139" s="26"/>
     </row>
     <row r="140" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A140" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B140" s="49"/>
       <c r="C140" s="47"/>
-      <c r="D140" s="42" t="s">
-        <v>624</v>
+      <c r="D140" s="41" t="s">
+        <v>623</v>
       </c>
       <c r="E140" s="26" t="s">
         <v>133</v>
@@ -6771,20 +6761,20 @@
       <c r="G140" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H140" s="40" t="s">
-        <v>605</v>
+      <c r="H140" s="39" t="s">
+        <v>604</v>
       </c>
       <c r="I140" s="26"/>
       <c r="J140" s="26"/>
     </row>
     <row r="141" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A141" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B141" s="49"/>
       <c r="C141" s="47"/>
-      <c r="D141" s="42" t="s">
-        <v>625</v>
+      <c r="D141" s="41" t="s">
+        <v>624</v>
       </c>
       <c r="E141" s="26" t="s">
         <v>133</v>
@@ -6795,20 +6785,20 @@
       <c r="G141" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H141" s="40" t="s">
-        <v>606</v>
+      <c r="H141" s="39" t="s">
+        <v>605</v>
       </c>
       <c r="I141" s="29"/>
       <c r="J141" s="2"/>
     </row>
     <row r="142" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A142" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B142" s="49"/>
       <c r="C142" s="47"/>
-      <c r="D142" s="42" t="s">
-        <v>626</v>
+      <c r="D142" s="41" t="s">
+        <v>625</v>
       </c>
       <c r="E142" s="26" t="s">
         <v>133</v>
@@ -6819,20 +6809,20 @@
       <c r="G142" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H142" s="40" t="s">
-        <v>607</v>
+      <c r="H142" s="39" t="s">
+        <v>606</v>
       </c>
       <c r="I142" s="29"/>
       <c r="J142" s="2"/>
     </row>
     <row r="143" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A143" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B143" s="49"/>
       <c r="C143" s="47"/>
-      <c r="D143" s="42" t="s">
-        <v>627</v>
+      <c r="D143" s="41" t="s">
+        <v>626</v>
       </c>
       <c r="E143" s="26" t="s">
         <v>133</v>
@@ -6843,22 +6833,22 @@
       <c r="G143" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H143" s="40" t="s">
-        <v>559</v>
+      <c r="H143" s="39" t="s">
+        <v>558</v>
       </c>
       <c r="I143" s="29"/>
       <c r="J143" s="2"/>
     </row>
     <row r="144" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B144" s="49"/>
       <c r="C144" s="48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D144" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E144" s="26" t="s">
         <v>92</v>
@@ -6870,19 +6860,19 @@
         <v>18</v>
       </c>
       <c r="H144" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I144" s="29"/>
       <c r="J144" s="2"/>
     </row>
     <row r="145" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B145" s="49"/>
       <c r="C145" s="48"/>
-      <c r="D145" s="41" t="s">
-        <v>418</v>
+      <c r="D145" s="40" t="s">
+        <v>417</v>
       </c>
       <c r="E145" s="26" t="s">
         <v>133</v>
@@ -6893,20 +6883,20 @@
       <c r="G145" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H145" s="40" t="s">
-        <v>538</v>
+      <c r="H145" s="39" t="s">
+        <v>537</v>
       </c>
       <c r="I145" s="29"/>
       <c r="J145" s="2"/>
     </row>
     <row r="146" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B146" s="49"/>
       <c r="C146" s="48"/>
-      <c r="D146" s="42" t="s">
-        <v>621</v>
+      <c r="D146" s="41" t="s">
+        <v>620</v>
       </c>
       <c r="E146" s="26" t="s">
         <v>133</v>
@@ -6917,20 +6907,20 @@
       <c r="G146" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H146" s="40" t="s">
-        <v>590</v>
+      <c r="H146" s="39" t="s">
+        <v>589</v>
       </c>
       <c r="I146" s="29"/>
       <c r="J146" s="2"/>
     </row>
     <row r="147" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B147" s="49"/>
       <c r="C147" s="48"/>
-      <c r="D147" s="42" t="s">
-        <v>622</v>
+      <c r="D147" s="41" t="s">
+        <v>621</v>
       </c>
       <c r="E147" s="26" t="s">
         <v>133</v>
@@ -6941,20 +6931,20 @@
       <c r="G147" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H147" s="40" t="s">
-        <v>591</v>
+      <c r="H147" s="39" t="s">
+        <v>590</v>
       </c>
       <c r="I147" s="29"/>
       <c r="J147" s="2"/>
     </row>
     <row r="148" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B148" s="49"/>
       <c r="C148" s="48"/>
-      <c r="D148" s="42" t="s">
-        <v>412</v>
+      <c r="D148" s="41" t="s">
+        <v>411</v>
       </c>
       <c r="E148" s="26" t="s">
         <v>133</v>
@@ -6965,20 +6955,20 @@
       <c r="G148" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H148" s="40" t="s">
-        <v>539</v>
+      <c r="H148" s="39" t="s">
+        <v>538</v>
       </c>
       <c r="I148" s="29"/>
       <c r="J148" s="2"/>
     </row>
     <row r="149" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B149" s="49"/>
       <c r="C149" s="48"/>
-      <c r="D149" s="42" t="s">
-        <v>623</v>
+      <c r="D149" s="41" t="s">
+        <v>622</v>
       </c>
       <c r="E149" s="26" t="s">
         <v>133</v>
@@ -6989,20 +6979,20 @@
       <c r="G149" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H149" s="40" t="s">
-        <v>592</v>
+      <c r="H149" s="39" t="s">
+        <v>591</v>
       </c>
       <c r="I149" s="29"/>
       <c r="J149" s="2"/>
     </row>
     <row r="150" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B150" s="49"/>
       <c r="C150" s="48"/>
-      <c r="D150" s="42" t="s">
-        <v>624</v>
+      <c r="D150" s="41" t="s">
+        <v>623</v>
       </c>
       <c r="E150" s="26" t="s">
         <v>133</v>
@@ -7013,20 +7003,20 @@
       <c r="G150" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H150" s="40" t="s">
-        <v>593</v>
+      <c r="H150" s="39" t="s">
+        <v>592</v>
       </c>
       <c r="I150" s="29"/>
       <c r="J150" s="2"/>
     </row>
     <row r="151" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B151" s="49"/>
       <c r="C151" s="48"/>
-      <c r="D151" s="42" t="s">
-        <v>625</v>
+      <c r="D151" s="41" t="s">
+        <v>624</v>
       </c>
       <c r="E151" s="26" t="s">
         <v>133</v>
@@ -7037,20 +7027,20 @@
       <c r="G151" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H151" s="40" t="s">
-        <v>594</v>
+      <c r="H151" s="39" t="s">
+        <v>593</v>
       </c>
       <c r="I151" s="29"/>
       <c r="J151" s="2"/>
     </row>
     <row r="152" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B152" s="49"/>
       <c r="C152" s="48"/>
-      <c r="D152" s="42" t="s">
-        <v>626</v>
+      <c r="D152" s="41" t="s">
+        <v>625</v>
       </c>
       <c r="E152" s="26" t="s">
         <v>133</v>
@@ -7061,20 +7051,20 @@
       <c r="G152" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H152" s="40" t="s">
-        <v>595</v>
+      <c r="H152" s="39" t="s">
+        <v>594</v>
       </c>
       <c r="I152" s="29"/>
       <c r="J152" s="2"/>
     </row>
     <row r="153" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B153" s="49"/>
       <c r="C153" s="48"/>
-      <c r="D153" s="42" t="s">
-        <v>627</v>
+      <c r="D153" s="41" t="s">
+        <v>626</v>
       </c>
       <c r="E153" s="26" t="s">
         <v>133</v>
@@ -7085,22 +7075,22 @@
       <c r="G153" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H153" s="40" t="s">
-        <v>558</v>
+      <c r="H153" s="39" t="s">
+        <v>557</v>
       </c>
       <c r="I153" s="29"/>
       <c r="J153" s="2"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B154" s="49"/>
       <c r="C154" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D154" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E154" s="26" t="s">
         <v>92</v>
@@ -7112,19 +7102,19 @@
         <v>18</v>
       </c>
       <c r="H154" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I154" s="29"/>
       <c r="J154" s="2"/>
     </row>
     <row r="155" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B155" s="49"/>
       <c r="C155" s="48"/>
-      <c r="D155" s="41" t="s">
-        <v>418</v>
+      <c r="D155" s="40" t="s">
+        <v>417</v>
       </c>
       <c r="E155" s="26" t="s">
         <v>133</v>
@@ -7135,20 +7125,20 @@
       <c r="G155" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H155" s="40" t="s">
-        <v>540</v>
+      <c r="H155" s="39" t="s">
+        <v>539</v>
       </c>
       <c r="I155" s="29"/>
       <c r="J155" s="2"/>
     </row>
     <row r="156" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B156" s="49"/>
       <c r="C156" s="48"/>
-      <c r="D156" s="42" t="s">
-        <v>621</v>
+      <c r="D156" s="41" t="s">
+        <v>620</v>
       </c>
       <c r="E156" s="26" t="s">
         <v>133</v>
@@ -7159,20 +7149,20 @@
       <c r="G156" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H156" s="40" t="s">
-        <v>578</v>
+      <c r="H156" s="39" t="s">
+        <v>577</v>
       </c>
       <c r="I156" s="29"/>
       <c r="J156" s="2"/>
     </row>
     <row r="157" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B157" s="49"/>
       <c r="C157" s="48"/>
-      <c r="D157" s="42" t="s">
-        <v>622</v>
+      <c r="D157" s="41" t="s">
+        <v>621</v>
       </c>
       <c r="E157" s="26" t="s">
         <v>133</v>
@@ -7183,20 +7173,20 @@
       <c r="G157" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H157" s="40" t="s">
-        <v>579</v>
+      <c r="H157" s="39" t="s">
+        <v>578</v>
       </c>
       <c r="I157" s="29"/>
       <c r="J157" s="2"/>
     </row>
     <row r="158" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B158" s="49"/>
       <c r="C158" s="48"/>
-      <c r="D158" s="42" t="s">
-        <v>412</v>
+      <c r="D158" s="41" t="s">
+        <v>411</v>
       </c>
       <c r="E158" s="26" t="s">
         <v>133</v>
@@ -7207,20 +7197,20 @@
       <c r="G158" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H158" s="40" t="s">
-        <v>541</v>
+      <c r="H158" s="39" t="s">
+        <v>540</v>
       </c>
       <c r="I158" s="29"/>
       <c r="J158" s="2"/>
     </row>
     <row r="159" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B159" s="49"/>
       <c r="C159" s="48"/>
-      <c r="D159" s="42" t="s">
-        <v>623</v>
+      <c r="D159" s="41" t="s">
+        <v>622</v>
       </c>
       <c r="E159" s="26" t="s">
         <v>133</v>
@@ -7231,20 +7221,20 @@
       <c r="G159" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H159" s="40" t="s">
-        <v>580</v>
+      <c r="H159" s="39" t="s">
+        <v>579</v>
       </c>
       <c r="I159" s="29"/>
       <c r="J159" s="2"/>
     </row>
     <row r="160" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B160" s="49"/>
       <c r="C160" s="48"/>
-      <c r="D160" s="42" t="s">
-        <v>624</v>
+      <c r="D160" s="41" t="s">
+        <v>623</v>
       </c>
       <c r="E160" s="26" t="s">
         <v>133</v>
@@ -7255,20 +7245,20 @@
       <c r="G160" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H160" s="40" t="s">
-        <v>581</v>
+      <c r="H160" s="39" t="s">
+        <v>580</v>
       </c>
       <c r="I160" s="29"/>
       <c r="J160" s="2"/>
     </row>
     <row r="161" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B161" s="49"/>
       <c r="C161" s="48"/>
-      <c r="D161" s="42" t="s">
-        <v>625</v>
+      <c r="D161" s="41" t="s">
+        <v>624</v>
       </c>
       <c r="E161" s="26" t="s">
         <v>133</v>
@@ -7279,20 +7269,20 @@
       <c r="G161" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H161" s="40" t="s">
-        <v>582</v>
+      <c r="H161" s="39" t="s">
+        <v>581</v>
       </c>
       <c r="I161" s="29"/>
       <c r="J161" s="2"/>
     </row>
     <row r="162" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B162" s="49"/>
       <c r="C162" s="48"/>
-      <c r="D162" s="42" t="s">
-        <v>626</v>
+      <c r="D162" s="41" t="s">
+        <v>625</v>
       </c>
       <c r="E162" s="26" t="s">
         <v>133</v>
@@ -7303,20 +7293,20 @@
       <c r="G162" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H162" s="40" t="s">
-        <v>583</v>
+      <c r="H162" s="39" t="s">
+        <v>582</v>
       </c>
       <c r="I162" s="29"/>
       <c r="J162" s="2"/>
     </row>
     <row r="163" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B163" s="49"/>
       <c r="C163" s="48"/>
-      <c r="D163" s="42" t="s">
-        <v>627</v>
+      <c r="D163" s="41" t="s">
+        <v>626</v>
       </c>
       <c r="E163" s="26" t="s">
         <v>133</v>
@@ -7327,22 +7317,22 @@
       <c r="G163" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H163" s="40" t="s">
-        <v>610</v>
+      <c r="H163" s="39" t="s">
+        <v>609</v>
       </c>
       <c r="I163" s="29"/>
       <c r="J163" s="2"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B164" s="49"/>
       <c r="C164" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D164" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E164" s="26" t="s">
         <v>92</v>
@@ -7354,19 +7344,19 @@
         <v>18</v>
       </c>
       <c r="H164" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I164" s="29"/>
       <c r="J164" s="2"/>
     </row>
     <row r="165" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B165" s="49"/>
       <c r="C165" s="48"/>
-      <c r="D165" s="41" t="s">
-        <v>418</v>
+      <c r="D165" s="40" t="s">
+        <v>417</v>
       </c>
       <c r="E165" s="26" t="s">
         <v>133</v>
@@ -7377,20 +7367,20 @@
       <c r="G165" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H165" s="40" t="s">
-        <v>542</v>
+      <c r="H165" s="39" t="s">
+        <v>541</v>
       </c>
       <c r="I165" s="29"/>
       <c r="J165" s="2"/>
     </row>
     <row r="166" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B166" s="49"/>
       <c r="C166" s="48"/>
-      <c r="D166" s="42" t="s">
-        <v>621</v>
+      <c r="D166" s="41" t="s">
+        <v>620</v>
       </c>
       <c r="E166" s="26" t="s">
         <v>133</v>
@@ -7401,20 +7391,20 @@
       <c r="G166" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H166" s="40" t="s">
-        <v>584</v>
+      <c r="H166" s="39" t="s">
+        <v>583</v>
       </c>
       <c r="I166" s="29"/>
       <c r="J166" s="2"/>
     </row>
     <row r="167" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B167" s="49"/>
       <c r="C167" s="48"/>
-      <c r="D167" s="42" t="s">
-        <v>622</v>
+      <c r="D167" s="41" t="s">
+        <v>621</v>
       </c>
       <c r="E167" s="26" t="s">
         <v>133</v>
@@ -7425,20 +7415,20 @@
       <c r="G167" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H167" s="40" t="s">
-        <v>585</v>
+      <c r="H167" s="39" t="s">
+        <v>584</v>
       </c>
       <c r="I167" s="29"/>
       <c r="J167" s="2"/>
     </row>
     <row r="168" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B168" s="49"/>
       <c r="C168" s="48"/>
-      <c r="D168" s="42" t="s">
-        <v>412</v>
+      <c r="D168" s="41" t="s">
+        <v>411</v>
       </c>
       <c r="E168" s="26" t="s">
         <v>133</v>
@@ -7449,20 +7439,20 @@
       <c r="G168" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H168" s="40" t="s">
-        <v>543</v>
+      <c r="H168" s="39" t="s">
+        <v>542</v>
       </c>
       <c r="I168" s="29"/>
       <c r="J168" s="2"/>
     </row>
     <row r="169" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B169" s="49"/>
       <c r="C169" s="48"/>
-      <c r="D169" s="42" t="s">
-        <v>623</v>
+      <c r="D169" s="41" t="s">
+        <v>622</v>
       </c>
       <c r="E169" s="26" t="s">
         <v>133</v>
@@ -7473,20 +7463,20 @@
       <c r="G169" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H169" s="40" t="s">
-        <v>586</v>
+      <c r="H169" s="39" t="s">
+        <v>585</v>
       </c>
       <c r="I169" s="29"/>
       <c r="J169" s="2"/>
     </row>
     <row r="170" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B170" s="49"/>
       <c r="C170" s="48"/>
-      <c r="D170" s="42" t="s">
-        <v>624</v>
+      <c r="D170" s="41" t="s">
+        <v>623</v>
       </c>
       <c r="E170" s="26" t="s">
         <v>133</v>
@@ -7497,20 +7487,20 @@
       <c r="G170" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H170" s="40" t="s">
-        <v>587</v>
+      <c r="H170" s="39" t="s">
+        <v>586</v>
       </c>
       <c r="I170" s="29"/>
       <c r="J170" s="2"/>
     </row>
     <row r="171" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B171" s="49"/>
       <c r="C171" s="48"/>
-      <c r="D171" s="42" t="s">
-        <v>625</v>
+      <c r="D171" s="41" t="s">
+        <v>624</v>
       </c>
       <c r="E171" s="26" t="s">
         <v>133</v>
@@ -7521,20 +7511,20 @@
       <c r="G171" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H171" s="40" t="s">
-        <v>588</v>
+      <c r="H171" s="39" t="s">
+        <v>587</v>
       </c>
       <c r="I171" s="29"/>
       <c r="J171" s="2"/>
     </row>
     <row r="172" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B172" s="49"/>
       <c r="C172" s="48"/>
-      <c r="D172" s="42" t="s">
-        <v>626</v>
+      <c r="D172" s="41" t="s">
+        <v>625</v>
       </c>
       <c r="E172" s="26" t="s">
         <v>133</v>
@@ -7545,20 +7535,20 @@
       <c r="G172" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H172" s="40" t="s">
-        <v>589</v>
+      <c r="H172" s="39" t="s">
+        <v>588</v>
       </c>
       <c r="I172" s="29"/>
       <c r="J172" s="2"/>
     </row>
     <row r="173" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B173" s="49"/>
       <c r="C173" s="48"/>
-      <c r="D173" s="42" t="s">
-        <v>627</v>
+      <c r="D173" s="41" t="s">
+        <v>626</v>
       </c>
       <c r="E173" s="26" t="s">
         <v>133</v>
@@ -7569,22 +7559,22 @@
       <c r="G173" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H173" s="40" t="s">
-        <v>613</v>
+      <c r="H173" s="39" t="s">
+        <v>612</v>
       </c>
       <c r="I173" s="29"/>
       <c r="J173" s="2"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B174" s="49"/>
       <c r="C174" s="48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D174" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E174" s="26" t="s">
         <v>92</v>
@@ -7595,20 +7585,20 @@
       <c r="G174" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H174" s="42" t="s">
-        <v>628</v>
+      <c r="H174" s="41" t="s">
+        <v>627</v>
       </c>
       <c r="I174" s="29"/>
       <c r="J174" s="2"/>
     </row>
     <row r="175" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B175" s="49"/>
       <c r="C175" s="48"/>
-      <c r="D175" s="41" t="s">
-        <v>418</v>
+      <c r="D175" s="40" t="s">
+        <v>417</v>
       </c>
       <c r="E175" s="26" t="s">
         <v>133</v>
@@ -7619,20 +7609,20 @@
       <c r="G175" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H175" s="40" t="s">
-        <v>544</v>
+      <c r="H175" s="39" t="s">
+        <v>543</v>
       </c>
       <c r="I175" s="29"/>
       <c r="J175" s="2"/>
     </row>
     <row r="176" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B176" s="49"/>
       <c r="C176" s="48"/>
-      <c r="D176" s="42" t="s">
-        <v>621</v>
+      <c r="D176" s="41" t="s">
+        <v>620</v>
       </c>
       <c r="E176" s="26" t="s">
         <v>133</v>
@@ -7643,20 +7633,20 @@
       <c r="G176" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H176" s="40" t="s">
-        <v>614</v>
+      <c r="H176" s="39" t="s">
+        <v>613</v>
       </c>
       <c r="I176" s="29"/>
       <c r="J176" s="2"/>
     </row>
     <row r="177" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B177" s="49"/>
       <c r="C177" s="48"/>
-      <c r="D177" s="42" t="s">
-        <v>622</v>
+      <c r="D177" s="41" t="s">
+        <v>621</v>
       </c>
       <c r="E177" s="26" t="s">
         <v>133</v>
@@ -7667,20 +7657,20 @@
       <c r="G177" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H177" s="40" t="s">
-        <v>615</v>
+      <c r="H177" s="39" t="s">
+        <v>614</v>
       </c>
       <c r="I177" s="29"/>
       <c r="J177" s="2"/>
     </row>
     <row r="178" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B178" s="49"/>
       <c r="C178" s="48"/>
-      <c r="D178" s="42" t="s">
-        <v>412</v>
+      <c r="D178" s="41" t="s">
+        <v>411</v>
       </c>
       <c r="E178" s="26" t="s">
         <v>133</v>
@@ -7691,20 +7681,20 @@
       <c r="G178" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H178" s="40" t="s">
-        <v>545</v>
+      <c r="H178" s="39" t="s">
+        <v>544</v>
       </c>
       <c r="I178" s="29"/>
       <c r="J178" s="2"/>
     </row>
     <row r="179" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B179" s="49"/>
       <c r="C179" s="48"/>
-      <c r="D179" s="42" t="s">
-        <v>623</v>
+      <c r="D179" s="41" t="s">
+        <v>622</v>
       </c>
       <c r="E179" s="26" t="s">
         <v>133</v>
@@ -7715,20 +7705,20 @@
       <c r="G179" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H179" s="40" t="s">
-        <v>616</v>
+      <c r="H179" s="39" t="s">
+        <v>615</v>
       </c>
       <c r="I179" s="29"/>
       <c r="J179" s="2"/>
     </row>
     <row r="180" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B180" s="49"/>
       <c r="C180" s="48"/>
-      <c r="D180" s="42" t="s">
-        <v>624</v>
+      <c r="D180" s="41" t="s">
+        <v>623</v>
       </c>
       <c r="E180" s="26" t="s">
         <v>133</v>
@@ -7739,20 +7729,20 @@
       <c r="G180" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H180" s="40" t="s">
-        <v>617</v>
+      <c r="H180" s="39" t="s">
+        <v>616</v>
       </c>
       <c r="I180" s="29"/>
       <c r="J180" s="2"/>
     </row>
     <row r="181" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B181" s="49"/>
       <c r="C181" s="48"/>
-      <c r="D181" s="42" t="s">
-        <v>625</v>
+      <c r="D181" s="41" t="s">
+        <v>624</v>
       </c>
       <c r="E181" s="26" t="s">
         <v>133</v>
@@ -7763,20 +7753,20 @@
       <c r="G181" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H181" s="40" t="s">
-        <v>618</v>
+      <c r="H181" s="39" t="s">
+        <v>617</v>
       </c>
       <c r="I181" s="29"/>
       <c r="J181" s="2"/>
     </row>
     <row r="182" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B182" s="49"/>
       <c r="C182" s="48"/>
-      <c r="D182" s="42" t="s">
-        <v>626</v>
+      <c r="D182" s="41" t="s">
+        <v>625</v>
       </c>
       <c r="E182" s="26" t="s">
         <v>133</v>
@@ -7787,20 +7777,20 @@
       <c r="G182" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H182" s="40" t="s">
-        <v>619</v>
+      <c r="H182" s="39" t="s">
+        <v>618</v>
       </c>
       <c r="I182" s="29"/>
       <c r="J182" s="2"/>
     </row>
     <row r="183" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B183" s="49"/>
       <c r="C183" s="48"/>
-      <c r="D183" s="42" t="s">
-        <v>627</v>
+      <c r="D183" s="41" t="s">
+        <v>626</v>
       </c>
       <c r="E183" s="26" t="s">
         <v>133</v>
@@ -7811,22 +7801,22 @@
       <c r="G183" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H183" s="40" t="s">
-        <v>620</v>
+      <c r="H183" s="39" t="s">
+        <v>619</v>
       </c>
       <c r="I183" s="29"/>
       <c r="J183" s="2"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B184" s="49"/>
       <c r="C184" s="48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D184" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E184" s="26" t="s">
         <v>92</v>
@@ -7838,19 +7828,19 @@
         <v>18</v>
       </c>
       <c r="H184" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I184" s="29"/>
       <c r="J184" s="2"/>
     </row>
     <row r="185" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B185" s="49"/>
       <c r="C185" s="48"/>
-      <c r="D185" s="41" t="s">
-        <v>418</v>
+      <c r="D185" s="40" t="s">
+        <v>417</v>
       </c>
       <c r="E185" s="26" t="s">
         <v>133</v>
@@ -7861,20 +7851,20 @@
       <c r="G185" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H185" s="40" t="s">
-        <v>546</v>
+      <c r="H185" s="39" t="s">
+        <v>545</v>
       </c>
       <c r="I185" s="29"/>
       <c r="J185" s="2"/>
     </row>
     <row r="186" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B186" s="49"/>
       <c r="C186" s="48"/>
-      <c r="D186" s="42" t="s">
-        <v>621</v>
+      <c r="D186" s="41" t="s">
+        <v>620</v>
       </c>
       <c r="E186" s="26" t="s">
         <v>133</v>
@@ -7885,20 +7875,20 @@
       <c r="G186" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H186" s="40" t="s">
-        <v>572</v>
+      <c r="H186" s="39" t="s">
+        <v>571</v>
       </c>
       <c r="I186" s="29"/>
       <c r="J186" s="2"/>
     </row>
     <row r="187" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B187" s="49"/>
       <c r="C187" s="48"/>
-      <c r="D187" s="42" t="s">
-        <v>622</v>
+      <c r="D187" s="41" t="s">
+        <v>621</v>
       </c>
       <c r="E187" s="26" t="s">
         <v>133</v>
@@ -7909,20 +7899,20 @@
       <c r="G187" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H187" s="40" t="s">
-        <v>573</v>
+      <c r="H187" s="39" t="s">
+        <v>572</v>
       </c>
       <c r="I187" s="29"/>
       <c r="J187" s="2"/>
     </row>
     <row r="188" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B188" s="49"/>
       <c r="C188" s="48"/>
-      <c r="D188" s="42" t="s">
-        <v>412</v>
+      <c r="D188" s="41" t="s">
+        <v>411</v>
       </c>
       <c r="E188" s="26" t="s">
         <v>133</v>
@@ -7933,20 +7923,20 @@
       <c r="G188" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H188" s="40" t="s">
-        <v>547</v>
+      <c r="H188" s="39" t="s">
+        <v>546</v>
       </c>
       <c r="I188" s="29"/>
       <c r="J188" s="2"/>
     </row>
     <row r="189" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B189" s="49"/>
       <c r="C189" s="48"/>
-      <c r="D189" s="42" t="s">
-        <v>623</v>
+      <c r="D189" s="41" t="s">
+        <v>622</v>
       </c>
       <c r="E189" s="26" t="s">
         <v>133</v>
@@ -7957,20 +7947,20 @@
       <c r="G189" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H189" s="40" t="s">
-        <v>574</v>
+      <c r="H189" s="39" t="s">
+        <v>573</v>
       </c>
       <c r="I189" s="29"/>
       <c r="J189" s="2"/>
     </row>
     <row r="190" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B190" s="49"/>
       <c r="C190" s="48"/>
-      <c r="D190" s="42" t="s">
-        <v>624</v>
+      <c r="D190" s="41" t="s">
+        <v>623</v>
       </c>
       <c r="E190" s="26" t="s">
         <v>133</v>
@@ -7981,20 +7971,20 @@
       <c r="G190" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H190" s="40" t="s">
-        <v>575</v>
+      <c r="H190" s="39" t="s">
+        <v>574</v>
       </c>
       <c r="I190" s="29"/>
       <c r="J190" s="2"/>
     </row>
     <row r="191" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B191" s="49"/>
       <c r="C191" s="48"/>
-      <c r="D191" s="42" t="s">
-        <v>625</v>
+      <c r="D191" s="41" t="s">
+        <v>624</v>
       </c>
       <c r="E191" s="26" t="s">
         <v>133</v>
@@ -8005,20 +7995,20 @@
       <c r="G191" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H191" s="40" t="s">
-        <v>576</v>
+      <c r="H191" s="39" t="s">
+        <v>575</v>
       </c>
       <c r="I191" s="29"/>
       <c r="J191" s="2"/>
     </row>
     <row r="192" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B192" s="49"/>
       <c r="C192" s="48"/>
-      <c r="D192" s="42" t="s">
-        <v>626</v>
+      <c r="D192" s="41" t="s">
+        <v>625</v>
       </c>
       <c r="E192" s="26" t="s">
         <v>133</v>
@@ -8029,20 +8019,20 @@
       <c r="G192" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H192" s="40" t="s">
-        <v>577</v>
+      <c r="H192" s="39" t="s">
+        <v>576</v>
       </c>
       <c r="I192" s="29"/>
       <c r="J192" s="2"/>
     </row>
     <row r="193" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B193" s="49"/>
       <c r="C193" s="48"/>
-      <c r="D193" s="42" t="s">
-        <v>627</v>
+      <c r="D193" s="41" t="s">
+        <v>626</v>
       </c>
       <c r="E193" s="26" t="s">
         <v>133</v>
@@ -8053,22 +8043,22 @@
       <c r="G193" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H193" s="40" t="s">
-        <v>611</v>
+      <c r="H193" s="39" t="s">
+        <v>610</v>
       </c>
       <c r="I193" s="29"/>
       <c r="J193" s="2"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B194" s="49"/>
       <c r="C194" s="48" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D194" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E194" s="26" t="s">
         <v>92</v>
@@ -8080,19 +8070,19 @@
         <v>18</v>
       </c>
       <c r="H194" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I194" s="29"/>
       <c r="J194" s="2"/>
     </row>
     <row r="195" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B195" s="49"/>
       <c r="C195" s="48"/>
-      <c r="D195" s="41" t="s">
-        <v>418</v>
+      <c r="D195" s="40" t="s">
+        <v>417</v>
       </c>
       <c r="E195" s="26" t="s">
         <v>133</v>
@@ -8103,20 +8093,20 @@
       <c r="G195" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H195" s="40" t="s">
-        <v>548</v>
+      <c r="H195" s="39" t="s">
+        <v>547</v>
       </c>
       <c r="I195" s="29"/>
       <c r="J195" s="2"/>
     </row>
     <row r="196" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B196" s="49"/>
       <c r="C196" s="48"/>
-      <c r="D196" s="42" t="s">
-        <v>621</v>
+      <c r="D196" s="41" t="s">
+        <v>620</v>
       </c>
       <c r="E196" s="26" t="s">
         <v>133</v>
@@ -8127,20 +8117,20 @@
       <c r="G196" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H196" s="40" t="s">
-        <v>566</v>
+      <c r="H196" s="39" t="s">
+        <v>565</v>
       </c>
       <c r="I196" s="29"/>
       <c r="J196" s="2"/>
     </row>
     <row r="197" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B197" s="49"/>
       <c r="C197" s="48"/>
-      <c r="D197" s="42" t="s">
-        <v>622</v>
+      <c r="D197" s="41" t="s">
+        <v>621</v>
       </c>
       <c r="E197" s="26" t="s">
         <v>133</v>
@@ -8151,20 +8141,20 @@
       <c r="G197" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H197" s="40" t="s">
-        <v>567</v>
+      <c r="H197" s="39" t="s">
+        <v>566</v>
       </c>
       <c r="I197" s="29"/>
       <c r="J197" s="2"/>
     </row>
     <row r="198" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B198" s="49"/>
       <c r="C198" s="48"/>
-      <c r="D198" s="42" t="s">
-        <v>412</v>
+      <c r="D198" s="41" t="s">
+        <v>411</v>
       </c>
       <c r="E198" s="26" t="s">
         <v>133</v>
@@ -8175,20 +8165,20 @@
       <c r="G198" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H198" s="40" t="s">
-        <v>549</v>
+      <c r="H198" s="39" t="s">
+        <v>548</v>
       </c>
       <c r="I198" s="29"/>
       <c r="J198" s="2"/>
     </row>
     <row r="199" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B199" s="49"/>
       <c r="C199" s="48"/>
-      <c r="D199" s="42" t="s">
-        <v>623</v>
+      <c r="D199" s="41" t="s">
+        <v>622</v>
       </c>
       <c r="E199" s="26" t="s">
         <v>133</v>
@@ -8199,20 +8189,20 @@
       <c r="G199" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H199" s="40" t="s">
-        <v>568</v>
+      <c r="H199" s="39" t="s">
+        <v>567</v>
       </c>
       <c r="I199" s="29"/>
       <c r="J199" s="2"/>
     </row>
     <row r="200" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B200" s="49"/>
       <c r="C200" s="48"/>
-      <c r="D200" s="42" t="s">
-        <v>624</v>
+      <c r="D200" s="41" t="s">
+        <v>623</v>
       </c>
       <c r="E200" s="26" t="s">
         <v>133</v>
@@ -8223,20 +8213,20 @@
       <c r="G200" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H200" s="40" t="s">
-        <v>569</v>
+      <c r="H200" s="39" t="s">
+        <v>568</v>
       </c>
       <c r="I200" s="29"/>
       <c r="J200" s="2"/>
     </row>
     <row r="201" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B201" s="49"/>
       <c r="C201" s="48"/>
-      <c r="D201" s="42" t="s">
-        <v>625</v>
+      <c r="D201" s="41" t="s">
+        <v>624</v>
       </c>
       <c r="E201" s="26" t="s">
         <v>133</v>
@@ -8247,20 +8237,20 @@
       <c r="G201" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H201" s="40" t="s">
-        <v>570</v>
+      <c r="H201" s="39" t="s">
+        <v>569</v>
       </c>
       <c r="I201" s="29"/>
       <c r="J201" s="2"/>
     </row>
     <row r="202" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B202" s="49"/>
       <c r="C202" s="48"/>
-      <c r="D202" s="42" t="s">
-        <v>626</v>
+      <c r="D202" s="41" t="s">
+        <v>625</v>
       </c>
       <c r="E202" s="26" t="s">
         <v>133</v>
@@ -8271,20 +8261,20 @@
       <c r="G202" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H202" s="40" t="s">
-        <v>571</v>
+      <c r="H202" s="39" t="s">
+        <v>570</v>
       </c>
       <c r="I202" s="29"/>
       <c r="J202" s="2"/>
     </row>
     <row r="203" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B203" s="49"/>
       <c r="C203" s="48"/>
-      <c r="D203" s="42" t="s">
-        <v>627</v>
+      <c r="D203" s="41" t="s">
+        <v>626</v>
       </c>
       <c r="E203" s="26" t="s">
         <v>133</v>
@@ -8295,8 +8285,8 @@
       <c r="G203" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H203" s="40" t="s">
-        <v>612</v>
+      <c r="H203" s="39" t="s">
+        <v>611</v>
       </c>
       <c r="I203" s="29"/>
       <c r="J203" s="2"/>
@@ -8304,11 +8294,9 @@
   </sheetData>
   <autoFilter ref="I1:I152" xr:uid="{407B753E-D1E8-46BC-BF70-35AA7CA269EC}"/>
   <mergeCells count="28">
-    <mergeCell ref="B84:B113"/>
-    <mergeCell ref="B2:B83"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C184:C193"/>
+    <mergeCell ref="C71:C77"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="C84:C93"/>
     <mergeCell ref="C194:C203"/>
     <mergeCell ref="B114:B203"/>
     <mergeCell ref="C114:C123"/>
@@ -8318,6 +8306,11 @@
     <mergeCell ref="C154:C163"/>
     <mergeCell ref="C164:C173"/>
     <mergeCell ref="C174:C183"/>
+    <mergeCell ref="B84:B113"/>
+    <mergeCell ref="B2:B83"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C184:C193"/>
     <mergeCell ref="C46:C51"/>
     <mergeCell ref="C16:C21"/>
     <mergeCell ref="C22:C27"/>
@@ -8329,9 +8322,6 @@
     <mergeCell ref="C52:C57"/>
     <mergeCell ref="C58:C64"/>
     <mergeCell ref="C65:C70"/>
-    <mergeCell ref="C71:C77"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="C84:C93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testCases/helpsToolDropdownTC.xlsx
+++ b/src/test/resources/testCases/helpsToolDropdownTC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\eclipse-workspace1\helpsToolDropdown\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EA4AC8-975E-480E-890A-0B237A0B6270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1E72F1-2EF6-46C8-A02D-0392158D0891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="380" yWindow="380" windowWidth="8280" windowHeight="9320" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testCase" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="TC01" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TC01'!$I$1:$I$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TC01'!$I$1:$I$141</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="633">
   <si>
     <t>ObjectType</t>
   </si>
@@ -1924,6 +1924,15 @@
   </si>
   <si>
     <t>Click Final Recommendation Menu</t>
+  </si>
+  <si>
+    <t>UAS1207</t>
+  </si>
+  <si>
+    <t>Select: Pain intensity acceptable to individual; no treatment regimen or change in regimen required</t>
+  </si>
+  <si>
+    <t>//select[@id='Pain']//option[contains(text(), 'Pain intensity acceptable to individual; no treatment regimen or change in regimen required')]</t>
   </si>
 </sst>
 </file>
@@ -2087,7 +2096,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2207,6 +2216,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2214,15 +2250,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2233,18 +2260,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3040,7 +3055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2306BF6-5C33-4ED3-B4E3-3A93DAE93B44}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
@@ -3089,7 +3104,7 @@
       <c r="A2" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="46" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="37" t="s">
@@ -3115,7 +3130,7 @@
       <c r="A3" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="18" t="s">
         <v>84</v>
       </c>
@@ -3142,7 +3157,7 @@
       <c r="A4" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="18" t="s">
         <v>85</v>
       </c>
@@ -3169,7 +3184,7 @@
       <c r="A5" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="18" t="s">
         <v>86</v>
       </c>
@@ -3196,7 +3211,7 @@
       <c r="A6" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="18" t="s">
         <v>84</v>
       </c>
@@ -3223,7 +3238,7 @@
       <c r="A7" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="18" t="s">
         <v>85</v>
       </c>
@@ -3250,7 +3265,7 @@
       <c r="A8" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="18" t="s">
         <v>105</v>
       </c>
@@ -3277,7 +3292,7 @@
       <c r="A9" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="18" t="s">
         <v>30</v>
       </c>
@@ -3302,7 +3317,7 @@
       <c r="A10" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="18" t="s">
         <v>49</v>
       </c>
@@ -3335,10 +3350,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407B753E-D1E8-46BC-BF70-35AA7CA269EC}">
-  <dimension ref="A1:J203"/>
+  <dimension ref="A1:J204"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H174" sqref="H174"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3391,10 +3406,10 @@
       <c r="A2" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="52" t="s">
         <v>202</v>
       </c>
       <c r="D2" s="26" t="s">
@@ -3419,8 +3434,8 @@
       <c r="A3" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="13" t="s">
         <v>417</v>
       </c>
@@ -3443,8 +3458,8 @@
       <c r="A4" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="13" t="s">
         <v>383</v>
       </c>
@@ -3467,8 +3482,8 @@
       <c r="A5" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="13" t="s">
         <v>384</v>
       </c>
@@ -3491,8 +3506,8 @@
       <c r="A6" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="13" t="s">
         <v>385</v>
       </c>
@@ -3515,8 +3530,8 @@
       <c r="A7" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="43" t="s">
         <v>386</v>
       </c>
@@ -3539,8 +3554,8 @@
       <c r="A8" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="47"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="13" t="s">
         <v>387</v>
       </c>
@@ -3563,8 +3578,8 @@
       <c r="A9" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="13" t="s">
         <v>388</v>
       </c>
@@ -3587,8 +3602,8 @@
       <c r="A10" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="52" t="s">
         <v>451</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -3613,8 +3628,8 @@
       <c r="A11" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="47"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="13" t="s">
         <v>417</v>
       </c>
@@ -3637,8 +3652,8 @@
       <c r="A12" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="13" t="s">
         <v>389</v>
       </c>
@@ -3661,8 +3676,8 @@
       <c r="A13" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="47"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="13" t="s">
         <v>390</v>
       </c>
@@ -3685,8 +3700,8 @@
       <c r="A14" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="47"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="13" t="s">
         <v>391</v>
       </c>
@@ -3709,8 +3724,8 @@
       <c r="A15" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="47"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="13" t="s">
         <v>392</v>
       </c>
@@ -3733,8 +3748,8 @@
       <c r="A16" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="47" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="52" t="s">
         <v>204</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -3759,8 +3774,8 @@
       <c r="A17" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="47"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="13" t="s">
         <v>417</v>
       </c>
@@ -3783,8 +3798,8 @@
       <c r="A18" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="47"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="13" t="s">
         <v>389</v>
       </c>
@@ -3807,8 +3822,8 @@
       <c r="A19" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="13" t="s">
         <v>393</v>
       </c>
@@ -3831,8 +3846,8 @@
       <c r="A20" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="47"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="13" t="s">
         <v>394</v>
       </c>
@@ -3855,8 +3870,8 @@
       <c r="A21" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="13" t="s">
         <v>395</v>
       </c>
@@ -3879,8 +3894,8 @@
       <c r="A22" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="47" t="s">
+      <c r="B22" s="54"/>
+      <c r="C22" s="52" t="s">
         <v>205</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -3905,8 +3920,8 @@
       <c r="A23" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="47"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="13" t="s">
         <v>417</v>
       </c>
@@ -3929,8 +3944,8 @@
       <c r="A24" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="47"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="13" t="s">
         <v>389</v>
       </c>
@@ -3953,8 +3968,8 @@
       <c r="A25" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="47"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="13" t="s">
         <v>396</v>
       </c>
@@ -3977,8 +3992,8 @@
       <c r="A26" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="47"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="13" t="s">
         <v>391</v>
       </c>
@@ -4001,8 +4016,8 @@
       <c r="A27" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="47"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="13" t="s">
         <v>392</v>
       </c>
@@ -4025,8 +4040,8 @@
       <c r="A28" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="47" t="s">
+      <c r="B28" s="54"/>
+      <c r="C28" s="52" t="s">
         <v>206</v>
       </c>
       <c r="D28" s="26" t="s">
@@ -4051,8 +4066,8 @@
       <c r="A29" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="47"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="13" t="s">
         <v>417</v>
       </c>
@@ -4075,8 +4090,8 @@
       <c r="A30" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="13" t="s">
         <v>389</v>
       </c>
@@ -4099,8 +4114,8 @@
       <c r="A31" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="47"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="26" t="s">
         <v>393</v>
       </c>
@@ -4123,8 +4138,8 @@
       <c r="A32" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="47"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="13" t="s">
         <v>394</v>
       </c>
@@ -4147,8 +4162,8 @@
       <c r="A33" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="47"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="13" t="s">
         <v>395</v>
       </c>
@@ -4171,8 +4186,8 @@
       <c r="A34" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="47" t="s">
+      <c r="B34" s="54"/>
+      <c r="C34" s="52" t="s">
         <v>207</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -4197,8 +4212,8 @@
       <c r="A35" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="47"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="13" t="s">
         <v>417</v>
       </c>
@@ -4221,8 +4236,8 @@
       <c r="A36" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="47"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="52"/>
       <c r="D36" s="13" t="s">
         <v>389</v>
       </c>
@@ -4245,8 +4260,8 @@
       <c r="A37" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="47"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="13" t="s">
         <v>396</v>
       </c>
@@ -4269,8 +4284,8 @@
       <c r="A38" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="47"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="13" t="s">
         <v>391</v>
       </c>
@@ -4293,8 +4308,8 @@
       <c r="A39" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="47"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="26" t="s">
         <v>392</v>
       </c>
@@ -4317,8 +4332,8 @@
       <c r="A40" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="53" t="s">
+      <c r="B40" s="54"/>
+      <c r="C40" s="49" t="s">
         <v>208</v>
       </c>
       <c r="D40" s="26" t="s">
@@ -4343,8 +4358,8 @@
       <c r="A41" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="53"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="13" t="s">
         <v>417</v>
       </c>
@@ -4367,8 +4382,8 @@
       <c r="A42" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="53"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="13" t="s">
         <v>389</v>
       </c>
@@ -4391,8 +4406,8 @@
       <c r="A43" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="53"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="26" t="s">
         <v>393</v>
       </c>
@@ -4415,8 +4430,8 @@
       <c r="A44" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="53"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="13" t="s">
         <v>394</v>
       </c>
@@ -4439,8 +4454,8 @@
       <c r="A45" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="53"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="13" t="s">
         <v>395</v>
       </c>
@@ -4463,8 +4478,8 @@
       <c r="A46" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="50" t="s">
+      <c r="B46" s="54"/>
+      <c r="C46" s="56" t="s">
         <v>209</v>
       </c>
       <c r="D46" s="13" t="s">
@@ -4489,8 +4504,8 @@
       <c r="A47" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="51"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="13" t="s">
         <v>417</v>
       </c>
@@ -4513,8 +4528,8 @@
       <c r="A48" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="B48" s="45"/>
-      <c r="C48" s="51"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="57"/>
       <c r="D48" s="13" t="s">
         <v>397</v>
       </c>
@@ -4537,8 +4552,8 @@
       <c r="A49" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="51"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="13" t="s">
         <v>398</v>
       </c>
@@ -4561,8 +4576,8 @@
       <c r="A50" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="51"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="57"/>
       <c r="D50" s="13" t="s">
         <v>399</v>
       </c>
@@ -4585,8 +4600,8 @@
       <c r="A51" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="B51" s="45"/>
-      <c r="C51" s="52"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="58"/>
       <c r="D51" s="13" t="s">
         <v>400</v>
       </c>
@@ -4609,8 +4624,8 @@
       <c r="A52" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="B52" s="45"/>
-      <c r="C52" s="53" t="s">
+      <c r="B52" s="54"/>
+      <c r="C52" s="49" t="s">
         <v>210</v>
       </c>
       <c r="D52" s="13" t="s">
@@ -4635,8 +4650,8 @@
       <c r="A53" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="B53" s="45"/>
-      <c r="C53" s="53"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="13" t="s">
         <v>417</v>
       </c>
@@ -4659,8 +4674,8 @@
       <c r="A54" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="53"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="26" t="s">
         <v>389</v>
       </c>
@@ -4683,8 +4698,8 @@
       <c r="A55" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="B55" s="45"/>
-      <c r="C55" s="53"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="49"/>
       <c r="D55" s="26" t="s">
         <v>393</v>
       </c>
@@ -4707,8 +4722,8 @@
       <c r="A56" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="53"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="49"/>
       <c r="D56" s="26" t="s">
         <v>394</v>
       </c>
@@ -4731,8 +4746,8 @@
       <c r="A57" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="B57" s="45"/>
-      <c r="C57" s="53"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="49"/>
       <c r="D57" s="26" t="s">
         <v>395</v>
       </c>
@@ -4755,8 +4770,8 @@
       <c r="A58" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="B58" s="45"/>
-      <c r="C58" s="53" t="s">
+      <c r="B58" s="54"/>
+      <c r="C58" s="49" t="s">
         <v>211</v>
       </c>
       <c r="D58" s="13" t="s">
@@ -4781,8 +4796,8 @@
       <c r="A59" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="B59" s="45"/>
-      <c r="C59" s="53"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="49"/>
       <c r="D59" s="13" t="s">
         <v>417</v>
       </c>
@@ -4805,8 +4820,8 @@
       <c r="A60" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="B60" s="45"/>
-      <c r="C60" s="53"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="33" t="s">
         <v>550</v>
       </c>
@@ -4829,8 +4844,8 @@
       <c r="A61" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="B61" s="45"/>
-      <c r="C61" s="53"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="13" t="s">
         <v>401</v>
       </c>
@@ -4853,8 +4868,8 @@
       <c r="A62" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="B62" s="45"/>
-      <c r="C62" s="53"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="49"/>
       <c r="D62" s="13" t="s">
         <v>402</v>
       </c>
@@ -4877,8 +4892,8 @@
       <c r="A63" s="23" t="s">
         <v>554</v>
       </c>
-      <c r="B63" s="45"/>
-      <c r="C63" s="53"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="49"/>
       <c r="D63" s="33" t="s">
         <v>552</v>
       </c>
@@ -4901,8 +4916,8 @@
       <c r="A64" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="B64" s="45"/>
-      <c r="C64" s="53"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="49"/>
       <c r="D64" s="13" t="s">
         <v>403</v>
       </c>
@@ -4925,8 +4940,8 @@
       <c r="A65" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="B65" s="45"/>
-      <c r="C65" s="50" t="s">
+      <c r="B65" s="54"/>
+      <c r="C65" s="56" t="s">
         <v>213</v>
       </c>
       <c r="D65" s="13" t="s">
@@ -4951,8 +4966,8 @@
       <c r="A66" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B66" s="45"/>
-      <c r="C66" s="51"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="57"/>
       <c r="D66" s="13" t="s">
         <v>417</v>
       </c>
@@ -4975,8 +4990,8 @@
       <c r="A67" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="B67" s="45"/>
-      <c r="C67" s="51"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="57"/>
       <c r="D67" s="26" t="s">
         <v>389</v>
       </c>
@@ -4999,8 +5014,8 @@
       <c r="A68" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="B68" s="45"/>
-      <c r="C68" s="51"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="57"/>
       <c r="D68" s="26" t="s">
         <v>393</v>
       </c>
@@ -5023,8 +5038,8 @@
       <c r="A69" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="B69" s="45"/>
-      <c r="C69" s="51"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="57"/>
       <c r="D69" s="26" t="s">
         <v>394</v>
       </c>
@@ -5047,8 +5062,8 @@
       <c r="A70" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="B70" s="45"/>
-      <c r="C70" s="52"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="58"/>
       <c r="D70" s="26" t="s">
         <v>395</v>
       </c>
@@ -5071,8 +5086,8 @@
       <c r="A71" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="B71" s="45"/>
-      <c r="C71" s="53" t="s">
+      <c r="B71" s="54"/>
+      <c r="C71" s="56" t="s">
         <v>214</v>
       </c>
       <c r="D71" s="13" t="s">
@@ -5097,8 +5112,8 @@
       <c r="A72" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="B72" s="45"/>
-      <c r="C72" s="53"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="57"/>
       <c r="D72" s="13" t="s">
         <v>417</v>
       </c>
@@ -5121,8 +5136,8 @@
       <c r="A73" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="B73" s="45"/>
-      <c r="C73" s="53"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="57"/>
       <c r="D73" s="13" t="s">
         <v>404</v>
       </c>
@@ -5145,22 +5160,22 @@
       <c r="A74" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="B74" s="45"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F74" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" s="13" t="s">
-        <v>496</v>
+      <c r="B74" s="54"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="45" t="s">
+        <v>631</v>
+      </c>
+      <c r="E74" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="F74" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="45" t="s">
+        <v>632</v>
       </c>
       <c r="I74" s="29"/>
       <c r="J74" s="2"/>
@@ -5169,10 +5184,10 @@
       <c r="A75" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="B75" s="45"/>
-      <c r="C75" s="53"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="57"/>
       <c r="D75" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E75" s="26" t="s">
         <v>133</v>
@@ -5184,7 +5199,7 @@
         <v>18</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I75" s="29"/>
       <c r="J75" s="2"/>
@@ -5193,10 +5208,10 @@
       <c r="A76" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="B76" s="45"/>
-      <c r="C76" s="53"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="57"/>
       <c r="D76" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E76" s="26" t="s">
         <v>133</v>
@@ -5208,7 +5223,7 @@
         <v>18</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I76" s="29"/>
       <c r="J76" s="2"/>
@@ -5217,10 +5232,10 @@
       <c r="A77" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="B77" s="45"/>
-      <c r="C77" s="53"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E77" s="26" t="s">
         <v>133</v>
@@ -5232,69 +5247,69 @@
         <v>18</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I77" s="29"/>
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="B78" s="54"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="I78" s="29"/>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="B78" s="45"/>
-      <c r="C78" s="53" t="s">
+      <c r="B79" s="54"/>
+      <c r="C79" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="D78" s="26" t="s">
+      <c r="D79" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="E78" s="26" t="s">
+      <c r="E79" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F78" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="26" t="s">
+      <c r="F79" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="26" t="s">
         <v>116</v>
-      </c>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-    </row>
-    <row r="79" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A79" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="B79" s="45"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>500</v>
       </c>
       <c r="I79" s="26"/>
       <c r="J79" s="26"/>
     </row>
     <row r="80" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="B80" s="45"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="26" t="s">
-        <v>389</v>
+        <v>251</v>
+      </c>
+      <c r="B80" s="54"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="13" t="s">
+        <v>417</v>
       </c>
       <c r="E80" s="26" t="s">
         <v>133</v>
@@ -5306,19 +5321,19 @@
         <v>18</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I80" s="26"/>
       <c r="J80" s="26"/>
     </row>
     <row r="81" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="B81" s="45"/>
-      <c r="C81" s="53"/>
+        <v>252</v>
+      </c>
+      <c r="B81" s="54"/>
+      <c r="C81" s="49"/>
       <c r="D81" s="26" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E81" s="26" t="s">
         <v>133</v>
@@ -5330,19 +5345,19 @@
         <v>18</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I81" s="26"/>
       <c r="J81" s="26"/>
     </row>
     <row r="82" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="B82" s="45"/>
-      <c r="C82" s="53"/>
+        <v>253</v>
+      </c>
+      <c r="B82" s="54"/>
+      <c r="C82" s="49"/>
       <c r="D82" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E82" s="26" t="s">
         <v>133</v>
@@ -5354,19 +5369,19 @@
         <v>18</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I82" s="26"/>
       <c r="J82" s="26"/>
     </row>
     <row r="83" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="B83" s="46"/>
-      <c r="C83" s="53"/>
+        <v>254</v>
+      </c>
+      <c r="B83" s="54"/>
+      <c r="C83" s="49"/>
       <c r="D83" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E83" s="26" t="s">
         <v>133</v>
@@ -5383,21 +5398,17 @@
       <c r="I83" s="26"/>
       <c r="J83" s="26"/>
     </row>
-    <row r="84" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="23" t="s">
-        <v>431</v>
-      </c>
-      <c r="B84" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C84" s="53" t="s">
-        <v>257</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="B84" s="55"/>
+      <c r="C84" s="49"/>
       <c r="D84" s="26" t="s">
-        <v>156</v>
+        <v>395</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="F84" s="26" t="s">
         <v>17</v>
@@ -5405,23 +5416,27 @@
       <c r="G84" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H84" s="26" t="s">
-        <v>117</v>
+      <c r="H84" s="13" t="s">
+        <v>503</v>
       </c>
       <c r="I84" s="26"/>
       <c r="J84" s="26"/>
     </row>
-    <row r="85" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="B85" s="45"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="13" t="s">
-        <v>417</v>
+        <v>431</v>
+      </c>
+      <c r="B85" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>156</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="F85" s="26" t="s">
         <v>17</v>
@@ -5429,20 +5444,20 @@
       <c r="G85" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H85" s="13" t="s">
-        <v>504</v>
+      <c r="H85" s="26" t="s">
+        <v>117</v>
       </c>
       <c r="I85" s="26"/>
       <c r="J85" s="26"/>
     </row>
-    <row r="86" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="B86" s="45"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="26" t="s">
-        <v>409</v>
+        <v>256</v>
+      </c>
+      <c r="B86" s="54"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="13" t="s">
+        <v>417</v>
       </c>
       <c r="E86" s="26" t="s">
         <v>133</v>
@@ -5454,19 +5469,19 @@
         <v>18</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I86" s="26"/>
       <c r="J86" s="26"/>
     </row>
-    <row r="87" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="B87" s="45"/>
-      <c r="C87" s="53"/>
+        <v>269</v>
+      </c>
+      <c r="B87" s="54"/>
+      <c r="C87" s="49"/>
       <c r="D87" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E87" s="26" t="s">
         <v>133</v>
@@ -5478,19 +5493,19 @@
         <v>18</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I87" s="26"/>
       <c r="J87" s="26"/>
     </row>
     <row r="88" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="B88" s="45"/>
-      <c r="C88" s="53"/>
+        <v>270</v>
+      </c>
+      <c r="B88" s="54"/>
+      <c r="C88" s="49"/>
       <c r="D88" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E88" s="26" t="s">
         <v>133</v>
@@ -5502,19 +5517,19 @@
         <v>18</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I88" s="26"/>
       <c r="J88" s="26"/>
     </row>
-    <row r="89" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="B89" s="45"/>
-      <c r="C89" s="53"/>
+        <v>271</v>
+      </c>
+      <c r="B89" s="54"/>
+      <c r="C89" s="49"/>
       <c r="D89" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E89" s="26" t="s">
         <v>133</v>
@@ -5526,19 +5541,19 @@
         <v>18</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I89" s="26"/>
       <c r="J89" s="26"/>
     </row>
     <row r="90" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="B90" s="45"/>
-      <c r="C90" s="53"/>
+        <v>272</v>
+      </c>
+      <c r="B90" s="54"/>
+      <c r="C90" s="49"/>
       <c r="D90" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E90" s="26" t="s">
         <v>133</v>
@@ -5550,19 +5565,19 @@
         <v>18</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I90" s="26"/>
       <c r="J90" s="26"/>
     </row>
-    <row r="91" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="B91" s="45"/>
-      <c r="C91" s="53"/>
+        <v>273</v>
+      </c>
+      <c r="B91" s="54"/>
+      <c r="C91" s="49"/>
       <c r="D91" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E91" s="26" t="s">
         <v>133</v>
@@ -5574,19 +5589,19 @@
         <v>18</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I91" s="26"/>
       <c r="J91" s="26"/>
     </row>
-    <row r="92" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A92" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="B92" s="45"/>
-      <c r="C92" s="53"/>
+        <v>274</v>
+      </c>
+      <c r="B92" s="54"/>
+      <c r="C92" s="49"/>
       <c r="D92" s="26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E92" s="26" t="s">
         <v>133</v>
@@ -5598,19 +5613,19 @@
         <v>18</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I92" s="26"/>
       <c r="J92" s="26"/>
     </row>
     <row r="93" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="B93" s="45"/>
-      <c r="C93" s="53"/>
+        <v>275</v>
+      </c>
+      <c r="B93" s="54"/>
+      <c r="C93" s="49"/>
       <c r="D93" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E93" s="26" t="s">
         <v>133</v>
@@ -5622,24 +5637,22 @@
         <v>18</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I93" s="26"/>
       <c r="J93" s="26"/>
     </row>
-    <row r="94" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="B94" s="45"/>
-      <c r="C94" s="50" t="s">
-        <v>258</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="B94" s="54"/>
+      <c r="C94" s="49"/>
       <c r="D94" s="26" t="s">
-        <v>157</v>
+        <v>416</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="F94" s="26" t="s">
         <v>17</v>
@@ -5647,23 +5660,25 @@
       <c r="G94" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H94" s="26" t="s">
-        <v>118</v>
+      <c r="H94" s="13" t="s">
+        <v>512</v>
       </c>
       <c r="I94" s="26"/>
       <c r="J94" s="26"/>
     </row>
-    <row r="95" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="B95" s="45"/>
-      <c r="C95" s="51"/>
-      <c r="D95" s="13" t="s">
-        <v>417</v>
+        <v>432</v>
+      </c>
+      <c r="B95" s="54"/>
+      <c r="C95" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>157</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="F95" s="26" t="s">
         <v>17</v>
@@ -5671,20 +5686,20 @@
       <c r="G95" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H95" s="13" t="s">
-        <v>513</v>
+      <c r="H95" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="I95" s="26"/>
       <c r="J95" s="26"/>
     </row>
-    <row r="96" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="B96" s="45"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="26" t="s">
-        <v>409</v>
+        <v>277</v>
+      </c>
+      <c r="B96" s="54"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="13" t="s">
+        <v>417</v>
       </c>
       <c r="E96" s="26" t="s">
         <v>133</v>
@@ -5696,19 +5711,19 @@
         <v>18</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I96" s="26"/>
       <c r="J96" s="26"/>
     </row>
-    <row r="97" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A97" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="B97" s="45"/>
-      <c r="C97" s="51"/>
+        <v>278</v>
+      </c>
+      <c r="B97" s="54"/>
+      <c r="C97" s="57"/>
       <c r="D97" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E97" s="26" t="s">
         <v>133</v>
@@ -5720,19 +5735,19 @@
         <v>18</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I97" s="26"/>
       <c r="J97" s="26"/>
     </row>
     <row r="98" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="B98" s="45"/>
-      <c r="C98" s="51"/>
+        <v>279</v>
+      </c>
+      <c r="B98" s="54"/>
+      <c r="C98" s="57"/>
       <c r="D98" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E98" s="26" t="s">
         <v>133</v>
@@ -5744,19 +5759,19 @@
         <v>18</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I98" s="26"/>
       <c r="J98" s="26"/>
     </row>
-    <row r="99" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="B99" s="45"/>
-      <c r="C99" s="51"/>
+        <v>280</v>
+      </c>
+      <c r="B99" s="54"/>
+      <c r="C99" s="57"/>
       <c r="D99" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E99" s="26" t="s">
         <v>133</v>
@@ -5768,19 +5783,19 @@
         <v>18</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I99" s="26"/>
       <c r="J99" s="26"/>
     </row>
-    <row r="100" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A100" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="B100" s="45"/>
-      <c r="C100" s="51"/>
+        <v>281</v>
+      </c>
+      <c r="B100" s="54"/>
+      <c r="C100" s="57"/>
       <c r="D100" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E100" s="26" t="s">
         <v>133</v>
@@ -5792,19 +5807,19 @@
         <v>18</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I100" s="26"/>
       <c r="J100" s="26"/>
     </row>
     <row r="101" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="B101" s="45"/>
-      <c r="C101" s="51"/>
+        <v>282</v>
+      </c>
+      <c r="B101" s="54"/>
+      <c r="C101" s="57"/>
       <c r="D101" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E101" s="26" t="s">
         <v>133</v>
@@ -5816,19 +5831,19 @@
         <v>18</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I101" s="26"/>
       <c r="J101" s="26"/>
     </row>
-    <row r="102" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A102" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="B102" s="45"/>
-      <c r="C102" s="51"/>
+        <v>283</v>
+      </c>
+      <c r="B102" s="54"/>
+      <c r="C102" s="57"/>
       <c r="D102" s="26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E102" s="26" t="s">
         <v>133</v>
@@ -5840,19 +5855,19 @@
         <v>18</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I102" s="26"/>
       <c r="J102" s="26"/>
     </row>
     <row r="103" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A103" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="B103" s="45"/>
-      <c r="C103" s="52"/>
+        <v>284</v>
+      </c>
+      <c r="B103" s="54"/>
+      <c r="C103" s="57"/>
       <c r="D103" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E103" s="26" t="s">
         <v>133</v>
@@ -5864,24 +5879,22 @@
         <v>18</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I103" s="26"/>
       <c r="J103" s="26"/>
     </row>
-    <row r="104" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="B104" s="45"/>
-      <c r="C104" s="50" t="s">
-        <v>259</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B104" s="54"/>
+      <c r="C104" s="58"/>
       <c r="D104" s="26" t="s">
-        <v>158</v>
+        <v>416</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="F104" s="26" t="s">
         <v>17</v>
@@ -5889,23 +5902,25 @@
       <c r="G104" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H104" s="26" t="s">
-        <v>119</v>
+      <c r="H104" s="13" t="s">
+        <v>521</v>
       </c>
       <c r="I104" s="26"/>
       <c r="J104" s="26"/>
     </row>
-    <row r="105" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="B105" s="45"/>
-      <c r="C105" s="51"/>
-      <c r="D105" s="13" t="s">
-        <v>417</v>
+        <v>433</v>
+      </c>
+      <c r="B105" s="54"/>
+      <c r="C105" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>158</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="F105" s="26" t="s">
         <v>17</v>
@@ -5913,20 +5928,20 @@
       <c r="G105" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H105" s="13" t="s">
-        <v>522</v>
+      <c r="H105" s="26" t="s">
+        <v>119</v>
       </c>
       <c r="I105" s="26"/>
       <c r="J105" s="26"/>
     </row>
-    <row r="106" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="B106" s="45"/>
-      <c r="C106" s="51"/>
-      <c r="D106" s="26" t="s">
-        <v>409</v>
+        <v>286</v>
+      </c>
+      <c r="B106" s="54"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="13" t="s">
+        <v>417</v>
       </c>
       <c r="E106" s="26" t="s">
         <v>133</v>
@@ -5938,19 +5953,19 @@
         <v>18</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I106" s="26"/>
       <c r="J106" s="26"/>
     </row>
-    <row r="107" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="B107" s="45"/>
-      <c r="C107" s="51"/>
+        <v>287</v>
+      </c>
+      <c r="B107" s="54"/>
+      <c r="C107" s="57"/>
       <c r="D107" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E107" s="26" t="s">
         <v>133</v>
@@ -5962,19 +5977,19 @@
         <v>18</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I107" s="26"/>
       <c r="J107" s="26"/>
     </row>
     <row r="108" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="B108" s="45"/>
-      <c r="C108" s="51"/>
+        <v>288</v>
+      </c>
+      <c r="B108" s="54"/>
+      <c r="C108" s="57"/>
       <c r="D108" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E108" s="26" t="s">
         <v>133</v>
@@ -5986,19 +6001,19 @@
         <v>18</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I108" s="26"/>
       <c r="J108" s="26"/>
     </row>
-    <row r="109" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="B109" s="45"/>
-      <c r="C109" s="51"/>
+        <v>289</v>
+      </c>
+      <c r="B109" s="54"/>
+      <c r="C109" s="57"/>
       <c r="D109" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E109" s="26" t="s">
         <v>133</v>
@@ -6010,19 +6025,19 @@
         <v>18</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I109" s="26"/>
       <c r="J109" s="26"/>
     </row>
     <row r="110" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A110" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="B110" s="45"/>
-      <c r="C110" s="51"/>
+        <v>290</v>
+      </c>
+      <c r="B110" s="54"/>
+      <c r="C110" s="57"/>
       <c r="D110" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E110" s="26" t="s">
         <v>133</v>
@@ -6034,19 +6049,19 @@
         <v>18</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I110" s="26"/>
       <c r="J110" s="26"/>
     </row>
-    <row r="111" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A111" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="B111" s="45"/>
-      <c r="C111" s="51"/>
+        <v>291</v>
+      </c>
+      <c r="B111" s="54"/>
+      <c r="C111" s="57"/>
       <c r="D111" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E111" s="26" t="s">
         <v>133</v>
@@ -6058,19 +6073,19 @@
         <v>18</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I111" s="26"/>
       <c r="J111" s="26"/>
     </row>
-    <row r="112" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="B112" s="45"/>
-      <c r="C112" s="51"/>
+        <v>292</v>
+      </c>
+      <c r="B112" s="54"/>
+      <c r="C112" s="57"/>
       <c r="D112" s="26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E112" s="26" t="s">
         <v>133</v>
@@ -6082,19 +6097,19 @@
         <v>18</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I112" s="26"/>
       <c r="J112" s="26"/>
     </row>
     <row r="113" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A113" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="B113" s="46"/>
-      <c r="C113" s="52"/>
+        <v>293</v>
+      </c>
+      <c r="B113" s="54"/>
+      <c r="C113" s="57"/>
       <c r="D113" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E113" s="26" t="s">
         <v>133</v>
@@ -6106,26 +6121,22 @@
         <v>18</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I113" s="26"/>
       <c r="J113" s="26"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A114" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="B114" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C114" s="47" t="s">
-        <v>260</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B114" s="55"/>
+      <c r="C114" s="58"/>
       <c r="D114" s="26" t="s">
-        <v>159</v>
+        <v>416</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="F114" s="26" t="s">
         <v>17</v>
@@ -6133,23 +6144,27 @@
       <c r="G114" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H114" s="26" t="s">
-        <v>120</v>
+      <c r="H114" s="13" t="s">
+        <v>530</v>
       </c>
       <c r="I114" s="26"/>
       <c r="J114" s="26"/>
     </row>
-    <row r="115" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="B115" s="49"/>
-      <c r="C115" s="47"/>
-      <c r="D115" s="13" t="s">
-        <v>417</v>
+        <v>434</v>
+      </c>
+      <c r="B115" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C115" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="D115" s="26" t="s">
+        <v>159</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="F115" s="26" t="s">
         <v>17</v>
@@ -6157,20 +6172,20 @@
       <c r="G115" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H115" s="13" t="s">
-        <v>531</v>
+      <c r="H115" s="26" t="s">
+        <v>120</v>
       </c>
       <c r="I115" s="26"/>
       <c r="J115" s="26"/>
     </row>
-    <row r="116" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="B116" s="49"/>
-      <c r="C116" s="47"/>
-      <c r="D116" s="38" t="s">
-        <v>620</v>
+        <v>295</v>
+      </c>
+      <c r="B116" s="51"/>
+      <c r="C116" s="52"/>
+      <c r="D116" s="13" t="s">
+        <v>417</v>
       </c>
       <c r="E116" s="26" t="s">
         <v>133</v>
@@ -6182,19 +6197,19 @@
         <v>18</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>559</v>
+        <v>531</v>
       </c>
       <c r="I116" s="26"/>
       <c r="J116" s="26"/>
     </row>
-    <row r="117" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A117" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="B117" s="49"/>
-      <c r="C117" s="47"/>
+        <v>296</v>
+      </c>
+      <c r="B117" s="51"/>
+      <c r="C117" s="52"/>
       <c r="D117" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E117" s="26" t="s">
         <v>133</v>
@@ -6206,19 +6221,19 @@
         <v>18</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I117" s="26"/>
       <c r="J117" s="26"/>
     </row>
-    <row r="118" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A118" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="B118" s="49"/>
-      <c r="C118" s="47"/>
+        <v>297</v>
+      </c>
+      <c r="B118" s="51"/>
+      <c r="C118" s="52"/>
       <c r="D118" s="38" t="s">
-        <v>411</v>
+        <v>621</v>
       </c>
       <c r="E118" s="26" t="s">
         <v>133</v>
@@ -6230,19 +6245,19 @@
         <v>18</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>532</v>
+        <v>560</v>
       </c>
       <c r="I118" s="26"/>
       <c r="J118" s="26"/>
     </row>
-    <row r="119" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="B119" s="49"/>
-      <c r="C119" s="47"/>
+        <v>298</v>
+      </c>
+      <c r="B119" s="51"/>
+      <c r="C119" s="52"/>
       <c r="D119" s="38" t="s">
-        <v>622</v>
+        <v>411</v>
       </c>
       <c r="E119" s="26" t="s">
         <v>133</v>
@@ -6254,19 +6269,19 @@
         <v>18</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>561</v>
+        <v>532</v>
       </c>
       <c r="I119" s="26"/>
       <c r="J119" s="26"/>
     </row>
-    <row r="120" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A120" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="B120" s="49"/>
-      <c r="C120" s="47"/>
+        <v>299</v>
+      </c>
+      <c r="B120" s="51"/>
+      <c r="C120" s="52"/>
       <c r="D120" s="38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E120" s="26" t="s">
         <v>133</v>
@@ -6278,19 +6293,19 @@
         <v>18</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I120" s="26"/>
       <c r="J120" s="26"/>
     </row>
     <row r="121" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A121" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="B121" s="49"/>
-      <c r="C121" s="47"/>
+        <v>300</v>
+      </c>
+      <c r="B121" s="51"/>
+      <c r="C121" s="52"/>
       <c r="D121" s="38" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E121" s="26" t="s">
         <v>133</v>
@@ -6302,19 +6317,19 @@
         <v>18</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I121" s="26"/>
       <c r="J121" s="26"/>
     </row>
-    <row r="122" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A122" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="B122" s="49"/>
-      <c r="C122" s="47"/>
+        <v>301</v>
+      </c>
+      <c r="B122" s="51"/>
+      <c r="C122" s="52"/>
       <c r="D122" s="38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E122" s="26" t="s">
         <v>133</v>
@@ -6326,19 +6341,19 @@
         <v>18</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I122" s="26"/>
       <c r="J122" s="26"/>
     </row>
     <row r="123" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="B123" s="49"/>
-      <c r="C123" s="47"/>
-      <c r="D123" s="41" t="s">
-        <v>626</v>
+        <v>302</v>
+      </c>
+      <c r="B123" s="51"/>
+      <c r="C123" s="52"/>
+      <c r="D123" s="38" t="s">
+        <v>625</v>
       </c>
       <c r="E123" s="26" t="s">
         <v>133</v>
@@ -6350,24 +6365,22 @@
         <v>18</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>607</v>
+        <v>564</v>
       </c>
       <c r="I123" s="26"/>
       <c r="J123" s="26"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="23" t="s">
-        <v>435</v>
-      </c>
-      <c r="B124" s="49"/>
-      <c r="C124" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="D124" s="26" t="s">
-        <v>160</v>
+        <v>303</v>
+      </c>
+      <c r="B124" s="51"/>
+      <c r="C124" s="52"/>
+      <c r="D124" s="41" t="s">
+        <v>626</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="F124" s="26" t="s">
         <v>17</v>
@@ -6375,23 +6388,25 @@
       <c r="G124" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H124" s="26" t="s">
-        <v>161</v>
+      <c r="H124" s="13" t="s">
+        <v>607</v>
       </c>
       <c r="I124" s="26"/>
       <c r="J124" s="26"/>
     </row>
-    <row r="125" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="B125" s="49"/>
-      <c r="C125" s="47"/>
-      <c r="D125" s="40" t="s">
-        <v>417</v>
+        <v>435</v>
+      </c>
+      <c r="B125" s="51"/>
+      <c r="C125" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="D125" s="26" t="s">
+        <v>160</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="F125" s="26" t="s">
         <v>17</v>
@@ -6399,20 +6414,20 @@
       <c r="G125" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H125" s="39" t="s">
-        <v>533</v>
+      <c r="H125" s="26" t="s">
+        <v>161</v>
       </c>
       <c r="I125" s="26"/>
       <c r="J125" s="26"/>
     </row>
-    <row r="126" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="B126" s="49"/>
-      <c r="C126" s="47"/>
-      <c r="D126" s="41" t="s">
-        <v>620</v>
+        <v>304</v>
+      </c>
+      <c r="B126" s="51"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="40" t="s">
+        <v>417</v>
       </c>
       <c r="E126" s="26" t="s">
         <v>133</v>
@@ -6424,19 +6439,19 @@
         <v>18</v>
       </c>
       <c r="H126" s="39" t="s">
-        <v>595</v>
+        <v>533</v>
       </c>
       <c r="I126" s="26"/>
       <c r="J126" s="26"/>
     </row>
-    <row r="127" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A127" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="B127" s="49"/>
-      <c r="C127" s="47"/>
+        <v>305</v>
+      </c>
+      <c r="B127" s="51"/>
+      <c r="C127" s="52"/>
       <c r="D127" s="41" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E127" s="26" t="s">
         <v>133</v>
@@ -6448,19 +6463,19 @@
         <v>18</v>
       </c>
       <c r="H127" s="39" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I127" s="26"/>
       <c r="J127" s="26"/>
     </row>
-    <row r="128" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A128" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="B128" s="49"/>
-      <c r="C128" s="47"/>
+        <v>306</v>
+      </c>
+      <c r="B128" s="51"/>
+      <c r="C128" s="52"/>
       <c r="D128" s="41" t="s">
-        <v>411</v>
+        <v>621</v>
       </c>
       <c r="E128" s="26" t="s">
         <v>133</v>
@@ -6472,19 +6487,19 @@
         <v>18</v>
       </c>
       <c r="H128" s="39" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="I128" s="26"/>
       <c r="J128" s="26"/>
     </row>
-    <row r="129" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="B129" s="49"/>
-      <c r="C129" s="47"/>
+        <v>307</v>
+      </c>
+      <c r="B129" s="51"/>
+      <c r="C129" s="52"/>
       <c r="D129" s="41" t="s">
-        <v>622</v>
+        <v>411</v>
       </c>
       <c r="E129" s="26" t="s">
         <v>133</v>
@@ -6496,19 +6511,19 @@
         <v>18</v>
       </c>
       <c r="H129" s="39" t="s">
-        <v>597</v>
+        <v>534</v>
       </c>
       <c r="I129" s="26"/>
       <c r="J129" s="26"/>
     </row>
-    <row r="130" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A130" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="B130" s="49"/>
-      <c r="C130" s="47"/>
+        <v>308</v>
+      </c>
+      <c r="B130" s="51"/>
+      <c r="C130" s="52"/>
       <c r="D130" s="41" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E130" s="26" t="s">
         <v>133</v>
@@ -6520,19 +6535,19 @@
         <v>18</v>
       </c>
       <c r="H130" s="39" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I130" s="26"/>
       <c r="J130" s="26"/>
     </row>
     <row r="131" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A131" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="B131" s="49"/>
-      <c r="C131" s="47"/>
+        <v>309</v>
+      </c>
+      <c r="B131" s="51"/>
+      <c r="C131" s="52"/>
       <c r="D131" s="41" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E131" s="26" t="s">
         <v>133</v>
@@ -6544,19 +6559,19 @@
         <v>18</v>
       </c>
       <c r="H131" s="39" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I131" s="26"/>
       <c r="J131" s="26"/>
     </row>
-    <row r="132" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A132" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="B132" s="49"/>
-      <c r="C132" s="47"/>
+        <v>310</v>
+      </c>
+      <c r="B132" s="51"/>
+      <c r="C132" s="52"/>
       <c r="D132" s="41" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E132" s="26" t="s">
         <v>133</v>
@@ -6568,19 +6583,19 @@
         <v>18</v>
       </c>
       <c r="H132" s="39" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I132" s="26"/>
       <c r="J132" s="26"/>
     </row>
     <row r="133" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="B133" s="49"/>
-      <c r="C133" s="47"/>
+        <v>311</v>
+      </c>
+      <c r="B133" s="51"/>
+      <c r="C133" s="52"/>
       <c r="D133" s="41" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E133" s="26" t="s">
         <v>133</v>
@@ -6592,24 +6607,22 @@
         <v>18</v>
       </c>
       <c r="H133" s="39" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="I133" s="26"/>
       <c r="J133" s="26"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A134" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="B134" s="49"/>
-      <c r="C134" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="D134" s="26" t="s">
-        <v>162</v>
+        <v>312</v>
+      </c>
+      <c r="B134" s="51"/>
+      <c r="C134" s="52"/>
+      <c r="D134" s="41" t="s">
+        <v>626</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="F134" s="26" t="s">
         <v>17</v>
@@ -6617,23 +6630,25 @@
       <c r="G134" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H134" s="26" t="s">
-        <v>163</v>
+      <c r="H134" s="39" t="s">
+        <v>608</v>
       </c>
       <c r="I134" s="26"/>
       <c r="J134" s="26"/>
     </row>
-    <row r="135" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="B135" s="49"/>
-      <c r="C135" s="47"/>
-      <c r="D135" s="40" t="s">
-        <v>417</v>
+        <v>436</v>
+      </c>
+      <c r="B135" s="51"/>
+      <c r="C135" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="D135" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="F135" s="26" t="s">
         <v>17</v>
@@ -6641,20 +6656,20 @@
       <c r="G135" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H135" s="39" t="s">
-        <v>535</v>
+      <c r="H135" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="I135" s="26"/>
       <c r="J135" s="26"/>
     </row>
-    <row r="136" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="B136" s="49"/>
-      <c r="C136" s="47"/>
-      <c r="D136" s="41" t="s">
-        <v>620</v>
+        <v>313</v>
+      </c>
+      <c r="B136" s="51"/>
+      <c r="C136" s="52"/>
+      <c r="D136" s="40" t="s">
+        <v>417</v>
       </c>
       <c r="E136" s="26" t="s">
         <v>133</v>
@@ -6666,19 +6681,19 @@
         <v>18</v>
       </c>
       <c r="H136" s="39" t="s">
-        <v>601</v>
+        <v>535</v>
       </c>
       <c r="I136" s="26"/>
       <c r="J136" s="26"/>
     </row>
-    <row r="137" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A137" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="B137" s="49"/>
-      <c r="C137" s="47"/>
+        <v>314</v>
+      </c>
+      <c r="B137" s="51"/>
+      <c r="C137" s="52"/>
       <c r="D137" s="41" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E137" s="26" t="s">
         <v>133</v>
@@ -6690,19 +6705,19 @@
         <v>18</v>
       </c>
       <c r="H137" s="39" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I137" s="26"/>
       <c r="J137" s="26"/>
     </row>
-    <row r="138" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A138" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="B138" s="49"/>
-      <c r="C138" s="47"/>
+        <v>315</v>
+      </c>
+      <c r="B138" s="51"/>
+      <c r="C138" s="52"/>
       <c r="D138" s="41" t="s">
-        <v>411</v>
+        <v>621</v>
       </c>
       <c r="E138" s="26" t="s">
         <v>133</v>
@@ -6714,19 +6729,19 @@
         <v>18</v>
       </c>
       <c r="H138" s="39" t="s">
-        <v>536</v>
+        <v>602</v>
       </c>
       <c r="I138" s="26"/>
       <c r="J138" s="26"/>
     </row>
-    <row r="139" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="B139" s="49"/>
-      <c r="C139" s="47"/>
+        <v>316</v>
+      </c>
+      <c r="B139" s="51"/>
+      <c r="C139" s="52"/>
       <c r="D139" s="41" t="s">
-        <v>622</v>
+        <v>411</v>
       </c>
       <c r="E139" s="26" t="s">
         <v>133</v>
@@ -6738,19 +6753,19 @@
         <v>18</v>
       </c>
       <c r="H139" s="39" t="s">
-        <v>603</v>
+        <v>536</v>
       </c>
       <c r="I139" s="26"/>
       <c r="J139" s="26"/>
     </row>
-    <row r="140" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A140" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="B140" s="49"/>
-      <c r="C140" s="47"/>
+        <v>317</v>
+      </c>
+      <c r="B140" s="51"/>
+      <c r="C140" s="52"/>
       <c r="D140" s="41" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E140" s="26" t="s">
         <v>133</v>
@@ -6762,67 +6777,67 @@
         <v>18</v>
       </c>
       <c r="H140" s="39" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I140" s="26"/>
       <c r="J140" s="26"/>
     </row>
     <row r="141" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A141" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="B141" s="51"/>
+      <c r="C141" s="52"/>
+      <c r="D141" s="41" t="s">
+        <v>623</v>
+      </c>
+      <c r="E141" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F141" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H141" s="39" t="s">
+        <v>604</v>
+      </c>
+      <c r="I141" s="26"/>
+      <c r="J141" s="26"/>
+    </row>
+    <row r="142" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A142" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="B141" s="49"/>
-      <c r="C141" s="47"/>
-      <c r="D141" s="41" t="s">
+      <c r="B142" s="51"/>
+      <c r="C142" s="52"/>
+      <c r="D142" s="41" t="s">
         <v>624</v>
       </c>
-      <c r="E141" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F141" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G141" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H141" s="39" t="s">
+      <c r="E142" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F142" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G142" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H142" s="39" t="s">
         <v>605</v>
-      </c>
-      <c r="I141" s="29"/>
-      <c r="J141" s="2"/>
-    </row>
-    <row r="142" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A142" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="B142" s="49"/>
-      <c r="C142" s="47"/>
-      <c r="D142" s="41" t="s">
-        <v>625</v>
-      </c>
-      <c r="E142" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F142" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G142" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H142" s="39" t="s">
-        <v>606</v>
       </c>
       <c r="I142" s="29"/>
       <c r="J142" s="2"/>
     </row>
     <row r="143" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A143" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="B143" s="49"/>
-      <c r="C143" s="47"/>
+        <v>320</v>
+      </c>
+      <c r="B143" s="51"/>
+      <c r="C143" s="52"/>
       <c r="D143" s="41" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E143" s="26" t="s">
         <v>133</v>
@@ -6834,24 +6849,22 @@
         <v>18</v>
       </c>
       <c r="H143" s="39" t="s">
-        <v>558</v>
+        <v>606</v>
       </c>
       <c r="I143" s="29"/>
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B144" s="49"/>
-      <c r="C144" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="D144" s="26" t="s">
-        <v>164</v>
+    <row r="144" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A144" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="B144" s="51"/>
+      <c r="C144" s="52"/>
+      <c r="D144" s="41" t="s">
+        <v>626</v>
       </c>
       <c r="E144" s="26" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="F144" s="26" t="s">
         <v>17</v>
@@ -6859,23 +6872,25 @@
       <c r="G144" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H144" s="26" t="s">
-        <v>169</v>
+      <c r="H144" s="39" t="s">
+        <v>558</v>
       </c>
       <c r="I144" s="29"/>
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B145" s="49"/>
-      <c r="C145" s="48"/>
-      <c r="D145" s="40" t="s">
-        <v>417</v>
+        <v>437</v>
+      </c>
+      <c r="B145" s="51"/>
+      <c r="C145" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="D145" s="26" t="s">
+        <v>164</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="F145" s="26" t="s">
         <v>17</v>
@@ -6883,20 +6898,20 @@
       <c r="G145" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H145" s="39" t="s">
-        <v>537</v>
+      <c r="H145" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="I145" s="29"/>
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B146" s="49"/>
-      <c r="C146" s="48"/>
-      <c r="D146" s="41" t="s">
-        <v>620</v>
+        <v>322</v>
+      </c>
+      <c r="B146" s="51"/>
+      <c r="C146" s="50"/>
+      <c r="D146" s="40" t="s">
+        <v>417</v>
       </c>
       <c r="E146" s="26" t="s">
         <v>133</v>
@@ -6908,19 +6923,19 @@
         <v>18</v>
       </c>
       <c r="H146" s="39" t="s">
-        <v>589</v>
+        <v>537</v>
       </c>
       <c r="I146" s="29"/>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B147" s="49"/>
-      <c r="C147" s="48"/>
+        <v>323</v>
+      </c>
+      <c r="B147" s="51"/>
+      <c r="C147" s="50"/>
       <c r="D147" s="41" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E147" s="26" t="s">
         <v>133</v>
@@ -6932,19 +6947,19 @@
         <v>18</v>
       </c>
       <c r="H147" s="39" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I147" s="29"/>
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B148" s="49"/>
-      <c r="C148" s="48"/>
+        <v>324</v>
+      </c>
+      <c r="B148" s="51"/>
+      <c r="C148" s="50"/>
       <c r="D148" s="41" t="s">
-        <v>411</v>
+        <v>621</v>
       </c>
       <c r="E148" s="26" t="s">
         <v>133</v>
@@ -6956,19 +6971,19 @@
         <v>18</v>
       </c>
       <c r="H148" s="39" t="s">
-        <v>538</v>
+        <v>590</v>
       </c>
       <c r="I148" s="29"/>
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B149" s="49"/>
-      <c r="C149" s="48"/>
+        <v>325</v>
+      </c>
+      <c r="B149" s="51"/>
+      <c r="C149" s="50"/>
       <c r="D149" s="41" t="s">
-        <v>622</v>
+        <v>411</v>
       </c>
       <c r="E149" s="26" t="s">
         <v>133</v>
@@ -6980,19 +6995,19 @@
         <v>18</v>
       </c>
       <c r="H149" s="39" t="s">
-        <v>591</v>
+        <v>538</v>
       </c>
       <c r="I149" s="29"/>
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B150" s="49"/>
-      <c r="C150" s="48"/>
+        <v>326</v>
+      </c>
+      <c r="B150" s="51"/>
+      <c r="C150" s="50"/>
       <c r="D150" s="41" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E150" s="26" t="s">
         <v>133</v>
@@ -7004,19 +7019,19 @@
         <v>18</v>
       </c>
       <c r="H150" s="39" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I150" s="29"/>
       <c r="J150" s="2"/>
     </row>
     <row r="151" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B151" s="49"/>
-      <c r="C151" s="48"/>
+        <v>327</v>
+      </c>
+      <c r="B151" s="51"/>
+      <c r="C151" s="50"/>
       <c r="D151" s="41" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E151" s="26" t="s">
         <v>133</v>
@@ -7028,19 +7043,19 @@
         <v>18</v>
       </c>
       <c r="H151" s="39" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I151" s="29"/>
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B152" s="49"/>
-      <c r="C152" s="48"/>
+        <v>328</v>
+      </c>
+      <c r="B152" s="51"/>
+      <c r="C152" s="50"/>
       <c r="D152" s="41" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E152" s="26" t="s">
         <v>133</v>
@@ -7052,19 +7067,19 @@
         <v>18</v>
       </c>
       <c r="H152" s="39" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I152" s="29"/>
       <c r="J152" s="2"/>
     </row>
     <row r="153" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B153" s="49"/>
-      <c r="C153" s="48"/>
+        <v>329</v>
+      </c>
+      <c r="B153" s="51"/>
+      <c r="C153" s="50"/>
       <c r="D153" s="41" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E153" s="26" t="s">
         <v>133</v>
@@ -7076,24 +7091,22 @@
         <v>18</v>
       </c>
       <c r="H153" s="39" t="s">
-        <v>557</v>
+        <v>594</v>
       </c>
       <c r="I153" s="29"/>
       <c r="J153" s="2"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B154" s="49"/>
-      <c r="C154" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="D154" s="26" t="s">
-        <v>165</v>
+        <v>330</v>
+      </c>
+      <c r="B154" s="51"/>
+      <c r="C154" s="50"/>
+      <c r="D154" s="41" t="s">
+        <v>626</v>
       </c>
       <c r="E154" s="26" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="F154" s="26" t="s">
         <v>17</v>
@@ -7101,23 +7114,25 @@
       <c r="G154" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H154" s="26" t="s">
-        <v>170</v>
+      <c r="H154" s="39" t="s">
+        <v>557</v>
       </c>
       <c r="I154" s="29"/>
       <c r="J154" s="2"/>
     </row>
-    <row r="155" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B155" s="49"/>
-      <c r="C155" s="48"/>
-      <c r="D155" s="40" t="s">
-        <v>417</v>
+        <v>438</v>
+      </c>
+      <c r="B155" s="51"/>
+      <c r="C155" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="D155" s="26" t="s">
+        <v>165</v>
       </c>
       <c r="E155" s="26" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="F155" s="26" t="s">
         <v>17</v>
@@ -7125,20 +7140,20 @@
       <c r="G155" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H155" s="39" t="s">
-        <v>539</v>
+      <c r="H155" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="I155" s="29"/>
       <c r="J155" s="2"/>
     </row>
-    <row r="156" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B156" s="49"/>
-      <c r="C156" s="48"/>
-      <c r="D156" s="41" t="s">
-        <v>620</v>
+        <v>331</v>
+      </c>
+      <c r="B156" s="51"/>
+      <c r="C156" s="50"/>
+      <c r="D156" s="40" t="s">
+        <v>417</v>
       </c>
       <c r="E156" s="26" t="s">
         <v>133</v>
@@ -7150,19 +7165,19 @@
         <v>18</v>
       </c>
       <c r="H156" s="39" t="s">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="I156" s="29"/>
       <c r="J156" s="2"/>
     </row>
-    <row r="157" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B157" s="49"/>
-      <c r="C157" s="48"/>
+        <v>332</v>
+      </c>
+      <c r="B157" s="51"/>
+      <c r="C157" s="50"/>
       <c r="D157" s="41" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E157" s="26" t="s">
         <v>133</v>
@@ -7174,19 +7189,19 @@
         <v>18</v>
       </c>
       <c r="H157" s="39" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I157" s="29"/>
       <c r="J157" s="2"/>
     </row>
-    <row r="158" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B158" s="49"/>
-      <c r="C158" s="48"/>
+        <v>333</v>
+      </c>
+      <c r="B158" s="51"/>
+      <c r="C158" s="50"/>
       <c r="D158" s="41" t="s">
-        <v>411</v>
+        <v>621</v>
       </c>
       <c r="E158" s="26" t="s">
         <v>133</v>
@@ -7198,19 +7213,19 @@
         <v>18</v>
       </c>
       <c r="H158" s="39" t="s">
-        <v>540</v>
+        <v>578</v>
       </c>
       <c r="I158" s="29"/>
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B159" s="49"/>
-      <c r="C159" s="48"/>
+        <v>334</v>
+      </c>
+      <c r="B159" s="51"/>
+      <c r="C159" s="50"/>
       <c r="D159" s="41" t="s">
-        <v>622</v>
+        <v>411</v>
       </c>
       <c r="E159" s="26" t="s">
         <v>133</v>
@@ -7222,19 +7237,19 @@
         <v>18</v>
       </c>
       <c r="H159" s="39" t="s">
-        <v>579</v>
+        <v>540</v>
       </c>
       <c r="I159" s="29"/>
       <c r="J159" s="2"/>
     </row>
-    <row r="160" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B160" s="49"/>
-      <c r="C160" s="48"/>
+        <v>335</v>
+      </c>
+      <c r="B160" s="51"/>
+      <c r="C160" s="50"/>
       <c r="D160" s="41" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E160" s="26" t="s">
         <v>133</v>
@@ -7246,19 +7261,19 @@
         <v>18</v>
       </c>
       <c r="H160" s="39" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I160" s="29"/>
       <c r="J160" s="2"/>
     </row>
     <row r="161" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B161" s="49"/>
-      <c r="C161" s="48"/>
+        <v>336</v>
+      </c>
+      <c r="B161" s="51"/>
+      <c r="C161" s="50"/>
       <c r="D161" s="41" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E161" s="26" t="s">
         <v>133</v>
@@ -7270,19 +7285,19 @@
         <v>18</v>
       </c>
       <c r="H161" s="39" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I161" s="29"/>
       <c r="J161" s="2"/>
     </row>
-    <row r="162" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B162" s="49"/>
-      <c r="C162" s="48"/>
+        <v>337</v>
+      </c>
+      <c r="B162" s="51"/>
+      <c r="C162" s="50"/>
       <c r="D162" s="41" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E162" s="26" t="s">
         <v>133</v>
@@ -7294,19 +7309,19 @@
         <v>18</v>
       </c>
       <c r="H162" s="39" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I162" s="29"/>
       <c r="J162" s="2"/>
     </row>
     <row r="163" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B163" s="49"/>
-      <c r="C163" s="48"/>
+        <v>338</v>
+      </c>
+      <c r="B163" s="51"/>
+      <c r="C163" s="50"/>
       <c r="D163" s="41" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E163" s="26" t="s">
         <v>133</v>
@@ -7318,24 +7333,22 @@
         <v>18</v>
       </c>
       <c r="H163" s="39" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="I163" s="29"/>
       <c r="J163" s="2"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="B164" s="49"/>
-      <c r="C164" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="D164" s="26" t="s">
-        <v>166</v>
+        <v>339</v>
+      </c>
+      <c r="B164" s="51"/>
+      <c r="C164" s="50"/>
+      <c r="D164" s="41" t="s">
+        <v>626</v>
       </c>
       <c r="E164" s="26" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="F164" s="26" t="s">
         <v>17</v>
@@ -7343,23 +7356,25 @@
       <c r="G164" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H164" s="26" t="s">
-        <v>171</v>
+      <c r="H164" s="39" t="s">
+        <v>609</v>
       </c>
       <c r="I164" s="29"/>
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B165" s="49"/>
-      <c r="C165" s="48"/>
-      <c r="D165" s="40" t="s">
-        <v>417</v>
+        <v>439</v>
+      </c>
+      <c r="B165" s="51"/>
+      <c r="C165" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="D165" s="26" t="s">
+        <v>166</v>
       </c>
       <c r="E165" s="26" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="F165" s="26" t="s">
         <v>17</v>
@@ -7367,20 +7382,20 @@
       <c r="G165" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H165" s="39" t="s">
-        <v>541</v>
+      <c r="H165" s="26" t="s">
+        <v>171</v>
       </c>
       <c r="I165" s="29"/>
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B166" s="49"/>
-      <c r="C166" s="48"/>
-      <c r="D166" s="41" t="s">
-        <v>620</v>
+        <v>340</v>
+      </c>
+      <c r="B166" s="51"/>
+      <c r="C166" s="50"/>
+      <c r="D166" s="40" t="s">
+        <v>417</v>
       </c>
       <c r="E166" s="26" t="s">
         <v>133</v>
@@ -7392,19 +7407,19 @@
         <v>18</v>
       </c>
       <c r="H166" s="39" t="s">
-        <v>583</v>
+        <v>541</v>
       </c>
       <c r="I166" s="29"/>
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B167" s="49"/>
-      <c r="C167" s="48"/>
+        <v>341</v>
+      </c>
+      <c r="B167" s="51"/>
+      <c r="C167" s="50"/>
       <c r="D167" s="41" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E167" s="26" t="s">
         <v>133</v>
@@ -7416,19 +7431,19 @@
         <v>18</v>
       </c>
       <c r="H167" s="39" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I167" s="29"/>
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B168" s="49"/>
-      <c r="C168" s="48"/>
+        <v>342</v>
+      </c>
+      <c r="B168" s="51"/>
+      <c r="C168" s="50"/>
       <c r="D168" s="41" t="s">
-        <v>411</v>
+        <v>621</v>
       </c>
       <c r="E168" s="26" t="s">
         <v>133</v>
@@ -7440,19 +7455,19 @@
         <v>18</v>
       </c>
       <c r="H168" s="39" t="s">
-        <v>542</v>
+        <v>584</v>
       </c>
       <c r="I168" s="29"/>
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B169" s="49"/>
-      <c r="C169" s="48"/>
+        <v>343</v>
+      </c>
+      <c r="B169" s="51"/>
+      <c r="C169" s="50"/>
       <c r="D169" s="41" t="s">
-        <v>622</v>
+        <v>411</v>
       </c>
       <c r="E169" s="26" t="s">
         <v>133</v>
@@ -7464,19 +7479,19 @@
         <v>18</v>
       </c>
       <c r="H169" s="39" t="s">
-        <v>585</v>
+        <v>542</v>
       </c>
       <c r="I169" s="29"/>
       <c r="J169" s="2"/>
     </row>
-    <row r="170" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B170" s="49"/>
-      <c r="C170" s="48"/>
+        <v>344</v>
+      </c>
+      <c r="B170" s="51"/>
+      <c r="C170" s="50"/>
       <c r="D170" s="41" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E170" s="26" t="s">
         <v>133</v>
@@ -7488,19 +7503,19 @@
         <v>18</v>
       </c>
       <c r="H170" s="39" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I170" s="29"/>
       <c r="J170" s="2"/>
     </row>
     <row r="171" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B171" s="49"/>
-      <c r="C171" s="48"/>
+        <v>345</v>
+      </c>
+      <c r="B171" s="51"/>
+      <c r="C171" s="50"/>
       <c r="D171" s="41" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E171" s="26" t="s">
         <v>133</v>
@@ -7512,19 +7527,19 @@
         <v>18</v>
       </c>
       <c r="H171" s="39" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I171" s="29"/>
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B172" s="49"/>
-      <c r="C172" s="48"/>
+        <v>346</v>
+      </c>
+      <c r="B172" s="51"/>
+      <c r="C172" s="50"/>
       <c r="D172" s="41" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E172" s="26" t="s">
         <v>133</v>
@@ -7536,19 +7551,19 @@
         <v>18</v>
       </c>
       <c r="H172" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I172" s="29"/>
       <c r="J172" s="2"/>
     </row>
     <row r="173" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B173" s="49"/>
-      <c r="C173" s="48"/>
+        <v>347</v>
+      </c>
+      <c r="B173" s="51"/>
+      <c r="C173" s="50"/>
       <c r="D173" s="41" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E173" s="26" t="s">
         <v>133</v>
@@ -7560,24 +7575,22 @@
         <v>18</v>
       </c>
       <c r="H173" s="39" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="I173" s="29"/>
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B174" s="49"/>
-      <c r="C174" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="D174" s="26" t="s">
-        <v>167</v>
+        <v>348</v>
+      </c>
+      <c r="B174" s="51"/>
+      <c r="C174" s="50"/>
+      <c r="D174" s="41" t="s">
+        <v>626</v>
       </c>
       <c r="E174" s="26" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="F174" s="26" t="s">
         <v>17</v>
@@ -7585,23 +7598,25 @@
       <c r="G174" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H174" s="41" t="s">
-        <v>627</v>
+      <c r="H174" s="39" t="s">
+        <v>612</v>
       </c>
       <c r="I174" s="29"/>
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B175" s="49"/>
-      <c r="C175" s="48"/>
-      <c r="D175" s="40" t="s">
-        <v>417</v>
+        <v>440</v>
+      </c>
+      <c r="B175" s="51"/>
+      <c r="C175" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="D175" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="E175" s="26" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="F175" s="26" t="s">
         <v>17</v>
@@ -7609,20 +7624,20 @@
       <c r="G175" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H175" s="39" t="s">
-        <v>543</v>
+      <c r="H175" s="41" t="s">
+        <v>627</v>
       </c>
       <c r="I175" s="29"/>
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B176" s="49"/>
-      <c r="C176" s="48"/>
-      <c r="D176" s="41" t="s">
-        <v>620</v>
+        <v>349</v>
+      </c>
+      <c r="B176" s="51"/>
+      <c r="C176" s="50"/>
+      <c r="D176" s="40" t="s">
+        <v>417</v>
       </c>
       <c r="E176" s="26" t="s">
         <v>133</v>
@@ -7634,19 +7649,19 @@
         <v>18</v>
       </c>
       <c r="H176" s="39" t="s">
-        <v>613</v>
+        <v>543</v>
       </c>
       <c r="I176" s="29"/>
       <c r="J176" s="2"/>
     </row>
-    <row r="177" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B177" s="49"/>
-      <c r="C177" s="48"/>
+        <v>350</v>
+      </c>
+      <c r="B177" s="51"/>
+      <c r="C177" s="50"/>
       <c r="D177" s="41" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E177" s="26" t="s">
         <v>133</v>
@@ -7658,19 +7673,19 @@
         <v>18</v>
       </c>
       <c r="H177" s="39" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I177" s="29"/>
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B178" s="49"/>
-      <c r="C178" s="48"/>
+        <v>351</v>
+      </c>
+      <c r="B178" s="51"/>
+      <c r="C178" s="50"/>
       <c r="D178" s="41" t="s">
-        <v>411</v>
+        <v>621</v>
       </c>
       <c r="E178" s="26" t="s">
         <v>133</v>
@@ -7682,19 +7697,19 @@
         <v>18</v>
       </c>
       <c r="H178" s="39" t="s">
-        <v>544</v>
+        <v>614</v>
       </c>
       <c r="I178" s="29"/>
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B179" s="49"/>
-      <c r="C179" s="48"/>
+        <v>352</v>
+      </c>
+      <c r="B179" s="51"/>
+      <c r="C179" s="50"/>
       <c r="D179" s="41" t="s">
-        <v>622</v>
+        <v>411</v>
       </c>
       <c r="E179" s="26" t="s">
         <v>133</v>
@@ -7706,19 +7721,19 @@
         <v>18</v>
       </c>
       <c r="H179" s="39" t="s">
-        <v>615</v>
+        <v>544</v>
       </c>
       <c r="I179" s="29"/>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B180" s="49"/>
-      <c r="C180" s="48"/>
+        <v>353</v>
+      </c>
+      <c r="B180" s="51"/>
+      <c r="C180" s="50"/>
       <c r="D180" s="41" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E180" s="26" t="s">
         <v>133</v>
@@ -7730,19 +7745,19 @@
         <v>18</v>
       </c>
       <c r="H180" s="39" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I180" s="29"/>
       <c r="J180" s="2"/>
     </row>
     <row r="181" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B181" s="49"/>
-      <c r="C181" s="48"/>
+        <v>354</v>
+      </c>
+      <c r="B181" s="51"/>
+      <c r="C181" s="50"/>
       <c r="D181" s="41" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E181" s="26" t="s">
         <v>133</v>
@@ -7754,19 +7769,19 @@
         <v>18</v>
       </c>
       <c r="H181" s="39" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I181" s="29"/>
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B182" s="49"/>
-      <c r="C182" s="48"/>
+        <v>355</v>
+      </c>
+      <c r="B182" s="51"/>
+      <c r="C182" s="50"/>
       <c r="D182" s="41" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E182" s="26" t="s">
         <v>133</v>
@@ -7778,19 +7793,19 @@
         <v>18</v>
       </c>
       <c r="H182" s="39" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I182" s="29"/>
       <c r="J182" s="2"/>
     </row>
     <row r="183" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B183" s="49"/>
-      <c r="C183" s="48"/>
+        <v>356</v>
+      </c>
+      <c r="B183" s="51"/>
+      <c r="C183" s="50"/>
       <c r="D183" s="41" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E183" s="26" t="s">
         <v>133</v>
@@ -7802,24 +7817,22 @@
         <v>18</v>
       </c>
       <c r="H183" s="39" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I183" s="29"/>
       <c r="J183" s="2"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B184" s="49"/>
-      <c r="C184" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="D184" s="26" t="s">
-        <v>168</v>
+        <v>357</v>
+      </c>
+      <c r="B184" s="51"/>
+      <c r="C184" s="50"/>
+      <c r="D184" s="41" t="s">
+        <v>626</v>
       </c>
       <c r="E184" s="26" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="F184" s="26" t="s">
         <v>17</v>
@@ -7827,23 +7840,25 @@
       <c r="G184" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H184" s="26" t="s">
-        <v>172</v>
+      <c r="H184" s="39" t="s">
+        <v>619</v>
       </c>
       <c r="I184" s="29"/>
       <c r="J184" s="2"/>
     </row>
-    <row r="185" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B185" s="49"/>
-      <c r="C185" s="48"/>
-      <c r="D185" s="40" t="s">
-        <v>417</v>
+        <v>441</v>
+      </c>
+      <c r="B185" s="51"/>
+      <c r="C185" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="D185" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="E185" s="26" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="F185" s="26" t="s">
         <v>17</v>
@@ -7851,20 +7866,20 @@
       <c r="G185" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H185" s="39" t="s">
-        <v>545</v>
+      <c r="H185" s="26" t="s">
+        <v>172</v>
       </c>
       <c r="I185" s="29"/>
       <c r="J185" s="2"/>
     </row>
-    <row r="186" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B186" s="49"/>
-      <c r="C186" s="48"/>
-      <c r="D186" s="41" t="s">
-        <v>620</v>
+        <v>358</v>
+      </c>
+      <c r="B186" s="51"/>
+      <c r="C186" s="50"/>
+      <c r="D186" s="40" t="s">
+        <v>417</v>
       </c>
       <c r="E186" s="26" t="s">
         <v>133</v>
@@ -7876,19 +7891,19 @@
         <v>18</v>
       </c>
       <c r="H186" s="39" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="I186" s="29"/>
       <c r="J186" s="2"/>
     </row>
-    <row r="187" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B187" s="49"/>
-      <c r="C187" s="48"/>
+        <v>359</v>
+      </c>
+      <c r="B187" s="51"/>
+      <c r="C187" s="50"/>
       <c r="D187" s="41" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E187" s="26" t="s">
         <v>133</v>
@@ -7900,19 +7915,19 @@
         <v>18</v>
       </c>
       <c r="H187" s="39" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I187" s="29"/>
       <c r="J187" s="2"/>
     </row>
-    <row r="188" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B188" s="49"/>
-      <c r="C188" s="48"/>
+        <v>360</v>
+      </c>
+      <c r="B188" s="51"/>
+      <c r="C188" s="50"/>
       <c r="D188" s="41" t="s">
-        <v>411</v>
+        <v>621</v>
       </c>
       <c r="E188" s="26" t="s">
         <v>133</v>
@@ -7924,19 +7939,19 @@
         <v>18</v>
       </c>
       <c r="H188" s="39" t="s">
-        <v>546</v>
+        <v>572</v>
       </c>
       <c r="I188" s="29"/>
       <c r="J188" s="2"/>
     </row>
-    <row r="189" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B189" s="49"/>
-      <c r="C189" s="48"/>
+        <v>361</v>
+      </c>
+      <c r="B189" s="51"/>
+      <c r="C189" s="50"/>
       <c r="D189" s="41" t="s">
-        <v>622</v>
+        <v>411</v>
       </c>
       <c r="E189" s="26" t="s">
         <v>133</v>
@@ -7948,19 +7963,19 @@
         <v>18</v>
       </c>
       <c r="H189" s="39" t="s">
-        <v>573</v>
+        <v>546</v>
       </c>
       <c r="I189" s="29"/>
       <c r="J189" s="2"/>
     </row>
-    <row r="190" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B190" s="49"/>
-      <c r="C190" s="48"/>
+        <v>362</v>
+      </c>
+      <c r="B190" s="51"/>
+      <c r="C190" s="50"/>
       <c r="D190" s="41" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E190" s="26" t="s">
         <v>133</v>
@@ -7972,19 +7987,19 @@
         <v>18</v>
       </c>
       <c r="H190" s="39" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I190" s="29"/>
       <c r="J190" s="2"/>
     </row>
     <row r="191" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B191" s="49"/>
-      <c r="C191" s="48"/>
+        <v>363</v>
+      </c>
+      <c r="B191" s="51"/>
+      <c r="C191" s="50"/>
       <c r="D191" s="41" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E191" s="26" t="s">
         <v>133</v>
@@ -7996,19 +8011,19 @@
         <v>18</v>
       </c>
       <c r="H191" s="39" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I191" s="29"/>
       <c r="J191" s="2"/>
     </row>
-    <row r="192" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B192" s="49"/>
-      <c r="C192" s="48"/>
+        <v>364</v>
+      </c>
+      <c r="B192" s="51"/>
+      <c r="C192" s="50"/>
       <c r="D192" s="41" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E192" s="26" t="s">
         <v>133</v>
@@ -8020,19 +8035,19 @@
         <v>18</v>
       </c>
       <c r="H192" s="39" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I192" s="29"/>
       <c r="J192" s="2"/>
     </row>
     <row r="193" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B193" s="49"/>
-      <c r="C193" s="48"/>
+        <v>365</v>
+      </c>
+      <c r="B193" s="51"/>
+      <c r="C193" s="50"/>
       <c r="D193" s="41" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E193" s="26" t="s">
         <v>133</v>
@@ -8044,24 +8059,22 @@
         <v>18</v>
       </c>
       <c r="H193" s="39" t="s">
-        <v>610</v>
+        <v>576</v>
       </c>
       <c r="I193" s="29"/>
       <c r="J193" s="2"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B194" s="49"/>
-      <c r="C194" s="48" t="s">
-        <v>268</v>
-      </c>
-      <c r="D194" s="26" t="s">
-        <v>173</v>
+        <v>366</v>
+      </c>
+      <c r="B194" s="51"/>
+      <c r="C194" s="50"/>
+      <c r="D194" s="41" t="s">
+        <v>626</v>
       </c>
       <c r="E194" s="26" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="F194" s="26" t="s">
         <v>17</v>
@@ -8069,23 +8082,25 @@
       <c r="G194" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H194" s="26" t="s">
-        <v>174</v>
+      <c r="H194" s="39" t="s">
+        <v>610</v>
       </c>
       <c r="I194" s="29"/>
       <c r="J194" s="2"/>
     </row>
-    <row r="195" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B195" s="49"/>
-      <c r="C195" s="48"/>
-      <c r="D195" s="40" t="s">
-        <v>417</v>
+        <v>442</v>
+      </c>
+      <c r="B195" s="51"/>
+      <c r="C195" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="D195" s="26" t="s">
+        <v>173</v>
       </c>
       <c r="E195" s="26" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="F195" s="26" t="s">
         <v>17</v>
@@ -8093,20 +8108,20 @@
       <c r="G195" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H195" s="39" t="s">
-        <v>547</v>
+      <c r="H195" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="I195" s="29"/>
       <c r="J195" s="2"/>
     </row>
-    <row r="196" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B196" s="49"/>
-      <c r="C196" s="48"/>
-      <c r="D196" s="41" t="s">
-        <v>620</v>
+        <v>367</v>
+      </c>
+      <c r="B196" s="51"/>
+      <c r="C196" s="50"/>
+      <c r="D196" s="40" t="s">
+        <v>417</v>
       </c>
       <c r="E196" s="26" t="s">
         <v>133</v>
@@ -8118,19 +8133,19 @@
         <v>18</v>
       </c>
       <c r="H196" s="39" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="I196" s="29"/>
       <c r="J196" s="2"/>
     </row>
-    <row r="197" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B197" s="49"/>
-      <c r="C197" s="48"/>
+        <v>368</v>
+      </c>
+      <c r="B197" s="51"/>
+      <c r="C197" s="50"/>
       <c r="D197" s="41" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E197" s="26" t="s">
         <v>133</v>
@@ -8142,19 +8157,19 @@
         <v>18</v>
       </c>
       <c r="H197" s="39" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I197" s="29"/>
       <c r="J197" s="2"/>
     </row>
-    <row r="198" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B198" s="49"/>
-      <c r="C198" s="48"/>
+        <v>369</v>
+      </c>
+      <c r="B198" s="51"/>
+      <c r="C198" s="50"/>
       <c r="D198" s="41" t="s">
-        <v>411</v>
+        <v>621</v>
       </c>
       <c r="E198" s="26" t="s">
         <v>133</v>
@@ -8166,19 +8181,19 @@
         <v>18</v>
       </c>
       <c r="H198" s="39" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="I198" s="29"/>
       <c r="J198" s="2"/>
     </row>
-    <row r="199" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B199" s="49"/>
-      <c r="C199" s="48"/>
+        <v>370</v>
+      </c>
+      <c r="B199" s="51"/>
+      <c r="C199" s="50"/>
       <c r="D199" s="41" t="s">
-        <v>622</v>
+        <v>411</v>
       </c>
       <c r="E199" s="26" t="s">
         <v>133</v>
@@ -8190,19 +8205,19 @@
         <v>18</v>
       </c>
       <c r="H199" s="39" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="I199" s="29"/>
       <c r="J199" s="2"/>
     </row>
-    <row r="200" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B200" s="49"/>
-      <c r="C200" s="48"/>
+        <v>371</v>
+      </c>
+      <c r="B200" s="51"/>
+      <c r="C200" s="50"/>
       <c r="D200" s="41" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E200" s="26" t="s">
         <v>133</v>
@@ -8214,19 +8229,19 @@
         <v>18</v>
       </c>
       <c r="H200" s="39" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I200" s="29"/>
       <c r="J200" s="2"/>
     </row>
     <row r="201" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B201" s="49"/>
-      <c r="C201" s="48"/>
+        <v>372</v>
+      </c>
+      <c r="B201" s="51"/>
+      <c r="C201" s="50"/>
       <c r="D201" s="41" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E201" s="26" t="s">
         <v>133</v>
@@ -8238,19 +8253,19 @@
         <v>18</v>
       </c>
       <c r="H201" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I201" s="29"/>
       <c r="J201" s="2"/>
     </row>
-    <row r="202" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B202" s="49"/>
-      <c r="C202" s="48"/>
+        <v>373</v>
+      </c>
+      <c r="B202" s="51"/>
+      <c r="C202" s="50"/>
       <c r="D202" s="41" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E202" s="26" t="s">
         <v>133</v>
@@ -8262,19 +8277,19 @@
         <v>18</v>
       </c>
       <c r="H202" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I202" s="29"/>
       <c r="J202" s="2"/>
     </row>
-    <row r="203" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B203" s="49"/>
-      <c r="C203" s="48"/>
+        <v>374</v>
+      </c>
+      <c r="B203" s="51"/>
+      <c r="C203" s="50"/>
       <c r="D203" s="41" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E203" s="26" t="s">
         <v>133</v>
@@ -8286,42 +8301,66 @@
         <v>18</v>
       </c>
       <c r="H203" s="39" t="s">
-        <v>611</v>
+        <v>570</v>
       </c>
       <c r="I203" s="29"/>
       <c r="J203" s="2"/>
     </row>
+    <row r="204" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A204" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B204" s="51"/>
+      <c r="C204" s="50"/>
+      <c r="D204" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="E204" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F204" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G204" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H204" s="39" t="s">
+        <v>611</v>
+      </c>
+      <c r="I204" s="29"/>
+      <c r="J204" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="I1:I152" xr:uid="{407B753E-D1E8-46BC-BF70-35AA7CA269EC}"/>
+  <autoFilter ref="I1:I153" xr:uid="{407B753E-D1E8-46BC-BF70-35AA7CA269EC}"/>
   <mergeCells count="28">
-    <mergeCell ref="C71:C77"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="C84:C93"/>
-    <mergeCell ref="C194:C203"/>
-    <mergeCell ref="B114:B203"/>
-    <mergeCell ref="C114:C123"/>
-    <mergeCell ref="C124:C133"/>
-    <mergeCell ref="C134:C143"/>
-    <mergeCell ref="C144:C153"/>
-    <mergeCell ref="C154:C163"/>
-    <mergeCell ref="C164:C173"/>
-    <mergeCell ref="C174:C183"/>
-    <mergeCell ref="B84:B113"/>
-    <mergeCell ref="B2:B83"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C184:C193"/>
+    <mergeCell ref="C185:C194"/>
     <mergeCell ref="C46:C51"/>
     <mergeCell ref="C16:C21"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="C28:C33"/>
     <mergeCell ref="C34:C39"/>
     <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C94:C103"/>
-    <mergeCell ref="C104:C113"/>
+    <mergeCell ref="C95:C104"/>
+    <mergeCell ref="C105:C114"/>
     <mergeCell ref="C52:C57"/>
     <mergeCell ref="C58:C64"/>
     <mergeCell ref="C65:C70"/>
+    <mergeCell ref="C71:C78"/>
+    <mergeCell ref="C79:C84"/>
+    <mergeCell ref="C85:C94"/>
+    <mergeCell ref="C195:C204"/>
+    <mergeCell ref="B115:B204"/>
+    <mergeCell ref="C115:C124"/>
+    <mergeCell ref="C125:C134"/>
+    <mergeCell ref="C135:C144"/>
+    <mergeCell ref="C145:C154"/>
+    <mergeCell ref="C155:C164"/>
+    <mergeCell ref="C165:C174"/>
+    <mergeCell ref="C175:C184"/>
+    <mergeCell ref="B85:B114"/>
+    <mergeCell ref="B2:B84"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C10:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testCases/helpsToolDropdownTC.xlsx
+++ b/src/test/resources/testCases/helpsToolDropdownTC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\eclipse-workspace1\helpsToolDropdown\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DC42BC-566C-4D83-8462-F701FCD1D68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F08CD2-082B-4436-8954-EF65BC449A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>Path</t>
   </si>
   <si>
-    <t>Use Robert class to copy and paste path</t>
-  </si>
-  <si>
     <t>UAS Assessment Details</t>
   </si>
   <si>
@@ -1773,6 +1770,9 @@
   </si>
   <si>
     <t>Click Sign in Button</t>
+  </si>
+  <si>
+    <t>Use Robert Class to copy and paste path</t>
   </si>
 </sst>
 </file>
@@ -2571,7 +2571,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
@@ -2682,10 +2682,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
@@ -2728,10 +2728,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -2751,10 +2751,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>20</v>
@@ -2829,7 +2829,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>5</v>
@@ -2838,12 +2838,12 @@
         <v>5</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="60" t="s">
         <v>39</v>
@@ -2900,19 +2900,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>1</v>
@@ -2926,19 +2926,19 @@
     </row>
     <row r="2" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>14</v>
@@ -2947,20 +2947,20 @@
         <v>15</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="41"/>
       <c r="D3" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>14</v>
@@ -2969,20 +2969,20 @@
         <v>15</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="41"/>
       <c r="D4" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>14</v>
@@ -2991,20 +2991,20 @@
         <v>15</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="41"/>
       <c r="D5" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>14</v>
@@ -3013,20 +3013,20 @@
         <v>15</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="41"/>
       <c r="D6" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>14</v>
@@ -3035,20 +3035,20 @@
         <v>15</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="41"/>
       <c r="D7" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>14</v>
@@ -3057,20 +3057,20 @@
         <v>15</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="41"/>
       <c r="D8" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>14</v>
@@ -3079,20 +3079,20 @@
         <v>15</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="42"/>
       <c r="D9" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>14</v>
@@ -3101,22 +3101,22 @@
         <v>15</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="40" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>14</v>
@@ -3125,20 +3125,20 @@
         <v>15</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="41"/>
       <c r="D11" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>14</v>
@@ -3147,20 +3147,20 @@
         <v>15</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="41"/>
       <c r="D12" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>14</v>
@@ -3169,20 +3169,20 @@
         <v>15</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="41"/>
       <c r="D13" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>14</v>
@@ -3191,20 +3191,20 @@
         <v>15</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="41"/>
       <c r="D14" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>14</v>
@@ -3213,20 +3213,20 @@
         <v>15</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="42"/>
       <c r="D15" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>14</v>
@@ -3235,22 +3235,22 @@
         <v>15</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>14</v>
@@ -3259,20 +3259,20 @@
         <v>15</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="41"/>
       <c r="D17" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>14</v>
@@ -3281,20 +3281,20 @@
         <v>15</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="41"/>
       <c r="D18" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>14</v>
@@ -3303,20 +3303,20 @@
         <v>15</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="41"/>
       <c r="D19" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>14</v>
@@ -3325,20 +3325,20 @@
         <v>15</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="41"/>
       <c r="D20" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>14</v>
@@ -3347,20 +3347,20 @@
         <v>15</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="42"/>
       <c r="D21" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>14</v>
@@ -3369,22 +3369,22 @@
         <v>15</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>14</v>
@@ -3393,20 +3393,20 @@
         <v>15</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="41"/>
       <c r="D23" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>14</v>
@@ -3415,20 +3415,20 @@
         <v>15</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="41"/>
       <c r="D24" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>14</v>
@@ -3437,20 +3437,20 @@
         <v>15</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="41"/>
       <c r="D25" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>14</v>
@@ -3459,20 +3459,20 @@
         <v>15</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="41"/>
       <c r="D26" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>14</v>
@@ -3481,20 +3481,20 @@
         <v>15</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="42"/>
       <c r="D27" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>14</v>
@@ -3503,22 +3503,22 @@
         <v>15</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>14</v>
@@ -3527,20 +3527,20 @@
         <v>15</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="41"/>
       <c r="D29" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>14</v>
@@ -3549,20 +3549,20 @@
         <v>15</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="41"/>
       <c r="D30" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>14</v>
@@ -3571,20 +3571,20 @@
         <v>15</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="41"/>
       <c r="D31" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>14</v>
@@ -3593,20 +3593,20 @@
         <v>15</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="41"/>
       <c r="D32" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>14</v>
@@ -3615,20 +3615,20 @@
         <v>15</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="42"/>
       <c r="D33" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>14</v>
@@ -3637,22 +3637,22 @@
         <v>15</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>14</v>
@@ -3661,20 +3661,20 @@
         <v>15</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="41"/>
       <c r="D35" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>14</v>
@@ -3683,20 +3683,20 @@
         <v>15</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="41"/>
       <c r="D36" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>14</v>
@@ -3705,20 +3705,20 @@
         <v>15</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="41"/>
       <c r="D37" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>14</v>
@@ -3727,20 +3727,20 @@
         <v>15</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="41"/>
       <c r="D38" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>14</v>
@@ -3749,20 +3749,20 @@
         <v>15</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="42"/>
       <c r="D39" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>14</v>
@@ -3771,22 +3771,22 @@
         <v>15</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>14</v>
@@ -3795,20 +3795,20 @@
         <v>15</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="15"/>
       <c r="D41" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>14</v>
@@ -3817,20 +3817,20 @@
         <v>15</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="15"/>
       <c r="D42" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>14</v>
@@ -3839,20 +3839,20 @@
         <v>15</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="15"/>
       <c r="D43" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>14</v>
@@ -3861,20 +3861,20 @@
         <v>15</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="15"/>
       <c r="D44" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>14</v>
@@ -3883,20 +3883,20 @@
         <v>15</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="16"/>
       <c r="D45" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>14</v>
@@ -3905,22 +3905,22 @@
         <v>15</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>14</v>
@@ -3929,20 +3929,20 @@
         <v>15</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="15"/>
       <c r="D47" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>14</v>
@@ -3951,20 +3951,20 @@
         <v>15</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="15"/>
       <c r="D48" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>14</v>
@@ -3973,20 +3973,20 @@
         <v>15</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="15"/>
       <c r="D49" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>14</v>
@@ -3995,20 +3995,20 @@
         <v>15</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="15"/>
       <c r="D50" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>14</v>
@@ -4017,20 +4017,20 @@
         <v>15</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="16"/>
       <c r="D51" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>14</v>
@@ -4039,22 +4039,22 @@
         <v>15</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>14</v>
@@ -4063,20 +4063,20 @@
         <v>15</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="15"/>
       <c r="D53" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>14</v>
@@ -4085,20 +4085,20 @@
         <v>15</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B54" s="33"/>
       <c r="C54" s="15"/>
       <c r="D54" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>14</v>
@@ -4107,20 +4107,20 @@
         <v>15</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B55" s="33"/>
       <c r="C55" s="15"/>
       <c r="D55" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>14</v>
@@ -4129,20 +4129,20 @@
         <v>15</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B56" s="33"/>
       <c r="C56" s="15"/>
       <c r="D56" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>14</v>
@@ -4151,20 +4151,20 @@
         <v>15</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="16"/>
       <c r="D57" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>14</v>
@@ -4173,22 +4173,22 @@
         <v>15</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B58" s="33"/>
       <c r="C58" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>14</v>
@@ -4197,20 +4197,20 @@
         <v>15</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B59" s="33"/>
       <c r="C59" s="15"/>
       <c r="D59" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>14</v>
@@ -4219,42 +4219,42 @@
         <v>15</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B60" s="33"/>
       <c r="C60" s="15"/>
       <c r="D60" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="25" t="s">
         <v>495</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B61" s="33"/>
       <c r="C61" s="15"/>
       <c r="D61" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>14</v>
@@ -4263,20 +4263,20 @@
         <v>15</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B62" s="33"/>
       <c r="C62" s="15"/>
       <c r="D62" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>14</v>
@@ -4285,42 +4285,42 @@
         <v>15</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B63" s="33"/>
       <c r="C63" s="15"/>
       <c r="D63" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="25" t="s">
         <v>497</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B64" s="33"/>
       <c r="C64" s="16"/>
       <c r="D64" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F64" s="12" t="s">
         <v>14</v>
@@ -4329,22 +4329,22 @@
         <v>15</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B65" s="33"/>
       <c r="C65" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>14</v>
@@ -4353,20 +4353,20 @@
         <v>15</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B66" s="33"/>
       <c r="C66" s="15"/>
       <c r="D66" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>14</v>
@@ -4375,20 +4375,20 @@
         <v>15</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B67" s="33"/>
       <c r="C67" s="15"/>
       <c r="D67" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>14</v>
@@ -4397,20 +4397,20 @@
         <v>15</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B68" s="33"/>
       <c r="C68" s="15"/>
       <c r="D68" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F68" s="12" t="s">
         <v>14</v>
@@ -4419,20 +4419,20 @@
         <v>15</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B69" s="33"/>
       <c r="C69" s="15"/>
       <c r="D69" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F69" s="12" t="s">
         <v>14</v>
@@ -4441,20 +4441,20 @@
         <v>15</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B70" s="33"/>
       <c r="C70" s="16"/>
       <c r="D70" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F70" s="12" t="s">
         <v>14</v>
@@ -4463,22 +4463,22 @@
         <v>15</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B71" s="33"/>
       <c r="C71" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>14</v>
@@ -4487,20 +4487,20 @@
         <v>15</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B72" s="33"/>
       <c r="C72" s="15"/>
       <c r="D72" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F72" s="12" t="s">
         <v>14</v>
@@ -4509,20 +4509,20 @@
         <v>15</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B73" s="33"/>
       <c r="C73" s="15"/>
       <c r="D73" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F73" s="12" t="s">
         <v>14</v>
@@ -4531,42 +4531,42 @@
         <v>15</v>
       </c>
       <c r="H73" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B74" s="33"/>
       <c r="C74" s="15"/>
       <c r="D74" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="25" t="s">
         <v>576</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H74" s="25" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B75" s="33"/>
       <c r="C75" s="15"/>
       <c r="D75" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F75" s="12" t="s">
         <v>14</v>
@@ -4575,20 +4575,20 @@
         <v>15</v>
       </c>
       <c r="H75" s="25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B76" s="33"/>
       <c r="C76" s="15"/>
       <c r="D76" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F76" s="12" t="s">
         <v>14</v>
@@ -4597,20 +4597,20 @@
         <v>15</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B77" s="33"/>
       <c r="C77" s="15"/>
       <c r="D77" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>14</v>
@@ -4619,20 +4619,20 @@
         <v>15</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="23" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B78" s="33"/>
       <c r="C78" s="16"/>
       <c r="D78" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>14</v>
@@ -4641,22 +4641,22 @@
         <v>15</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B79" s="33"/>
       <c r="C79" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>14</v>
@@ -4665,20 +4665,20 @@
         <v>15</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B80" s="33"/>
       <c r="C80" s="15"/>
       <c r="D80" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>14</v>
@@ -4687,20 +4687,20 @@
         <v>15</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B81" s="33"/>
       <c r="C81" s="15"/>
       <c r="D81" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F81" s="12" t="s">
         <v>14</v>
@@ -4709,20 +4709,20 @@
         <v>15</v>
       </c>
       <c r="H81" s="25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B82" s="33"/>
       <c r="C82" s="15"/>
       <c r="D82" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F82" s="12" t="s">
         <v>14</v>
@@ -4731,20 +4731,20 @@
         <v>15</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B83" s="33"/>
       <c r="C83" s="15"/>
       <c r="D83" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>14</v>
@@ -4753,20 +4753,20 @@
         <v>15</v>
       </c>
       <c r="H83" s="25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B84" s="34"/>
       <c r="C84" s="16"/>
       <c r="D84" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F84" s="12" t="s">
         <v>14</v>
@@ -4775,24 +4775,24 @@
         <v>15</v>
       </c>
       <c r="H84" s="25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>14</v>
@@ -4801,20 +4801,20 @@
         <v>15</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B86" s="36"/>
       <c r="C86" s="18"/>
       <c r="D86" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F86" s="12" t="s">
         <v>14</v>
@@ -4823,20 +4823,20 @@
         <v>15</v>
       </c>
       <c r="H86" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B87" s="36"/>
       <c r="C87" s="18"/>
       <c r="D87" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F87" s="12" t="s">
         <v>14</v>
@@ -4845,20 +4845,20 @@
         <v>15</v>
       </c>
       <c r="H87" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B88" s="36"/>
       <c r="C88" s="18"/>
       <c r="D88" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F88" s="12" t="s">
         <v>14</v>
@@ -4867,20 +4867,20 @@
         <v>15</v>
       </c>
       <c r="H88" s="25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B89" s="36"/>
       <c r="C89" s="18"/>
       <c r="D89" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>14</v>
@@ -4889,20 +4889,20 @@
         <v>15</v>
       </c>
       <c r="H89" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B90" s="36"/>
       <c r="C90" s="18"/>
       <c r="D90" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>14</v>
@@ -4911,20 +4911,20 @@
         <v>15</v>
       </c>
       <c r="H90" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B91" s="36"/>
       <c r="C91" s="18"/>
       <c r="D91" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F91" s="12" t="s">
         <v>14</v>
@@ -4933,20 +4933,20 @@
         <v>15</v>
       </c>
       <c r="H91" s="25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A92" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B92" s="36"/>
       <c r="C92" s="18"/>
       <c r="D92" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>14</v>
@@ -4955,20 +4955,20 @@
         <v>15</v>
       </c>
       <c r="H92" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B93" s="36"/>
       <c r="C93" s="18"/>
       <c r="D93" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>14</v>
@@ -4977,20 +4977,20 @@
         <v>15</v>
       </c>
       <c r="H93" s="25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B94" s="36"/>
       <c r="C94" s="18"/>
       <c r="D94" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F94" s="12" t="s">
         <v>14</v>
@@ -4999,22 +4999,22 @@
         <v>15</v>
       </c>
       <c r="H94" s="25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B95" s="36"/>
       <c r="C95" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>14</v>
@@ -5023,20 +5023,20 @@
         <v>15</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B96" s="36"/>
       <c r="C96" s="15"/>
       <c r="D96" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>14</v>
@@ -5045,20 +5045,20 @@
         <v>15</v>
       </c>
       <c r="H96" s="25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A97" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B97" s="36"/>
       <c r="C97" s="15"/>
       <c r="D97" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>14</v>
@@ -5067,20 +5067,20 @@
         <v>15</v>
       </c>
       <c r="H97" s="25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B98" s="36"/>
       <c r="C98" s="15"/>
       <c r="D98" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>14</v>
@@ -5089,20 +5089,20 @@
         <v>15</v>
       </c>
       <c r="H98" s="25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B99" s="36"/>
       <c r="C99" s="15"/>
       <c r="D99" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>14</v>
@@ -5111,20 +5111,20 @@
         <v>15</v>
       </c>
       <c r="H99" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A100" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B100" s="36"/>
       <c r="C100" s="15"/>
       <c r="D100" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F100" s="12" t="s">
         <v>14</v>
@@ -5133,20 +5133,20 @@
         <v>15</v>
       </c>
       <c r="H100" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B101" s="36"/>
       <c r="C101" s="15"/>
       <c r="D101" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F101" s="12" t="s">
         <v>14</v>
@@ -5155,20 +5155,20 @@
         <v>15</v>
       </c>
       <c r="H101" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A102" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B102" s="36"/>
       <c r="C102" s="15"/>
       <c r="D102" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>14</v>
@@ -5177,20 +5177,20 @@
         <v>15</v>
       </c>
       <c r="H102" s="25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A103" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B103" s="36"/>
       <c r="C103" s="15"/>
       <c r="D103" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F103" s="12" t="s">
         <v>14</v>
@@ -5199,20 +5199,20 @@
         <v>15</v>
       </c>
       <c r="H103" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B104" s="36"/>
       <c r="C104" s="16"/>
       <c r="D104" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>14</v>
@@ -5221,22 +5221,22 @@
         <v>15</v>
       </c>
       <c r="H104" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B105" s="36"/>
       <c r="C105" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F105" s="12" t="s">
         <v>14</v>
@@ -5245,20 +5245,20 @@
         <v>15</v>
       </c>
       <c r="H105" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B106" s="36"/>
       <c r="C106" s="15"/>
       <c r="D106" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F106" s="12" t="s">
         <v>14</v>
@@ -5267,20 +5267,20 @@
         <v>15</v>
       </c>
       <c r="H106" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B107" s="36"/>
       <c r="C107" s="15"/>
       <c r="D107" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F107" s="12" t="s">
         <v>14</v>
@@ -5289,20 +5289,20 @@
         <v>15</v>
       </c>
       <c r="H107" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B108" s="36"/>
       <c r="C108" s="15"/>
       <c r="D108" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F108" s="12" t="s">
         <v>14</v>
@@ -5311,20 +5311,20 @@
         <v>15</v>
       </c>
       <c r="H108" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B109" s="36"/>
       <c r="C109" s="15"/>
       <c r="D109" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F109" s="12" t="s">
         <v>14</v>
@@ -5333,20 +5333,20 @@
         <v>15</v>
       </c>
       <c r="H109" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A110" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B110" s="36"/>
       <c r="C110" s="15"/>
       <c r="D110" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F110" s="12" t="s">
         <v>14</v>
@@ -5355,20 +5355,20 @@
         <v>15</v>
       </c>
       <c r="H110" s="25" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A111" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B111" s="36"/>
       <c r="C111" s="15"/>
       <c r="D111" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F111" s="12" t="s">
         <v>14</v>
@@ -5377,20 +5377,20 @@
         <v>15</v>
       </c>
       <c r="H111" s="25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B112" s="36"/>
       <c r="C112" s="15"/>
       <c r="D112" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F112" s="12" t="s">
         <v>14</v>
@@ -5399,20 +5399,20 @@
         <v>15</v>
       </c>
       <c r="H112" s="25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A113" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B113" s="36"/>
       <c r="C113" s="15"/>
       <c r="D113" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F113" s="12" t="s">
         <v>14</v>
@@ -5421,20 +5421,20 @@
         <v>15</v>
       </c>
       <c r="H113" s="25" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A114" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B114" s="37"/>
       <c r="C114" s="16"/>
       <c r="D114" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F114" s="12" t="s">
         <v>14</v>
@@ -5443,24 +5443,24 @@
         <v>15</v>
       </c>
       <c r="H114" s="25" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F115" s="12" t="s">
         <v>14</v>
@@ -5469,20 +5469,20 @@
         <v>15</v>
       </c>
       <c r="H115" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B116" s="38"/>
       <c r="C116" s="17"/>
       <c r="D116" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F116" s="12" t="s">
         <v>14</v>
@@ -5491,20 +5491,20 @@
         <v>15</v>
       </c>
       <c r="H116" s="25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A117" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B117" s="38"/>
       <c r="C117" s="17"/>
       <c r="D117" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F117" s="12" t="s">
         <v>14</v>
@@ -5513,20 +5513,20 @@
         <v>15</v>
       </c>
       <c r="H117" s="25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A118" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B118" s="38"/>
       <c r="C118" s="17"/>
       <c r="D118" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>14</v>
@@ -5535,20 +5535,20 @@
         <v>15</v>
       </c>
       <c r="H118" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B119" s="38"/>
       <c r="C119" s="17"/>
       <c r="D119" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F119" s="12" t="s">
         <v>14</v>
@@ -5557,20 +5557,20 @@
         <v>15</v>
       </c>
       <c r="H119" s="25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A120" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B120" s="38"/>
       <c r="C120" s="17"/>
       <c r="D120" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F120" s="12" t="s">
         <v>14</v>
@@ -5579,20 +5579,20 @@
         <v>15</v>
       </c>
       <c r="H120" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A121" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B121" s="38"/>
       <c r="C121" s="17"/>
       <c r="D121" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F121" s="12" t="s">
         <v>14</v>
@@ -5601,20 +5601,20 @@
         <v>15</v>
       </c>
       <c r="H121" s="25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A122" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B122" s="38"/>
       <c r="C122" s="17"/>
       <c r="D122" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F122" s="12" t="s">
         <v>14</v>
@@ -5623,20 +5623,20 @@
         <v>15</v>
       </c>
       <c r="H122" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B123" s="38"/>
       <c r="C123" s="17"/>
       <c r="D123" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F123" s="12" t="s">
         <v>14</v>
@@ -5645,20 +5645,20 @@
         <v>15</v>
       </c>
       <c r="H123" s="25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B124" s="38"/>
       <c r="C124" s="17"/>
       <c r="D124" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F124" s="12" t="s">
         <v>14</v>
@@ -5667,44 +5667,44 @@
         <v>15</v>
       </c>
       <c r="H124" s="25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B125" s="38"/>
       <c r="C125" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D125" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="24" t="s">
         <v>113</v>
-      </c>
-      <c r="E125" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F125" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H125" s="24" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B126" s="38"/>
       <c r="C126" s="17"/>
       <c r="D126" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F126" s="12" t="s">
         <v>14</v>
@@ -5713,20 +5713,20 @@
         <v>15</v>
       </c>
       <c r="H126" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A127" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B127" s="38"/>
       <c r="C127" s="17"/>
       <c r="D127" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>14</v>
@@ -5735,20 +5735,20 @@
         <v>15</v>
       </c>
       <c r="H127" s="25" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A128" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B128" s="38"/>
       <c r="C128" s="17"/>
       <c r="D128" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F128" s="12" t="s">
         <v>14</v>
@@ -5757,20 +5757,20 @@
         <v>15</v>
       </c>
       <c r="H128" s="25" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B129" s="38"/>
       <c r="C129" s="17"/>
       <c r="D129" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>14</v>
@@ -5779,20 +5779,20 @@
         <v>15</v>
       </c>
       <c r="H129" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A130" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B130" s="38"/>
       <c r="C130" s="17"/>
       <c r="D130" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F130" s="12" t="s">
         <v>14</v>
@@ -5801,20 +5801,20 @@
         <v>15</v>
       </c>
       <c r="H130" s="25" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A131" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B131" s="38"/>
       <c r="C131" s="17"/>
       <c r="D131" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F131" s="12" t="s">
         <v>14</v>
@@ -5823,20 +5823,20 @@
         <v>15</v>
       </c>
       <c r="H131" s="25" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A132" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B132" s="38"/>
       <c r="C132" s="17"/>
       <c r="D132" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>14</v>
@@ -5845,20 +5845,20 @@
         <v>15</v>
       </c>
       <c r="H132" s="25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B133" s="38"/>
       <c r="C133" s="17"/>
       <c r="D133" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F133" s="12" t="s">
         <v>14</v>
@@ -5867,20 +5867,20 @@
         <v>15</v>
       </c>
       <c r="H133" s="25" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A134" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B134" s="38"/>
       <c r="C134" s="17"/>
       <c r="D134" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F134" s="12" t="s">
         <v>14</v>
@@ -5889,44 +5889,44 @@
         <v>15</v>
       </c>
       <c r="H134" s="25" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B135" s="38"/>
       <c r="C135" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D135" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" s="24" t="s">
         <v>115</v>
-      </c>
-      <c r="E135" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F135" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H135" s="24" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B136" s="38"/>
       <c r="C136" s="17"/>
       <c r="D136" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F136" s="12" t="s">
         <v>14</v>
@@ -5935,20 +5935,20 @@
         <v>15</v>
       </c>
       <c r="H136" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A137" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B137" s="38"/>
       <c r="C137" s="17"/>
       <c r="D137" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F137" s="12" t="s">
         <v>14</v>
@@ -5957,20 +5957,20 @@
         <v>15</v>
       </c>
       <c r="H137" s="25" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A138" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B138" s="38"/>
       <c r="C138" s="17"/>
       <c r="D138" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F138" s="12" t="s">
         <v>14</v>
@@ -5979,20 +5979,20 @@
         <v>15</v>
       </c>
       <c r="H138" s="25" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B139" s="38"/>
       <c r="C139" s="17"/>
       <c r="D139" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F139" s="12" t="s">
         <v>14</v>
@@ -6001,20 +6001,20 @@
         <v>15</v>
       </c>
       <c r="H139" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A140" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B140" s="38"/>
       <c r="C140" s="17"/>
       <c r="D140" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>14</v>
@@ -6023,20 +6023,20 @@
         <v>15</v>
       </c>
       <c r="H140" s="25" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A141" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B141" s="38"/>
       <c r="C141" s="17"/>
       <c r="D141" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F141" s="12" t="s">
         <v>14</v>
@@ -6045,20 +6045,20 @@
         <v>15</v>
       </c>
       <c r="H141" s="25" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A142" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B142" s="38"/>
       <c r="C142" s="17"/>
       <c r="D142" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F142" s="12" t="s">
         <v>14</v>
@@ -6067,20 +6067,20 @@
         <v>15</v>
       </c>
       <c r="H142" s="25" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A143" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B143" s="38"/>
       <c r="C143" s="17"/>
       <c r="D143" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F143" s="12" t="s">
         <v>14</v>
@@ -6089,20 +6089,20 @@
         <v>15</v>
       </c>
       <c r="H143" s="25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A144" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B144" s="38"/>
       <c r="C144" s="17"/>
       <c r="D144" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F144" s="12" t="s">
         <v>14</v>
@@ -6111,22 +6111,22 @@
         <v>15</v>
       </c>
       <c r="H144" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B145" s="38"/>
       <c r="C145" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F145" s="12" t="s">
         <v>14</v>
@@ -6135,20 +6135,20 @@
         <v>15</v>
       </c>
       <c r="H145" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B146" s="38"/>
       <c r="C146" s="13"/>
       <c r="D146" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F146" s="12" t="s">
         <v>14</v>
@@ -6157,20 +6157,20 @@
         <v>15</v>
       </c>
       <c r="H146" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A147" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B147" s="38"/>
       <c r="C147" s="13"/>
       <c r="D147" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F147" s="12" t="s">
         <v>14</v>
@@ -6179,20 +6179,20 @@
         <v>15</v>
       </c>
       <c r="H147" s="25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A148" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B148" s="38"/>
       <c r="C148" s="13"/>
       <c r="D148" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F148" s="12" t="s">
         <v>14</v>
@@ -6201,20 +6201,20 @@
         <v>15</v>
       </c>
       <c r="H148" s="25" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B149" s="38"/>
       <c r="C149" s="13"/>
       <c r="D149" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F149" s="12" t="s">
         <v>14</v>
@@ -6223,20 +6223,20 @@
         <v>15</v>
       </c>
       <c r="H149" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A150" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B150" s="38"/>
       <c r="C150" s="13"/>
       <c r="D150" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F150" s="12" t="s">
         <v>14</v>
@@ -6245,20 +6245,20 @@
         <v>15</v>
       </c>
       <c r="H150" s="25" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A151" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B151" s="38"/>
       <c r="C151" s="13"/>
       <c r="D151" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F151" s="12" t="s">
         <v>14</v>
@@ -6267,20 +6267,20 @@
         <v>15</v>
       </c>
       <c r="H151" s="25" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A152" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B152" s="38"/>
       <c r="C152" s="13"/>
       <c r="D152" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F152" s="12" t="s">
         <v>14</v>
@@ -6289,20 +6289,20 @@
         <v>15</v>
       </c>
       <c r="H152" s="25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A153" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B153" s="38"/>
       <c r="C153" s="13"/>
       <c r="D153" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F153" s="12" t="s">
         <v>14</v>
@@ -6311,20 +6311,20 @@
         <v>15</v>
       </c>
       <c r="H153" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A154" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B154" s="38"/>
       <c r="C154" s="13"/>
       <c r="D154" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F154" s="12" t="s">
         <v>14</v>
@@ -6333,22 +6333,22 @@
         <v>15</v>
       </c>
       <c r="H154" s="25" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="27" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B155" s="38"/>
       <c r="C155" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F155" s="12" t="s">
         <v>14</v>
@@ -6357,20 +6357,20 @@
         <v>15</v>
       </c>
       <c r="H155" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B156" s="38"/>
       <c r="C156" s="13"/>
       <c r="D156" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F156" s="12" t="s">
         <v>14</v>
@@ -6379,20 +6379,20 @@
         <v>15</v>
       </c>
       <c r="H156" s="25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A157" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B157" s="38"/>
       <c r="C157" s="13"/>
       <c r="D157" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F157" s="12" t="s">
         <v>14</v>
@@ -6401,20 +6401,20 @@
         <v>15</v>
       </c>
       <c r="H157" s="25" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A158" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B158" s="38"/>
       <c r="C158" s="13"/>
       <c r="D158" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F158" s="12" t="s">
         <v>14</v>
@@ -6423,20 +6423,20 @@
         <v>15</v>
       </c>
       <c r="H158" s="25" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B159" s="38"/>
       <c r="C159" s="13"/>
       <c r="D159" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F159" s="12" t="s">
         <v>14</v>
@@ -6445,20 +6445,20 @@
         <v>15</v>
       </c>
       <c r="H159" s="25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A160" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B160" s="38"/>
       <c r="C160" s="13"/>
       <c r="D160" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F160" s="12" t="s">
         <v>14</v>
@@ -6467,20 +6467,20 @@
         <v>15</v>
       </c>
       <c r="H160" s="25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A161" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B161" s="38"/>
       <c r="C161" s="13"/>
       <c r="D161" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F161" s="12" t="s">
         <v>14</v>
@@ -6489,20 +6489,20 @@
         <v>15</v>
       </c>
       <c r="H161" s="25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A162" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B162" s="38"/>
       <c r="C162" s="13"/>
       <c r="D162" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F162" s="12" t="s">
         <v>14</v>
@@ -6511,20 +6511,20 @@
         <v>15</v>
       </c>
       <c r="H162" s="25" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A163" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B163" s="38"/>
       <c r="C163" s="13"/>
       <c r="D163" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F163" s="12" t="s">
         <v>14</v>
@@ -6533,20 +6533,20 @@
         <v>15</v>
       </c>
       <c r="H163" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A164" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B164" s="38"/>
       <c r="C164" s="13"/>
       <c r="D164" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F164" s="12" t="s">
         <v>14</v>
@@ -6555,22 +6555,22 @@
         <v>15</v>
       </c>
       <c r="H164" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B165" s="38"/>
       <c r="C165" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F165" s="12" t="s">
         <v>14</v>
@@ -6579,20 +6579,20 @@
         <v>15</v>
       </c>
       <c r="H165" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B166" s="38"/>
       <c r="C166" s="13"/>
       <c r="D166" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F166" s="12" t="s">
         <v>14</v>
@@ -6601,20 +6601,20 @@
         <v>15</v>
       </c>
       <c r="H166" s="25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A167" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B167" s="38"/>
       <c r="C167" s="13"/>
       <c r="D167" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F167" s="12" t="s">
         <v>14</v>
@@ -6623,20 +6623,20 @@
         <v>15</v>
       </c>
       <c r="H167" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A168" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B168" s="38"/>
       <c r="C168" s="13"/>
       <c r="D168" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F168" s="12" t="s">
         <v>14</v>
@@ -6645,20 +6645,20 @@
         <v>15</v>
       </c>
       <c r="H168" s="25" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B169" s="38"/>
       <c r="C169" s="13"/>
       <c r="D169" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F169" s="12" t="s">
         <v>14</v>
@@ -6667,20 +6667,20 @@
         <v>15</v>
       </c>
       <c r="H169" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A170" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B170" s="38"/>
       <c r="C170" s="13"/>
       <c r="D170" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F170" s="12" t="s">
         <v>14</v>
@@ -6689,20 +6689,20 @@
         <v>15</v>
       </c>
       <c r="H170" s="25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A171" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B171" s="38"/>
       <c r="C171" s="13"/>
       <c r="D171" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F171" s="12" t="s">
         <v>14</v>
@@ -6711,20 +6711,20 @@
         <v>15</v>
       </c>
       <c r="H171" s="25" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A172" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B172" s="38"/>
       <c r="C172" s="13"/>
       <c r="D172" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F172" s="12" t="s">
         <v>14</v>
@@ -6733,20 +6733,20 @@
         <v>15</v>
       </c>
       <c r="H172" s="25" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A173" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B173" s="38"/>
       <c r="C173" s="13"/>
       <c r="D173" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F173" s="12" t="s">
         <v>14</v>
@@ -6755,20 +6755,20 @@
         <v>15</v>
       </c>
       <c r="H173" s="25" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A174" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B174" s="38"/>
       <c r="C174" s="13"/>
       <c r="D174" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F174" s="12" t="s">
         <v>14</v>
@@ -6777,22 +6777,22 @@
         <v>15</v>
       </c>
       <c r="H174" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B175" s="38"/>
       <c r="C175" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F175" s="12" t="s">
         <v>14</v>
@@ -6801,20 +6801,20 @@
         <v>15</v>
       </c>
       <c r="H175" s="24" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A176" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B176" s="38"/>
       <c r="C176" s="13"/>
       <c r="D176" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F176" s="12" t="s">
         <v>14</v>
@@ -6823,20 +6823,20 @@
         <v>15</v>
       </c>
       <c r="H176" s="25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A177" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B177" s="38"/>
       <c r="C177" s="13"/>
       <c r="D177" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F177" s="12" t="s">
         <v>14</v>
@@ -6845,20 +6845,20 @@
         <v>15</v>
       </c>
       <c r="H177" s="25" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A178" s="27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B178" s="38"/>
       <c r="C178" s="13"/>
       <c r="D178" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F178" s="12" t="s">
         <v>14</v>
@@ -6867,20 +6867,20 @@
         <v>15</v>
       </c>
       <c r="H178" s="25" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A179" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B179" s="38"/>
       <c r="C179" s="13"/>
       <c r="D179" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F179" s="12" t="s">
         <v>14</v>
@@ -6889,20 +6889,20 @@
         <v>15</v>
       </c>
       <c r="H179" s="25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A180" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B180" s="38"/>
       <c r="C180" s="13"/>
       <c r="D180" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F180" s="12" t="s">
         <v>14</v>
@@ -6911,20 +6911,20 @@
         <v>15</v>
       </c>
       <c r="H180" s="25" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A181" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B181" s="38"/>
       <c r="C181" s="13"/>
       <c r="D181" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F181" s="12" t="s">
         <v>14</v>
@@ -6933,20 +6933,20 @@
         <v>15</v>
       </c>
       <c r="H181" s="25" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A182" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B182" s="38"/>
       <c r="C182" s="13"/>
       <c r="D182" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F182" s="12" t="s">
         <v>14</v>
@@ -6955,20 +6955,20 @@
         <v>15</v>
       </c>
       <c r="H182" s="25" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A183" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B183" s="38"/>
       <c r="C183" s="13"/>
       <c r="D183" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F183" s="12" t="s">
         <v>14</v>
@@ -6977,20 +6977,20 @@
         <v>15</v>
       </c>
       <c r="H183" s="25" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A184" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B184" s="38"/>
       <c r="C184" s="13"/>
       <c r="D184" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F184" s="12" t="s">
         <v>14</v>
@@ -6999,22 +6999,22 @@
         <v>15</v>
       </c>
       <c r="H184" s="25" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B185" s="38"/>
       <c r="C185" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F185" s="12" t="s">
         <v>14</v>
@@ -7023,20 +7023,20 @@
         <v>15</v>
       </c>
       <c r="H185" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A186" s="27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B186" s="38"/>
       <c r="C186" s="13"/>
       <c r="D186" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F186" s="12" t="s">
         <v>14</v>
@@ -7045,20 +7045,20 @@
         <v>15</v>
       </c>
       <c r="H186" s="25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A187" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B187" s="38"/>
       <c r="C187" s="13"/>
       <c r="D187" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F187" s="12" t="s">
         <v>14</v>
@@ -7067,20 +7067,20 @@
         <v>15</v>
       </c>
       <c r="H187" s="25" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A188" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B188" s="38"/>
       <c r="C188" s="13"/>
       <c r="D188" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F188" s="12" t="s">
         <v>14</v>
@@ -7089,20 +7089,20 @@
         <v>15</v>
       </c>
       <c r="H188" s="25" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A189" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B189" s="38"/>
       <c r="C189" s="13"/>
       <c r="D189" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F189" s="12" t="s">
         <v>14</v>
@@ -7111,20 +7111,20 @@
         <v>15</v>
       </c>
       <c r="H189" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A190" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B190" s="38"/>
       <c r="C190" s="13"/>
       <c r="D190" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F190" s="12" t="s">
         <v>14</v>
@@ -7133,20 +7133,20 @@
         <v>15</v>
       </c>
       <c r="H190" s="25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A191" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B191" s="38"/>
       <c r="C191" s="13"/>
       <c r="D191" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F191" s="12" t="s">
         <v>14</v>
@@ -7155,20 +7155,20 @@
         <v>15</v>
       </c>
       <c r="H191" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A192" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B192" s="38"/>
       <c r="C192" s="13"/>
       <c r="D192" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E192" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F192" s="12" t="s">
         <v>14</v>
@@ -7177,20 +7177,20 @@
         <v>15</v>
       </c>
       <c r="H192" s="25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A193" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B193" s="38"/>
       <c r="C193" s="13"/>
       <c r="D193" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F193" s="12" t="s">
         <v>14</v>
@@ -7199,20 +7199,20 @@
         <v>15</v>
       </c>
       <c r="H193" s="25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A194" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B194" s="38"/>
       <c r="C194" s="13"/>
       <c r="D194" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F194" s="12" t="s">
         <v>14</v>
@@ -7221,44 +7221,44 @@
         <v>15</v>
       </c>
       <c r="H194" s="25" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B195" s="38"/>
       <c r="C195" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D195" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E195" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F195" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G195" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H195" s="24" t="s">
         <v>126</v>
-      </c>
-      <c r="E195" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F195" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G195" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H195" s="24" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B196" s="38"/>
       <c r="C196" s="13"/>
       <c r="D196" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F196" s="12" t="s">
         <v>14</v>
@@ -7267,20 +7267,20 @@
         <v>15</v>
       </c>
       <c r="H196" s="25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A197" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B197" s="38"/>
       <c r="C197" s="13"/>
       <c r="D197" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F197" s="12" t="s">
         <v>14</v>
@@ -7289,20 +7289,20 @@
         <v>15</v>
       </c>
       <c r="H197" s="25" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A198" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B198" s="38"/>
       <c r="C198" s="13"/>
       <c r="D198" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F198" s="12" t="s">
         <v>14</v>
@@ -7311,20 +7311,20 @@
         <v>15</v>
       </c>
       <c r="H198" s="25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A199" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B199" s="38"/>
       <c r="C199" s="13"/>
       <c r="D199" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F199" s="12" t="s">
         <v>14</v>
@@ -7333,20 +7333,20 @@
         <v>15</v>
       </c>
       <c r="H199" s="25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A200" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B200" s="38"/>
       <c r="C200" s="13"/>
       <c r="D200" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F200" s="12" t="s">
         <v>14</v>
@@ -7355,20 +7355,20 @@
         <v>15</v>
       </c>
       <c r="H200" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A201" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B201" s="38"/>
       <c r="C201" s="13"/>
       <c r="D201" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F201" s="12" t="s">
         <v>14</v>
@@ -7377,20 +7377,20 @@
         <v>15</v>
       </c>
       <c r="H201" s="25" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A202" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B202" s="38"/>
       <c r="C202" s="13"/>
       <c r="D202" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F202" s="12" t="s">
         <v>14</v>
@@ -7399,20 +7399,20 @@
         <v>15</v>
       </c>
       <c r="H202" s="25" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A203" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B203" s="38"/>
       <c r="C203" s="13"/>
       <c r="D203" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F203" s="12" t="s">
         <v>14</v>
@@ -7421,20 +7421,20 @@
         <v>15</v>
       </c>
       <c r="H203" s="25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B204" s="39"/>
       <c r="C204" s="29"/>
       <c r="D204" s="30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E204" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F204" s="30" t="s">
         <v>14</v>
@@ -7443,7 +7443,7 @@
         <v>15</v>
       </c>
       <c r="H204" s="31" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -7504,16 +7504,16 @@
   <sheetData>
     <row r="1" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="47" t="s">
         <v>1</v>
@@ -7527,13 +7527,13 @@
     </row>
     <row r="2" spans="1:7" s="44" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>24</v>
@@ -7545,19 +7545,19 @@
         <v>15</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>21</v>
@@ -7571,11 +7571,11 @@
     </row>
     <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>13</v>
@@ -7587,16 +7587,16 @@
         <v>15</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>13</v>
@@ -7608,19 +7608,19 @@
         <v>15</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>21</v>
@@ -7634,11 +7634,11 @@
     </row>
     <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>13</v>
@@ -7650,16 +7650,16 @@
         <v>15</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>13</v>
@@ -7671,19 +7671,19 @@
         <v>15</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="45"/>
       <c r="C9" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>14</v>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="51"/>
       <c r="C10" s="30" t="s">

--- a/src/test/resources/testCases/helpsToolDropdownTC.xlsx
+++ b/src/test/resources/testCases/helpsToolDropdownTC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\eclipse-workspace1\helpsToolDropdown\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F08CD2-082B-4436-8954-EF65BC449A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8071BE53-30A0-448F-8503-A62C4E17E290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="585">
   <si>
     <t>ObjectType</t>
   </si>
@@ -1773,13 +1773,22 @@
   </si>
   <si>
     <t>Use Robert Class to copy and paste path</t>
+  </si>
+  <si>
+    <t>LI003A</t>
+  </si>
+  <si>
+    <t>Click Use Another Account</t>
+  </si>
+  <si>
+    <t>//div[contains(text(), 'Use another account')]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1824,6 +1833,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2117,7 +2137,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2151,24 +2171,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2195,54 +2197,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2254,9 +2217,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2286,6 +2246,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2568,10 +2596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9327E446-000E-48FF-8238-1345EB9443AE}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2588,30 +2616,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2629,13 +2657,13 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="36" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2653,12 +2681,12 @@
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2676,16 +2704,16 @@
       <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
-        <v>77</v>
+    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>582</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -2696,65 +2724,65 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="44" t="s">
+        <v>584</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G6" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G7" s="38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>578</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -2765,19 +2793,19 @@
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
-        <v>81</v>
+      <c r="A9" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>578</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -2788,84 +2816,111 @@
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G10" s="37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="62" t="s">
+      <c r="G11" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G12" s="43" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="28" t="s">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B13" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C13" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="60" t="s">
+      <c r="D13" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G13" s="41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C14" s="10"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C15" s="10"/>
+      <c r="F15" s="37"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F16" s="66"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2881,7 +2936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407B753E-D1E8-46BC-BF70-35AA7CA269EC}">
   <dimension ref="A1:H204"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2899,39 +2954,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="50" t="s">
         <v>154</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -2946,16 +3001,16 @@
       <c r="G2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="18" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="41"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="11" t="s">
         <v>369</v>
       </c>
@@ -2968,16 +3023,16 @@
       <c r="G3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="19" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="41"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="11" t="s">
         <v>335</v>
       </c>
@@ -2990,16 +3045,16 @@
       <c r="G4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="18" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="41"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="11" t="s">
         <v>336</v>
       </c>
@@ -3012,16 +3067,16 @@
       <c r="G5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="18" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="41"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="11" t="s">
         <v>337</v>
       </c>
@@ -3034,17 +3089,17 @@
       <c r="G6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="18" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="26" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="20" t="s">
         <v>338</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -3056,16 +3111,16 @@
       <c r="G7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="18" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="41"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="11" t="s">
         <v>339</v>
       </c>
@@ -3078,16 +3133,16 @@
       <c r="G8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="18" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="11" t="s">
         <v>340</v>
       </c>
@@ -3100,16 +3155,16 @@
       <c r="G9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="18" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="40" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="50" t="s">
         <v>395</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -3124,16 +3179,16 @@
       <c r="G10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="41"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="11" t="s">
         <v>369</v>
       </c>
@@ -3146,16 +3201,16 @@
       <c r="G11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="19" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="41"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="11" t="s">
         <v>341</v>
       </c>
@@ -3168,16 +3223,16 @@
       <c r="G12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="19" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="41"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="11" t="s">
         <v>342</v>
       </c>
@@ -3190,16 +3245,16 @@
       <c r="G13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="18" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="41"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="11" t="s">
         <v>343</v>
       </c>
@@ -3212,16 +3267,16 @@
       <c r="G14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="18" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="11" t="s">
         <v>344</v>
       </c>
@@ -3234,16 +3289,16 @@
       <c r="G15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="18" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="40" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="50" t="s">
         <v>156</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -3258,16 +3313,16 @@
       <c r="G16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="41"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="11" t="s">
         <v>369</v>
       </c>
@@ -3280,16 +3335,16 @@
       <c r="G17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="19" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="41"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="11" t="s">
         <v>341</v>
       </c>
@@ -3302,16 +3357,16 @@
       <c r="G18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="19" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="41"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="11" t="s">
         <v>345</v>
       </c>
@@ -3324,16 +3379,16 @@
       <c r="G19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="19" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="41"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="11" t="s">
         <v>346</v>
       </c>
@@ -3346,16 +3401,16 @@
       <c r="G20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="19" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="11" t="s">
         <v>347</v>
       </c>
@@ -3368,16 +3423,16 @@
       <c r="G21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="19" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="40" t="s">
+      <c r="B22" s="57"/>
+      <c r="C22" s="50" t="s">
         <v>157</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -3392,16 +3447,16 @@
       <c r="G22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="41"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="11" t="s">
         <v>369</v>
       </c>
@@ -3414,16 +3469,16 @@
       <c r="G23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="19" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="41"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="11" t="s">
         <v>341</v>
       </c>
@@ -3436,16 +3491,16 @@
       <c r="G24" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="19" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="41"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="11" t="s">
         <v>348</v>
       </c>
@@ -3458,16 +3513,16 @@
       <c r="G25" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="19" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="41"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="11" t="s">
         <v>343</v>
       </c>
@@ -3480,16 +3535,16 @@
       <c r="G26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="19" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="42"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="11" t="s">
         <v>344</v>
       </c>
@@ -3502,16 +3557,16 @@
       <c r="G27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="19" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="40" t="s">
+      <c r="B28" s="57"/>
+      <c r="C28" s="50" t="s">
         <v>158</v>
       </c>
       <c r="D28" s="12" t="s">
@@ -3526,16 +3581,16 @@
       <c r="G28" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="41"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="11" t="s">
         <v>369</v>
       </c>
@@ -3548,16 +3603,16 @@
       <c r="G29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="19" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="41"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="11" t="s">
         <v>341</v>
       </c>
@@ -3570,16 +3625,16 @@
       <c r="G30" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="19" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="41"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="12" t="s">
         <v>345</v>
       </c>
@@ -3592,16 +3647,16 @@
       <c r="G31" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="19" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="41"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="51"/>
       <c r="D32" s="11" t="s">
         <v>346</v>
       </c>
@@ -3614,16 +3669,16 @@
       <c r="G32" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="19" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="42"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="11" t="s">
         <v>347</v>
       </c>
@@ -3636,16 +3691,16 @@
       <c r="G33" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="19" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="40" t="s">
+      <c r="B34" s="57"/>
+      <c r="C34" s="50" t="s">
         <v>159</v>
       </c>
       <c r="D34" s="11" t="s">
@@ -3660,16 +3715,16 @@
       <c r="G34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="H34" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="41"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="11" t="s">
         <v>369</v>
       </c>
@@ -3682,16 +3737,16 @@
       <c r="G35" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="19" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="41"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="11" t="s">
         <v>341</v>
       </c>
@@ -3704,16 +3759,16 @@
       <c r="G36" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="19" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="41"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="11" t="s">
         <v>348</v>
       </c>
@@ -3726,16 +3781,16 @@
       <c r="G37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="25" t="s">
+      <c r="H37" s="19" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="41"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="11" t="s">
         <v>343</v>
       </c>
@@ -3748,16 +3803,16 @@
       <c r="G38" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="25" t="s">
+      <c r="H38" s="19" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="42"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="12" t="s">
         <v>344</v>
       </c>
@@ -3770,16 +3825,16 @@
       <c r="G39" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="19" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="14" t="s">
+      <c r="B40" s="57"/>
+      <c r="C40" s="46" t="s">
         <v>160</v>
       </c>
       <c r="D40" s="12" t="s">
@@ -3794,16 +3849,16 @@
       <c r="G40" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="24" t="s">
+      <c r="H40" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="15"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="11" t="s">
         <v>369</v>
       </c>
@@ -3816,16 +3871,16 @@
       <c r="G41" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="19" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="15"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="11" t="s">
         <v>341</v>
       </c>
@@ -3838,16 +3893,16 @@
       <c r="G42" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="25" t="s">
+      <c r="H42" s="19" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="15"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="12" t="s">
         <v>345</v>
       </c>
@@ -3860,16 +3915,16 @@
       <c r="G43" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="25" t="s">
+      <c r="H43" s="19" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="15"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="11" t="s">
         <v>346</v>
       </c>
@@ -3882,16 +3937,16 @@
       <c r="G44" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="25" t="s">
+      <c r="H44" s="19" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="16"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="48"/>
       <c r="D45" s="11" t="s">
         <v>347</v>
       </c>
@@ -3904,16 +3959,16 @@
       <c r="G45" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="25" t="s">
+      <c r="H45" s="19" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="14" t="s">
+      <c r="B46" s="57"/>
+      <c r="C46" s="46" t="s">
         <v>161</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -3928,16 +3983,16 @@
       <c r="G46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="24" t="s">
+      <c r="H46" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="15"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="11" t="s">
         <v>369</v>
       </c>
@@ -3950,16 +4005,16 @@
       <c r="G47" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="25" t="s">
+      <c r="H47" s="19" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="15"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="11" t="s">
         <v>349</v>
       </c>
@@ -3972,16 +4027,16 @@
       <c r="G48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="25" t="s">
+      <c r="H48" s="19" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="15"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="11" t="s">
         <v>350</v>
       </c>
@@ -3994,16 +4049,16 @@
       <c r="G49" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="25" t="s">
+      <c r="H49" s="19" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="15"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="11" t="s">
         <v>351</v>
       </c>
@@ -4016,16 +4071,16 @@
       <c r="G50" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="25" t="s">
+      <c r="H50" s="19" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="16"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="48"/>
       <c r="D51" s="11" t="s">
         <v>352</v>
       </c>
@@ -4038,16 +4093,16 @@
       <c r="G51" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="25" t="s">
+      <c r="H51" s="19" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="14" t="s">
+      <c r="B52" s="57"/>
+      <c r="C52" s="46" t="s">
         <v>162</v>
       </c>
       <c r="D52" s="11" t="s">
@@ -4062,16 +4117,16 @@
       <c r="G52" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="24" t="s">
+      <c r="H52" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="15"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="11" t="s">
         <v>369</v>
       </c>
@@ -4084,16 +4139,16 @@
       <c r="G53" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="25" t="s">
+      <c r="H53" s="19" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="15"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="12" t="s">
         <v>341</v>
       </c>
@@ -4106,16 +4161,16 @@
       <c r="G54" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H54" s="25" t="s">
+      <c r="H54" s="19" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="15"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="12" t="s">
         <v>345</v>
       </c>
@@ -4128,16 +4183,16 @@
       <c r="G55" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="25" t="s">
+      <c r="H55" s="19" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="15"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="12" t="s">
         <v>346</v>
       </c>
@@ -4150,16 +4205,16 @@
       <c r="G56" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="25" t="s">
+      <c r="H56" s="19" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="16"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="48"/>
       <c r="D57" s="12" t="s">
         <v>347</v>
       </c>
@@ -4172,16 +4227,16 @@
       <c r="G57" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H57" s="25" t="s">
+      <c r="H57" s="19" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="14" t="s">
+      <c r="B58" s="57"/>
+      <c r="C58" s="46" t="s">
         <v>163</v>
       </c>
       <c r="D58" s="11" t="s">
@@ -4196,16 +4251,16 @@
       <c r="G58" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="24" t="s">
+      <c r="H58" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="15"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="47"/>
       <c r="D59" s="11" t="s">
         <v>369</v>
       </c>
@@ -4218,16 +4273,16 @@
       <c r="G59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H59" s="25" t="s">
+      <c r="H59" s="19" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="15"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="11" t="s">
         <v>494</v>
       </c>
@@ -4240,16 +4295,16 @@
       <c r="G60" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="25" t="s">
+      <c r="H60" s="19" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="15"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="11" t="s">
         <v>353</v>
       </c>
@@ -4262,16 +4317,16 @@
       <c r="G61" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="25" t="s">
+      <c r="H61" s="19" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="15"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="11" t="s">
         <v>354</v>
       </c>
@@ -4284,16 +4339,16 @@
       <c r="G62" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H62" s="25" t="s">
+      <c r="H62" s="19" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="15"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="47"/>
       <c r="D63" s="11" t="s">
         <v>496</v>
       </c>
@@ -4306,16 +4361,16 @@
       <c r="G63" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="25" t="s">
+      <c r="H63" s="19" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="B64" s="33"/>
-      <c r="C64" s="16"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="48"/>
       <c r="D64" s="11" t="s">
         <v>355</v>
       </c>
@@ -4328,16 +4383,16 @@
       <c r="G64" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H64" s="25" t="s">
+      <c r="H64" s="19" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="14" t="s">
+      <c r="B65" s="57"/>
+      <c r="C65" s="46" t="s">
         <v>165</v>
       </c>
       <c r="D65" s="11" t="s">
@@ -4352,16 +4407,16 @@
       <c r="G65" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H65" s="24" t="s">
+      <c r="H65" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="B66" s="33"/>
-      <c r="C66" s="15"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="11" t="s">
         <v>369</v>
       </c>
@@ -4374,16 +4429,16 @@
       <c r="G66" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="25" t="s">
+      <c r="H66" s="19" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="15"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="47"/>
       <c r="D67" s="12" t="s">
         <v>341</v>
       </c>
@@ -4396,16 +4451,16 @@
       <c r="G67" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H67" s="25" t="s">
+      <c r="H67" s="19" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="15"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="47"/>
       <c r="D68" s="12" t="s">
         <v>345</v>
       </c>
@@ -4418,16 +4473,16 @@
       <c r="G68" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="25" t="s">
+      <c r="H68" s="19" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="B69" s="33"/>
-      <c r="C69" s="15"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="12" t="s">
         <v>346</v>
       </c>
@@ -4440,16 +4495,16 @@
       <c r="G69" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H69" s="25" t="s">
+      <c r="H69" s="19" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="B70" s="33"/>
-      <c r="C70" s="16"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="48"/>
       <c r="D70" s="12" t="s">
         <v>347</v>
       </c>
@@ -4462,16 +4517,16 @@
       <c r="G70" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H70" s="25" t="s">
+      <c r="H70" s="19" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="B71" s="33"/>
-      <c r="C71" s="14" t="s">
+      <c r="B71" s="57"/>
+      <c r="C71" s="46" t="s">
         <v>166</v>
       </c>
       <c r="D71" s="11" t="s">
@@ -4486,16 +4541,16 @@
       <c r="G71" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="24" t="s">
+      <c r="H71" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B72" s="33"/>
-      <c r="C72" s="15"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="47"/>
       <c r="D72" s="11" t="s">
         <v>369</v>
       </c>
@@ -4508,16 +4563,16 @@
       <c r="G72" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H72" s="25" t="s">
+      <c r="H72" s="19" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="B73" s="33"/>
-      <c r="C73" s="15"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="47"/>
       <c r="D73" s="11" t="s">
         <v>356</v>
       </c>
@@ -4530,16 +4585,16 @@
       <c r="G73" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H73" s="25" t="s">
+      <c r="H73" s="19" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="15"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="47"/>
       <c r="D74" s="11" t="s">
         <v>575</v>
       </c>
@@ -4552,16 +4607,16 @@
       <c r="G74" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H74" s="25" t="s">
+      <c r="H74" s="19" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="B75" s="33"/>
-      <c r="C75" s="15"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="47"/>
       <c r="D75" s="11" t="s">
         <v>357</v>
       </c>
@@ -4574,16 +4629,16 @@
       <c r="G75" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H75" s="25" t="s">
+      <c r="H75" s="19" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="B76" s="33"/>
-      <c r="C76" s="15"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="47"/>
       <c r="D76" s="11" t="s">
         <v>358</v>
       </c>
@@ -4596,16 +4651,16 @@
       <c r="G76" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H76" s="25" t="s">
+      <c r="H76" s="19" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="15"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="47"/>
       <c r="D77" s="11" t="s">
         <v>359</v>
       </c>
@@ -4618,16 +4673,16 @@
       <c r="G77" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="25" t="s">
+      <c r="H77" s="19" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="17" t="s">
         <v>574</v>
       </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="16"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="48"/>
       <c r="D78" s="11" t="s">
         <v>360</v>
       </c>
@@ -4640,16 +4695,16 @@
       <c r="G78" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H78" s="25" t="s">
+      <c r="H78" s="19" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="14" t="s">
+      <c r="B79" s="57"/>
+      <c r="C79" s="46" t="s">
         <v>167</v>
       </c>
       <c r="D79" s="12" t="s">
@@ -4664,16 +4719,16 @@
       <c r="G79" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H79" s="24" t="s">
+      <c r="H79" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="15"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="47"/>
       <c r="D80" s="11" t="s">
         <v>369</v>
       </c>
@@ -4686,16 +4741,16 @@
       <c r="G80" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H80" s="25" t="s">
+      <c r="H80" s="19" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="B81" s="33"/>
-      <c r="C81" s="15"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="47"/>
       <c r="D81" s="12" t="s">
         <v>341</v>
       </c>
@@ -4708,16 +4763,16 @@
       <c r="G81" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H81" s="25" t="s">
+      <c r="H81" s="19" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="B82" s="33"/>
-      <c r="C82" s="15"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="47"/>
       <c r="D82" s="12" t="s">
         <v>345</v>
       </c>
@@ -4730,16 +4785,16 @@
       <c r="G82" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H82" s="25" t="s">
+      <c r="H82" s="19" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="B83" s="33"/>
-      <c r="C83" s="15"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="47"/>
       <c r="D83" s="12" t="s">
         <v>346</v>
       </c>
@@ -4752,16 +4807,16 @@
       <c r="G83" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="25" t="s">
+      <c r="H83" s="19" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B84" s="34"/>
-      <c r="C84" s="16"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="48"/>
       <c r="D84" s="12" t="s">
         <v>347</v>
       </c>
@@ -4774,18 +4829,18 @@
       <c r="G84" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H84" s="25" t="s">
+      <c r="H84" s="19" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="B85" s="35" t="s">
+      <c r="B85" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="49" t="s">
         <v>209</v>
       </c>
       <c r="D85" s="12" t="s">
@@ -4800,16 +4855,16 @@
       <c r="G85" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H85" s="24" t="s">
+      <c r="H85" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="B86" s="36"/>
-      <c r="C86" s="18"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="49"/>
       <c r="D86" s="11" t="s">
         <v>369</v>
       </c>
@@ -4822,16 +4877,16 @@
       <c r="G86" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H86" s="25" t="s">
+      <c r="H86" s="19" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B87" s="36"/>
-      <c r="C87" s="18"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="49"/>
       <c r="D87" s="12" t="s">
         <v>361</v>
       </c>
@@ -4844,16 +4899,16 @@
       <c r="G87" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H87" s="25" t="s">
+      <c r="H87" s="19" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="B88" s="36"/>
-      <c r="C88" s="18"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="49"/>
       <c r="D88" s="12" t="s">
         <v>362</v>
       </c>
@@ -4866,16 +4921,16 @@
       <c r="G88" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H88" s="25" t="s">
+      <c r="H88" s="19" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B89" s="36"/>
-      <c r="C89" s="18"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="49"/>
       <c r="D89" s="12" t="s">
         <v>363</v>
       </c>
@@ -4888,16 +4943,16 @@
       <c r="G89" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H89" s="25" t="s">
+      <c r="H89" s="19" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="B90" s="36"/>
-      <c r="C90" s="18"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="49"/>
       <c r="D90" s="12" t="s">
         <v>364</v>
       </c>
@@ -4910,16 +4965,16 @@
       <c r="G90" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H90" s="25" t="s">
+      <c r="H90" s="19" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="18"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="49"/>
       <c r="D91" s="12" t="s">
         <v>365</v>
       </c>
@@ -4932,16 +4987,16 @@
       <c r="G91" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H91" s="25" t="s">
+      <c r="H91" s="19" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="18"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="49"/>
       <c r="D92" s="12" t="s">
         <v>366</v>
       </c>
@@ -4954,16 +5009,16 @@
       <c r="G92" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H92" s="25" t="s">
+      <c r="H92" s="19" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B93" s="36"/>
-      <c r="C93" s="18"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="49"/>
       <c r="D93" s="12" t="s">
         <v>367</v>
       </c>
@@ -4976,16 +5031,16 @@
       <c r="G93" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H93" s="25" t="s">
+      <c r="H93" s="19" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B94" s="36"/>
-      <c r="C94" s="18"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="49"/>
       <c r="D94" s="12" t="s">
         <v>368</v>
       </c>
@@ -4998,16 +5053,16 @@
       <c r="G94" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H94" s="25" t="s">
+      <c r="H94" s="19" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="23" t="s">
+      <c r="A95" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="B95" s="36"/>
-      <c r="C95" s="14" t="s">
+      <c r="B95" s="54"/>
+      <c r="C95" s="46" t="s">
         <v>210</v>
       </c>
       <c r="D95" s="12" t="s">
@@ -5022,16 +5077,16 @@
       <c r="G95" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H95" s="24" t="s">
+      <c r="H95" s="18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A96" s="23" t="s">
+      <c r="A96" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="15"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="47"/>
       <c r="D96" s="11" t="s">
         <v>369</v>
       </c>
@@ -5044,16 +5099,16 @@
       <c r="G96" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H96" s="25" t="s">
+      <c r="H96" s="19" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="B97" s="36"/>
-      <c r="C97" s="15"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="47"/>
       <c r="D97" s="12" t="s">
         <v>361</v>
       </c>
@@ -5066,16 +5121,16 @@
       <c r="G97" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H97" s="25" t="s">
+      <c r="H97" s="19" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="B98" s="36"/>
-      <c r="C98" s="15"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="47"/>
       <c r="D98" s="12" t="s">
         <v>362</v>
       </c>
@@ -5088,16 +5143,16 @@
       <c r="G98" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H98" s="25" t="s">
+      <c r="H98" s="19" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A99" s="23" t="s">
+      <c r="A99" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B99" s="36"/>
-      <c r="C99" s="15"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="47"/>
       <c r="D99" s="12" t="s">
         <v>363</v>
       </c>
@@ -5110,16 +5165,16 @@
       <c r="G99" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H99" s="25" t="s">
+      <c r="H99" s="19" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="23" t="s">
+      <c r="A100" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B100" s="36"/>
-      <c r="C100" s="15"/>
+      <c r="B100" s="54"/>
+      <c r="C100" s="47"/>
       <c r="D100" s="12" t="s">
         <v>364</v>
       </c>
@@ -5132,16 +5187,16 @@
       <c r="G100" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H100" s="25" t="s">
+      <c r="H100" s="19" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="B101" s="36"/>
-      <c r="C101" s="15"/>
+      <c r="B101" s="54"/>
+      <c r="C101" s="47"/>
       <c r="D101" s="12" t="s">
         <v>365</v>
       </c>
@@ -5154,16 +5209,16 @@
       <c r="G101" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H101" s="25" t="s">
+      <c r="H101" s="19" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A102" s="23" t="s">
+      <c r="A102" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="15"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="47"/>
       <c r="D102" s="12" t="s">
         <v>366</v>
       </c>
@@ -5176,16 +5231,16 @@
       <c r="G102" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H102" s="25" t="s">
+      <c r="H102" s="19" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="23" t="s">
+      <c r="A103" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="B103" s="36"/>
-      <c r="C103" s="15"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="47"/>
       <c r="D103" s="12" t="s">
         <v>367</v>
       </c>
@@ -5198,16 +5253,16 @@
       <c r="G103" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H103" s="25" t="s">
+      <c r="H103" s="19" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="23" t="s">
+      <c r="A104" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="B104" s="36"/>
-      <c r="C104" s="16"/>
+      <c r="B104" s="54"/>
+      <c r="C104" s="48"/>
       <c r="D104" s="12" t="s">
         <v>368</v>
       </c>
@@ -5220,16 +5275,16 @@
       <c r="G104" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H104" s="25" t="s">
+      <c r="H104" s="19" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="23" t="s">
+      <c r="A105" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="B105" s="36"/>
-      <c r="C105" s="14" t="s">
+      <c r="B105" s="54"/>
+      <c r="C105" s="46" t="s">
         <v>211</v>
       </c>
       <c r="D105" s="12" t="s">
@@ -5244,16 +5299,16 @@
       <c r="G105" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H105" s="24" t="s">
+      <c r="H105" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A106" s="23" t="s">
+      <c r="A106" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="B106" s="36"/>
-      <c r="C106" s="15"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="47"/>
       <c r="D106" s="11" t="s">
         <v>369</v>
       </c>
@@ -5266,16 +5321,16 @@
       <c r="G106" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H106" s="25" t="s">
+      <c r="H106" s="19" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="23" t="s">
+      <c r="A107" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="B107" s="36"/>
-      <c r="C107" s="15"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="47"/>
       <c r="D107" s="12" t="s">
         <v>361</v>
       </c>
@@ -5288,16 +5343,16 @@
       <c r="G107" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H107" s="25" t="s">
+      <c r="H107" s="19" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A108" s="23" t="s">
+      <c r="A108" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="36"/>
-      <c r="C108" s="15"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="47"/>
       <c r="D108" s="12" t="s">
         <v>362</v>
       </c>
@@ -5310,16 +5365,16 @@
       <c r="G108" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H108" s="25" t="s">
+      <c r="H108" s="19" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A109" s="23" t="s">
+      <c r="A109" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="B109" s="36"/>
-      <c r="C109" s="15"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="47"/>
       <c r="D109" s="12" t="s">
         <v>363</v>
       </c>
@@ -5332,16 +5387,16 @@
       <c r="G109" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H109" s="25" t="s">
+      <c r="H109" s="19" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="23" t="s">
+      <c r="A110" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B110" s="36"/>
-      <c r="C110" s="15"/>
+      <c r="B110" s="54"/>
+      <c r="C110" s="47"/>
       <c r="D110" s="12" t="s">
         <v>364</v>
       </c>
@@ -5354,16 +5409,16 @@
       <c r="G110" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H110" s="25" t="s">
+      <c r="H110" s="19" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="23" t="s">
+      <c r="A111" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="B111" s="36"/>
-      <c r="C111" s="15"/>
+      <c r="B111" s="54"/>
+      <c r="C111" s="47"/>
       <c r="D111" s="12" t="s">
         <v>365</v>
       </c>
@@ -5376,16 +5431,16 @@
       <c r="G111" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H111" s="25" t="s">
+      <c r="H111" s="19" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A112" s="23" t="s">
+      <c r="A112" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="B112" s="36"/>
-      <c r="C112" s="15"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="47"/>
       <c r="D112" s="12" t="s">
         <v>366</v>
       </c>
@@ -5398,16 +5453,16 @@
       <c r="G112" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H112" s="25" t="s">
+      <c r="H112" s="19" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="23" t="s">
+      <c r="A113" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="B113" s="36"/>
-      <c r="C113" s="15"/>
+      <c r="B113" s="54"/>
+      <c r="C113" s="47"/>
       <c r="D113" s="12" t="s">
         <v>367</v>
       </c>
@@ -5420,16 +5475,16 @@
       <c r="G113" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H113" s="25" t="s">
+      <c r="H113" s="19" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="23" t="s">
+      <c r="A114" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="B114" s="37"/>
-      <c r="C114" s="16"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="48"/>
       <c r="D114" s="12" t="s">
         <v>368</v>
       </c>
@@ -5442,18 +5497,18 @@
       <c r="G114" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H114" s="25" t="s">
+      <c r="H114" s="19" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A115" s="23" t="s">
+      <c r="A115" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="B115" s="38" t="s">
+      <c r="B115" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C115" s="17" t="s">
+      <c r="C115" s="63" t="s">
         <v>212</v>
       </c>
       <c r="D115" s="12" t="s">
@@ -5468,16 +5523,16 @@
       <c r="G115" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H115" s="24" t="s">
+      <c r="H115" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A116" s="23" t="s">
+      <c r="A116" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="B116" s="38"/>
-      <c r="C116" s="17"/>
+      <c r="B116" s="61"/>
+      <c r="C116" s="63"/>
       <c r="D116" s="11" t="s">
         <v>369</v>
       </c>
@@ -5490,16 +5545,16 @@
       <c r="G116" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H116" s="25" t="s">
+      <c r="H116" s="19" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="23" t="s">
+      <c r="A117" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="B117" s="38"/>
-      <c r="C117" s="17"/>
+      <c r="B117" s="61"/>
+      <c r="C117" s="63"/>
       <c r="D117" s="12" t="s">
         <v>564</v>
       </c>
@@ -5512,16 +5567,16 @@
       <c r="G117" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H117" s="25" t="s">
+      <c r="H117" s="19" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="23" t="s">
+      <c r="A118" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="B118" s="38"/>
-      <c r="C118" s="17"/>
+      <c r="B118" s="61"/>
+      <c r="C118" s="63"/>
       <c r="D118" s="12" t="s">
         <v>565</v>
       </c>
@@ -5534,16 +5589,16 @@
       <c r="G118" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H118" s="25" t="s">
+      <c r="H118" s="19" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A119" s="23" t="s">
+      <c r="A119" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="B119" s="38"/>
-      <c r="C119" s="17"/>
+      <c r="B119" s="61"/>
+      <c r="C119" s="63"/>
       <c r="D119" s="12" t="s">
         <v>363</v>
       </c>
@@ -5556,16 +5611,16 @@
       <c r="G119" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H119" s="25" t="s">
+      <c r="H119" s="19" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="23" t="s">
+      <c r="A120" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="B120" s="38"/>
-      <c r="C120" s="17"/>
+      <c r="B120" s="61"/>
+      <c r="C120" s="63"/>
       <c r="D120" s="12" t="s">
         <v>566</v>
       </c>
@@ -5578,16 +5633,16 @@
       <c r="G120" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H120" s="25" t="s">
+      <c r="H120" s="19" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="23" t="s">
+      <c r="A121" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="B121" s="38"/>
-      <c r="C121" s="17"/>
+      <c r="B121" s="61"/>
+      <c r="C121" s="63"/>
       <c r="D121" s="12" t="s">
         <v>567</v>
       </c>
@@ -5600,16 +5655,16 @@
       <c r="G121" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H121" s="25" t="s">
+      <c r="H121" s="19" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="23" t="s">
+      <c r="A122" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="B122" s="38"/>
-      <c r="C122" s="17"/>
+      <c r="B122" s="61"/>
+      <c r="C122" s="63"/>
       <c r="D122" s="12" t="s">
         <v>568</v>
       </c>
@@ -5622,16 +5677,16 @@
       <c r="G122" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H122" s="25" t="s">
+      <c r="H122" s="19" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="23" t="s">
+      <c r="A123" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="B123" s="38"/>
-      <c r="C123" s="17"/>
+      <c r="B123" s="61"/>
+      <c r="C123" s="63"/>
       <c r="D123" s="12" t="s">
         <v>569</v>
       </c>
@@ -5644,16 +5699,16 @@
       <c r="G123" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H123" s="25" t="s">
+      <c r="H123" s="19" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="23" t="s">
+      <c r="A124" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B124" s="38"/>
-      <c r="C124" s="17"/>
+      <c r="B124" s="61"/>
+      <c r="C124" s="63"/>
       <c r="D124" s="12" t="s">
         <v>570</v>
       </c>
@@ -5666,16 +5721,16 @@
       <c r="G124" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H124" s="25" t="s">
+      <c r="H124" s="19" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="23" t="s">
+      <c r="A125" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="B125" s="38"/>
-      <c r="C125" s="17" t="s">
+      <c r="B125" s="61"/>
+      <c r="C125" s="63" t="s">
         <v>213</v>
       </c>
       <c r="D125" s="12" t="s">
@@ -5690,16 +5745,16 @@
       <c r="G125" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H125" s="24" t="s">
+      <c r="H125" s="18" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A126" s="23" t="s">
+      <c r="A126" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="B126" s="38"/>
-      <c r="C126" s="17"/>
+      <c r="B126" s="61"/>
+      <c r="C126" s="63"/>
       <c r="D126" s="11" t="s">
         <v>369</v>
       </c>
@@ -5712,16 +5767,16 @@
       <c r="G126" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H126" s="25" t="s">
+      <c r="H126" s="19" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A127" s="23" t="s">
+      <c r="A127" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="B127" s="38"/>
-      <c r="C127" s="17"/>
+      <c r="B127" s="61"/>
+      <c r="C127" s="63"/>
       <c r="D127" s="12" t="s">
         <v>564</v>
       </c>
@@ -5734,16 +5789,16 @@
       <c r="G127" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H127" s="25" t="s">
+      <c r="H127" s="19" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="23" t="s">
+      <c r="A128" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B128" s="38"/>
-      <c r="C128" s="17"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="63"/>
       <c r="D128" s="12" t="s">
         <v>565</v>
       </c>
@@ -5756,16 +5811,16 @@
       <c r="G128" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H128" s="25" t="s">
+      <c r="H128" s="19" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A129" s="23" t="s">
+      <c r="A129" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="B129" s="38"/>
-      <c r="C129" s="17"/>
+      <c r="B129" s="61"/>
+      <c r="C129" s="63"/>
       <c r="D129" s="12" t="s">
         <v>363</v>
       </c>
@@ -5778,16 +5833,16 @@
       <c r="G129" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H129" s="25" t="s">
+      <c r="H129" s="19" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A130" s="23" t="s">
+      <c r="A130" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="B130" s="38"/>
-      <c r="C130" s="17"/>
+      <c r="B130" s="61"/>
+      <c r="C130" s="63"/>
       <c r="D130" s="12" t="s">
         <v>566</v>
       </c>
@@ -5800,16 +5855,16 @@
       <c r="G130" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H130" s="25" t="s">
+      <c r="H130" s="19" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A131" s="23" t="s">
+      <c r="A131" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="B131" s="38"/>
-      <c r="C131" s="17"/>
+      <c r="B131" s="61"/>
+      <c r="C131" s="63"/>
       <c r="D131" s="12" t="s">
         <v>567</v>
       </c>
@@ -5822,16 +5877,16 @@
       <c r="G131" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H131" s="25" t="s">
+      <c r="H131" s="19" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="23" t="s">
+      <c r="A132" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="B132" s="38"/>
-      <c r="C132" s="17"/>
+      <c r="B132" s="61"/>
+      <c r="C132" s="63"/>
       <c r="D132" s="12" t="s">
         <v>568</v>
       </c>
@@ -5844,16 +5899,16 @@
       <c r="G132" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H132" s="25" t="s">
+      <c r="H132" s="19" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A133" s="23" t="s">
+      <c r="A133" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B133" s="38"/>
-      <c r="C133" s="17"/>
+      <c r="B133" s="61"/>
+      <c r="C133" s="63"/>
       <c r="D133" s="12" t="s">
         <v>569</v>
       </c>
@@ -5866,16 +5921,16 @@
       <c r="G133" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H133" s="25" t="s">
+      <c r="H133" s="19" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A134" s="23" t="s">
+      <c r="A134" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="B134" s="38"/>
-      <c r="C134" s="17"/>
+      <c r="B134" s="61"/>
+      <c r="C134" s="63"/>
       <c r="D134" s="12" t="s">
         <v>570</v>
       </c>
@@ -5888,16 +5943,16 @@
       <c r="G134" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H134" s="25" t="s">
+      <c r="H134" s="19" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A135" s="23" t="s">
+      <c r="A135" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="B135" s="38"/>
-      <c r="C135" s="17" t="s">
+      <c r="B135" s="61"/>
+      <c r="C135" s="63" t="s">
         <v>214</v>
       </c>
       <c r="D135" s="12" t="s">
@@ -5912,16 +5967,16 @@
       <c r="G135" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H135" s="24" t="s">
+      <c r="H135" s="18" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A136" s="23" t="s">
+      <c r="A136" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B136" s="38"/>
-      <c r="C136" s="17"/>
+      <c r="B136" s="61"/>
+      <c r="C136" s="63"/>
       <c r="D136" s="11" t="s">
         <v>369</v>
       </c>
@@ -5934,16 +5989,16 @@
       <c r="G136" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H136" s="25" t="s">
+      <c r="H136" s="19" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A137" s="23" t="s">
+      <c r="A137" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="B137" s="38"/>
-      <c r="C137" s="17"/>
+      <c r="B137" s="61"/>
+      <c r="C137" s="63"/>
       <c r="D137" s="12" t="s">
         <v>564</v>
       </c>
@@ -5956,16 +6011,16 @@
       <c r="G137" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H137" s="25" t="s">
+      <c r="H137" s="19" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A138" s="23" t="s">
+      <c r="A138" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B138" s="38"/>
-      <c r="C138" s="17"/>
+      <c r="B138" s="61"/>
+      <c r="C138" s="63"/>
       <c r="D138" s="12" t="s">
         <v>565</v>
       </c>
@@ -5978,16 +6033,16 @@
       <c r="G138" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H138" s="25" t="s">
+      <c r="H138" s="19" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="B139" s="38"/>
-      <c r="C139" s="17"/>
+      <c r="B139" s="61"/>
+      <c r="C139" s="63"/>
       <c r="D139" s="12" t="s">
         <v>363</v>
       </c>
@@ -6000,16 +6055,16 @@
       <c r="G139" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H139" s="25" t="s">
+      <c r="H139" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A140" s="23" t="s">
+      <c r="A140" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B140" s="38"/>
-      <c r="C140" s="17"/>
+      <c r="B140" s="61"/>
+      <c r="C140" s="63"/>
       <c r="D140" s="12" t="s">
         <v>566</v>
       </c>
@@ -6022,16 +6077,16 @@
       <c r="G140" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H140" s="25" t="s">
+      <c r="H140" s="19" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A141" s="23" t="s">
+      <c r="A141" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="B141" s="38"/>
-      <c r="C141" s="17"/>
+      <c r="B141" s="61"/>
+      <c r="C141" s="63"/>
       <c r="D141" s="12" t="s">
         <v>567</v>
       </c>
@@ -6044,16 +6099,16 @@
       <c r="G141" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H141" s="25" t="s">
+      <c r="H141" s="19" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A142" s="23" t="s">
+      <c r="A142" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="B142" s="38"/>
-      <c r="C142" s="17"/>
+      <c r="B142" s="61"/>
+      <c r="C142" s="63"/>
       <c r="D142" s="12" t="s">
         <v>568</v>
       </c>
@@ -6066,16 +6121,16 @@
       <c r="G142" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H142" s="25" t="s">
+      <c r="H142" s="19" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A143" s="23" t="s">
+      <c r="A143" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="B143" s="38"/>
-      <c r="C143" s="17"/>
+      <c r="B143" s="61"/>
+      <c r="C143" s="63"/>
       <c r="D143" s="12" t="s">
         <v>569</v>
       </c>
@@ -6088,16 +6143,16 @@
       <c r="G143" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H143" s="25" t="s">
+      <c r="H143" s="19" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A144" s="23" t="s">
+      <c r="A144" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="B144" s="38"/>
-      <c r="C144" s="17"/>
+      <c r="B144" s="61"/>
+      <c r="C144" s="63"/>
       <c r="D144" s="12" t="s">
         <v>570</v>
       </c>
@@ -6110,16 +6165,16 @@
       <c r="G144" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H144" s="25" t="s">
+      <c r="H144" s="19" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="27" t="s">
+      <c r="A145" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="B145" s="38"/>
-      <c r="C145" s="13" t="s">
+      <c r="B145" s="61"/>
+      <c r="C145" s="59" t="s">
         <v>215</v>
       </c>
       <c r="D145" s="12" t="s">
@@ -6134,16 +6189,16 @@
       <c r="G145" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H145" s="24" t="s">
+      <c r="H145" s="18" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A146" s="27" t="s">
+      <c r="A146" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="B146" s="38"/>
-      <c r="C146" s="13"/>
+      <c r="B146" s="61"/>
+      <c r="C146" s="59"/>
       <c r="D146" s="11" t="s">
         <v>369</v>
       </c>
@@ -6156,16 +6211,16 @@
       <c r="G146" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H146" s="25" t="s">
+      <c r="H146" s="19" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A147" s="27" t="s">
+      <c r="A147" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="B147" s="38"/>
-      <c r="C147" s="13"/>
+      <c r="B147" s="61"/>
+      <c r="C147" s="59"/>
       <c r="D147" s="12" t="s">
         <v>564</v>
       </c>
@@ -6178,16 +6233,16 @@
       <c r="G147" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H147" s="25" t="s">
+      <c r="H147" s="19" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A148" s="27" t="s">
+      <c r="A148" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="B148" s="38"/>
-      <c r="C148" s="13"/>
+      <c r="B148" s="61"/>
+      <c r="C148" s="59"/>
       <c r="D148" s="12" t="s">
         <v>565</v>
       </c>
@@ -6200,16 +6255,16 @@
       <c r="G148" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H148" s="25" t="s">
+      <c r="H148" s="19" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A149" s="27" t="s">
+      <c r="A149" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="B149" s="38"/>
-      <c r="C149" s="13"/>
+      <c r="B149" s="61"/>
+      <c r="C149" s="59"/>
       <c r="D149" s="12" t="s">
         <v>363</v>
       </c>
@@ -6222,16 +6277,16 @@
       <c r="G149" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H149" s="25" t="s">
+      <c r="H149" s="19" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A150" s="27" t="s">
+      <c r="A150" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="B150" s="38"/>
-      <c r="C150" s="13"/>
+      <c r="B150" s="61"/>
+      <c r="C150" s="59"/>
       <c r="D150" s="12" t="s">
         <v>566</v>
       </c>
@@ -6244,16 +6299,16 @@
       <c r="G150" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H150" s="25" t="s">
+      <c r="H150" s="19" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A151" s="27" t="s">
+      <c r="A151" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="B151" s="38"/>
-      <c r="C151" s="13"/>
+      <c r="B151" s="61"/>
+      <c r="C151" s="59"/>
       <c r="D151" s="12" t="s">
         <v>567</v>
       </c>
@@ -6266,16 +6321,16 @@
       <c r="G151" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H151" s="25" t="s">
+      <c r="H151" s="19" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A152" s="27" t="s">
+      <c r="A152" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="B152" s="38"/>
-      <c r="C152" s="13"/>
+      <c r="B152" s="61"/>
+      <c r="C152" s="59"/>
       <c r="D152" s="12" t="s">
         <v>568</v>
       </c>
@@ -6288,16 +6343,16 @@
       <c r="G152" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H152" s="25" t="s">
+      <c r="H152" s="19" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A153" s="27" t="s">
+      <c r="A153" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="B153" s="38"/>
-      <c r="C153" s="13"/>
+      <c r="B153" s="61"/>
+      <c r="C153" s="59"/>
       <c r="D153" s="12" t="s">
         <v>569</v>
       </c>
@@ -6310,16 +6365,16 @@
       <c r="G153" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H153" s="25" t="s">
+      <c r="H153" s="19" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A154" s="27" t="s">
+      <c r="A154" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="B154" s="38"/>
-      <c r="C154" s="13"/>
+      <c r="B154" s="61"/>
+      <c r="C154" s="59"/>
       <c r="D154" s="12" t="s">
         <v>570</v>
       </c>
@@ -6332,16 +6387,16 @@
       <c r="G154" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H154" s="25" t="s">
+      <c r="H154" s="19" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A155" s="27" t="s">
+      <c r="A155" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="B155" s="38"/>
-      <c r="C155" s="13" t="s">
+      <c r="B155" s="61"/>
+      <c r="C155" s="59" t="s">
         <v>216</v>
       </c>
       <c r="D155" s="12" t="s">
@@ -6356,16 +6411,16 @@
       <c r="G155" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H155" s="24" t="s">
+      <c r="H155" s="18" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A156" s="27" t="s">
+      <c r="A156" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="B156" s="38"/>
-      <c r="C156" s="13"/>
+      <c r="B156" s="61"/>
+      <c r="C156" s="59"/>
       <c r="D156" s="11" t="s">
         <v>369</v>
       </c>
@@ -6378,16 +6433,16 @@
       <c r="G156" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H156" s="25" t="s">
+      <c r="H156" s="19" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A157" s="27" t="s">
+      <c r="A157" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="B157" s="38"/>
-      <c r="C157" s="13"/>
+      <c r="B157" s="61"/>
+      <c r="C157" s="59"/>
       <c r="D157" s="12" t="s">
         <v>564</v>
       </c>
@@ -6400,16 +6455,16 @@
       <c r="G157" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H157" s="25" t="s">
+      <c r="H157" s="19" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A158" s="27" t="s">
+      <c r="A158" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="B158" s="38"/>
-      <c r="C158" s="13"/>
+      <c r="B158" s="61"/>
+      <c r="C158" s="59"/>
       <c r="D158" s="12" t="s">
         <v>565</v>
       </c>
@@ -6422,16 +6477,16 @@
       <c r="G158" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H158" s="25" t="s">
+      <c r="H158" s="19" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A159" s="27" t="s">
+      <c r="A159" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="B159" s="38"/>
-      <c r="C159" s="13"/>
+      <c r="B159" s="61"/>
+      <c r="C159" s="59"/>
       <c r="D159" s="12" t="s">
         <v>363</v>
       </c>
@@ -6444,16 +6499,16 @@
       <c r="G159" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H159" s="25" t="s">
+      <c r="H159" s="19" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A160" s="27" t="s">
+      <c r="A160" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="B160" s="38"/>
-      <c r="C160" s="13"/>
+      <c r="B160" s="61"/>
+      <c r="C160" s="59"/>
       <c r="D160" s="12" t="s">
         <v>566</v>
       </c>
@@ -6466,16 +6521,16 @@
       <c r="G160" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H160" s="25" t="s">
+      <c r="H160" s="19" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A161" s="27" t="s">
+      <c r="A161" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="B161" s="38"/>
-      <c r="C161" s="13"/>
+      <c r="B161" s="61"/>
+      <c r="C161" s="59"/>
       <c r="D161" s="12" t="s">
         <v>567</v>
       </c>
@@ -6488,16 +6543,16 @@
       <c r="G161" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H161" s="25" t="s">
+      <c r="H161" s="19" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A162" s="27" t="s">
+      <c r="A162" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="B162" s="38"/>
-      <c r="C162" s="13"/>
+      <c r="B162" s="61"/>
+      <c r="C162" s="59"/>
       <c r="D162" s="12" t="s">
         <v>568</v>
       </c>
@@ -6510,16 +6565,16 @@
       <c r="G162" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H162" s="25" t="s">
+      <c r="H162" s="19" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A163" s="27" t="s">
+      <c r="A163" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="B163" s="38"/>
-      <c r="C163" s="13"/>
+      <c r="B163" s="61"/>
+      <c r="C163" s="59"/>
       <c r="D163" s="12" t="s">
         <v>569</v>
       </c>
@@ -6532,16 +6587,16 @@
       <c r="G163" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H163" s="25" t="s">
+      <c r="H163" s="19" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A164" s="27" t="s">
+      <c r="A164" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="B164" s="38"/>
-      <c r="C164" s="13"/>
+      <c r="B164" s="61"/>
+      <c r="C164" s="59"/>
       <c r="D164" s="12" t="s">
         <v>570</v>
       </c>
@@ -6554,16 +6609,16 @@
       <c r="G164" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H164" s="25" t="s">
+      <c r="H164" s="19" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A165" s="27" t="s">
+      <c r="A165" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="B165" s="38"/>
-      <c r="C165" s="13" t="s">
+      <c r="B165" s="61"/>
+      <c r="C165" s="59" t="s">
         <v>217</v>
       </c>
       <c r="D165" s="12" t="s">
@@ -6578,16 +6633,16 @@
       <c r="G165" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H165" s="24" t="s">
+      <c r="H165" s="18" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A166" s="27" t="s">
+      <c r="A166" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="B166" s="38"/>
-      <c r="C166" s="13"/>
+      <c r="B166" s="61"/>
+      <c r="C166" s="59"/>
       <c r="D166" s="11" t="s">
         <v>369</v>
       </c>
@@ -6600,16 +6655,16 @@
       <c r="G166" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H166" s="25" t="s">
+      <c r="H166" s="19" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A167" s="27" t="s">
+      <c r="A167" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="B167" s="38"/>
-      <c r="C167" s="13"/>
+      <c r="B167" s="61"/>
+      <c r="C167" s="59"/>
       <c r="D167" s="12" t="s">
         <v>564</v>
       </c>
@@ -6622,16 +6677,16 @@
       <c r="G167" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H167" s="25" t="s">
+      <c r="H167" s="19" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A168" s="27" t="s">
+      <c r="A168" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B168" s="38"/>
-      <c r="C168" s="13"/>
+      <c r="B168" s="61"/>
+      <c r="C168" s="59"/>
       <c r="D168" s="12" t="s">
         <v>565</v>
       </c>
@@ -6644,16 +6699,16 @@
       <c r="G168" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H168" s="25" t="s">
+      <c r="H168" s="19" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A169" s="27" t="s">
+      <c r="A169" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="B169" s="38"/>
-      <c r="C169" s="13"/>
+      <c r="B169" s="61"/>
+      <c r="C169" s="59"/>
       <c r="D169" s="12" t="s">
         <v>363</v>
       </c>
@@ -6666,16 +6721,16 @@
       <c r="G169" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H169" s="25" t="s">
+      <c r="H169" s="19" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A170" s="27" t="s">
+      <c r="A170" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="B170" s="38"/>
-      <c r="C170" s="13"/>
+      <c r="B170" s="61"/>
+      <c r="C170" s="59"/>
       <c r="D170" s="12" t="s">
         <v>566</v>
       </c>
@@ -6688,16 +6743,16 @@
       <c r="G170" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H170" s="25" t="s">
+      <c r="H170" s="19" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A171" s="27" t="s">
+      <c r="A171" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="B171" s="38"/>
-      <c r="C171" s="13"/>
+      <c r="B171" s="61"/>
+      <c r="C171" s="59"/>
       <c r="D171" s="12" t="s">
         <v>567</v>
       </c>
@@ -6710,16 +6765,16 @@
       <c r="G171" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H171" s="25" t="s">
+      <c r="H171" s="19" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A172" s="27" t="s">
+      <c r="A172" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B172" s="38"/>
-      <c r="C172" s="13"/>
+      <c r="B172" s="61"/>
+      <c r="C172" s="59"/>
       <c r="D172" s="12" t="s">
         <v>568</v>
       </c>
@@ -6732,16 +6787,16 @@
       <c r="G172" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H172" s="25" t="s">
+      <c r="H172" s="19" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A173" s="27" t="s">
+      <c r="A173" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B173" s="38"/>
-      <c r="C173" s="13"/>
+      <c r="B173" s="61"/>
+      <c r="C173" s="59"/>
       <c r="D173" s="12" t="s">
         <v>569</v>
       </c>
@@ -6754,16 +6809,16 @@
       <c r="G173" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H173" s="25" t="s">
+      <c r="H173" s="19" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A174" s="27" t="s">
+      <c r="A174" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B174" s="38"/>
-      <c r="C174" s="13"/>
+      <c r="B174" s="61"/>
+      <c r="C174" s="59"/>
       <c r="D174" s="12" t="s">
         <v>570</v>
       </c>
@@ -6776,16 +6831,16 @@
       <c r="G174" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H174" s="25" t="s">
+      <c r="H174" s="19" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A175" s="27" t="s">
+      <c r="A175" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B175" s="38"/>
-      <c r="C175" s="13" t="s">
+      <c r="B175" s="61"/>
+      <c r="C175" s="59" t="s">
         <v>218</v>
       </c>
       <c r="D175" s="12" t="s">
@@ -6800,16 +6855,16 @@
       <c r="G175" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H175" s="24" t="s">
+      <c r="H175" s="18" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A176" s="27" t="s">
+      <c r="A176" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="B176" s="38"/>
-      <c r="C176" s="13"/>
+      <c r="B176" s="61"/>
+      <c r="C176" s="59"/>
       <c r="D176" s="11" t="s">
         <v>369</v>
       </c>
@@ -6822,16 +6877,16 @@
       <c r="G176" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H176" s="25" t="s">
+      <c r="H176" s="19" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="B177" s="38"/>
-      <c r="C177" s="13"/>
+      <c r="B177" s="61"/>
+      <c r="C177" s="59"/>
       <c r="D177" s="12" t="s">
         <v>564</v>
       </c>
@@ -6844,16 +6899,16 @@
       <c r="G177" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H177" s="25" t="s">
+      <c r="H177" s="19" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A178" s="27" t="s">
+      <c r="A178" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="B178" s="38"/>
-      <c r="C178" s="13"/>
+      <c r="B178" s="61"/>
+      <c r="C178" s="59"/>
       <c r="D178" s="12" t="s">
         <v>565</v>
       </c>
@@ -6866,16 +6921,16 @@
       <c r="G178" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H178" s="25" t="s">
+      <c r="H178" s="19" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A179" s="27" t="s">
+      <c r="A179" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="B179" s="38"/>
-      <c r="C179" s="13"/>
+      <c r="B179" s="61"/>
+      <c r="C179" s="59"/>
       <c r="D179" s="12" t="s">
         <v>363</v>
       </c>
@@ -6888,16 +6943,16 @@
       <c r="G179" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H179" s="25" t="s">
+      <c r="H179" s="19" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A180" s="27" t="s">
+      <c r="A180" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="B180" s="38"/>
-      <c r="C180" s="13"/>
+      <c r="B180" s="61"/>
+      <c r="C180" s="59"/>
       <c r="D180" s="12" t="s">
         <v>566</v>
       </c>
@@ -6910,16 +6965,16 @@
       <c r="G180" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H180" s="25" t="s">
+      <c r="H180" s="19" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A181" s="27" t="s">
+      <c r="A181" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B181" s="38"/>
-      <c r="C181" s="13"/>
+      <c r="B181" s="61"/>
+      <c r="C181" s="59"/>
       <c r="D181" s="12" t="s">
         <v>567</v>
       </c>
@@ -6932,16 +6987,16 @@
       <c r="G181" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H181" s="25" t="s">
+      <c r="H181" s="19" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A182" s="27" t="s">
+      <c r="A182" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="B182" s="38"/>
-      <c r="C182" s="13"/>
+      <c r="B182" s="61"/>
+      <c r="C182" s="59"/>
       <c r="D182" s="12" t="s">
         <v>568</v>
       </c>
@@ -6954,16 +7009,16 @@
       <c r="G182" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H182" s="25" t="s">
+      <c r="H182" s="19" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A183" s="27" t="s">
+      <c r="A183" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B183" s="38"/>
-      <c r="C183" s="13"/>
+      <c r="B183" s="61"/>
+      <c r="C183" s="59"/>
       <c r="D183" s="12" t="s">
         <v>569</v>
       </c>
@@ -6976,16 +7031,16 @@
       <c r="G183" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H183" s="25" t="s">
+      <c r="H183" s="19" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A184" s="27" t="s">
+      <c r="A184" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="B184" s="38"/>
-      <c r="C184" s="13"/>
+      <c r="B184" s="61"/>
+      <c r="C184" s="59"/>
       <c r="D184" s="12" t="s">
         <v>570</v>
       </c>
@@ -6998,16 +7053,16 @@
       <c r="G184" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H184" s="25" t="s">
+      <c r="H184" s="19" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A185" s="27" t="s">
+      <c r="A185" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="B185" s="38"/>
-      <c r="C185" s="13" t="s">
+      <c r="B185" s="61"/>
+      <c r="C185" s="59" t="s">
         <v>219</v>
       </c>
       <c r="D185" s="12" t="s">
@@ -7022,16 +7077,16 @@
       <c r="G185" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H185" s="24" t="s">
+      <c r="H185" s="18" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A186" s="27" t="s">
+      <c r="A186" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="B186" s="38"/>
-      <c r="C186" s="13"/>
+      <c r="B186" s="61"/>
+      <c r="C186" s="59"/>
       <c r="D186" s="11" t="s">
         <v>369</v>
       </c>
@@ -7044,16 +7099,16 @@
       <c r="G186" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H186" s="25" t="s">
+      <c r="H186" s="19" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A187" s="27" t="s">
+      <c r="A187" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="B187" s="38"/>
-      <c r="C187" s="13"/>
+      <c r="B187" s="61"/>
+      <c r="C187" s="59"/>
       <c r="D187" s="12" t="s">
         <v>564</v>
       </c>
@@ -7066,16 +7121,16 @@
       <c r="G187" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H187" s="25" t="s">
+      <c r="H187" s="19" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A188" s="27" t="s">
+      <c r="A188" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="B188" s="38"/>
-      <c r="C188" s="13"/>
+      <c r="B188" s="61"/>
+      <c r="C188" s="59"/>
       <c r="D188" s="12" t="s">
         <v>565</v>
       </c>
@@ -7088,16 +7143,16 @@
       <c r="G188" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H188" s="25" t="s">
+      <c r="H188" s="19" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A189" s="27" t="s">
+      <c r="A189" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="B189" s="38"/>
-      <c r="C189" s="13"/>
+      <c r="B189" s="61"/>
+      <c r="C189" s="59"/>
       <c r="D189" s="12" t="s">
         <v>363</v>
       </c>
@@ -7110,16 +7165,16 @@
       <c r="G189" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H189" s="25" t="s">
+      <c r="H189" s="19" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A190" s="27" t="s">
+      <c r="A190" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="B190" s="38"/>
-      <c r="C190" s="13"/>
+      <c r="B190" s="61"/>
+      <c r="C190" s="59"/>
       <c r="D190" s="12" t="s">
         <v>566</v>
       </c>
@@ -7132,16 +7187,16 @@
       <c r="G190" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H190" s="25" t="s">
+      <c r="H190" s="19" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A191" s="27" t="s">
+      <c r="A191" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B191" s="38"/>
-      <c r="C191" s="13"/>
+      <c r="B191" s="61"/>
+      <c r="C191" s="59"/>
       <c r="D191" s="12" t="s">
         <v>567</v>
       </c>
@@ -7154,16 +7209,16 @@
       <c r="G191" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H191" s="25" t="s">
+      <c r="H191" s="19" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A192" s="27" t="s">
+      <c r="A192" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="B192" s="38"/>
-      <c r="C192" s="13"/>
+      <c r="B192" s="61"/>
+      <c r="C192" s="59"/>
       <c r="D192" s="12" t="s">
         <v>568</v>
       </c>
@@ -7176,16 +7231,16 @@
       <c r="G192" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H192" s="25" t="s">
+      <c r="H192" s="19" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A193" s="27" t="s">
+      <c r="A193" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="B193" s="38"/>
-      <c r="C193" s="13"/>
+      <c r="B193" s="61"/>
+      <c r="C193" s="59"/>
       <c r="D193" s="12" t="s">
         <v>569</v>
       </c>
@@ -7198,16 +7253,16 @@
       <c r="G193" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H193" s="25" t="s">
+      <c r="H193" s="19" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A194" s="27" t="s">
+      <c r="A194" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="B194" s="38"/>
-      <c r="C194" s="13"/>
+      <c r="B194" s="61"/>
+      <c r="C194" s="59"/>
       <c r="D194" s="12" t="s">
         <v>570</v>
       </c>
@@ -7220,16 +7275,16 @@
       <c r="G194" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H194" s="25" t="s">
+      <c r="H194" s="19" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A195" s="27" t="s">
+      <c r="A195" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="B195" s="38"/>
-      <c r="C195" s="13" t="s">
+      <c r="B195" s="61"/>
+      <c r="C195" s="59" t="s">
         <v>220</v>
       </c>
       <c r="D195" s="12" t="s">
@@ -7244,16 +7299,16 @@
       <c r="G195" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H195" s="24" t="s">
+      <c r="H195" s="18" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A196" s="27" t="s">
+      <c r="A196" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="B196" s="38"/>
-      <c r="C196" s="13"/>
+      <c r="B196" s="61"/>
+      <c r="C196" s="59"/>
       <c r="D196" s="11" t="s">
         <v>369</v>
       </c>
@@ -7266,16 +7321,16 @@
       <c r="G196" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H196" s="25" t="s">
+      <c r="H196" s="19" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A197" s="27" t="s">
+      <c r="A197" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="B197" s="38"/>
-      <c r="C197" s="13"/>
+      <c r="B197" s="61"/>
+      <c r="C197" s="59"/>
       <c r="D197" s="12" t="s">
         <v>564</v>
       </c>
@@ -7288,16 +7343,16 @@
       <c r="G197" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H197" s="25" t="s">
+      <c r="H197" s="19" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A198" s="27" t="s">
+      <c r="A198" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="B198" s="38"/>
-      <c r="C198" s="13"/>
+      <c r="B198" s="61"/>
+      <c r="C198" s="59"/>
       <c r="D198" s="12" t="s">
         <v>565</v>
       </c>
@@ -7310,16 +7365,16 @@
       <c r="G198" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H198" s="25" t="s">
+      <c r="H198" s="19" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A199" s="27" t="s">
+      <c r="A199" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="B199" s="38"/>
-      <c r="C199" s="13"/>
+      <c r="B199" s="61"/>
+      <c r="C199" s="59"/>
       <c r="D199" s="12" t="s">
         <v>363</v>
       </c>
@@ -7332,16 +7387,16 @@
       <c r="G199" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H199" s="25" t="s">
+      <c r="H199" s="19" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A200" s="27" t="s">
+      <c r="A200" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B200" s="38"/>
-      <c r="C200" s="13"/>
+      <c r="B200" s="61"/>
+      <c r="C200" s="59"/>
       <c r="D200" s="12" t="s">
         <v>566</v>
       </c>
@@ -7354,16 +7409,16 @@
       <c r="G200" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H200" s="25" t="s">
+      <c r="H200" s="19" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A201" s="27" t="s">
+      <c r="A201" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="B201" s="38"/>
-      <c r="C201" s="13"/>
+      <c r="B201" s="61"/>
+      <c r="C201" s="59"/>
       <c r="D201" s="12" t="s">
         <v>567</v>
       </c>
@@ -7376,16 +7431,16 @@
       <c r="G201" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H201" s="25" t="s">
+      <c r="H201" s="19" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A202" s="27" t="s">
+      <c r="A202" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="B202" s="38"/>
-      <c r="C202" s="13"/>
+      <c r="B202" s="61"/>
+      <c r="C202" s="59"/>
       <c r="D202" s="12" t="s">
         <v>568</v>
       </c>
@@ -7398,16 +7453,16 @@
       <c r="G202" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H202" s="25" t="s">
+      <c r="H202" s="19" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A203" s="27" t="s">
+      <c r="A203" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="B203" s="38"/>
-      <c r="C203" s="13"/>
+      <c r="B203" s="61"/>
+      <c r="C203" s="59"/>
       <c r="D203" s="12" t="s">
         <v>569</v>
       </c>
@@ -7420,29 +7475,29 @@
       <c r="G203" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H203" s="25" t="s">
+      <c r="H203" s="19" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="28" t="s">
+      <c r="A204" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="B204" s="39"/>
-      <c r="C204" s="29"/>
-      <c r="D204" s="30" t="s">
+      <c r="B204" s="62"/>
+      <c r="C204" s="60"/>
+      <c r="D204" s="23" t="s">
         <v>570</v>
       </c>
-      <c r="E204" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="F204" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G204" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H204" s="31" t="s">
+      <c r="E204" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F204" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G204" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H204" s="24" t="s">
         <v>555</v>
       </c>
     </row>
@@ -7488,7 +7543,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7502,34 +7557,34 @@
     <col min="7" max="7" width="31.81640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="44" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:7" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="64" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -7544,15 +7599,15 @@
       <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="18" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="12" t="s">
         <v>48</v>
       </c>
@@ -7565,15 +7620,15 @@
       <c r="F3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="12" t="s">
         <v>49</v>
       </c>
@@ -7586,15 +7641,15 @@
       <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="12" t="s">
         <v>50</v>
       </c>
@@ -7607,15 +7662,15 @@
       <c r="F5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="12" t="s">
         <v>48</v>
       </c>
@@ -7628,15 +7683,15 @@
       <c r="F6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="12" t="s">
         <v>49</v>
       </c>
@@ -7649,15 +7704,15 @@
       <c r="F7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="12" t="s">
         <v>58</v>
       </c>
@@ -7670,15 +7725,15 @@
       <c r="F8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="12" t="s">
         <v>27</v>
       </c>
@@ -7691,28 +7746,28 @@
       <c r="F9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="65"/>
+      <c r="C10" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="52" t="s">
+      <c r="E10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="32" t="s">
         <v>26</v>
       </c>
     </row>

--- a/src/test/resources/testCases/helpsToolDropdownTC.xlsx
+++ b/src/test/resources/testCases/helpsToolDropdownTC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\eclipse-workspace1\helpsToolDropdown\src\test\resources\testCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\eclipse-workspace1\HELPSToolAutomation\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8071BE53-30A0-448F-8503-A62C4E17E290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA707F6-E8DE-4C8F-808F-3E28F4CAB1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="beforeTest" sheetId="2" r:id="rId1"/>
@@ -290,33 +290,6 @@
     <t>//select[@id='CSDDM']</t>
   </si>
   <si>
-    <t>AT001</t>
-  </si>
-  <si>
-    <t>AT002</t>
-  </si>
-  <si>
-    <t>AT003</t>
-  </si>
-  <si>
-    <t>AT004</t>
-  </si>
-  <si>
-    <t>AT005</t>
-  </si>
-  <si>
-    <t>AT006</t>
-  </si>
-  <si>
-    <t>AT007</t>
-  </si>
-  <si>
-    <t>AT008</t>
-  </si>
-  <si>
-    <t>AT009</t>
-  </si>
-  <si>
     <t>Click Cognitive Skills for Daily Decision Making Dropdown</t>
   </si>
   <si>
@@ -1782,6 +1755,33 @@
   </si>
   <si>
     <t>//div[contains(text(), 'Use another account')]</t>
+  </si>
+  <si>
+    <t>FR001</t>
+  </si>
+  <si>
+    <t>FR002</t>
+  </si>
+  <si>
+    <t>FR003</t>
+  </si>
+  <si>
+    <t>FR004</t>
+  </si>
+  <si>
+    <t>FR005</t>
+  </si>
+  <si>
+    <t>FR006</t>
+  </si>
+  <si>
+    <t>FR007</t>
+  </si>
+  <si>
+    <t>FR008</t>
+  </si>
+  <si>
+    <t>FR009</t>
   </si>
 </sst>
 </file>
@@ -2137,7 +2137,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2215,9 +2215,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2253,27 +2250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2292,6 +2269,15 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2307,13 +2293,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2598,7 +2595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9327E446-000E-48FF-8238-1345EB9443AE}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2616,25 +2613,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2657,7 +2654,7 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="35" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="4"/>
@@ -2681,7 +2678,7 @@
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="36" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2704,16 +2701,16 @@
       <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -2724,10 +2721,10 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="44" t="s">
-        <v>584</v>
-      </c>
-      <c r="G5" s="45" t="s">
+      <c r="F5" s="43" t="s">
+        <v>575</v>
+      </c>
+      <c r="G5" s="44" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2736,7 +2733,7 @@
         <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -2750,7 +2747,7 @@
       <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="38" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2773,7 +2770,7 @@
       <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="37" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2782,7 +2779,7 @@
         <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -2796,7 +2793,7 @@
       <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="36" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2805,7 +2802,7 @@
         <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -2816,7 +2813,7 @@
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="36" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -2842,7 +2839,7 @@
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="36" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2865,7 +2862,7 @@
       <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="41" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2880,7 +2877,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>5</v>
@@ -2888,39 +2885,39 @@
       <c r="F12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="43" t="s">
-        <v>577</v>
+      <c r="G12" s="42" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="40" t="s">
+      <c r="D13" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="40" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C15" s="10"/>
-      <c r="F15" s="37"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F16" s="66"/>
+      <c r="F16" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2936,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407B753E-D1E8-46BC-BF70-35AA7CA269EC}">
   <dimension ref="A1:H204"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2961,7 +2958,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>44</v>
@@ -2981,16 +2978,16 @@
     </row>
     <row r="2" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="B2" s="56" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>154</v>
+      <c r="C2" s="52" t="s">
+        <v>145</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>53</v>
@@ -3007,12 +3004,12 @@
     </row>
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="51"/>
+        <v>118</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>85</v>
@@ -3024,17 +3021,17 @@
         <v>15</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="51"/>
+        <v>119</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="11" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>85</v>
@@ -3046,17 +3043,17 @@
         <v>15</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="51"/>
+        <v>120</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="11" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>85</v>
@@ -3068,17 +3065,17 @@
         <v>15</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="51"/>
+        <v>121</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="11" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>85</v>
@@ -3090,17 +3087,17 @@
         <v>15</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="51"/>
+        <v>122</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="20" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>85</v>
@@ -3112,17 +3109,17 @@
         <v>15</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="51"/>
+        <v>123</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="11" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>85</v>
@@ -3134,17 +3131,17 @@
         <v>15</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="52"/>
+        <v>124</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="11" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>85</v>
@@ -3156,19 +3153,19 @@
         <v>15</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="50" t="s">
-        <v>395</v>
+        <v>362</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="52" t="s">
+        <v>386</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>53</v>
@@ -3185,12 +3182,12 @@
     </row>
     <row r="11" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="51"/>
+        <v>125</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>85</v>
@@ -3202,17 +3199,17 @@
         <v>15</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="51"/>
+        <v>126</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="11" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>85</v>
@@ -3224,17 +3221,17 @@
         <v>15</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="51"/>
+        <v>127</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="11" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>85</v>
@@ -3246,17 +3243,17 @@
         <v>15</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="51"/>
+        <v>128</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="11" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>85</v>
@@ -3268,17 +3265,17 @@
         <v>15</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="52"/>
+        <v>129</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="11" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>85</v>
@@ -3290,19 +3287,19 @@
         <v>15</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>372</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="50" t="s">
-        <v>156</v>
+        <v>363</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="52" t="s">
+        <v>147</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>53</v>
@@ -3319,12 +3316,12 @@
     </row>
     <row r="17" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="51"/>
+        <v>130</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>85</v>
@@ -3336,17 +3333,17 @@
         <v>15</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="51"/>
+        <v>131</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="11" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>85</v>
@@ -3358,17 +3355,17 @@
         <v>15</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="51"/>
+        <v>132</v>
+      </c>
+      <c r="B19" s="50"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="11" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>85</v>
@@ -3380,17 +3377,17 @@
         <v>15</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="51"/>
+        <v>133</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="11" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>85</v>
@@ -3402,17 +3399,17 @@
         <v>15</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="52"/>
+        <v>134</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="11" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>85</v>
@@ -3424,19 +3421,19 @@
         <v>15</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="50" t="s">
-        <v>157</v>
+        <v>364</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="52" t="s">
+        <v>148</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>53</v>
@@ -3453,12 +3450,12 @@
     </row>
     <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="51"/>
+        <v>135</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>85</v>
@@ -3470,17 +3467,17 @@
         <v>15</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="51"/>
+        <v>136</v>
+      </c>
+      <c r="B24" s="50"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="11" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>85</v>
@@ -3492,17 +3489,17 @@
         <v>15</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="51"/>
+        <v>137</v>
+      </c>
+      <c r="B25" s="50"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="11" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>85</v>
@@ -3514,17 +3511,17 @@
         <v>15</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="51"/>
+        <v>138</v>
+      </c>
+      <c r="B26" s="50"/>
+      <c r="C26" s="53"/>
       <c r="D26" s="11" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>85</v>
@@ -3536,17 +3533,17 @@
         <v>15</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="52"/>
+        <v>139</v>
+      </c>
+      <c r="B27" s="50"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="11" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>85</v>
@@ -3558,19 +3555,19 @@
         <v>15</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="50" t="s">
-        <v>158</v>
+        <v>365</v>
+      </c>
+      <c r="B28" s="50"/>
+      <c r="C28" s="52" t="s">
+        <v>149</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>53</v>
@@ -3587,12 +3584,12 @@
     </row>
     <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="51"/>
+        <v>140</v>
+      </c>
+      <c r="B29" s="50"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>85</v>
@@ -3604,17 +3601,17 @@
         <v>15</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="51"/>
+        <v>141</v>
+      </c>
+      <c r="B30" s="50"/>
+      <c r="C30" s="53"/>
       <c r="D30" s="11" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>85</v>
@@ -3626,17 +3623,17 @@
         <v>15</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="51"/>
+        <v>142</v>
+      </c>
+      <c r="B31" s="50"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="12" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>85</v>
@@ -3648,17 +3645,17 @@
         <v>15</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="51"/>
+        <v>143</v>
+      </c>
+      <c r="B32" s="50"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="11" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>85</v>
@@ -3670,17 +3667,17 @@
         <v>15</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="52"/>
+        <v>144</v>
+      </c>
+      <c r="B33" s="50"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="11" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>85</v>
@@ -3692,19 +3689,19 @@
         <v>15</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="50" t="s">
-        <v>159</v>
+        <v>366</v>
+      </c>
+      <c r="B34" s="50"/>
+      <c r="C34" s="52" t="s">
+        <v>150</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>53</v>
@@ -3721,12 +3718,12 @@
     </row>
     <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="51"/>
+        <v>159</v>
+      </c>
+      <c r="B35" s="50"/>
+      <c r="C35" s="53"/>
       <c r="D35" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>85</v>
@@ -3738,17 +3735,17 @@
         <v>15</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="51"/>
+        <v>160</v>
+      </c>
+      <c r="B36" s="50"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="11" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>85</v>
@@ -3760,17 +3757,17 @@
         <v>15</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="51"/>
+        <v>161</v>
+      </c>
+      <c r="B37" s="50"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="11" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>85</v>
@@ -3782,17 +3779,17 @@
         <v>15</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="B38" s="57"/>
-      <c r="C38" s="51"/>
+        <v>162</v>
+      </c>
+      <c r="B38" s="50"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="11" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>85</v>
@@ -3804,17 +3801,17 @@
         <v>15</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" s="57"/>
-      <c r="C39" s="52"/>
+        <v>163</v>
+      </c>
+      <c r="B39" s="50"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="12" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>85</v>
@@ -3826,19 +3823,19 @@
         <v>15</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="B40" s="57"/>
-      <c r="C40" s="46" t="s">
-        <v>160</v>
+        <v>367</v>
+      </c>
+      <c r="B40" s="50"/>
+      <c r="C40" s="60" t="s">
+        <v>151</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>53</v>
@@ -3855,12 +3852,12 @@
     </row>
     <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B41" s="57"/>
-      <c r="C41" s="47"/>
+        <v>164</v>
+      </c>
+      <c r="B41" s="50"/>
+      <c r="C41" s="61"/>
       <c r="D41" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>85</v>
@@ -3872,17 +3869,17 @@
         <v>15</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="47"/>
+        <v>165</v>
+      </c>
+      <c r="B42" s="50"/>
+      <c r="C42" s="61"/>
       <c r="D42" s="11" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>85</v>
@@ -3894,17 +3891,17 @@
         <v>15</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="B43" s="57"/>
-      <c r="C43" s="47"/>
+        <v>166</v>
+      </c>
+      <c r="B43" s="50"/>
+      <c r="C43" s="61"/>
       <c r="D43" s="12" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>85</v>
@@ -3916,17 +3913,17 @@
         <v>15</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="B44" s="57"/>
-      <c r="C44" s="47"/>
+        <v>167</v>
+      </c>
+      <c r="B44" s="50"/>
+      <c r="C44" s="61"/>
       <c r="D44" s="11" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>85</v>
@@ -3938,17 +3935,17 @@
         <v>15</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="B45" s="57"/>
-      <c r="C45" s="48"/>
+        <v>168</v>
+      </c>
+      <c r="B45" s="50"/>
+      <c r="C45" s="62"/>
       <c r="D45" s="11" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>85</v>
@@ -3960,19 +3957,19 @@
         <v>15</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="B46" s="57"/>
-      <c r="C46" s="46" t="s">
-        <v>161</v>
+        <v>368</v>
+      </c>
+      <c r="B46" s="50"/>
+      <c r="C46" s="60" t="s">
+        <v>152</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>53</v>
@@ -3989,12 +3986,12 @@
     </row>
     <row r="47" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47" s="57"/>
-      <c r="C47" s="47"/>
+        <v>170</v>
+      </c>
+      <c r="B47" s="50"/>
+      <c r="C47" s="61"/>
       <c r="D47" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>85</v>
@@ -4006,17 +4003,17 @@
         <v>15</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="B48" s="57"/>
-      <c r="C48" s="47"/>
+        <v>171</v>
+      </c>
+      <c r="B48" s="50"/>
+      <c r="C48" s="61"/>
       <c r="D48" s="11" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>85</v>
@@ -4028,17 +4025,17 @@
         <v>15</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="B49" s="57"/>
-      <c r="C49" s="47"/>
+        <v>172</v>
+      </c>
+      <c r="B49" s="50"/>
+      <c r="C49" s="61"/>
       <c r="D49" s="11" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>85</v>
@@ -4050,17 +4047,17 @@
         <v>15</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="B50" s="57"/>
-      <c r="C50" s="47"/>
+        <v>173</v>
+      </c>
+      <c r="B50" s="50"/>
+      <c r="C50" s="61"/>
       <c r="D50" s="11" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>85</v>
@@ -4072,17 +4069,17 @@
         <v>15</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="48"/>
+        <v>174</v>
+      </c>
+      <c r="B51" s="50"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="11" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>85</v>
@@ -4094,19 +4091,19 @@
         <v>15</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="B52" s="57"/>
-      <c r="C52" s="46" t="s">
-        <v>162</v>
+        <v>369</v>
+      </c>
+      <c r="B52" s="50"/>
+      <c r="C52" s="60" t="s">
+        <v>153</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>53</v>
@@ -4123,12 +4120,12 @@
     </row>
     <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B53" s="57"/>
-      <c r="C53" s="47"/>
+        <v>169</v>
+      </c>
+      <c r="B53" s="50"/>
+      <c r="C53" s="61"/>
       <c r="D53" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>85</v>
@@ -4140,17 +4137,17 @@
         <v>15</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="B54" s="57"/>
-      <c r="C54" s="47"/>
+        <v>175</v>
+      </c>
+      <c r="B54" s="50"/>
+      <c r="C54" s="61"/>
       <c r="D54" s="12" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>85</v>
@@ -4162,17 +4159,17 @@
         <v>15</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="B55" s="57"/>
-      <c r="C55" s="47"/>
+        <v>176</v>
+      </c>
+      <c r="B55" s="50"/>
+      <c r="C55" s="61"/>
       <c r="D55" s="12" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>85</v>
@@ -4184,17 +4181,17 @@
         <v>15</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="B56" s="57"/>
-      <c r="C56" s="47"/>
+        <v>177</v>
+      </c>
+      <c r="B56" s="50"/>
+      <c r="C56" s="61"/>
       <c r="D56" s="12" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>85</v>
@@ -4206,17 +4203,17 @@
         <v>15</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B57" s="57"/>
-      <c r="C57" s="48"/>
+        <v>178</v>
+      </c>
+      <c r="B57" s="50"/>
+      <c r="C57" s="62"/>
       <c r="D57" s="12" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>85</v>
@@ -4228,19 +4225,19 @@
         <v>15</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="B58" s="57"/>
-      <c r="C58" s="46" t="s">
-        <v>163</v>
+        <v>370</v>
+      </c>
+      <c r="B58" s="50"/>
+      <c r="C58" s="60" t="s">
+        <v>154</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>53</v>
@@ -4257,12 +4254,12 @@
     </row>
     <row r="59" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B59" s="57"/>
-      <c r="C59" s="47"/>
+        <v>179</v>
+      </c>
+      <c r="B59" s="50"/>
+      <c r="C59" s="61"/>
       <c r="D59" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>85</v>
@@ -4274,17 +4271,17 @@
         <v>15</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B60" s="57"/>
-      <c r="C60" s="47"/>
+        <v>180</v>
+      </c>
+      <c r="B60" s="50"/>
+      <c r="C60" s="61"/>
       <c r="D60" s="11" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>85</v>
@@ -4296,17 +4293,17 @@
         <v>15</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="B61" s="57"/>
-      <c r="C61" s="47"/>
+        <v>181</v>
+      </c>
+      <c r="B61" s="50"/>
+      <c r="C61" s="61"/>
       <c r="D61" s="11" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>85</v>
@@ -4318,17 +4315,17 @@
         <v>15</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="B62" s="57"/>
-      <c r="C62" s="47"/>
+        <v>182</v>
+      </c>
+      <c r="B62" s="50"/>
+      <c r="C62" s="61"/>
       <c r="D62" s="11" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>85</v>
@@ -4340,17 +4337,17 @@
         <v>15</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="B63" s="57"/>
-      <c r="C63" s="47"/>
+        <v>489</v>
+      </c>
+      <c r="B63" s="50"/>
+      <c r="C63" s="61"/>
       <c r="D63" s="11" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>85</v>
@@ -4362,17 +4359,17 @@
         <v>15</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="B64" s="57"/>
-      <c r="C64" s="48"/>
+        <v>490</v>
+      </c>
+      <c r="B64" s="50"/>
+      <c r="C64" s="62"/>
       <c r="D64" s="11" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>85</v>
@@ -4384,19 +4381,19 @@
         <v>15</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="B65" s="57"/>
-      <c r="C65" s="46" t="s">
-        <v>165</v>
+        <v>371</v>
+      </c>
+      <c r="B65" s="50"/>
+      <c r="C65" s="60" t="s">
+        <v>156</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>53</v>
@@ -4413,12 +4410,12 @@
     </row>
     <row r="66" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="B66" s="57"/>
-      <c r="C66" s="47"/>
+        <v>183</v>
+      </c>
+      <c r="B66" s="50"/>
+      <c r="C66" s="61"/>
       <c r="D66" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>85</v>
@@ -4430,17 +4427,17 @@
         <v>15</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="B67" s="57"/>
-      <c r="C67" s="47"/>
+        <v>184</v>
+      </c>
+      <c r="B67" s="50"/>
+      <c r="C67" s="61"/>
       <c r="D67" s="12" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>85</v>
@@ -4452,17 +4449,17 @@
         <v>15</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="B68" s="57"/>
-      <c r="C68" s="47"/>
+        <v>185</v>
+      </c>
+      <c r="B68" s="50"/>
+      <c r="C68" s="61"/>
       <c r="D68" s="12" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>85</v>
@@ -4474,17 +4471,17 @@
         <v>15</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="B69" s="57"/>
-      <c r="C69" s="47"/>
+        <v>186</v>
+      </c>
+      <c r="B69" s="50"/>
+      <c r="C69" s="61"/>
       <c r="D69" s="12" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>85</v>
@@ -4496,17 +4493,17 @@
         <v>15</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="B70" s="57"/>
-      <c r="C70" s="48"/>
+        <v>187</v>
+      </c>
+      <c r="B70" s="50"/>
+      <c r="C70" s="62"/>
       <c r="D70" s="12" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>85</v>
@@ -4518,19 +4515,19 @@
         <v>15</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="B71" s="57"/>
-      <c r="C71" s="46" t="s">
-        <v>166</v>
+        <v>372</v>
+      </c>
+      <c r="B71" s="50"/>
+      <c r="C71" s="60" t="s">
+        <v>157</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>53</v>
@@ -4547,12 +4544,12 @@
     </row>
     <row r="72" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B72" s="57"/>
-      <c r="C72" s="47"/>
+        <v>188</v>
+      </c>
+      <c r="B72" s="50"/>
+      <c r="C72" s="61"/>
       <c r="D72" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>85</v>
@@ -4564,17 +4561,17 @@
         <v>15</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="B73" s="57"/>
-      <c r="C73" s="47"/>
+        <v>189</v>
+      </c>
+      <c r="B73" s="50"/>
+      <c r="C73" s="61"/>
       <c r="D73" s="11" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>85</v>
@@ -4586,17 +4583,17 @@
         <v>15</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="B74" s="57"/>
-      <c r="C74" s="47"/>
+        <v>190</v>
+      </c>
+      <c r="B74" s="50"/>
+      <c r="C74" s="61"/>
       <c r="D74" s="11" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>85</v>
@@ -4608,17 +4605,17 @@
         <v>15</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="B75" s="57"/>
-      <c r="C75" s="47"/>
+        <v>191</v>
+      </c>
+      <c r="B75" s="50"/>
+      <c r="C75" s="61"/>
       <c r="D75" s="11" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>85</v>
@@ -4630,17 +4627,17 @@
         <v>15</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="B76" s="57"/>
-      <c r="C76" s="47"/>
+        <v>192</v>
+      </c>
+      <c r="B76" s="50"/>
+      <c r="C76" s="61"/>
       <c r="D76" s="11" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>85</v>
@@ -4652,17 +4649,17 @@
         <v>15</v>
       </c>
       <c r="H76" s="19" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="B77" s="57"/>
-      <c r="C77" s="47"/>
+        <v>193</v>
+      </c>
+      <c r="B77" s="50"/>
+      <c r="C77" s="61"/>
       <c r="D77" s="11" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>85</v>
@@ -4674,17 +4671,17 @@
         <v>15</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="17" t="s">
-        <v>574</v>
-      </c>
-      <c r="B78" s="57"/>
-      <c r="C78" s="48"/>
+        <v>565</v>
+      </c>
+      <c r="B78" s="50"/>
+      <c r="C78" s="62"/>
       <c r="D78" s="11" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>85</v>
@@ -4696,19 +4693,19 @@
         <v>15</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="B79" s="57"/>
-      <c r="C79" s="46" t="s">
-        <v>167</v>
+        <v>373</v>
+      </c>
+      <c r="B79" s="50"/>
+      <c r="C79" s="60" t="s">
+        <v>158</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>53</v>
@@ -4725,12 +4722,12 @@
     </row>
     <row r="80" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="B80" s="57"/>
-      <c r="C80" s="47"/>
+        <v>194</v>
+      </c>
+      <c r="B80" s="50"/>
+      <c r="C80" s="61"/>
       <c r="D80" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>85</v>
@@ -4742,17 +4739,17 @@
         <v>15</v>
       </c>
       <c r="H80" s="19" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="B81" s="57"/>
-      <c r="C81" s="47"/>
+        <v>195</v>
+      </c>
+      <c r="B81" s="50"/>
+      <c r="C81" s="61"/>
       <c r="D81" s="12" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>85</v>
@@ -4764,17 +4761,17 @@
         <v>15</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B82" s="57"/>
-      <c r="C82" s="47"/>
+        <v>196</v>
+      </c>
+      <c r="B82" s="50"/>
+      <c r="C82" s="61"/>
       <c r="D82" s="12" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>85</v>
@@ -4786,17 +4783,17 @@
         <v>15</v>
       </c>
       <c r="H82" s="19" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="B83" s="57"/>
-      <c r="C83" s="47"/>
+        <v>197</v>
+      </c>
+      <c r="B83" s="50"/>
+      <c r="C83" s="61"/>
       <c r="D83" s="12" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>85</v>
@@ -4808,17 +4805,17 @@
         <v>15</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="B84" s="58"/>
-      <c r="C84" s="48"/>
+        <v>198</v>
+      </c>
+      <c r="B84" s="51"/>
+      <c r="C84" s="62"/>
       <c r="D84" s="12" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>85</v>
@@ -4830,21 +4827,21 @@
         <v>15</v>
       </c>
       <c r="H84" s="19" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="B85" s="53" t="s">
+        <v>374</v>
+      </c>
+      <c r="B85" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C85" s="49" t="s">
-        <v>209</v>
+      <c r="C85" s="63" t="s">
+        <v>200</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>53</v>
@@ -4861,12 +4858,12 @@
     </row>
     <row r="86" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="B86" s="54"/>
-      <c r="C86" s="49"/>
+        <v>199</v>
+      </c>
+      <c r="B86" s="47"/>
+      <c r="C86" s="63"/>
       <c r="D86" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>85</v>
@@ -4878,17 +4875,17 @@
         <v>15</v>
       </c>
       <c r="H86" s="19" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B87" s="54"/>
-      <c r="C87" s="49"/>
+        <v>212</v>
+      </c>
+      <c r="B87" s="47"/>
+      <c r="C87" s="63"/>
       <c r="D87" s="12" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E87" s="12" t="s">
         <v>85</v>
@@ -4900,17 +4897,17 @@
         <v>15</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="B88" s="54"/>
-      <c r="C88" s="49"/>
+        <v>213</v>
+      </c>
+      <c r="B88" s="47"/>
+      <c r="C88" s="63"/>
       <c r="D88" s="12" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>85</v>
@@ -4922,17 +4919,17 @@
         <v>15</v>
       </c>
       <c r="H88" s="19" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B89" s="54"/>
-      <c r="C89" s="49"/>
+        <v>214</v>
+      </c>
+      <c r="B89" s="47"/>
+      <c r="C89" s="63"/>
       <c r="D89" s="12" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>85</v>
@@ -4944,17 +4941,17 @@
         <v>15</v>
       </c>
       <c r="H89" s="19" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="B90" s="54"/>
-      <c r="C90" s="49"/>
+        <v>215</v>
+      </c>
+      <c r="B90" s="47"/>
+      <c r="C90" s="63"/>
       <c r="D90" s="12" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>85</v>
@@ -4966,17 +4963,17 @@
         <v>15</v>
       </c>
       <c r="H90" s="19" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="B91" s="54"/>
-      <c r="C91" s="49"/>
+        <v>216</v>
+      </c>
+      <c r="B91" s="47"/>
+      <c r="C91" s="63"/>
       <c r="D91" s="12" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>85</v>
@@ -4988,17 +4985,17 @@
         <v>15</v>
       </c>
       <c r="H91" s="19" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A92" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B92" s="54"/>
-      <c r="C92" s="49"/>
+        <v>217</v>
+      </c>
+      <c r="B92" s="47"/>
+      <c r="C92" s="63"/>
       <c r="D92" s="12" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>85</v>
@@ -5010,17 +5007,17 @@
         <v>15</v>
       </c>
       <c r="H92" s="19" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="B93" s="54"/>
-      <c r="C93" s="49"/>
+        <v>218</v>
+      </c>
+      <c r="B93" s="47"/>
+      <c r="C93" s="63"/>
       <c r="D93" s="12" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>85</v>
@@ -5032,17 +5029,17 @@
         <v>15</v>
       </c>
       <c r="H93" s="19" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="B94" s="54"/>
-      <c r="C94" s="49"/>
+        <v>219</v>
+      </c>
+      <c r="B94" s="47"/>
+      <c r="C94" s="63"/>
       <c r="D94" s="12" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>85</v>
@@ -5054,19 +5051,19 @@
         <v>15</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="B95" s="54"/>
-      <c r="C95" s="46" t="s">
-        <v>210</v>
+        <v>375</v>
+      </c>
+      <c r="B95" s="47"/>
+      <c r="C95" s="60" t="s">
+        <v>201</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>53</v>
@@ -5083,12 +5080,12 @@
     </row>
     <row r="96" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="B96" s="54"/>
-      <c r="C96" s="47"/>
+        <v>220</v>
+      </c>
+      <c r="B96" s="47"/>
+      <c r="C96" s="61"/>
       <c r="D96" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>85</v>
@@ -5100,17 +5097,17 @@
         <v>15</v>
       </c>
       <c r="H96" s="19" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A97" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="B97" s="54"/>
-      <c r="C97" s="47"/>
+        <v>221</v>
+      </c>
+      <c r="B97" s="47"/>
+      <c r="C97" s="61"/>
       <c r="D97" s="12" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E97" s="12" t="s">
         <v>85</v>
@@ -5122,17 +5119,17 @@
         <v>15</v>
       </c>
       <c r="H97" s="19" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="B98" s="54"/>
-      <c r="C98" s="47"/>
+        <v>222</v>
+      </c>
+      <c r="B98" s="47"/>
+      <c r="C98" s="61"/>
       <c r="D98" s="12" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>85</v>
@@ -5144,17 +5141,17 @@
         <v>15</v>
       </c>
       <c r="H98" s="19" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="B99" s="54"/>
-      <c r="C99" s="47"/>
+        <v>223</v>
+      </c>
+      <c r="B99" s="47"/>
+      <c r="C99" s="61"/>
       <c r="D99" s="12" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>85</v>
@@ -5166,17 +5163,17 @@
         <v>15</v>
       </c>
       <c r="H99" s="19" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A100" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="B100" s="54"/>
-      <c r="C100" s="47"/>
+        <v>224</v>
+      </c>
+      <c r="B100" s="47"/>
+      <c r="C100" s="61"/>
       <c r="D100" s="12" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>85</v>
@@ -5188,17 +5185,17 @@
         <v>15</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="B101" s="54"/>
-      <c r="C101" s="47"/>
+        <v>225</v>
+      </c>
+      <c r="B101" s="47"/>
+      <c r="C101" s="61"/>
       <c r="D101" s="12" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>85</v>
@@ -5210,17 +5207,17 @@
         <v>15</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A102" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="B102" s="54"/>
-      <c r="C102" s="47"/>
+        <v>226</v>
+      </c>
+      <c r="B102" s="47"/>
+      <c r="C102" s="61"/>
       <c r="D102" s="12" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>85</v>
@@ -5232,17 +5229,17 @@
         <v>15</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A103" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="B103" s="54"/>
-      <c r="C103" s="47"/>
+        <v>227</v>
+      </c>
+      <c r="B103" s="47"/>
+      <c r="C103" s="61"/>
       <c r="D103" s="12" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>85</v>
@@ -5254,17 +5251,17 @@
         <v>15</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="B104" s="54"/>
-      <c r="C104" s="48"/>
+        <v>228</v>
+      </c>
+      <c r="B104" s="47"/>
+      <c r="C104" s="62"/>
       <c r="D104" s="12" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>85</v>
@@ -5276,19 +5273,19 @@
         <v>15</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="B105" s="54"/>
-      <c r="C105" s="46" t="s">
-        <v>211</v>
+        <v>376</v>
+      </c>
+      <c r="B105" s="47"/>
+      <c r="C105" s="60" t="s">
+        <v>202</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>53</v>
@@ -5305,12 +5302,12 @@
     </row>
     <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="B106" s="54"/>
-      <c r="C106" s="47"/>
+        <v>229</v>
+      </c>
+      <c r="B106" s="47"/>
+      <c r="C106" s="61"/>
       <c r="D106" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>85</v>
@@ -5322,17 +5319,17 @@
         <v>15</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A107" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="B107" s="54"/>
-      <c r="C107" s="47"/>
+        <v>230</v>
+      </c>
+      <c r="B107" s="47"/>
+      <c r="C107" s="61"/>
       <c r="D107" s="12" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E107" s="12" t="s">
         <v>85</v>
@@ -5344,17 +5341,17 @@
         <v>15</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="B108" s="54"/>
-      <c r="C108" s="47"/>
+        <v>231</v>
+      </c>
+      <c r="B108" s="47"/>
+      <c r="C108" s="61"/>
       <c r="D108" s="12" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>85</v>
@@ -5366,17 +5363,17 @@
         <v>15</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="B109" s="54"/>
-      <c r="C109" s="47"/>
+        <v>232</v>
+      </c>
+      <c r="B109" s="47"/>
+      <c r="C109" s="61"/>
       <c r="D109" s="12" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>85</v>
@@ -5388,17 +5385,17 @@
         <v>15</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A110" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="B110" s="54"/>
-      <c r="C110" s="47"/>
+        <v>233</v>
+      </c>
+      <c r="B110" s="47"/>
+      <c r="C110" s="61"/>
       <c r="D110" s="12" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>85</v>
@@ -5410,17 +5407,17 @@
         <v>15</v>
       </c>
       <c r="H110" s="19" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A111" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="B111" s="54"/>
-      <c r="C111" s="47"/>
+        <v>234</v>
+      </c>
+      <c r="B111" s="47"/>
+      <c r="C111" s="61"/>
       <c r="D111" s="12" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>85</v>
@@ -5432,17 +5429,17 @@
         <v>15</v>
       </c>
       <c r="H111" s="19" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A112" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="B112" s="54"/>
-      <c r="C112" s="47"/>
+        <v>235</v>
+      </c>
+      <c r="B112" s="47"/>
+      <c r="C112" s="61"/>
       <c r="D112" s="12" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E112" s="12" t="s">
         <v>85</v>
@@ -5454,17 +5451,17 @@
         <v>15</v>
       </c>
       <c r="H112" s="19" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A113" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B113" s="54"/>
-      <c r="C113" s="47"/>
+        <v>236</v>
+      </c>
+      <c r="B113" s="47"/>
+      <c r="C113" s="61"/>
       <c r="D113" s="12" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E113" s="12" t="s">
         <v>85</v>
@@ -5476,17 +5473,17 @@
         <v>15</v>
       </c>
       <c r="H113" s="19" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A114" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="B114" s="55"/>
-      <c r="C114" s="48"/>
+        <v>237</v>
+      </c>
+      <c r="B114" s="48"/>
+      <c r="C114" s="62"/>
       <c r="D114" s="12" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>85</v>
@@ -5498,21 +5495,21 @@
         <v>15</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="B115" s="61" t="s">
+        <v>377</v>
+      </c>
+      <c r="B115" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C115" s="63" t="s">
-        <v>212</v>
+      <c r="C115" s="59" t="s">
+        <v>203</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>53</v>
@@ -5529,12 +5526,12 @@
     </row>
     <row r="116" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="B116" s="61"/>
-      <c r="C116" s="63"/>
+        <v>238</v>
+      </c>
+      <c r="B116" s="57"/>
+      <c r="C116" s="59"/>
       <c r="D116" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>85</v>
@@ -5546,17 +5543,17 @@
         <v>15</v>
       </c>
       <c r="H116" s="19" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A117" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="B117" s="61"/>
-      <c r="C117" s="63"/>
+        <v>239</v>
+      </c>
+      <c r="B117" s="57"/>
+      <c r="C117" s="59"/>
       <c r="D117" s="12" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>85</v>
@@ -5568,17 +5565,17 @@
         <v>15</v>
       </c>
       <c r="H117" s="19" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A118" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B118" s="61"/>
-      <c r="C118" s="63"/>
+        <v>240</v>
+      </c>
+      <c r="B118" s="57"/>
+      <c r="C118" s="59"/>
       <c r="D118" s="12" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>85</v>
@@ -5590,17 +5587,17 @@
         <v>15</v>
       </c>
       <c r="H118" s="19" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="B119" s="61"/>
-      <c r="C119" s="63"/>
+        <v>241</v>
+      </c>
+      <c r="B119" s="57"/>
+      <c r="C119" s="59"/>
       <c r="D119" s="12" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>85</v>
@@ -5612,17 +5609,17 @@
         <v>15</v>
       </c>
       <c r="H119" s="19" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A120" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="B120" s="61"/>
-      <c r="C120" s="63"/>
+        <v>242</v>
+      </c>
+      <c r="B120" s="57"/>
+      <c r="C120" s="59"/>
       <c r="D120" s="12" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>85</v>
@@ -5634,17 +5631,17 @@
         <v>15</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A121" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="B121" s="61"/>
-      <c r="C121" s="63"/>
+        <v>243</v>
+      </c>
+      <c r="B121" s="57"/>
+      <c r="C121" s="59"/>
       <c r="D121" s="12" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="E121" s="12" t="s">
         <v>85</v>
@@ -5656,17 +5653,17 @@
         <v>15</v>
       </c>
       <c r="H121" s="19" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A122" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="B122" s="61"/>
-      <c r="C122" s="63"/>
+        <v>244</v>
+      </c>
+      <c r="B122" s="57"/>
+      <c r="C122" s="59"/>
       <c r="D122" s="12" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>85</v>
@@ -5678,17 +5675,17 @@
         <v>15</v>
       </c>
       <c r="H122" s="19" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B123" s="61"/>
-      <c r="C123" s="63"/>
+        <v>245</v>
+      </c>
+      <c r="B123" s="57"/>
+      <c r="C123" s="59"/>
       <c r="D123" s="12" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>85</v>
@@ -5700,17 +5697,17 @@
         <v>15</v>
       </c>
       <c r="H123" s="19" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="B124" s="61"/>
-      <c r="C124" s="63"/>
+        <v>246</v>
+      </c>
+      <c r="B124" s="57"/>
+      <c r="C124" s="59"/>
       <c r="D124" s="12" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>85</v>
@@ -5722,19 +5719,19 @@
         <v>15</v>
       </c>
       <c r="H124" s="19" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="B125" s="61"/>
-      <c r="C125" s="63" t="s">
-        <v>213</v>
+        <v>378</v>
+      </c>
+      <c r="B125" s="57"/>
+      <c r="C125" s="59" t="s">
+        <v>204</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>53</v>
@@ -5746,17 +5743,17 @@
         <v>15</v>
       </c>
       <c r="H125" s="18" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="B126" s="61"/>
-      <c r="C126" s="63"/>
+        <v>247</v>
+      </c>
+      <c r="B126" s="57"/>
+      <c r="C126" s="59"/>
       <c r="D126" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E126" s="12" t="s">
         <v>85</v>
@@ -5768,17 +5765,17 @@
         <v>15</v>
       </c>
       <c r="H126" s="19" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A127" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="B127" s="61"/>
-      <c r="C127" s="63"/>
+        <v>248</v>
+      </c>
+      <c r="B127" s="57"/>
+      <c r="C127" s="59"/>
       <c r="D127" s="12" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E127" s="12" t="s">
         <v>85</v>
@@ -5790,17 +5787,17 @@
         <v>15</v>
       </c>
       <c r="H127" s="19" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A128" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="B128" s="61"/>
-      <c r="C128" s="63"/>
+        <v>249</v>
+      </c>
+      <c r="B128" s="57"/>
+      <c r="C128" s="59"/>
       <c r="D128" s="12" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E128" s="12" t="s">
         <v>85</v>
@@ -5812,17 +5809,17 @@
         <v>15</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="B129" s="61"/>
-      <c r="C129" s="63"/>
+        <v>250</v>
+      </c>
+      <c r="B129" s="57"/>
+      <c r="C129" s="59"/>
       <c r="D129" s="12" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E129" s="12" t="s">
         <v>85</v>
@@ -5834,17 +5831,17 @@
         <v>15</v>
       </c>
       <c r="H129" s="19" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A130" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="B130" s="61"/>
-      <c r="C130" s="63"/>
+        <v>251</v>
+      </c>
+      <c r="B130" s="57"/>
+      <c r="C130" s="59"/>
       <c r="D130" s="12" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="E130" s="12" t="s">
         <v>85</v>
@@ -5856,17 +5853,17 @@
         <v>15</v>
       </c>
       <c r="H130" s="19" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A131" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="B131" s="61"/>
-      <c r="C131" s="63"/>
+        <v>252</v>
+      </c>
+      <c r="B131" s="57"/>
+      <c r="C131" s="59"/>
       <c r="D131" s="12" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="E131" s="12" t="s">
         <v>85</v>
@@ -5878,17 +5875,17 @@
         <v>15</v>
       </c>
       <c r="H131" s="19" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A132" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="B132" s="61"/>
-      <c r="C132" s="63"/>
+        <v>253</v>
+      </c>
+      <c r="B132" s="57"/>
+      <c r="C132" s="59"/>
       <c r="D132" s="12" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>85</v>
@@ -5900,17 +5897,17 @@
         <v>15</v>
       </c>
       <c r="H132" s="19" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B133" s="61"/>
-      <c r="C133" s="63"/>
+        <v>254</v>
+      </c>
+      <c r="B133" s="57"/>
+      <c r="C133" s="59"/>
       <c r="D133" s="12" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>85</v>
@@ -5922,17 +5919,17 @@
         <v>15</v>
       </c>
       <c r="H133" s="19" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A134" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="B134" s="61"/>
-      <c r="C134" s="63"/>
+        <v>255</v>
+      </c>
+      <c r="B134" s="57"/>
+      <c r="C134" s="59"/>
       <c r="D134" s="12" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="E134" s="12" t="s">
         <v>85</v>
@@ -5944,19 +5941,19 @@
         <v>15</v>
       </c>
       <c r="H134" s="19" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="B135" s="61"/>
-      <c r="C135" s="63" t="s">
-        <v>214</v>
+        <v>379</v>
+      </c>
+      <c r="B135" s="57"/>
+      <c r="C135" s="59" t="s">
+        <v>205</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E135" s="12" t="s">
         <v>53</v>
@@ -5968,17 +5965,17 @@
         <v>15</v>
       </c>
       <c r="H135" s="18" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="B136" s="61"/>
-      <c r="C136" s="63"/>
+        <v>256</v>
+      </c>
+      <c r="B136" s="57"/>
+      <c r="C136" s="59"/>
       <c r="D136" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E136" s="12" t="s">
         <v>85</v>
@@ -5990,17 +5987,17 @@
         <v>15</v>
       </c>
       <c r="H136" s="19" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A137" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="B137" s="61"/>
-      <c r="C137" s="63"/>
+        <v>257</v>
+      </c>
+      <c r="B137" s="57"/>
+      <c r="C137" s="59"/>
       <c r="D137" s="12" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E137" s="12" t="s">
         <v>85</v>
@@ -6012,17 +6009,17 @@
         <v>15</v>
       </c>
       <c r="H137" s="19" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A138" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="B138" s="61"/>
-      <c r="C138" s="63"/>
+        <v>258</v>
+      </c>
+      <c r="B138" s="57"/>
+      <c r="C138" s="59"/>
       <c r="D138" s="12" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>85</v>
@@ -6034,17 +6031,17 @@
         <v>15</v>
       </c>
       <c r="H138" s="19" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="B139" s="61"/>
-      <c r="C139" s="63"/>
+        <v>259</v>
+      </c>
+      <c r="B139" s="57"/>
+      <c r="C139" s="59"/>
       <c r="D139" s="12" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E139" s="12" t="s">
         <v>85</v>
@@ -6056,17 +6053,17 @@
         <v>15</v>
       </c>
       <c r="H139" s="19" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A140" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="B140" s="61"/>
-      <c r="C140" s="63"/>
+        <v>260</v>
+      </c>
+      <c r="B140" s="57"/>
+      <c r="C140" s="59"/>
       <c r="D140" s="12" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="E140" s="12" t="s">
         <v>85</v>
@@ -6078,17 +6075,17 @@
         <v>15</v>
       </c>
       <c r="H140" s="19" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A141" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="B141" s="61"/>
-      <c r="C141" s="63"/>
+        <v>261</v>
+      </c>
+      <c r="B141" s="57"/>
+      <c r="C141" s="59"/>
       <c r="D141" s="12" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="E141" s="12" t="s">
         <v>85</v>
@@ -6100,17 +6097,17 @@
         <v>15</v>
       </c>
       <c r="H141" s="19" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A142" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="B142" s="61"/>
-      <c r="C142" s="63"/>
+        <v>262</v>
+      </c>
+      <c r="B142" s="57"/>
+      <c r="C142" s="59"/>
       <c r="D142" s="12" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="E142" s="12" t="s">
         <v>85</v>
@@ -6122,17 +6119,17 @@
         <v>15</v>
       </c>
       <c r="H142" s="19" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A143" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="B143" s="61"/>
-      <c r="C143" s="63"/>
+        <v>263</v>
+      </c>
+      <c r="B143" s="57"/>
+      <c r="C143" s="59"/>
       <c r="D143" s="12" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="E143" s="12" t="s">
         <v>85</v>
@@ -6144,17 +6141,17 @@
         <v>15</v>
       </c>
       <c r="H143" s="19" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A144" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="B144" s="61"/>
-      <c r="C144" s="63"/>
+        <v>264</v>
+      </c>
+      <c r="B144" s="57"/>
+      <c r="C144" s="59"/>
       <c r="D144" s="12" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="E144" s="12" t="s">
         <v>85</v>
@@ -6166,19 +6163,19 @@
         <v>15</v>
       </c>
       <c r="H144" s="19" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="B145" s="61"/>
-      <c r="C145" s="59" t="s">
-        <v>215</v>
+        <v>380</v>
+      </c>
+      <c r="B145" s="57"/>
+      <c r="C145" s="55" t="s">
+        <v>206</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E145" s="12" t="s">
         <v>53</v>
@@ -6190,17 +6187,17 @@
         <v>15</v>
       </c>
       <c r="H145" s="18" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="B146" s="61"/>
-      <c r="C146" s="59"/>
+        <v>265</v>
+      </c>
+      <c r="B146" s="57"/>
+      <c r="C146" s="55"/>
       <c r="D146" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E146" s="12" t="s">
         <v>85</v>
@@ -6212,17 +6209,17 @@
         <v>15</v>
       </c>
       <c r="H146" s="19" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A147" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="B147" s="61"/>
-      <c r="C147" s="59"/>
+        <v>266</v>
+      </c>
+      <c r="B147" s="57"/>
+      <c r="C147" s="55"/>
       <c r="D147" s="12" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E147" s="12" t="s">
         <v>85</v>
@@ -6234,17 +6231,17 @@
         <v>15</v>
       </c>
       <c r="H147" s="19" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A148" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="B148" s="61"/>
-      <c r="C148" s="59"/>
+        <v>267</v>
+      </c>
+      <c r="B148" s="57"/>
+      <c r="C148" s="55"/>
       <c r="D148" s="12" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E148" s="12" t="s">
         <v>85</v>
@@ -6256,17 +6253,17 @@
         <v>15</v>
       </c>
       <c r="H148" s="19" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="B149" s="61"/>
-      <c r="C149" s="59"/>
+        <v>268</v>
+      </c>
+      <c r="B149" s="57"/>
+      <c r="C149" s="55"/>
       <c r="D149" s="12" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E149" s="12" t="s">
         <v>85</v>
@@ -6278,17 +6275,17 @@
         <v>15</v>
       </c>
       <c r="H149" s="19" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A150" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="B150" s="61"/>
-      <c r="C150" s="59"/>
+        <v>269</v>
+      </c>
+      <c r="B150" s="57"/>
+      <c r="C150" s="55"/>
       <c r="D150" s="12" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="E150" s="12" t="s">
         <v>85</v>
@@ -6300,17 +6297,17 @@
         <v>15</v>
       </c>
       <c r="H150" s="19" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A151" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="B151" s="61"/>
-      <c r="C151" s="59"/>
+        <v>270</v>
+      </c>
+      <c r="B151" s="57"/>
+      <c r="C151" s="55"/>
       <c r="D151" s="12" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="E151" s="12" t="s">
         <v>85</v>
@@ -6322,17 +6319,17 @@
         <v>15</v>
       </c>
       <c r="H151" s="19" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A152" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="B152" s="61"/>
-      <c r="C152" s="59"/>
+        <v>271</v>
+      </c>
+      <c r="B152" s="57"/>
+      <c r="C152" s="55"/>
       <c r="D152" s="12" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>85</v>
@@ -6344,17 +6341,17 @@
         <v>15</v>
       </c>
       <c r="H152" s="19" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A153" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="B153" s="61"/>
-      <c r="C153" s="59"/>
+        <v>272</v>
+      </c>
+      <c r="B153" s="57"/>
+      <c r="C153" s="55"/>
       <c r="D153" s="12" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="E153" s="12" t="s">
         <v>85</v>
@@ -6366,17 +6363,17 @@
         <v>15</v>
       </c>
       <c r="H153" s="19" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A154" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="B154" s="61"/>
-      <c r="C154" s="59"/>
+        <v>273</v>
+      </c>
+      <c r="B154" s="57"/>
+      <c r="C154" s="55"/>
       <c r="D154" s="12" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="E154" s="12" t="s">
         <v>85</v>
@@ -6388,19 +6385,19 @@
         <v>15</v>
       </c>
       <c r="H154" s="19" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="B155" s="61"/>
-      <c r="C155" s="59" t="s">
-        <v>216</v>
+        <v>381</v>
+      </c>
+      <c r="B155" s="57"/>
+      <c r="C155" s="55" t="s">
+        <v>207</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>53</v>
@@ -6412,17 +6409,17 @@
         <v>15</v>
       </c>
       <c r="H155" s="18" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="B156" s="61"/>
-      <c r="C156" s="59"/>
+        <v>274</v>
+      </c>
+      <c r="B156" s="57"/>
+      <c r="C156" s="55"/>
       <c r="D156" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>85</v>
@@ -6434,17 +6431,17 @@
         <v>15</v>
       </c>
       <c r="H156" s="19" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A157" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="B157" s="61"/>
-      <c r="C157" s="59"/>
+        <v>275</v>
+      </c>
+      <c r="B157" s="57"/>
+      <c r="C157" s="55"/>
       <c r="D157" s="12" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E157" s="12" t="s">
         <v>85</v>
@@ -6456,17 +6453,17 @@
         <v>15</v>
       </c>
       <c r="H157" s="19" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A158" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="B158" s="61"/>
-      <c r="C158" s="59"/>
+        <v>276</v>
+      </c>
+      <c r="B158" s="57"/>
+      <c r="C158" s="55"/>
       <c r="D158" s="12" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E158" s="12" t="s">
         <v>85</v>
@@ -6478,17 +6475,17 @@
         <v>15</v>
       </c>
       <c r="H158" s="19" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B159" s="61"/>
-      <c r="C159" s="59"/>
+        <v>277</v>
+      </c>
+      <c r="B159" s="57"/>
+      <c r="C159" s="55"/>
       <c r="D159" s="12" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E159" s="12" t="s">
         <v>85</v>
@@ -6500,17 +6497,17 @@
         <v>15</v>
       </c>
       <c r="H159" s="19" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A160" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="B160" s="61"/>
-      <c r="C160" s="59"/>
+        <v>278</v>
+      </c>
+      <c r="B160" s="57"/>
+      <c r="C160" s="55"/>
       <c r="D160" s="12" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>85</v>
@@ -6522,17 +6519,17 @@
         <v>15</v>
       </c>
       <c r="H160" s="19" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A161" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="B161" s="61"/>
-      <c r="C161" s="59"/>
+        <v>279</v>
+      </c>
+      <c r="B161" s="57"/>
+      <c r="C161" s="55"/>
       <c r="D161" s="12" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="E161" s="12" t="s">
         <v>85</v>
@@ -6544,17 +6541,17 @@
         <v>15</v>
       </c>
       <c r="H161" s="19" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A162" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="B162" s="61"/>
-      <c r="C162" s="59"/>
+        <v>280</v>
+      </c>
+      <c r="B162" s="57"/>
+      <c r="C162" s="55"/>
       <c r="D162" s="12" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="E162" s="12" t="s">
         <v>85</v>
@@ -6566,17 +6563,17 @@
         <v>15</v>
       </c>
       <c r="H162" s="19" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A163" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="B163" s="61"/>
-      <c r="C163" s="59"/>
+        <v>281</v>
+      </c>
+      <c r="B163" s="57"/>
+      <c r="C163" s="55"/>
       <c r="D163" s="12" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="E163" s="12" t="s">
         <v>85</v>
@@ -6588,17 +6585,17 @@
         <v>15</v>
       </c>
       <c r="H163" s="19" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A164" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="B164" s="61"/>
-      <c r="C164" s="59"/>
+        <v>282</v>
+      </c>
+      <c r="B164" s="57"/>
+      <c r="C164" s="55"/>
       <c r="D164" s="12" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="E164" s="12" t="s">
         <v>85</v>
@@ -6610,19 +6607,19 @@
         <v>15</v>
       </c>
       <c r="H164" s="19" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="B165" s="61"/>
-      <c r="C165" s="59" t="s">
-        <v>217</v>
+        <v>382</v>
+      </c>
+      <c r="B165" s="57"/>
+      <c r="C165" s="55" t="s">
+        <v>208</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E165" s="12" t="s">
         <v>53</v>
@@ -6634,17 +6631,17 @@
         <v>15</v>
       </c>
       <c r="H165" s="18" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="B166" s="61"/>
-      <c r="C166" s="59"/>
+        <v>283</v>
+      </c>
+      <c r="B166" s="57"/>
+      <c r="C166" s="55"/>
       <c r="D166" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E166" s="12" t="s">
         <v>85</v>
@@ -6656,17 +6653,17 @@
         <v>15</v>
       </c>
       <c r="H166" s="19" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A167" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="B167" s="61"/>
-      <c r="C167" s="59"/>
+        <v>284</v>
+      </c>
+      <c r="B167" s="57"/>
+      <c r="C167" s="55"/>
       <c r="D167" s="12" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E167" s="12" t="s">
         <v>85</v>
@@ -6678,17 +6675,17 @@
         <v>15</v>
       </c>
       <c r="H167" s="19" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A168" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="B168" s="61"/>
-      <c r="C168" s="59"/>
+        <v>285</v>
+      </c>
+      <c r="B168" s="57"/>
+      <c r="C168" s="55"/>
       <c r="D168" s="12" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E168" s="12" t="s">
         <v>85</v>
@@ -6700,17 +6697,17 @@
         <v>15</v>
       </c>
       <c r="H168" s="19" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="B169" s="61"/>
-      <c r="C169" s="59"/>
+        <v>286</v>
+      </c>
+      <c r="B169" s="57"/>
+      <c r="C169" s="55"/>
       <c r="D169" s="12" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E169" s="12" t="s">
         <v>85</v>
@@ -6722,17 +6719,17 @@
         <v>15</v>
       </c>
       <c r="H169" s="19" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A170" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="B170" s="61"/>
-      <c r="C170" s="59"/>
+        <v>287</v>
+      </c>
+      <c r="B170" s="57"/>
+      <c r="C170" s="55"/>
       <c r="D170" s="12" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="E170" s="12" t="s">
         <v>85</v>
@@ -6744,17 +6741,17 @@
         <v>15</v>
       </c>
       <c r="H170" s="19" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A171" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="B171" s="61"/>
-      <c r="C171" s="59"/>
+        <v>288</v>
+      </c>
+      <c r="B171" s="57"/>
+      <c r="C171" s="55"/>
       <c r="D171" s="12" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="E171" s="12" t="s">
         <v>85</v>
@@ -6766,17 +6763,17 @@
         <v>15</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A172" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="B172" s="61"/>
-      <c r="C172" s="59"/>
+        <v>289</v>
+      </c>
+      <c r="B172" s="57"/>
+      <c r="C172" s="55"/>
       <c r="D172" s="12" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="E172" s="12" t="s">
         <v>85</v>
@@ -6788,17 +6785,17 @@
         <v>15</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A173" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="B173" s="61"/>
-      <c r="C173" s="59"/>
+        <v>290</v>
+      </c>
+      <c r="B173" s="57"/>
+      <c r="C173" s="55"/>
       <c r="D173" s="12" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="E173" s="12" t="s">
         <v>85</v>
@@ -6810,17 +6807,17 @@
         <v>15</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A174" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="B174" s="61"/>
-      <c r="C174" s="59"/>
+        <v>291</v>
+      </c>
+      <c r="B174" s="57"/>
+      <c r="C174" s="55"/>
       <c r="D174" s="12" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="E174" s="12" t="s">
         <v>85</v>
@@ -6832,19 +6829,19 @@
         <v>15</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="B175" s="61"/>
-      <c r="C175" s="59" t="s">
-        <v>218</v>
+        <v>383</v>
+      </c>
+      <c r="B175" s="57"/>
+      <c r="C175" s="55" t="s">
+        <v>209</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E175" s="12" t="s">
         <v>53</v>
@@ -6856,17 +6853,17 @@
         <v>15</v>
       </c>
       <c r="H175" s="18" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A176" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="B176" s="61"/>
-      <c r="C176" s="59"/>
+        <v>292</v>
+      </c>
+      <c r="B176" s="57"/>
+      <c r="C176" s="55"/>
       <c r="D176" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E176" s="12" t="s">
         <v>85</v>
@@ -6878,17 +6875,17 @@
         <v>15</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A177" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="B177" s="61"/>
-      <c r="C177" s="59"/>
+        <v>293</v>
+      </c>
+      <c r="B177" s="57"/>
+      <c r="C177" s="55"/>
       <c r="D177" s="12" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E177" s="12" t="s">
         <v>85</v>
@@ -6900,17 +6897,17 @@
         <v>15</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A178" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="B178" s="61"/>
-      <c r="C178" s="59"/>
+        <v>294</v>
+      </c>
+      <c r="B178" s="57"/>
+      <c r="C178" s="55"/>
       <c r="D178" s="12" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E178" s="12" t="s">
         <v>85</v>
@@ -6922,17 +6919,17 @@
         <v>15</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A179" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="B179" s="61"/>
-      <c r="C179" s="59"/>
+        <v>295</v>
+      </c>
+      <c r="B179" s="57"/>
+      <c r="C179" s="55"/>
       <c r="D179" s="12" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E179" s="12" t="s">
         <v>85</v>
@@ -6944,17 +6941,17 @@
         <v>15</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A180" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="B180" s="61"/>
-      <c r="C180" s="59"/>
+        <v>296</v>
+      </c>
+      <c r="B180" s="57"/>
+      <c r="C180" s="55"/>
       <c r="D180" s="12" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="E180" s="12" t="s">
         <v>85</v>
@@ -6966,17 +6963,17 @@
         <v>15</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A181" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="B181" s="61"/>
-      <c r="C181" s="59"/>
+        <v>297</v>
+      </c>
+      <c r="B181" s="57"/>
+      <c r="C181" s="55"/>
       <c r="D181" s="12" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="E181" s="12" t="s">
         <v>85</v>
@@ -6988,17 +6985,17 @@
         <v>15</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A182" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="B182" s="61"/>
-      <c r="C182" s="59"/>
+        <v>298</v>
+      </c>
+      <c r="B182" s="57"/>
+      <c r="C182" s="55"/>
       <c r="D182" s="12" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="E182" s="12" t="s">
         <v>85</v>
@@ -7010,17 +7007,17 @@
         <v>15</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A183" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="B183" s="61"/>
-      <c r="C183" s="59"/>
+        <v>299</v>
+      </c>
+      <c r="B183" s="57"/>
+      <c r="C183" s="55"/>
       <c r="D183" s="12" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="E183" s="12" t="s">
         <v>85</v>
@@ -7032,17 +7029,17 @@
         <v>15</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A184" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="B184" s="61"/>
-      <c r="C184" s="59"/>
+        <v>300</v>
+      </c>
+      <c r="B184" s="57"/>
+      <c r="C184" s="55"/>
       <c r="D184" s="12" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="E184" s="12" t="s">
         <v>85</v>
@@ -7054,19 +7051,19 @@
         <v>15</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="B185" s="61"/>
-      <c r="C185" s="59" t="s">
-        <v>219</v>
+        <v>384</v>
+      </c>
+      <c r="B185" s="57"/>
+      <c r="C185" s="55" t="s">
+        <v>210</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E185" s="12" t="s">
         <v>53</v>
@@ -7078,17 +7075,17 @@
         <v>15</v>
       </c>
       <c r="H185" s="18" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A186" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="B186" s="61"/>
-      <c r="C186" s="59"/>
+        <v>301</v>
+      </c>
+      <c r="B186" s="57"/>
+      <c r="C186" s="55"/>
       <c r="D186" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E186" s="12" t="s">
         <v>85</v>
@@ -7100,17 +7097,17 @@
         <v>15</v>
       </c>
       <c r="H186" s="19" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A187" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="B187" s="61"/>
-      <c r="C187" s="59"/>
+        <v>302</v>
+      </c>
+      <c r="B187" s="57"/>
+      <c r="C187" s="55"/>
       <c r="D187" s="12" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E187" s="12" t="s">
         <v>85</v>
@@ -7122,17 +7119,17 @@
         <v>15</v>
       </c>
       <c r="H187" s="19" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A188" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="B188" s="61"/>
-      <c r="C188" s="59"/>
+        <v>303</v>
+      </c>
+      <c r="B188" s="57"/>
+      <c r="C188" s="55"/>
       <c r="D188" s="12" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E188" s="12" t="s">
         <v>85</v>
@@ -7144,17 +7141,17 @@
         <v>15</v>
       </c>
       <c r="H188" s="19" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A189" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="B189" s="61"/>
-      <c r="C189" s="59"/>
+        <v>304</v>
+      </c>
+      <c r="B189" s="57"/>
+      <c r="C189" s="55"/>
       <c r="D189" s="12" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E189" s="12" t="s">
         <v>85</v>
@@ -7166,17 +7163,17 @@
         <v>15</v>
       </c>
       <c r="H189" s="19" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A190" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="B190" s="61"/>
-      <c r="C190" s="59"/>
+        <v>305</v>
+      </c>
+      <c r="B190" s="57"/>
+      <c r="C190" s="55"/>
       <c r="D190" s="12" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="E190" s="12" t="s">
         <v>85</v>
@@ -7188,17 +7185,17 @@
         <v>15</v>
       </c>
       <c r="H190" s="19" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A191" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="B191" s="61"/>
-      <c r="C191" s="59"/>
+        <v>306</v>
+      </c>
+      <c r="B191" s="57"/>
+      <c r="C191" s="55"/>
       <c r="D191" s="12" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="E191" s="12" t="s">
         <v>85</v>
@@ -7210,17 +7207,17 @@
         <v>15</v>
       </c>
       <c r="H191" s="19" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A192" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B192" s="61"/>
-      <c r="C192" s="59"/>
+        <v>307</v>
+      </c>
+      <c r="B192" s="57"/>
+      <c r="C192" s="55"/>
       <c r="D192" s="12" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="E192" s="12" t="s">
         <v>85</v>
@@ -7232,17 +7229,17 @@
         <v>15</v>
       </c>
       <c r="H192" s="19" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A193" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="B193" s="61"/>
-      <c r="C193" s="59"/>
+        <v>308</v>
+      </c>
+      <c r="B193" s="57"/>
+      <c r="C193" s="55"/>
       <c r="D193" s="12" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="E193" s="12" t="s">
         <v>85</v>
@@ -7254,17 +7251,17 @@
         <v>15</v>
       </c>
       <c r="H193" s="19" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A194" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="B194" s="61"/>
-      <c r="C194" s="59"/>
+        <v>309</v>
+      </c>
+      <c r="B194" s="57"/>
+      <c r="C194" s="55"/>
       <c r="D194" s="12" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="E194" s="12" t="s">
         <v>85</v>
@@ -7276,19 +7273,19 @@
         <v>15</v>
       </c>
       <c r="H194" s="19" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="B195" s="61"/>
-      <c r="C195" s="59" t="s">
-        <v>220</v>
+        <v>385</v>
+      </c>
+      <c r="B195" s="57"/>
+      <c r="C195" s="55" t="s">
+        <v>211</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E195" s="12" t="s">
         <v>53</v>
@@ -7300,17 +7297,17 @@
         <v>15</v>
       </c>
       <c r="H195" s="18" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="B196" s="61"/>
-      <c r="C196" s="59"/>
+        <v>310</v>
+      </c>
+      <c r="B196" s="57"/>
+      <c r="C196" s="55"/>
       <c r="D196" s="11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E196" s="12" t="s">
         <v>85</v>
@@ -7322,17 +7319,17 @@
         <v>15</v>
       </c>
       <c r="H196" s="19" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A197" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="B197" s="61"/>
-      <c r="C197" s="59"/>
+        <v>311</v>
+      </c>
+      <c r="B197" s="57"/>
+      <c r="C197" s="55"/>
       <c r="D197" s="12" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E197" s="12" t="s">
         <v>85</v>
@@ -7344,17 +7341,17 @@
         <v>15</v>
       </c>
       <c r="H197" s="19" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A198" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="B198" s="61"/>
-      <c r="C198" s="59"/>
+        <v>312</v>
+      </c>
+      <c r="B198" s="57"/>
+      <c r="C198" s="55"/>
       <c r="D198" s="12" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E198" s="12" t="s">
         <v>85</v>
@@ -7366,17 +7363,17 @@
         <v>15</v>
       </c>
       <c r="H198" s="19" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A199" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="B199" s="61"/>
-      <c r="C199" s="59"/>
+        <v>313</v>
+      </c>
+      <c r="B199" s="57"/>
+      <c r="C199" s="55"/>
       <c r="D199" s="12" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E199" s="12" t="s">
         <v>85</v>
@@ -7388,17 +7385,17 @@
         <v>15</v>
       </c>
       <c r="H199" s="19" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A200" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="B200" s="61"/>
-      <c r="C200" s="59"/>
+        <v>314</v>
+      </c>
+      <c r="B200" s="57"/>
+      <c r="C200" s="55"/>
       <c r="D200" s="12" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="E200" s="12" t="s">
         <v>85</v>
@@ -7410,17 +7407,17 @@
         <v>15</v>
       </c>
       <c r="H200" s="19" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A201" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="B201" s="61"/>
-      <c r="C201" s="59"/>
+        <v>315</v>
+      </c>
+      <c r="B201" s="57"/>
+      <c r="C201" s="55"/>
       <c r="D201" s="12" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="E201" s="12" t="s">
         <v>85</v>
@@ -7432,17 +7429,17 @@
         <v>15</v>
       </c>
       <c r="H201" s="19" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A202" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="B202" s="61"/>
-      <c r="C202" s="59"/>
+        <v>316</v>
+      </c>
+      <c r="B202" s="57"/>
+      <c r="C202" s="55"/>
       <c r="D202" s="12" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="E202" s="12" t="s">
         <v>85</v>
@@ -7454,17 +7451,17 @@
         <v>15</v>
       </c>
       <c r="H202" s="19" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A203" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="B203" s="61"/>
-      <c r="C203" s="59"/>
+        <v>317</v>
+      </c>
+      <c r="B203" s="57"/>
+      <c r="C203" s="55"/>
       <c r="D203" s="12" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="E203" s="12" t="s">
         <v>85</v>
@@ -7476,17 +7473,17 @@
         <v>15</v>
       </c>
       <c r="H203" s="19" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="B204" s="62"/>
-      <c r="C204" s="60"/>
+        <v>318</v>
+      </c>
+      <c r="B204" s="58"/>
+      <c r="C204" s="56"/>
       <c r="D204" s="23" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="E204" s="23" t="s">
         <v>85</v>
@@ -7498,11 +7495,23 @@
         <v>15</v>
       </c>
       <c r="H204" s="24" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C105:C114"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="C58:C64"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="C71:C78"/>
+    <mergeCell ref="C79:C84"/>
+    <mergeCell ref="C85:C94"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C95:C104"/>
     <mergeCell ref="B85:B114"/>
     <mergeCell ref="B2:B84"/>
     <mergeCell ref="C2:C9"/>
@@ -7519,18 +7528,6 @@
     <mergeCell ref="C185:C194"/>
     <mergeCell ref="C46:C51"/>
     <mergeCell ref="C16:C21"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C95:C104"/>
-    <mergeCell ref="C105:C114"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="C58:C64"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="C71:C78"/>
-    <mergeCell ref="C79:C84"/>
-    <mergeCell ref="C85:C94"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7542,8 +7539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2306BF6-5C33-4ED3-B4E3-3A93DAE93B44}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7582,13 +7579,13 @@
     </row>
     <row r="2" spans="1:7" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
-        <v>87</v>
+        <v>576</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>24</v>
@@ -7600,12 +7597,12 @@
         <v>15</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
-        <v>88</v>
+        <v>577</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="12" t="s">
@@ -7626,7 +7623,7 @@
     </row>
     <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
-        <v>89</v>
+        <v>578</v>
       </c>
       <c r="B4" s="64"/>
       <c r="C4" s="12" t="s">
@@ -7647,7 +7644,7 @@
     </row>
     <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
-        <v>90</v>
+        <v>579</v>
       </c>
       <c r="B5" s="64"/>
       <c r="C5" s="12" t="s">
@@ -7668,7 +7665,7 @@
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
-        <v>91</v>
+        <v>580</v>
       </c>
       <c r="B6" s="64"/>
       <c r="C6" s="12" t="s">
@@ -7689,7 +7686,7 @@
     </row>
     <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
-        <v>92</v>
+        <v>581</v>
       </c>
       <c r="B7" s="64"/>
       <c r="C7" s="12" t="s">
@@ -7710,7 +7707,7 @@
     </row>
     <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
-        <v>93</v>
+        <v>582</v>
       </c>
       <c r="B8" s="64"/>
       <c r="C8" s="12" t="s">
@@ -7731,7 +7728,7 @@
     </row>
     <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="30" t="s">
-        <v>94</v>
+        <v>583</v>
       </c>
       <c r="B9" s="64"/>
       <c r="C9" s="12" t="s">
@@ -7751,8 +7748,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="31" t="s">
-        <v>95</v>
+      <c r="A10" s="30" t="s">
+        <v>584</v>
       </c>
       <c r="B10" s="65"/>
       <c r="C10" s="23" t="s">
@@ -7767,7 +7764,7 @@
       <c r="F10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="31" t="s">
         <v>26</v>
       </c>
     </row>

--- a/src/test/resources/testCases/helpsToolDropdownTC.xlsx
+++ b/src/test/resources/testCases/helpsToolDropdownTC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\git\helpsToolDropdown\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A243245-02F9-4992-8972-A80874C00387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4290FE8A-4698-414B-AA2C-06E9E7AAB76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="beforeTest" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="671">
   <si>
     <t>ObjectType</t>
   </si>
@@ -1787,50 +1787,266 @@
     <t>LI008</t>
   </si>
   <si>
+    <t xml:space="preserve"> Verify the Welcome Text Displayed is Welcome, HELPSAutoTest@vnshealth.org.</t>
+  </si>
+  <si>
+    <t>//button[@class='btn btn-primary']</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>FR003A</t>
+  </si>
+  <si>
+    <t>FR003B</t>
+  </si>
+  <si>
+    <t>FR001A</t>
+  </si>
+  <si>
+    <t>FR001B</t>
+  </si>
+  <si>
+    <t>Verify the Progress Bar is at 94%</t>
+  </si>
+  <si>
+    <t>Verify the Progress Bar is at 97%</t>
+  </si>
+  <si>
+    <t>Verify the Progress Bar is at 100%</t>
+  </si>
+  <si>
     <t>Verify the Progress Bar is at 97%.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Verify the Welcome Text Displayed is Welcome, HELPSAutoTest@vnshealth.org.</t>
-  </si>
-  <si>
-    <t>//button[@class='btn btn-primary']</t>
-  </si>
-  <si>
-    <t>Bar</t>
-  </si>
-  <si>
-    <t>94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>FR003A</t>
-  </si>
-  <si>
-    <t>FR003B</t>
-  </si>
-  <si>
-    <t>FR001A</t>
-  </si>
-  <si>
-    <t>FR001B</t>
-  </si>
-  <si>
-    <t>Verify Progress Bar is at 94%.</t>
-  </si>
-  <si>
-    <t>Verify Progress Bar is at 97%.</t>
-  </si>
-  <si>
-    <t>Verify Progress Bar is at 100%.</t>
+    <t>Select an option</t>
+  </si>
+  <si>
+    <t>Modified independence - Some difficulty in new situations only</t>
+  </si>
+  <si>
+    <t>Minimally impaired - In specific recurring situations, decisions become poor or unsafe; cues / supervision necessary at those times</t>
+  </si>
+  <si>
+    <t>Moderately impaired - Decisions consistently poor or unsafe; cues/supervision required at all times</t>
+  </si>
+  <si>
+    <t>Severely impaired - Never or rarely makes decisions</t>
+  </si>
+  <si>
+    <t>No discernable consciousness</t>
+  </si>
+  <si>
+    <t>Not Present</t>
+  </si>
+  <si>
+    <t>Primary diagnosis/diagnosis for stay/placement</t>
+  </si>
+  <si>
+    <t>Diagnosis present, receiving active treatment</t>
+  </si>
+  <si>
+    <t>Diagnosis present, monitored but no active treatment</t>
+  </si>
+  <si>
+    <t>Present but not exhibited in last 3 days</t>
+  </si>
+  <si>
+    <t>Exhibited on 1-2 days of last 3 days</t>
+  </si>
+  <si>
+    <t>Exhibited daily in last 3 days</t>
+  </si>
+  <si>
+    <t>Primary diagnosis/diagnosis for current stay</t>
+  </si>
+  <si>
+    <t>Absence of symptom</t>
+  </si>
+  <si>
+    <t>Absent at rest, but present when performed moderate activities</t>
+  </si>
+  <si>
+    <t>Absent at rest, but present when performed normal day-to-day activities</t>
+  </si>
+  <si>
+    <t>Present at rest</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Minimal - Diminished energy but completes normal day-to-day activities</t>
+  </si>
+  <si>
+    <t>Moderate - Due to diminished energy, UNABLE TO FINISH normal day-to-day activities</t>
+  </si>
+  <si>
+    <t>Severe - Due to diminished energy, UNABLE TO START SOME normal day-to-day activities</t>
+  </si>
+  <si>
+    <t>Unable to commence any normal day-to-day activities - Due to diminished energy</t>
+  </si>
+  <si>
+    <t>No issue of pain</t>
+  </si>
+  <si>
+    <t>Pain intensity acceptable to individual; no treatment regimen or change in regimen required</t>
+  </si>
+  <si>
+    <t>Controlled adequately by therapeutic regimen</t>
+  </si>
+  <si>
+    <t>Controlled when therapeutic regimen followed, but not always followed as ordered</t>
+  </si>
+  <si>
+    <t>Therapeutic regimen followed, but pain control not adequate</t>
+  </si>
+  <si>
+    <t>No therapeutic regimen being followed for pain; pain not adequately controlled</t>
+  </si>
+  <si>
+    <t>Independent - No help, setup, or supervision</t>
+  </si>
+  <si>
+    <t>Setup help only</t>
+  </si>
+  <si>
+    <t>Supervision - oversight/cueing</t>
+  </si>
+  <si>
+    <t>Limited assistance - help on some occasions</t>
+  </si>
+  <si>
+    <t>Extensive assistance - help throughout task, but performs 50% or more of task on own</t>
+  </si>
+  <si>
+    <t>Maximal assistance - help throughout task, but performs less than 50% of task on own</t>
+  </si>
+  <si>
+    <t>Total dependence - full performance by others during entire period</t>
+  </si>
+  <si>
+    <t>Activity did not occur - during entire period</t>
+  </si>
+  <si>
+    <t>Independent - no physical assistance, setup, or supervision in any episode</t>
+  </si>
+  <si>
+    <t>Independent, setup help only - article or device provided or placed within reach, no physical assistance or supervision in any episode</t>
+  </si>
+  <si>
+    <t>Limited assistance - guided maneuvering of limbs, physical guidance without taking weight</t>
+  </si>
+  <si>
+    <t>Extensive assistance - weight-bearing support (including lifting limbs) by 1 helper where person still performs 50% or more of subtasks</t>
+  </si>
+  <si>
+    <t>Maximal assistance - weight-bearing support (including lifting limbs) by 2+ helpers - OR - weight-bearing support for more than 50% of subtasks</t>
+  </si>
+  <si>
+    <t>Total dependence - full performance by others during all episodes</t>
+  </si>
+  <si>
+    <t>Activity did not occur during entire period</t>
+  </si>
+  <si>
+    <t>Cognitive Skills for Daily Decision Making Dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychiatric Anxiety </t>
+  </si>
+  <si>
+    <t>Wandering Dropdown</t>
+  </si>
+  <si>
+    <t>Psychiatric Depression Dropdown</t>
+  </si>
+  <si>
+    <t>Verbal Abuse</t>
+  </si>
+  <si>
+    <t>Psychiatric Schizophrenia</t>
+  </si>
+  <si>
+    <t>Physical Abuse</t>
+  </si>
+  <si>
+    <t>Dyspnea</t>
+  </si>
+  <si>
+    <t>Socially inappropriate or disruptive behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatigue </t>
+  </si>
+  <si>
+    <t>Inappropriate public sexual behavior or public disrobing</t>
+  </si>
+  <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t>Resist Care</t>
+  </si>
+  <si>
+    <t>Meal Preparation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordinary Housework </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordinary Shopping </t>
+  </si>
+  <si>
+    <t>Bathing</t>
+  </si>
+  <si>
+    <t>Personal Hygiene</t>
+  </si>
+  <si>
+    <t>Dressing Upper Body</t>
+  </si>
+  <si>
+    <t>Dressing Lower Body</t>
+  </si>
+  <si>
+    <t>Locomotion</t>
+  </si>
+  <si>
+    <t>Transfer Toilet</t>
+  </si>
+  <si>
+    <t>Toileting</t>
+  </si>
+  <si>
+    <t>Bed Mobility</t>
+  </si>
+  <si>
+    <t>Eating</t>
+  </si>
+  <si>
+    <t>Activity did not occur - During entire period</t>
+  </si>
+  <si>
+    <t>Independent - Decisions consistent, reasonable and safe</t>
+  </si>
+  <si>
+    <t>//select[@id='resistCare']//option[contains(text(), 'Exhibited on 1-2 days of last 3 days')]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1887,6 +2103,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1932,7 +2155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2223,13 +2446,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2260,18 +2492,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2296,24 +2516,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2325,9 +2527,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2336,9 +2535,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2363,26 +2559,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2402,6 +2628,15 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2415,6 +2650,18 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2702,47 +2949,47 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:G15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.36328125" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.453125" customWidth="1"/>
     <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="71.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.54296875" style="5" customWidth="1"/>
     <col min="8" max="8" width="54.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="56" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2760,13 +3007,13 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="22" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2784,12 +3031,12 @@
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2807,7 +3054,7 @@
       <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="24" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2827,15 +3074,15 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="27" t="s">
         <v>570</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="16" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2853,12 +3100,12 @@
       <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2876,12 +3123,12 @@
       <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2899,12 +3146,12 @@
       <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2919,38 +3166,38 @@
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="23" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="53" t="s">
+    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="39" t="s">
         <v>585</v>
       </c>
-      <c r="B10" s="51" t="s">
-        <v>587</v>
-      </c>
-      <c r="C10" s="51" t="s">
+      <c r="B10" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>584</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="37" t="s">
         <v>580</v>
       </c>
-      <c r="E10" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="50" t="s">
+      <c r="E10" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="38" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2968,12 +3215,12 @@
       <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2991,12 +3238,12 @@
       <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -3014,58 +3261,58 @@
       <c r="F13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="58" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="44" t="s">
+      <c r="D14" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="32" t="s">
         <v>579</v>
       </c>
-      <c r="B15" s="46" t="s">
-        <v>586</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>589</v>
-      </c>
-      <c r="D15" s="46" t="s">
+      <c r="B15" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="33" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F17" s="42"/>
+      <c r="F17" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3079,10 +3326,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407B753E-D1E8-46BC-BF70-35AA7CA269EC}">
-  <dimension ref="A1:H204"/>
+  <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A200" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3095,43 +3342,46 @@
     <col min="6" max="6" width="10.6328125" customWidth="1"/>
     <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="47" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="I1" s="48" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="65" t="s">
         <v>141</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -3146,16 +3396,19 @@
       <c r="G2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="I2" s="41" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="59"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="10" t="s">
         <v>356</v>
       </c>
@@ -3168,16 +3421,19 @@
       <c r="G3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="14" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="I3" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="59"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="10" t="s">
         <v>322</v>
       </c>
@@ -3190,16 +3446,19 @@
       <c r="G4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="13" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="I4" s="42" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="59"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="10" t="s">
         <v>323</v>
       </c>
@@ -3212,16 +3471,19 @@
       <c r="G5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="13" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="I5" s="40" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="59"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="10" t="s">
         <v>324</v>
       </c>
@@ -3234,17 +3496,20 @@
       <c r="G6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="13" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="I6" s="40" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="19" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="15" t="s">
         <v>325</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -3256,16 +3521,19 @@
       <c r="G7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="35" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="I7" s="40" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="59"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="10" t="s">
         <v>326</v>
       </c>
@@ -3278,16 +3546,19 @@
       <c r="G8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="13" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="I8" s="40" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="60"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="10" t="s">
         <v>327</v>
       </c>
@@ -3300,16 +3571,19 @@
       <c r="G9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="13" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="I9" s="40" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="58" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="65" t="s">
         <v>382</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -3324,16 +3598,19 @@
       <c r="G10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="I10" s="40" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="59"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="10" t="s">
         <v>356</v>
       </c>
@@ -3346,16 +3623,19 @@
       <c r="G11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="14" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="I11" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="59"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="10" t="s">
         <v>328</v>
       </c>
@@ -3368,16 +3648,19 @@
       <c r="G12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="14" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+      <c r="I12" s="40" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="59"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="10" t="s">
         <v>329</v>
       </c>
@@ -3390,16 +3673,19 @@
       <c r="G13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="13" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
+      <c r="I13" s="40" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="59"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="10" t="s">
         <v>330</v>
       </c>
@@ -3412,16 +3698,19 @@
       <c r="G14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="13" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="I14" s="40" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="60"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="10" t="s">
         <v>331</v>
       </c>
@@ -3434,16 +3723,19 @@
       <c r="G15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="13" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
+      <c r="I15" s="40" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="58" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="65" t="s">
         <v>143</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -3458,16 +3750,19 @@
       <c r="G16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
+      <c r="I16" s="40" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="59"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="10" t="s">
         <v>356</v>
       </c>
@@ -3480,16 +3775,19 @@
       <c r="G17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="14" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
+      <c r="I17" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="59"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="10" t="s">
         <v>328</v>
       </c>
@@ -3502,16 +3800,19 @@
       <c r="G18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="14" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
+      <c r="I18" s="40" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="59"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="10" t="s">
         <v>332</v>
       </c>
@@ -3524,16 +3825,19 @@
       <c r="G19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="14" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
+      <c r="I19" s="40" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="59"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="10" t="s">
         <v>333</v>
       </c>
@@ -3546,16 +3850,19 @@
       <c r="G20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="14" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
+      <c r="I20" s="40" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="60"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="10" t="s">
         <v>334</v>
       </c>
@@ -3568,16 +3875,19 @@
       <c r="G21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="14" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
+      <c r="I21" s="40" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="58" t="s">
+      <c r="B22" s="63"/>
+      <c r="C22" s="65" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -3592,16 +3902,19 @@
       <c r="G22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
+      <c r="I22" s="40" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="59"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="10" t="s">
         <v>356</v>
       </c>
@@ -3614,16 +3927,19 @@
       <c r="G23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="14" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+      <c r="I23" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="59"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="10" t="s">
         <v>328</v>
       </c>
@@ -3636,16 +3952,19 @@
       <c r="G24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="14" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="I24" s="40" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="59"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="10" t="s">
         <v>335</v>
       </c>
@@ -3658,16 +3977,19 @@
       <c r="G25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="14" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+      <c r="I25" s="40" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="59"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="10" t="s">
         <v>330</v>
       </c>
@@ -3680,16 +4002,19 @@
       <c r="G26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="14" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
+      <c r="I26" s="40" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="60"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="10" t="s">
         <v>331</v>
       </c>
@@ -3702,16 +4027,19 @@
       <c r="G27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="14" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
+      <c r="I27" s="40" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="58" t="s">
+      <c r="B28" s="63"/>
+      <c r="C28" s="65" t="s">
         <v>145</v>
       </c>
       <c r="D28" s="11" t="s">
@@ -3726,16 +4054,19 @@
       <c r="G28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
+      <c r="I28" s="41" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="10" t="s">
         <v>356</v>
       </c>
@@ -3748,16 +4079,19 @@
       <c r="G29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="14" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
+      <c r="I29" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="59"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="10" t="s">
         <v>328</v>
       </c>
@@ -3770,16 +4104,19 @@
       <c r="G30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="14" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
+      <c r="I30" s="40" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="59"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="11" t="s">
         <v>332</v>
       </c>
@@ -3792,16 +4129,19 @@
       <c r="G31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="14" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
+      <c r="I31" s="41" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="59"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="10" t="s">
         <v>333</v>
       </c>
@@ -3814,16 +4154,19 @@
       <c r="G32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="14" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="16" t="s">
+      <c r="I32" s="40" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="60"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="10" t="s">
         <v>334</v>
       </c>
@@ -3836,16 +4179,19 @@
       <c r="G33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="14" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16" t="s">
+      <c r="I33" s="40" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="58" t="s">
+      <c r="B34" s="63"/>
+      <c r="C34" s="65" t="s">
         <v>146</v>
       </c>
       <c r="D34" s="10" t="s">
@@ -3860,16 +4206,19 @@
       <c r="G34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
+      <c r="I34" s="40" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="59"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="10" t="s">
         <v>356</v>
       </c>
@@ -3882,16 +4231,19 @@
       <c r="G35" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="18" t="s">
+      <c r="H35" s="14" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
+      <c r="I35" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="59"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="10" t="s">
         <v>328</v>
       </c>
@@ -3904,16 +4256,19 @@
       <c r="G36" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="14" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="16" t="s">
+      <c r="I36" s="40" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B37" s="65"/>
-      <c r="C37" s="59"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="10" t="s">
         <v>335</v>
       </c>
@@ -3926,16 +4281,19 @@
       <c r="G37" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="14" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="16" t="s">
+      <c r="I37" s="40" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="59"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="10" t="s">
         <v>330</v>
       </c>
@@ -3948,16 +4306,19 @@
       <c r="G38" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="14" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="16" t="s">
+      <c r="I38" s="40" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="60"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="67"/>
       <c r="D39" s="11" t="s">
         <v>331</v>
       </c>
@@ -3970,16 +4331,19 @@
       <c r="G39" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="14" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="16" t="s">
+      <c r="I39" s="41" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="54" t="s">
+      <c r="B40" s="63"/>
+      <c r="C40" s="73" t="s">
         <v>147</v>
       </c>
       <c r="D40" s="11" t="s">
@@ -3994,16 +4358,19 @@
       <c r="G40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="17" t="s">
+      <c r="H40" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="16" t="s">
+      <c r="I40" s="41" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="55"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="10" t="s">
         <v>356</v>
       </c>
@@ -4016,16 +4383,19 @@
       <c r="G41" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="18" t="s">
+      <c r="H41" s="14" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="16" t="s">
+      <c r="I41" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B42" s="65"/>
-      <c r="C42" s="55"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="10" t="s">
         <v>328</v>
       </c>
@@ -4038,16 +4408,19 @@
       <c r="G42" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="H42" s="14" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="16" t="s">
+      <c r="I42" s="40" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="65"/>
-      <c r="C43" s="55"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="74"/>
       <c r="D43" s="11" t="s">
         <v>332</v>
       </c>
@@ -4060,16 +4433,19 @@
       <c r="G43" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="H43" s="14" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="16" t="s">
+      <c r="I43" s="41" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B44" s="65"/>
-      <c r="C44" s="55"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="10" t="s">
         <v>333</v>
       </c>
@@ -4082,16 +4458,19 @@
       <c r="G44" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H44" s="14" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="16" t="s">
+      <c r="I44" s="40" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B45" s="65"/>
-      <c r="C45" s="56"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="75"/>
       <c r="D45" s="10" t="s">
         <v>334</v>
       </c>
@@ -4104,16 +4483,19 @@
       <c r="G45" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="18" t="s">
+      <c r="H45" s="14" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="16" t="s">
+      <c r="I45" s="40" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="54" t="s">
+      <c r="B46" s="63"/>
+      <c r="C46" s="73" t="s">
         <v>148</v>
       </c>
       <c r="D46" s="10" t="s">
@@ -4128,16 +4510,19 @@
       <c r="G46" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="17" t="s">
+      <c r="H46" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="16" t="s">
+      <c r="I46" s="40" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B47" s="65"/>
-      <c r="C47" s="55"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="74"/>
       <c r="D47" s="10" t="s">
         <v>356</v>
       </c>
@@ -4150,16 +4535,19 @@
       <c r="G47" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="18" t="s">
+      <c r="H47" s="14" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="16" t="s">
+      <c r="I47" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B48" s="65"/>
-      <c r="C48" s="55"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="74"/>
       <c r="D48" s="10" t="s">
         <v>336</v>
       </c>
@@ -4172,16 +4560,19 @@
       <c r="G48" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="H48" s="14" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="16" t="s">
+      <c r="I48" s="40" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B49" s="65"/>
-      <c r="C49" s="55"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="74"/>
       <c r="D49" s="10" t="s">
         <v>337</v>
       </c>
@@ -4194,16 +4585,19 @@
       <c r="G49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="18" t="s">
+      <c r="H49" s="14" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="16" t="s">
+      <c r="I49" s="40" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A50" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B50" s="65"/>
-      <c r="C50" s="55"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="74"/>
       <c r="D50" s="10" t="s">
         <v>338</v>
       </c>
@@ -4216,16 +4610,19 @@
       <c r="G50" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="18" t="s">
+      <c r="H50" s="14" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="16" t="s">
+      <c r="I50" s="40" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B51" s="65"/>
-      <c r="C51" s="56"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="75"/>
       <c r="D51" s="10" t="s">
         <v>339</v>
       </c>
@@ -4238,16 +4635,19 @@
       <c r="G51" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="18" t="s">
+      <c r="H51" s="14" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="16" t="s">
+      <c r="I51" s="40" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="B52" s="65"/>
-      <c r="C52" s="54" t="s">
+      <c r="B52" s="63"/>
+      <c r="C52" s="73" t="s">
         <v>149</v>
       </c>
       <c r="D52" s="10" t="s">
@@ -4262,16 +4662,19 @@
       <c r="G52" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="17" t="s">
+      <c r="H52" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A53" s="16" t="s">
+      <c r="I52" s="40" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B53" s="65"/>
-      <c r="C53" s="55"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="74"/>
       <c r="D53" s="10" t="s">
         <v>356</v>
       </c>
@@ -4284,16 +4687,19 @@
       <c r="G53" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="18" t="s">
+      <c r="H53" s="14" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="16" t="s">
+      <c r="I53" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B54" s="65"/>
-      <c r="C54" s="55"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="74"/>
       <c r="D54" s="11" t="s">
         <v>328</v>
       </c>
@@ -4306,16 +4712,19 @@
       <c r="G54" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H54" s="18" t="s">
+      <c r="H54" s="14" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="16" t="s">
+      <c r="I54" s="41" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B55" s="65"/>
-      <c r="C55" s="55"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="74"/>
       <c r="D55" s="11" t="s">
         <v>332</v>
       </c>
@@ -4328,16 +4737,19 @@
       <c r="G55" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="18" t="s">
+      <c r="H55" s="14" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="16" t="s">
+      <c r="I55" s="41" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B56" s="65"/>
-      <c r="C56" s="55"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="11" t="s">
         <v>333</v>
       </c>
@@ -4350,16 +4762,19 @@
       <c r="G56" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="18" t="s">
+      <c r="H56" s="14" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="16" t="s">
+      <c r="I56" s="41" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B57" s="65"/>
-      <c r="C57" s="56"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="11" t="s">
         <v>334</v>
       </c>
@@ -4372,16 +4787,19 @@
       <c r="G57" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H57" s="18" t="s">
+      <c r="H57" s="14" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="16" t="s">
+      <c r="I57" s="41" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="B58" s="65"/>
-      <c r="C58" s="54" t="s">
+      <c r="B58" s="63"/>
+      <c r="C58" s="73" t="s">
         <v>150</v>
       </c>
       <c r="D58" s="10" t="s">
@@ -4396,16 +4814,19 @@
       <c r="G58" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="17" t="s">
+      <c r="H58" s="13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="16" t="s">
+      <c r="I58" s="40" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A59" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B59" s="65"/>
-      <c r="C59" s="55"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="74"/>
       <c r="D59" s="10" t="s">
         <v>356</v>
       </c>
@@ -4418,16 +4839,19 @@
       <c r="G59" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H59" s="18" t="s">
+      <c r="H59" s="14" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" s="16" t="s">
+      <c r="I59" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A60" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="65"/>
-      <c r="C60" s="55"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="74"/>
       <c r="D60" s="10" t="s">
         <v>481</v>
       </c>
@@ -4440,16 +4864,19 @@
       <c r="G60" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="18" t="s">
+      <c r="H60" s="14" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="16" t="s">
+      <c r="I60" s="40" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A61" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B61" s="65"/>
-      <c r="C61" s="55"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="10" t="s">
         <v>340</v>
       </c>
@@ -4462,16 +4889,19 @@
       <c r="G61" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="18" t="s">
+      <c r="H61" s="14" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="16" t="s">
+      <c r="I61" s="40" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B62" s="65"/>
-      <c r="C62" s="55"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="74"/>
       <c r="D62" s="10" t="s">
         <v>341</v>
       </c>
@@ -4484,16 +4914,19 @@
       <c r="G62" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H62" s="18" t="s">
+      <c r="H62" s="14" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="16" t="s">
+      <c r="I62" s="40" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="B63" s="65"/>
-      <c r="C63" s="55"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="74"/>
       <c r="D63" s="10" t="s">
         <v>483</v>
       </c>
@@ -4506,16 +4939,19 @@
       <c r="G63" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="18" t="s">
+      <c r="H63" s="14" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="16" t="s">
+      <c r="I63" s="40" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A64" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="B64" s="65"/>
-      <c r="C64" s="56"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="75"/>
       <c r="D64" s="10" t="s">
         <v>342</v>
       </c>
@@ -4528,16 +4964,19 @@
       <c r="G64" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H64" s="18" t="s">
+      <c r="H64" s="14" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="16" t="s">
+      <c r="I64" s="40" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="B65" s="65"/>
-      <c r="C65" s="54" t="s">
+      <c r="B65" s="63"/>
+      <c r="C65" s="73" t="s">
         <v>152</v>
       </c>
       <c r="D65" s="10" t="s">
@@ -4552,16 +4991,19 @@
       <c r="G65" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H65" s="17" t="s">
+      <c r="H65" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A66" s="16" t="s">
+      <c r="I65" s="40" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B66" s="65"/>
-      <c r="C66" s="55"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="74"/>
       <c r="D66" s="10" t="s">
         <v>356</v>
       </c>
@@ -4574,16 +5016,19 @@
       <c r="G66" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="18" t="s">
+      <c r="H66" s="14" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A67" s="16" t="s">
+      <c r="I66" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B67" s="65"/>
-      <c r="C67" s="55"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="74"/>
       <c r="D67" s="11" t="s">
         <v>328</v>
       </c>
@@ -4596,16 +5041,19 @@
       <c r="G67" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H67" s="18" t="s">
+      <c r="H67" s="14" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="16" t="s">
+      <c r="I67" s="41" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B68" s="65"/>
-      <c r="C68" s="55"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="74"/>
       <c r="D68" s="11" t="s">
         <v>332</v>
       </c>
@@ -4618,16 +5066,19 @@
       <c r="G68" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="18" t="s">
+      <c r="H68" s="14" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="16" t="s">
+      <c r="I68" s="41" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B69" s="65"/>
-      <c r="C69" s="55"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="74"/>
       <c r="D69" s="11" t="s">
         <v>333</v>
       </c>
@@ -4640,16 +5091,19 @@
       <c r="G69" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H69" s="18" t="s">
+      <c r="H69" s="14" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="16" t="s">
+      <c r="I69" s="41" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B70" s="65"/>
-      <c r="C70" s="56"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="75"/>
       <c r="D70" s="11" t="s">
         <v>334</v>
       </c>
@@ -4662,16 +5116,19 @@
       <c r="G70" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H70" s="18" t="s">
+      <c r="H70" s="14" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="16" t="s">
+      <c r="I70" s="41" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="B71" s="65"/>
-      <c r="C71" s="54" t="s">
+      <c r="B71" s="63"/>
+      <c r="C71" s="73" t="s">
         <v>153</v>
       </c>
       <c r="D71" s="10" t="s">
@@ -4686,16 +5143,19 @@
       <c r="G71" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="17" t="s">
+      <c r="H71" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="16" t="s">
+      <c r="I71" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B72" s="65"/>
-      <c r="C72" s="55"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="74"/>
       <c r="D72" s="10" t="s">
         <v>356</v>
       </c>
@@ -4708,16 +5168,19 @@
       <c r="G72" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H72" s="18" t="s">
+      <c r="H72" s="14" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="16" t="s">
+      <c r="I72" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A73" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B73" s="65"/>
-      <c r="C73" s="55"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="74"/>
       <c r="D73" s="10" t="s">
         <v>343</v>
       </c>
@@ -4730,16 +5193,19 @@
       <c r="G73" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H73" s="18" t="s">
+      <c r="H73" s="14" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="16" t="s">
+      <c r="I73" s="40" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B74" s="65"/>
-      <c r="C74" s="55"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="74"/>
       <c r="D74" s="10" t="s">
         <v>562</v>
       </c>
@@ -4752,16 +5218,19 @@
       <c r="G74" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H74" s="18" t="s">
+      <c r="H74" s="14" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="16" t="s">
+      <c r="I74" s="40" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A75" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B75" s="65"/>
-      <c r="C75" s="55"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="74"/>
       <c r="D75" s="10" t="s">
         <v>344</v>
       </c>
@@ -4774,16 +5243,19 @@
       <c r="G75" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H75" s="18" t="s">
+      <c r="H75" s="14" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="16" t="s">
+      <c r="I75" s="40" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A76" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B76" s="65"/>
-      <c r="C76" s="55"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="74"/>
       <c r="D76" s="10" t="s">
         <v>345</v>
       </c>
@@ -4796,16 +5268,19 @@
       <c r="G76" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H76" s="18" t="s">
+      <c r="H76" s="14" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="16" t="s">
+      <c r="I76" s="40" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B77" s="65"/>
-      <c r="C77" s="55"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="74"/>
       <c r="D77" s="10" t="s">
         <v>346</v>
       </c>
@@ -4818,16 +5293,19 @@
       <c r="G77" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="18" t="s">
+      <c r="H77" s="14" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="16" t="s">
+      <c r="I77" s="40" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A78" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="B78" s="65"/>
-      <c r="C78" s="56"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="75"/>
       <c r="D78" s="10" t="s">
         <v>347</v>
       </c>
@@ -4840,16 +5318,19 @@
       <c r="G78" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H78" s="18" t="s">
+      <c r="H78" s="14" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="16" t="s">
+      <c r="I78" s="40" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="B79" s="65"/>
-      <c r="C79" s="54" t="s">
+      <c r="B79" s="63"/>
+      <c r="C79" s="73" t="s">
         <v>154</v>
       </c>
       <c r="D79" s="11" t="s">
@@ -4864,16 +5345,19 @@
       <c r="G79" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H79" s="17" t="s">
+      <c r="H79" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" s="16" t="s">
+      <c r="I79" s="41" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A80" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B80" s="65"/>
-      <c r="C80" s="55"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="74"/>
       <c r="D80" s="10" t="s">
         <v>356</v>
       </c>
@@ -4886,16 +5370,19 @@
       <c r="G80" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H80" s="18" t="s">
+      <c r="H80" s="14" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A81" s="16" t="s">
+      <c r="I80" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A81" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B81" s="65"/>
-      <c r="C81" s="55"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="74"/>
       <c r="D81" s="11" t="s">
         <v>328</v>
       </c>
@@ -4908,16 +5395,19 @@
       <c r="G81" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H81" s="18" t="s">
+      <c r="H81" s="14" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A82" s="16" t="s">
+      <c r="I81" s="41" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B82" s="65"/>
-      <c r="C82" s="55"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="74"/>
       <c r="D82" s="11" t="s">
         <v>332</v>
       </c>
@@ -4930,16 +5420,19 @@
       <c r="G82" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H82" s="18" t="s">
+      <c r="H82" s="14" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A83" s="16" t="s">
+      <c r="I82" s="41" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A83" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B83" s="65"/>
-      <c r="C83" s="55"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="74"/>
       <c r="D83" s="11" t="s">
         <v>333</v>
       </c>
@@ -4952,16 +5445,19 @@
       <c r="G83" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="18" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A84" s="16" t="s">
+      <c r="H83" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="I83" s="41" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A84" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B84" s="66"/>
-      <c r="C84" s="56"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="75"/>
       <c r="D84" s="11" t="s">
         <v>334</v>
       </c>
@@ -4974,18 +5470,21 @@
       <c r="G84" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H84" s="18" t="s">
+      <c r="H84" s="14" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="16" t="s">
+      <c r="I84" s="41" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="B85" s="61" t="s">
+      <c r="B85" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C85" s="57" t="s">
+      <c r="C85" s="76" t="s">
         <v>196</v>
       </c>
       <c r="D85" s="11" t="s">
@@ -5000,16 +5499,19 @@
       <c r="G85" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H85" s="17" t="s">
+      <c r="H85" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A86" s="16" t="s">
+      <c r="I85" s="41" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A86" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B86" s="62"/>
-      <c r="C86" s="57"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="76"/>
       <c r="D86" s="10" t="s">
         <v>356</v>
       </c>
@@ -5022,16 +5524,19 @@
       <c r="G86" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H86" s="18" t="s">
+      <c r="H86" s="14" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="16" t="s">
+      <c r="I86" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B87" s="62"/>
-      <c r="C87" s="57"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="76"/>
       <c r="D87" s="11" t="s">
         <v>348</v>
       </c>
@@ -5044,16 +5549,19 @@
       <c r="G87" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H87" s="18" t="s">
+      <c r="H87" s="14" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A88" s="16" t="s">
+      <c r="I87" s="41" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A88" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B88" s="62"/>
-      <c r="C88" s="57"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="76"/>
       <c r="D88" s="11" t="s">
         <v>349</v>
       </c>
@@ -5066,16 +5574,19 @@
       <c r="G88" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H88" s="18" t="s">
+      <c r="H88" s="14" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A89" s="16" t="s">
+      <c r="I88" s="41" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B89" s="62"/>
-      <c r="C89" s="57"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="76"/>
       <c r="D89" s="11" t="s">
         <v>350</v>
       </c>
@@ -5088,16 +5599,19 @@
       <c r="G89" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H89" s="18" t="s">
+      <c r="H89" s="14" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="16" t="s">
+      <c r="I89" s="41" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B90" s="62"/>
-      <c r="C90" s="57"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="76"/>
       <c r="D90" s="11" t="s">
         <v>351</v>
       </c>
@@ -5110,16 +5624,19 @@
       <c r="G90" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H90" s="18" t="s">
+      <c r="H90" s="14" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="16" t="s">
+      <c r="I90" s="41" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A91" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B91" s="62"/>
-      <c r="C91" s="57"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="76"/>
       <c r="D91" s="11" t="s">
         <v>352</v>
       </c>
@@ -5132,16 +5649,19 @@
       <c r="G91" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H91" s="18" t="s">
+      <c r="H91" s="14" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A92" s="16" t="s">
+      <c r="I91" s="41" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A92" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="B92" s="62"/>
-      <c r="C92" s="57"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="76"/>
       <c r="D92" s="11" t="s">
         <v>353</v>
       </c>
@@ -5154,16 +5674,19 @@
       <c r="G92" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H92" s="18" t="s">
+      <c r="H92" s="14" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="16" t="s">
+      <c r="I92" s="41" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B93" s="62"/>
-      <c r="C93" s="57"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="76"/>
       <c r="D93" s="11" t="s">
         <v>354</v>
       </c>
@@ -5176,16 +5699,19 @@
       <c r="G93" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H93" s="18" t="s">
+      <c r="H93" s="14" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="16" t="s">
+      <c r="I93" s="41" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B94" s="62"/>
-      <c r="C94" s="57"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="76"/>
       <c r="D94" s="11" t="s">
         <v>355</v>
       </c>
@@ -5198,16 +5724,19 @@
       <c r="G94" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H94" s="18" t="s">
+      <c r="H94" s="14" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="16" t="s">
+      <c r="I94" s="41" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="B95" s="62"/>
-      <c r="C95" s="54" t="s">
+      <c r="B95" s="60"/>
+      <c r="C95" s="73" t="s">
         <v>197</v>
       </c>
       <c r="D95" s="11" t="s">
@@ -5222,16 +5751,19 @@
       <c r="G95" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H95" s="17" t="s">
+      <c r="H95" s="13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A96" s="16" t="s">
+      <c r="I95" s="41" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B96" s="62"/>
-      <c r="C96" s="55"/>
+      <c r="B96" s="60"/>
+      <c r="C96" s="74"/>
       <c r="D96" s="10" t="s">
         <v>356</v>
       </c>
@@ -5244,16 +5776,19 @@
       <c r="G96" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H96" s="18" t="s">
+      <c r="H96" s="14" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="16" t="s">
+      <c r="I96" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B97" s="62"/>
-      <c r="C97" s="55"/>
+      <c r="B97" s="60"/>
+      <c r="C97" s="74"/>
       <c r="D97" s="11" t="s">
         <v>348</v>
       </c>
@@ -5266,16 +5801,19 @@
       <c r="G97" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H97" s="18" t="s">
+      <c r="H97" s="14" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A98" s="16" t="s">
+      <c r="I97" s="41" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A98" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B98" s="62"/>
-      <c r="C98" s="55"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="74"/>
       <c r="D98" s="11" t="s">
         <v>349</v>
       </c>
@@ -5288,16 +5826,19 @@
       <c r="G98" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H98" s="18" t="s">
+      <c r="H98" s="14" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A99" s="16" t="s">
+      <c r="I98" s="41" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A99" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B99" s="62"/>
-      <c r="C99" s="55"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="74"/>
       <c r="D99" s="11" t="s">
         <v>350</v>
       </c>
@@ -5310,16 +5851,19 @@
       <c r="G99" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H99" s="18" t="s">
+      <c r="H99" s="14" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="16" t="s">
+      <c r="I99" s="41" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B100" s="62"/>
-      <c r="C100" s="55"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="74"/>
       <c r="D100" s="11" t="s">
         <v>351</v>
       </c>
@@ -5332,16 +5876,19 @@
       <c r="G100" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H100" s="18" t="s">
+      <c r="H100" s="14" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A101" s="16" t="s">
+      <c r="I100" s="41" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A101" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B101" s="62"/>
-      <c r="C101" s="55"/>
+      <c r="B101" s="60"/>
+      <c r="C101" s="74"/>
       <c r="D101" s="11" t="s">
         <v>352</v>
       </c>
@@ -5354,16 +5901,19 @@
       <c r="G101" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H101" s="18" t="s">
+      <c r="H101" s="14" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A102" s="16" t="s">
+      <c r="I101" s="41" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A102" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B102" s="62"/>
-      <c r="C102" s="55"/>
+      <c r="B102" s="60"/>
+      <c r="C102" s="74"/>
       <c r="D102" s="11" t="s">
         <v>353</v>
       </c>
@@ -5376,16 +5926,19 @@
       <c r="G102" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H102" s="18" t="s">
+      <c r="H102" s="14" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="16" t="s">
+      <c r="I102" s="41" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B103" s="62"/>
-      <c r="C103" s="55"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="74"/>
       <c r="D103" s="11" t="s">
         <v>354</v>
       </c>
@@ -5398,16 +5951,19 @@
       <c r="G103" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H103" s="18" t="s">
+      <c r="H103" s="14" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="16" t="s">
+      <c r="I103" s="41" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B104" s="62"/>
-      <c r="C104" s="56"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="75"/>
       <c r="D104" s="11" t="s">
         <v>355</v>
       </c>
@@ -5420,16 +5976,19 @@
       <c r="G104" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H104" s="18" t="s">
+      <c r="H104" s="14" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="16" t="s">
+      <c r="I104" s="41" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="B105" s="62"/>
-      <c r="C105" s="54" t="s">
+      <c r="B105" s="60"/>
+      <c r="C105" s="73" t="s">
         <v>198</v>
       </c>
       <c r="D105" s="11" t="s">
@@ -5444,16 +6003,19 @@
       <c r="G105" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H105" s="17" t="s">
+      <c r="H105" s="13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A106" s="16" t="s">
+      <c r="I105" s="41" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A106" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B106" s="62"/>
-      <c r="C106" s="55"/>
+      <c r="B106" s="60"/>
+      <c r="C106" s="74"/>
       <c r="D106" s="10" t="s">
         <v>356</v>
       </c>
@@ -5466,16 +6028,19 @@
       <c r="G106" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H106" s="18" t="s">
+      <c r="H106" s="14" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="16" t="s">
+      <c r="I106" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B107" s="62"/>
-      <c r="C107" s="55"/>
+      <c r="B107" s="60"/>
+      <c r="C107" s="74"/>
       <c r="D107" s="11" t="s">
         <v>348</v>
       </c>
@@ -5488,16 +6053,19 @@
       <c r="G107" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H107" s="18" t="s">
+      <c r="H107" s="14" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A108" s="16" t="s">
+      <c r="I107" s="41" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A108" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="B108" s="62"/>
-      <c r="C108" s="55"/>
+      <c r="B108" s="60"/>
+      <c r="C108" s="74"/>
       <c r="D108" s="11" t="s">
         <v>349</v>
       </c>
@@ -5510,16 +6078,19 @@
       <c r="G108" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H108" s="18" t="s">
+      <c r="H108" s="14" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A109" s="16" t="s">
+      <c r="I108" s="41" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A109" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="B109" s="62"/>
-      <c r="C109" s="55"/>
+      <c r="B109" s="60"/>
+      <c r="C109" s="74"/>
       <c r="D109" s="11" t="s">
         <v>350</v>
       </c>
@@ -5532,16 +6103,19 @@
       <c r="G109" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H109" s="18" t="s">
+      <c r="H109" s="14" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="16" t="s">
+      <c r="I109" s="41" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B110" s="62"/>
-      <c r="C110" s="55"/>
+      <c r="B110" s="60"/>
+      <c r="C110" s="74"/>
       <c r="D110" s="11" t="s">
         <v>351</v>
       </c>
@@ -5554,16 +6128,19 @@
       <c r="G110" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H110" s="18" t="s">
+      <c r="H110" s="14" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="16" t="s">
+      <c r="I110" s="41" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A111" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="B111" s="62"/>
-      <c r="C111" s="55"/>
+      <c r="B111" s="60"/>
+      <c r="C111" s="74"/>
       <c r="D111" s="11" t="s">
         <v>352</v>
       </c>
@@ -5576,16 +6153,19 @@
       <c r="G111" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H111" s="18" t="s">
+      <c r="H111" s="14" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A112" s="16" t="s">
+      <c r="I111" s="41" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A112" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B112" s="62"/>
-      <c r="C112" s="55"/>
+      <c r="B112" s="60"/>
+      <c r="C112" s="74"/>
       <c r="D112" s="11" t="s">
         <v>353</v>
       </c>
@@ -5598,16 +6178,19 @@
       <c r="G112" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H112" s="18" t="s">
+      <c r="H112" s="14" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="16" t="s">
+      <c r="I112" s="41" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B113" s="62"/>
-      <c r="C113" s="55"/>
+      <c r="B113" s="60"/>
+      <c r="C113" s="74"/>
       <c r="D113" s="11" t="s">
         <v>354</v>
       </c>
@@ -5620,16 +6203,19 @@
       <c r="G113" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H113" s="18" t="s">
+      <c r="H113" s="14" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="16" t="s">
+      <c r="I113" s="41" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B114" s="63"/>
-      <c r="C114" s="56"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="75"/>
       <c r="D114" s="11" t="s">
         <v>355</v>
       </c>
@@ -5642,18 +6228,21 @@
       <c r="G114" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H114" s="18" t="s">
+      <c r="H114" s="14" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A115" s="16" t="s">
+      <c r="I114" s="41" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="B115" s="69" t="s">
+      <c r="B115" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="C115" s="71" t="s">
+      <c r="C115" s="72" t="s">
         <v>199</v>
       </c>
       <c r="D115" s="11" t="s">
@@ -5668,16 +6257,19 @@
       <c r="G115" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H115" s="17" t="s">
+      <c r="H115" s="13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A116" s="16" t="s">
+      <c r="I115" s="41" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A116" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="B116" s="69"/>
-      <c r="C116" s="71"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="72"/>
       <c r="D116" s="10" t="s">
         <v>356</v>
       </c>
@@ -5690,16 +6282,19 @@
       <c r="G116" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H116" s="18" t="s">
+      <c r="H116" s="14" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="16" t="s">
+      <c r="I116" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A117" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B117" s="69"/>
-      <c r="C117" s="71"/>
+      <c r="B117" s="70"/>
+      <c r="C117" s="72"/>
       <c r="D117" s="11" t="s">
         <v>551</v>
       </c>
@@ -5712,16 +6307,19 @@
       <c r="G117" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H117" s="18" t="s">
+      <c r="H117" s="14" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="16" t="s">
+      <c r="I117" s="41" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A118" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="B118" s="69"/>
-      <c r="C118" s="71"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="72"/>
       <c r="D118" s="11" t="s">
         <v>552</v>
       </c>
@@ -5734,16 +6332,19 @@
       <c r="G118" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H118" s="18" t="s">
+      <c r="H118" s="14" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A119" s="16" t="s">
+      <c r="I118" s="41" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A119" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B119" s="69"/>
-      <c r="C119" s="71"/>
+      <c r="B119" s="70"/>
+      <c r="C119" s="72"/>
       <c r="D119" s="11" t="s">
         <v>350</v>
       </c>
@@ -5756,16 +6357,19 @@
       <c r="G119" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H119" s="18" t="s">
+      <c r="H119" s="14" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="16" t="s">
+      <c r="I119" s="41" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A120" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B120" s="69"/>
-      <c r="C120" s="71"/>
+      <c r="B120" s="70"/>
+      <c r="C120" s="72"/>
       <c r="D120" s="11" t="s">
         <v>553</v>
       </c>
@@ -5778,16 +6382,19 @@
       <c r="G120" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H120" s="18" t="s">
+      <c r="H120" s="14" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="16" t="s">
+      <c r="I120" s="41" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A121" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="B121" s="69"/>
-      <c r="C121" s="71"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="72"/>
       <c r="D121" s="11" t="s">
         <v>554</v>
       </c>
@@ -5800,16 +6407,19 @@
       <c r="G121" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H121" s="18" t="s">
+      <c r="H121" s="14" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="16" t="s">
+      <c r="I121" s="41" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A122" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="B122" s="69"/>
-      <c r="C122" s="71"/>
+      <c r="B122" s="70"/>
+      <c r="C122" s="72"/>
       <c r="D122" s="11" t="s">
         <v>555</v>
       </c>
@@ -5822,16 +6432,19 @@
       <c r="G122" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H122" s="18" t="s">
+      <c r="H122" s="14" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="16" t="s">
+      <c r="I122" s="41" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="B123" s="69"/>
-      <c r="C123" s="71"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="72"/>
       <c r="D123" s="11" t="s">
         <v>556</v>
       </c>
@@ -5844,16 +6457,19 @@
       <c r="G123" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H123" s="18" t="s">
+      <c r="H123" s="14" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="16" t="s">
+      <c r="I123" s="41" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B124" s="69"/>
-      <c r="C124" s="71"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="72"/>
       <c r="D124" s="11" t="s">
         <v>557</v>
       </c>
@@ -5866,16 +6482,19 @@
       <c r="G124" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H124" s="18" t="s">
+      <c r="H124" s="14" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="16" t="s">
+      <c r="I124" s="41" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="B125" s="69"/>
-      <c r="C125" s="71" t="s">
+      <c r="B125" s="70"/>
+      <c r="C125" s="72" t="s">
         <v>200</v>
       </c>
       <c r="D125" s="11" t="s">
@@ -5890,16 +6509,19 @@
       <c r="G125" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H125" s="17" t="s">
+      <c r="H125" s="13" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A126" s="16" t="s">
+      <c r="I125" s="41" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A126" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="B126" s="69"/>
-      <c r="C126" s="71"/>
+      <c r="B126" s="70"/>
+      <c r="C126" s="72"/>
       <c r="D126" s="10" t="s">
         <v>356</v>
       </c>
@@ -5912,16 +6534,19 @@
       <c r="G126" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H126" s="18" t="s">
+      <c r="H126" s="14" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A127" s="16" t="s">
+      <c r="I126" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A127" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="B127" s="69"/>
-      <c r="C127" s="71"/>
+      <c r="B127" s="70"/>
+      <c r="C127" s="72"/>
       <c r="D127" s="11" t="s">
         <v>551</v>
       </c>
@@ -5934,16 +6559,19 @@
       <c r="G127" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H127" s="18" t="s">
+      <c r="H127" s="14" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="16" t="s">
+      <c r="I127" s="41" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A128" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="B128" s="69"/>
-      <c r="C128" s="71"/>
+      <c r="B128" s="70"/>
+      <c r="C128" s="72"/>
       <c r="D128" s="11" t="s">
         <v>552</v>
       </c>
@@ -5956,16 +6584,19 @@
       <c r="G128" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H128" s="18" t="s">
+      <c r="H128" s="14" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A129" s="16" t="s">
+      <c r="I128" s="41" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A129" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="B129" s="69"/>
-      <c r="C129" s="71"/>
+      <c r="B129" s="70"/>
+      <c r="C129" s="72"/>
       <c r="D129" s="11" t="s">
         <v>350</v>
       </c>
@@ -5978,16 +6609,19 @@
       <c r="G129" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H129" s="18" t="s">
+      <c r="H129" s="14" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A130" s="16" t="s">
+      <c r="I129" s="41" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A130" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B130" s="69"/>
-      <c r="C130" s="71"/>
+      <c r="B130" s="70"/>
+      <c r="C130" s="72"/>
       <c r="D130" s="11" t="s">
         <v>553</v>
       </c>
@@ -6000,16 +6634,19 @@
       <c r="G130" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H130" s="18" t="s">
+      <c r="H130" s="14" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A131" s="16" t="s">
+      <c r="I130" s="41" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A131" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B131" s="69"/>
-      <c r="C131" s="71"/>
+      <c r="B131" s="70"/>
+      <c r="C131" s="72"/>
       <c r="D131" s="11" t="s">
         <v>554</v>
       </c>
@@ -6022,16 +6659,19 @@
       <c r="G131" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H131" s="18" t="s">
+      <c r="H131" s="14" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="16" t="s">
+      <c r="I131" s="41" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A132" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="B132" s="69"/>
-      <c r="C132" s="71"/>
+      <c r="B132" s="70"/>
+      <c r="C132" s="72"/>
       <c r="D132" s="11" t="s">
         <v>555</v>
       </c>
@@ -6044,16 +6684,19 @@
       <c r="G132" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H132" s="18" t="s">
+      <c r="H132" s="14" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A133" s="16" t="s">
+      <c r="I132" s="41" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A133" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="B133" s="69"/>
-      <c r="C133" s="71"/>
+      <c r="B133" s="70"/>
+      <c r="C133" s="72"/>
       <c r="D133" s="11" t="s">
         <v>556</v>
       </c>
@@ -6066,16 +6709,19 @@
       <c r="G133" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H133" s="18" t="s">
+      <c r="H133" s="14" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A134" s="16" t="s">
+      <c r="I133" s="41" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B134" s="69"/>
-      <c r="C134" s="71"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="72"/>
       <c r="D134" s="11" t="s">
         <v>557</v>
       </c>
@@ -6088,16 +6734,19 @@
       <c r="G134" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H134" s="18" t="s">
+      <c r="H134" s="14" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A135" s="16" t="s">
+      <c r="I134" s="41" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="B135" s="69"/>
-      <c r="C135" s="71" t="s">
+      <c r="B135" s="70"/>
+      <c r="C135" s="72" t="s">
         <v>201</v>
       </c>
       <c r="D135" s="11" t="s">
@@ -6112,16 +6761,19 @@
       <c r="G135" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H135" s="17" t="s">
+      <c r="H135" s="13" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A136" s="16" t="s">
+      <c r="I135" s="41" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A136" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="B136" s="69"/>
-      <c r="C136" s="71"/>
+      <c r="B136" s="70"/>
+      <c r="C136" s="72"/>
       <c r="D136" s="10" t="s">
         <v>356</v>
       </c>
@@ -6134,16 +6786,19 @@
       <c r="G136" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H136" s="18" t="s">
+      <c r="H136" s="14" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A137" s="16" t="s">
+      <c r="I136" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A137" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B137" s="69"/>
-      <c r="C137" s="71"/>
+      <c r="B137" s="70"/>
+      <c r="C137" s="72"/>
       <c r="D137" s="11" t="s">
         <v>551</v>
       </c>
@@ -6156,16 +6811,19 @@
       <c r="G137" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H137" s="18" t="s">
+      <c r="H137" s="14" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A138" s="16" t="s">
+      <c r="I137" s="41" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A138" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="B138" s="69"/>
-      <c r="C138" s="71"/>
+      <c r="B138" s="70"/>
+      <c r="C138" s="72"/>
       <c r="D138" s="11" t="s">
         <v>552</v>
       </c>
@@ -6178,16 +6836,19 @@
       <c r="G138" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H138" s="18" t="s">
+      <c r="H138" s="14" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A139" s="16" t="s">
+      <c r="I138" s="41" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A139" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B139" s="69"/>
-      <c r="C139" s="71"/>
+      <c r="B139" s="70"/>
+      <c r="C139" s="72"/>
       <c r="D139" s="11" t="s">
         <v>350</v>
       </c>
@@ -6200,16 +6861,19 @@
       <c r="G139" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H139" s="18" t="s">
+      <c r="H139" s="14" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A140" s="16" t="s">
+      <c r="I139" s="41" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A140" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="B140" s="69"/>
-      <c r="C140" s="71"/>
+      <c r="B140" s="70"/>
+      <c r="C140" s="72"/>
       <c r="D140" s="11" t="s">
         <v>553</v>
       </c>
@@ -6222,16 +6886,19 @@
       <c r="G140" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H140" s="18" t="s">
+      <c r="H140" s="14" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A141" s="16" t="s">
+      <c r="I140" s="41" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A141" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B141" s="69"/>
-      <c r="C141" s="71"/>
+      <c r="B141" s="70"/>
+      <c r="C141" s="72"/>
       <c r="D141" s="11" t="s">
         <v>554</v>
       </c>
@@ -6244,16 +6911,19 @@
       <c r="G141" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H141" s="18" t="s">
+      <c r="H141" s="14" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A142" s="16" t="s">
+      <c r="I141" s="41" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A142" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="B142" s="69"/>
-      <c r="C142" s="71"/>
+      <c r="B142" s="70"/>
+      <c r="C142" s="72"/>
       <c r="D142" s="11" t="s">
         <v>555</v>
       </c>
@@ -6266,16 +6936,19 @@
       <c r="G142" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H142" s="18" t="s">
+      <c r="H142" s="14" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A143" s="16" t="s">
+      <c r="I142" s="41" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A143" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B143" s="69"/>
-      <c r="C143" s="71"/>
+      <c r="B143" s="70"/>
+      <c r="C143" s="72"/>
       <c r="D143" s="11" t="s">
         <v>556</v>
       </c>
@@ -6288,16 +6961,19 @@
       <c r="G143" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H143" s="18" t="s">
+      <c r="H143" s="14" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A144" s="16" t="s">
+      <c r="I143" s="41" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A144" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="B144" s="69"/>
-      <c r="C144" s="71"/>
+      <c r="B144" s="70"/>
+      <c r="C144" s="72"/>
       <c r="D144" s="11" t="s">
         <v>557</v>
       </c>
@@ -6310,16 +6986,19 @@
       <c r="G144" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H144" s="18" t="s">
+      <c r="H144" s="14" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="20" t="s">
+      <c r="I144" s="41" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A145" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="B145" s="69"/>
-      <c r="C145" s="67" t="s">
+      <c r="B145" s="70"/>
+      <c r="C145" s="68" t="s">
         <v>202</v>
       </c>
       <c r="D145" s="11" t="s">
@@ -6334,16 +7013,19 @@
       <c r="G145" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H145" s="17" t="s">
+      <c r="H145" s="13" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A146" s="20" t="s">
+      <c r="I145" s="41" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A146" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="B146" s="69"/>
-      <c r="C146" s="67"/>
+      <c r="B146" s="70"/>
+      <c r="C146" s="68"/>
       <c r="D146" s="10" t="s">
         <v>356</v>
       </c>
@@ -6356,16 +7038,19 @@
       <c r="G146" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H146" s="18" t="s">
+      <c r="H146" s="14" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A147" s="20" t="s">
+      <c r="I146" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A147" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="B147" s="69"/>
-      <c r="C147" s="67"/>
+      <c r="B147" s="70"/>
+      <c r="C147" s="68"/>
       <c r="D147" s="11" t="s">
         <v>551</v>
       </c>
@@ -6378,16 +7063,19 @@
       <c r="G147" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H147" s="18" t="s">
+      <c r="H147" s="14" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A148" s="20" t="s">
+      <c r="I147" s="41" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A148" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="B148" s="69"/>
-      <c r="C148" s="67"/>
+      <c r="B148" s="70"/>
+      <c r="C148" s="68"/>
       <c r="D148" s="11" t="s">
         <v>552</v>
       </c>
@@ -6400,16 +7088,19 @@
       <c r="G148" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H148" s="18" t="s">
+      <c r="H148" s="14" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A149" s="20" t="s">
+      <c r="I148" s="41" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A149" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="B149" s="69"/>
-      <c r="C149" s="67"/>
+      <c r="B149" s="70"/>
+      <c r="C149" s="68"/>
       <c r="D149" s="11" t="s">
         <v>350</v>
       </c>
@@ -6422,16 +7113,19 @@
       <c r="G149" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H149" s="18" t="s">
+      <c r="H149" s="14" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A150" s="20" t="s">
+      <c r="I149" s="41" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A150" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="B150" s="69"/>
-      <c r="C150" s="67"/>
+      <c r="B150" s="70"/>
+      <c r="C150" s="68"/>
       <c r="D150" s="11" t="s">
         <v>553</v>
       </c>
@@ -6444,16 +7138,19 @@
       <c r="G150" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H150" s="18" t="s">
+      <c r="H150" s="14" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A151" s="20" t="s">
+      <c r="I150" s="41" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A151" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="B151" s="69"/>
-      <c r="C151" s="67"/>
+      <c r="B151" s="70"/>
+      <c r="C151" s="68"/>
       <c r="D151" s="11" t="s">
         <v>554</v>
       </c>
@@ -6466,16 +7163,19 @@
       <c r="G151" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H151" s="18" t="s">
+      <c r="H151" s="14" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A152" s="20" t="s">
+      <c r="I151" s="41" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A152" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="B152" s="69"/>
-      <c r="C152" s="67"/>
+      <c r="B152" s="70"/>
+      <c r="C152" s="68"/>
       <c r="D152" s="11" t="s">
         <v>555</v>
       </c>
@@ -6488,16 +7188,19 @@
       <c r="G152" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H152" s="18" t="s">
+      <c r="H152" s="14" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A153" s="20" t="s">
+      <c r="I152" s="41" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A153" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="B153" s="69"/>
-      <c r="C153" s="67"/>
+      <c r="B153" s="70"/>
+      <c r="C153" s="68"/>
       <c r="D153" s="11" t="s">
         <v>556</v>
       </c>
@@ -6510,16 +7213,19 @@
       <c r="G153" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H153" s="18" t="s">
+      <c r="H153" s="14" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A154" s="20" t="s">
+      <c r="I153" s="41" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A154" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="B154" s="69"/>
-      <c r="C154" s="67"/>
+      <c r="B154" s="70"/>
+      <c r="C154" s="68"/>
       <c r="D154" s="11" t="s">
         <v>557</v>
       </c>
@@ -6532,16 +7238,19 @@
       <c r="G154" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H154" s="18" t="s">
+      <c r="H154" s="14" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A155" s="20" t="s">
+      <c r="I154" s="41" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A155" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="B155" s="69"/>
-      <c r="C155" s="67" t="s">
+      <c r="B155" s="70"/>
+      <c r="C155" s="68" t="s">
         <v>203</v>
       </c>
       <c r="D155" s="11" t="s">
@@ -6556,16 +7265,19 @@
       <c r="G155" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H155" s="17" t="s">
+      <c r="H155" s="13" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A156" s="20" t="s">
+      <c r="I155" s="41" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A156" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="B156" s="69"/>
-      <c r="C156" s="67"/>
+      <c r="B156" s="70"/>
+      <c r="C156" s="68"/>
       <c r="D156" s="10" t="s">
         <v>356</v>
       </c>
@@ -6578,16 +7290,19 @@
       <c r="G156" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H156" s="18" t="s">
+      <c r="H156" s="14" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A157" s="20" t="s">
+      <c r="I156" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A157" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="B157" s="69"/>
-      <c r="C157" s="67"/>
+      <c r="B157" s="70"/>
+      <c r="C157" s="68"/>
       <c r="D157" s="11" t="s">
         <v>551</v>
       </c>
@@ -6600,16 +7315,19 @@
       <c r="G157" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H157" s="18" t="s">
+      <c r="H157" s="14" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A158" s="20" t="s">
+      <c r="I157" s="41" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A158" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="B158" s="69"/>
-      <c r="C158" s="67"/>
+      <c r="B158" s="70"/>
+      <c r="C158" s="68"/>
       <c r="D158" s="11" t="s">
         <v>552</v>
       </c>
@@ -6622,16 +7340,19 @@
       <c r="G158" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H158" s="18" t="s">
+      <c r="H158" s="14" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A159" s="20" t="s">
+      <c r="I158" s="41" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A159" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="B159" s="69"/>
-      <c r="C159" s="67"/>
+      <c r="B159" s="70"/>
+      <c r="C159" s="68"/>
       <c r="D159" s="11" t="s">
         <v>350</v>
       </c>
@@ -6644,16 +7365,19 @@
       <c r="G159" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H159" s="18" t="s">
+      <c r="H159" s="14" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A160" s="20" t="s">
+      <c r="I159" s="41" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A160" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="B160" s="69"/>
-      <c r="C160" s="67"/>
+      <c r="B160" s="70"/>
+      <c r="C160" s="68"/>
       <c r="D160" s="11" t="s">
         <v>553</v>
       </c>
@@ -6666,16 +7390,19 @@
       <c r="G160" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H160" s="18" t="s">
+      <c r="H160" s="14" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A161" s="20" t="s">
+      <c r="I160" s="41" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A161" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="B161" s="69"/>
-      <c r="C161" s="67"/>
+      <c r="B161" s="70"/>
+      <c r="C161" s="68"/>
       <c r="D161" s="11" t="s">
         <v>554</v>
       </c>
@@ -6688,16 +7415,19 @@
       <c r="G161" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H161" s="18" t="s">
+      <c r="H161" s="14" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A162" s="20" t="s">
+      <c r="I161" s="41" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A162" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="B162" s="69"/>
-      <c r="C162" s="67"/>
+      <c r="B162" s="70"/>
+      <c r="C162" s="68"/>
       <c r="D162" s="11" t="s">
         <v>555</v>
       </c>
@@ -6710,16 +7440,19 @@
       <c r="G162" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H162" s="18" t="s">
+      <c r="H162" s="14" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A163" s="20" t="s">
+      <c r="I162" s="41" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A163" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="B163" s="69"/>
-      <c r="C163" s="67"/>
+      <c r="B163" s="70"/>
+      <c r="C163" s="68"/>
       <c r="D163" s="11" t="s">
         <v>556</v>
       </c>
@@ -6732,16 +7465,19 @@
       <c r="G163" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H163" s="18" t="s">
+      <c r="H163" s="14" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A164" s="20" t="s">
+      <c r="I163" s="41" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A164" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="B164" s="69"/>
-      <c r="C164" s="67"/>
+      <c r="B164" s="70"/>
+      <c r="C164" s="68"/>
       <c r="D164" s="11" t="s">
         <v>557</v>
       </c>
@@ -6754,16 +7490,19 @@
       <c r="G164" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H164" s="18" t="s">
+      <c r="H164" s="14" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A165" s="20" t="s">
+      <c r="I164" s="41" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A165" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="B165" s="69"/>
-      <c r="C165" s="67" t="s">
+      <c r="B165" s="70"/>
+      <c r="C165" s="68" t="s">
         <v>204</v>
       </c>
       <c r="D165" s="11" t="s">
@@ -6778,16 +7517,19 @@
       <c r="G165" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H165" s="17" t="s">
+      <c r="H165" s="13" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A166" s="20" t="s">
+      <c r="I165" s="41" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A166" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="B166" s="69"/>
-      <c r="C166" s="67"/>
+      <c r="B166" s="70"/>
+      <c r="C166" s="68"/>
       <c r="D166" s="10" t="s">
         <v>356</v>
       </c>
@@ -6800,16 +7542,19 @@
       <c r="G166" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H166" s="18" t="s">
+      <c r="H166" s="14" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A167" s="20" t="s">
+      <c r="I166" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A167" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="B167" s="69"/>
-      <c r="C167" s="67"/>
+      <c r="B167" s="70"/>
+      <c r="C167" s="68"/>
       <c r="D167" s="11" t="s">
         <v>551</v>
       </c>
@@ -6822,16 +7567,19 @@
       <c r="G167" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H167" s="18" t="s">
+      <c r="H167" s="14" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A168" s="20" t="s">
+      <c r="I167" s="41" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A168" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="B168" s="69"/>
-      <c r="C168" s="67"/>
+      <c r="B168" s="70"/>
+      <c r="C168" s="68"/>
       <c r="D168" s="11" t="s">
         <v>552</v>
       </c>
@@ -6844,16 +7592,19 @@
       <c r="G168" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H168" s="18" t="s">
+      <c r="H168" s="14" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A169" s="20" t="s">
+      <c r="I168" s="41" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A169" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="B169" s="69"/>
-      <c r="C169" s="67"/>
+      <c r="B169" s="70"/>
+      <c r="C169" s="68"/>
       <c r="D169" s="11" t="s">
         <v>350</v>
       </c>
@@ -6866,16 +7617,19 @@
       <c r="G169" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H169" s="18" t="s">
+      <c r="H169" s="14" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A170" s="20" t="s">
+      <c r="I169" s="41" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A170" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="B170" s="69"/>
-      <c r="C170" s="67"/>
+      <c r="B170" s="70"/>
+      <c r="C170" s="68"/>
       <c r="D170" s="11" t="s">
         <v>553</v>
       </c>
@@ -6888,16 +7642,19 @@
       <c r="G170" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H170" s="18" t="s">
+      <c r="H170" s="14" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A171" s="20" t="s">
+      <c r="I170" s="41" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A171" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="B171" s="69"/>
-      <c r="C171" s="67"/>
+      <c r="B171" s="70"/>
+      <c r="C171" s="68"/>
       <c r="D171" s="11" t="s">
         <v>554</v>
       </c>
@@ -6910,16 +7667,19 @@
       <c r="G171" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H171" s="18" t="s">
+      <c r="H171" s="14" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A172" s="20" t="s">
+      <c r="I171" s="41" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A172" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="B172" s="69"/>
-      <c r="C172" s="67"/>
+      <c r="B172" s="70"/>
+      <c r="C172" s="68"/>
       <c r="D172" s="11" t="s">
         <v>555</v>
       </c>
@@ -6932,16 +7692,19 @@
       <c r="G172" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H172" s="18" t="s">
+      <c r="H172" s="14" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A173" s="20" t="s">
+      <c r="I172" s="41" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A173" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="B173" s="69"/>
-      <c r="C173" s="67"/>
+      <c r="B173" s="70"/>
+      <c r="C173" s="68"/>
       <c r="D173" s="11" t="s">
         <v>556</v>
       </c>
@@ -6954,16 +7717,19 @@
       <c r="G173" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H173" s="18" t="s">
+      <c r="H173" s="14" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A174" s="20" t="s">
+      <c r="I173" s="41" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A174" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="B174" s="69"/>
-      <c r="C174" s="67"/>
+      <c r="B174" s="70"/>
+      <c r="C174" s="68"/>
       <c r="D174" s="11" t="s">
         <v>557</v>
       </c>
@@ -6976,16 +7742,19 @@
       <c r="G174" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H174" s="18" t="s">
+      <c r="H174" s="14" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A175" s="20" t="s">
+      <c r="I174" s="43" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A175" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B175" s="69"/>
-      <c r="C175" s="67" t="s">
+      <c r="B175" s="70"/>
+      <c r="C175" s="68" t="s">
         <v>205</v>
       </c>
       <c r="D175" s="11" t="s">
@@ -7000,16 +7769,19 @@
       <c r="G175" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H175" s="17" t="s">
+      <c r="H175" s="13" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A176" s="20" t="s">
+      <c r="I175" s="41" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A176" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="B176" s="69"/>
-      <c r="C176" s="67"/>
+      <c r="B176" s="70"/>
+      <c r="C176" s="68"/>
       <c r="D176" s="10" t="s">
         <v>356</v>
       </c>
@@ -7022,16 +7794,19 @@
       <c r="G176" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H176" s="18" t="s">
+      <c r="H176" s="14" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A177" s="20" t="s">
+      <c r="I176" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A177" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="B177" s="69"/>
-      <c r="C177" s="67"/>
+      <c r="B177" s="70"/>
+      <c r="C177" s="68"/>
       <c r="D177" s="11" t="s">
         <v>551</v>
       </c>
@@ -7044,16 +7819,19 @@
       <c r="G177" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H177" s="18" t="s">
+      <c r="H177" s="14" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A178" s="20" t="s">
+      <c r="I177" s="41" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A178" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="B178" s="69"/>
-      <c r="C178" s="67"/>
+      <c r="B178" s="70"/>
+      <c r="C178" s="68"/>
       <c r="D178" s="11" t="s">
         <v>552</v>
       </c>
@@ -7066,16 +7844,19 @@
       <c r="G178" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H178" s="18" t="s">
+      <c r="H178" s="14" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A179" s="20" t="s">
+      <c r="I178" s="41" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A179" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="B179" s="69"/>
-      <c r="C179" s="67"/>
+      <c r="B179" s="70"/>
+      <c r="C179" s="68"/>
       <c r="D179" s="11" t="s">
         <v>350</v>
       </c>
@@ -7088,16 +7869,19 @@
       <c r="G179" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H179" s="18" t="s">
+      <c r="H179" s="14" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A180" s="20" t="s">
+      <c r="I179" s="41" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A180" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="B180" s="69"/>
-      <c r="C180" s="67"/>
+      <c r="B180" s="70"/>
+      <c r="C180" s="68"/>
       <c r="D180" s="11" t="s">
         <v>553</v>
       </c>
@@ -7110,16 +7894,19 @@
       <c r="G180" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H180" s="18" t="s">
+      <c r="H180" s="14" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A181" s="20" t="s">
+      <c r="I180" s="41" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A181" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="B181" s="69"/>
-      <c r="C181" s="67"/>
+      <c r="B181" s="70"/>
+      <c r="C181" s="68"/>
       <c r="D181" s="11" t="s">
         <v>554</v>
       </c>
@@ -7132,16 +7919,19 @@
       <c r="G181" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H181" s="18" t="s">
+      <c r="H181" s="14" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A182" s="20" t="s">
+      <c r="I181" s="41" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A182" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="B182" s="69"/>
-      <c r="C182" s="67"/>
+      <c r="B182" s="70"/>
+      <c r="C182" s="68"/>
       <c r="D182" s="11" t="s">
         <v>555</v>
       </c>
@@ -7154,16 +7944,19 @@
       <c r="G182" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H182" s="18" t="s">
+      <c r="H182" s="14" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A183" s="20" t="s">
+      <c r="I182" s="41" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A183" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="B183" s="69"/>
-      <c r="C183" s="67"/>
+      <c r="B183" s="70"/>
+      <c r="C183" s="68"/>
       <c r="D183" s="11" t="s">
         <v>556</v>
       </c>
@@ -7176,16 +7969,19 @@
       <c r="G183" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H183" s="18" t="s">
+      <c r="H183" s="14" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A184" s="20" t="s">
+      <c r="I183" s="41" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A184" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="B184" s="69"/>
-      <c r="C184" s="67"/>
+      <c r="B184" s="70"/>
+      <c r="C184" s="68"/>
       <c r="D184" s="11" t="s">
         <v>557</v>
       </c>
@@ -7198,16 +7994,19 @@
       <c r="G184" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H184" s="18" t="s">
+      <c r="H184" s="14" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A185" s="20" t="s">
+      <c r="I184" s="41" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A185" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="B185" s="69"/>
-      <c r="C185" s="67" t="s">
+      <c r="B185" s="70"/>
+      <c r="C185" s="68" t="s">
         <v>206</v>
       </c>
       <c r="D185" s="11" t="s">
@@ -7222,16 +8021,19 @@
       <c r="G185" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H185" s="17" t="s">
+      <c r="H185" s="13" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A186" s="20" t="s">
+      <c r="I185" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A186" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="B186" s="69"/>
-      <c r="C186" s="67"/>
+      <c r="B186" s="70"/>
+      <c r="C186" s="68"/>
       <c r="D186" s="10" t="s">
         <v>356</v>
       </c>
@@ -7244,16 +8046,19 @@
       <c r="G186" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H186" s="18" t="s">
+      <c r="H186" s="14" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A187" s="20" t="s">
+      <c r="I186" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A187" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="B187" s="69"/>
-      <c r="C187" s="67"/>
+      <c r="B187" s="70"/>
+      <c r="C187" s="68"/>
       <c r="D187" s="11" t="s">
         <v>551</v>
       </c>
@@ -7266,16 +8071,19 @@
       <c r="G187" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H187" s="18" t="s">
+      <c r="H187" s="14" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A188" s="20" t="s">
+      <c r="I187" s="41" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A188" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="B188" s="69"/>
-      <c r="C188" s="67"/>
+      <c r="B188" s="70"/>
+      <c r="C188" s="68"/>
       <c r="D188" s="11" t="s">
         <v>552</v>
       </c>
@@ -7288,16 +8096,19 @@
       <c r="G188" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H188" s="18" t="s">
+      <c r="H188" s="14" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A189" s="20" t="s">
+      <c r="I188" s="41" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A189" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="B189" s="69"/>
-      <c r="C189" s="67"/>
+      <c r="B189" s="70"/>
+      <c r="C189" s="68"/>
       <c r="D189" s="11" t="s">
         <v>350</v>
       </c>
@@ -7310,16 +8121,19 @@
       <c r="G189" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H189" s="18" t="s">
+      <c r="H189" s="14" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A190" s="20" t="s">
+      <c r="I189" s="41" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A190" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="B190" s="69"/>
-      <c r="C190" s="67"/>
+      <c r="B190" s="70"/>
+      <c r="C190" s="68"/>
       <c r="D190" s="11" t="s">
         <v>553</v>
       </c>
@@ -7332,16 +8146,19 @@
       <c r="G190" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H190" s="18" t="s">
+      <c r="H190" s="14" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A191" s="20" t="s">
+      <c r="I190" s="41" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A191" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="B191" s="69"/>
-      <c r="C191" s="67"/>
+      <c r="B191" s="70"/>
+      <c r="C191" s="68"/>
       <c r="D191" s="11" t="s">
         <v>554</v>
       </c>
@@ -7354,16 +8171,19 @@
       <c r="G191" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H191" s="18" t="s">
+      <c r="H191" s="14" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A192" s="20" t="s">
+      <c r="I191" s="41" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A192" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="B192" s="69"/>
-      <c r="C192" s="67"/>
+      <c r="B192" s="70"/>
+      <c r="C192" s="68"/>
       <c r="D192" s="11" t="s">
         <v>555</v>
       </c>
@@ -7376,16 +8196,19 @@
       <c r="G192" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H192" s="18" t="s">
+      <c r="H192" s="14" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A193" s="20" t="s">
+      <c r="I192" s="41" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A193" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="B193" s="69"/>
-      <c r="C193" s="67"/>
+      <c r="B193" s="70"/>
+      <c r="C193" s="68"/>
       <c r="D193" s="11" t="s">
         <v>556</v>
       </c>
@@ -7398,16 +8221,19 @@
       <c r="G193" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H193" s="18" t="s">
+      <c r="H193" s="14" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A194" s="20" t="s">
+      <c r="I193" s="41" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A194" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="B194" s="69"/>
-      <c r="C194" s="67"/>
+      <c r="B194" s="70"/>
+      <c r="C194" s="68"/>
       <c r="D194" s="11" t="s">
         <v>557</v>
       </c>
@@ -7420,16 +8246,19 @@
       <c r="G194" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H194" s="18" t="s">
+      <c r="H194" s="14" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A195" s="20" t="s">
+      <c r="I194" s="41" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A195" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="B195" s="69"/>
-      <c r="C195" s="67" t="s">
+      <c r="B195" s="70"/>
+      <c r="C195" s="68" t="s">
         <v>207</v>
       </c>
       <c r="D195" s="11" t="s">
@@ -7444,16 +8273,19 @@
       <c r="G195" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H195" s="17" t="s">
+      <c r="H195" s="13" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A196" s="20" t="s">
+      <c r="I195" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A196" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="B196" s="69"/>
-      <c r="C196" s="67"/>
+      <c r="B196" s="70"/>
+      <c r="C196" s="68"/>
       <c r="D196" s="10" t="s">
         <v>356</v>
       </c>
@@ -7466,16 +8298,19 @@
       <c r="G196" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H196" s="18" t="s">
+      <c r="H196" s="14" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A197" s="20" t="s">
+      <c r="I196" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A197" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="B197" s="69"/>
-      <c r="C197" s="67"/>
+      <c r="B197" s="70"/>
+      <c r="C197" s="68"/>
       <c r="D197" s="11" t="s">
         <v>551</v>
       </c>
@@ -7488,16 +8323,19 @@
       <c r="G197" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H197" s="18" t="s">
+      <c r="H197" s="14" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A198" s="20" t="s">
+      <c r="I197" s="41" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A198" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="B198" s="69"/>
-      <c r="C198" s="67"/>
+      <c r="B198" s="70"/>
+      <c r="C198" s="68"/>
       <c r="D198" s="11" t="s">
         <v>552</v>
       </c>
@@ -7510,16 +8348,19 @@
       <c r="G198" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H198" s="18" t="s">
+      <c r="H198" s="14" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A199" s="20" t="s">
+      <c r="I198" s="41" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A199" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="B199" s="69"/>
-      <c r="C199" s="67"/>
+      <c r="B199" s="70"/>
+      <c r="C199" s="68"/>
       <c r="D199" s="11" t="s">
         <v>350</v>
       </c>
@@ -7532,16 +8373,19 @@
       <c r="G199" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H199" s="18" t="s">
+      <c r="H199" s="14" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A200" s="20" t="s">
+      <c r="I199" s="41" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A200" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="B200" s="69"/>
-      <c r="C200" s="67"/>
+      <c r="B200" s="70"/>
+      <c r="C200" s="68"/>
       <c r="D200" s="11" t="s">
         <v>553</v>
       </c>
@@ -7554,16 +8398,19 @@
       <c r="G200" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H200" s="18" t="s">
+      <c r="H200" s="14" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A201" s="20" t="s">
+      <c r="I200" s="41" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A201" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="B201" s="69"/>
-      <c r="C201" s="67"/>
+      <c r="B201" s="70"/>
+      <c r="C201" s="68"/>
       <c r="D201" s="11" t="s">
         <v>554</v>
       </c>
@@ -7576,16 +8423,19 @@
       <c r="G201" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H201" s="18" t="s">
+      <c r="H201" s="14" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A202" s="20" t="s">
+      <c r="I201" s="41" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A202" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="B202" s="69"/>
-      <c r="C202" s="67"/>
+      <c r="B202" s="70"/>
+      <c r="C202" s="68"/>
       <c r="D202" s="11" t="s">
         <v>555</v>
       </c>
@@ -7598,16 +8448,19 @@
       <c r="G202" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H202" s="18" t="s">
+      <c r="H202" s="14" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A203" s="20" t="s">
+      <c r="I202" s="41" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A203" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="B203" s="69"/>
-      <c r="C203" s="67"/>
+      <c r="B203" s="70"/>
+      <c r="C203" s="68"/>
       <c r="D203" s="11" t="s">
         <v>556</v>
       </c>
@@ -7620,34 +8473,52 @@
       <c r="G203" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H203" s="18" t="s">
+      <c r="H203" s="14" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="21" t="s">
+      <c r="I203" s="41" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A204" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="B204" s="70"/>
-      <c r="C204" s="68"/>
-      <c r="D204" s="22" t="s">
+      <c r="B204" s="71"/>
+      <c r="C204" s="69"/>
+      <c r="D204" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="E204" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F204" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G204" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H204" s="23" t="s">
+      <c r="E204" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F204" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G204" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H204" s="19" t="s">
         <v>542</v>
+      </c>
+      <c r="I204" s="18" t="s">
+        <v>642</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C105:C114"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="C58:C64"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="C71:C78"/>
+    <mergeCell ref="C79:C84"/>
+    <mergeCell ref="C85:C94"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C95:C104"/>
     <mergeCell ref="B85:B114"/>
     <mergeCell ref="B2:B84"/>
     <mergeCell ref="C2:C9"/>
@@ -7664,18 +8535,6 @@
     <mergeCell ref="C185:C194"/>
     <mergeCell ref="C46:C51"/>
     <mergeCell ref="C16:C21"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C95:C104"/>
-    <mergeCell ref="C105:C114"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="C58:C64"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="C71:C78"/>
-    <mergeCell ref="C79:C84"/>
-    <mergeCell ref="C85:C94"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7687,91 +8546,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2306BF6-5C33-4ED3-B4E3-3A93DAE93B44}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" style="8" customWidth="1"/>
+    <col min="2" max="2" width="29.90625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="8"/>
+    <col min="4" max="4" width="6.08984375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.81640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="30.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="52" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
-        <v>594</v>
+    <row r="2" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>593</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>589</v>
-      </c>
-      <c r="D2" s="46" t="s">
+        <v>595</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="G2" s="47" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
-        <v>595</v>
+      <c r="G2" s="33" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>594</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>589</v>
-      </c>
-      <c r="D3" s="46" t="s">
+        <v>596</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="33" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:7" s="21" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>571</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -7786,161 +8646,173 @@
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="41" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="43" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="17" t="s">
+      <c r="D6" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="43" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
-        <v>592</v>
+      <c r="A7" s="6" t="s">
+        <v>591</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>589</v>
-      </c>
-      <c r="D7" s="46" t="s">
+        <v>596</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="33" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
-        <v>593</v>
+      <c r="A8" s="6" t="s">
+        <v>592</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>589</v>
-      </c>
-      <c r="D8" s="46" t="s">
+        <v>597</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="G8" s="47" t="s">
-        <v>591</v>
+      <c r="G8" s="33" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>588</v>
-      </c>
-      <c r="G9" s="43"/>
+      <c r="D9" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="49" t="s">
+      <c r="D10" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="29" t="s">
+      <c r="G10" s="43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="30" t="s">
+      <c r="D11" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="30"/>
+      <c r="G11" s="43" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
